--- a/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
+++ b/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
@@ -12,23 +12,20 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="10" r:id="rId1"/>
-    <sheet name="用户账户查询" sheetId="1" r:id="rId2"/>
-    <sheet name="用户登录" sheetId="2" r:id="rId3"/>
-    <sheet name="日程查询" sheetId="4" r:id="rId4"/>
-    <sheet name="日程创建" sheetId="5" r:id="rId5"/>
-    <sheet name="群组查询" sheetId="6" r:id="rId6"/>
-    <sheet name="查询单条个人日程信息" sheetId="7" r:id="rId7"/>
-    <sheet name="个人日程编辑" sheetId="8" r:id="rId8"/>
-    <sheet name="个人关注表创建" sheetId="9" r:id="rId9"/>
-    <sheet name="首页" sheetId="3" r:id="rId10"/>
+    <sheet name="一览" sheetId="10" r:id="rId1"/>
+    <sheet name="用户注册" sheetId="3" r:id="rId2"/>
+    <sheet name="用户账户查询" sheetId="1" r:id="rId3"/>
+    <sheet name="用户登录" sheetId="2" r:id="rId4"/>
+    <sheet name="日程查询" sheetId="4" r:id="rId5"/>
+    <sheet name="日程创建" sheetId="5" r:id="rId6"/>
+    <sheet name="群组查询" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="160">
   <si>
     <t>接口名</t>
   </si>
@@ -361,53 +358,211 @@
     <t>角色</t>
   </si>
   <si>
-    <t>查询单条个人日程信息</t>
-  </si>
-  <si>
-    <t>/schedule/findScheduleByOne/{scheduledId}</t>
-  </si>
-  <si>
-    <t>scheduledId</t>
-  </si>
-  <si>
-    <t>事件id</t>
-  </si>
-  <si>
-    <t>ScheduleData</t>
-  </si>
-  <si>
-    <t>/schedule/updateSchedule</t>
-  </si>
-  <si>
-    <t>事件类</t>
-  </si>
-  <si>
-    <t>FocusController</t>
-  </si>
-  <si>
-    <t>/gtd/focus/createFocus/</t>
-  </si>
-  <si>
-    <t>focusAllId</t>
-  </si>
-  <si>
-    <t>关注ID（组群，日程，用户）</t>
-  </si>
-  <si>
-    <t>focusType</t>
-  </si>
-  <si>
-    <t>关注类型（1组群，2日程，3用户）</t>
-  </si>
-  <si>
-    <t>1：成功，2：失败</t>
+    <t>用户注册</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/register</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：成功，1：失败,-1：后台出错</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountMobile</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountQq</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountPassword</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserInDto</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountWechat</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserInDto</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号/微信昵称/QQ昵称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登陆</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码修改</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信验证码获取</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户资料编辑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系人编辑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询群组</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组创建</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组编辑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组删除</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>群成员编辑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程查询</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程编辑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程删除</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程创建</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程发布</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程状态修改</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒时间设置</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>分手机号注册，第三方微信、QQ</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据手机号修改登陆密码/根据原密码修改</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆类型：0：手机号，1：微信，2：QQ</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机，QQ，微信三选一，一项必填</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机密码登陆</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方登陆</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,8 +603,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,8 +645,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -535,6 +712,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -543,7 +785,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -603,6 +845,59 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -611,12 +906,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -679,7 +968,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -714,7 +1003,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -923,34 +1212,2402 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E4" activeCellId="1" sqref="E3 E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.25" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="4" max="4" width="57.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="32" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="30">
+        <v>1</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="30">
+        <v>2</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="33"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="30">
+        <v>3</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="30">
+        <v>4</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="30">
+        <v>5</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="30">
+        <v>6</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="30">
+        <v>7</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="30">
+        <v>8</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="30">
+        <v>9</v>
+      </c>
+      <c r="B11" s="35"/>
+      <c r="C11" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="30">
+        <v>10</v>
+      </c>
+      <c r="B12" s="35"/>
+      <c r="C12" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="30">
+        <v>11</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="30">
+        <v>12</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="30">
+        <v>13</v>
+      </c>
+      <c r="B15" s="35"/>
+      <c r="C15" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="30">
+        <v>14</v>
+      </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="30">
+        <v>15</v>
+      </c>
+      <c r="B17" s="35"/>
+      <c r="C17" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="30">
+        <v>16</v>
+      </c>
+      <c r="B18" s="35"/>
+      <c r="C18" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="30">
+        <v>17</v>
+      </c>
+      <c r="B19" s="35"/>
+      <c r="C19" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="30">
+        <v>18</v>
+      </c>
+      <c r="B20" s="36"/>
+      <c r="C20" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="30">
+        <v>19</v>
+      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="30">
+        <v>20</v>
+      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="30">
+        <v>21</v>
+      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="30">
+        <v>22</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="30">
+        <v>23</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="30">
+        <v>24</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="30">
+        <v>25</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="30">
+        <v>26</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="30">
+        <v>27</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="30">
+        <v>29</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="30">
+        <v>30</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="30">
+        <v>31</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="30">
+        <v>32</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="30">
+        <v>33</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="31"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="31"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="31"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="31"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="31"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="31"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="31"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="31"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="31"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="31"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="31"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="31"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="31"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="31"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="31"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="31"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="31"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="31"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="31"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="31"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="31"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="31"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" s="31"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" s="31"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" s="31"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" s="31"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" s="31"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" s="31"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" s="31"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" s="31"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" s="31"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" s="31"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" s="31"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" s="31"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" s="31"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" s="31"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72" s="31"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" s="31"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74" s="31"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" s="31"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76" s="31"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" s="31"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78" s="31"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79" s="31"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80" s="31"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A81" s="31"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A82" s="31"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A83" s="31"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A84" s="31"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A85" s="31"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A86" s="31"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A87" s="31"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A88" s="31"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A89" s="31"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A90" s="31"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A91" s="31"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A92" s="31"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A93" s="31"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A94" s="31"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A95" s="31"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A96" s="31"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A97" s="31"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A98" s="31"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A99" s="31"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A100" s="31"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A101" s="31"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A102" s="31"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A103" s="31"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A104" s="31"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A105" s="31"/>
+      <c r="B105" s="13"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A106" s="31"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A107" s="31"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A108" s="31"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A109" s="31"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A110" s="31"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A111" s="31"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A112" s="31"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A113" s="31"/>
+      <c r="B113" s="13"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A114" s="31"/>
+      <c r="B114" s="13"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A115" s="31"/>
+      <c r="B115" s="13"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A116" s="31"/>
+      <c r="B116" s="13"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A117" s="31"/>
+      <c r="B117" s="13"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="13"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A118" s="31"/>
+      <c r="B118" s="13"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="13"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A119" s="31"/>
+      <c r="B119" s="13"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A120" s="31"/>
+      <c r="B120" s="13"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="13"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A121" s="31"/>
+      <c r="B121" s="13"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A122" s="31"/>
+      <c r="B122" s="13"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="13"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A123" s="31"/>
+      <c r="B123" s="13"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A124" s="31"/>
+      <c r="B124" s="13"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="13"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A125" s="31"/>
+      <c r="B125" s="13"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="13"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A126" s="31"/>
+      <c r="B126" s="13"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A127" s="31"/>
+      <c r="B127" s="13"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="13"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A128" s="31"/>
+      <c r="B128" s="13"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="13"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A129" s="31"/>
+      <c r="B129" s="13"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="13"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A130" s="31"/>
+      <c r="B130" s="13"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="13"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A131" s="31"/>
+      <c r="B131" s="13"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="13"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A132" s="31"/>
+      <c r="B132" s="13"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="13"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A133" s="31"/>
+      <c r="B133" s="13"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="13"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A134" s="31"/>
+      <c r="B134" s="13"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="13"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A135" s="31"/>
+      <c r="B135" s="13"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="13"/>
+      <c r="E135" s="13"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A136" s="31"/>
+      <c r="B136" s="13"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="13"/>
+      <c r="E136" s="13"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A137" s="31"/>
+      <c r="B137" s="13"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="13"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A138" s="31"/>
+      <c r="B138" s="13"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A139" s="31"/>
+      <c r="B139" s="13"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="13"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A140" s="31"/>
+      <c r="B140" s="13"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="13"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A141" s="31"/>
+      <c r="B141" s="13"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="13"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A142" s="31"/>
+      <c r="B142" s="13"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="13"/>
+      <c r="E142" s="13"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A143" s="31"/>
+      <c r="B143" s="13"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="13"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A144" s="31"/>
+      <c r="B144" s="13"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="13"/>
+      <c r="E144" s="13"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A145" s="31"/>
+      <c r="B145" s="13"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="13"/>
+      <c r="E145" s="13"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A146" s="31"/>
+      <c r="B146" s="13"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="13"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A147" s="31"/>
+      <c r="B147" s="13"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="13"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A148" s="31"/>
+      <c r="B148" s="13"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="13"/>
+      <c r="E148" s="13"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A149" s="31"/>
+      <c r="B149" s="13"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="13"/>
+      <c r="E149" s="13"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A150" s="31"/>
+      <c r="B150" s="13"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="13"/>
+      <c r="E150" s="13"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A151" s="31"/>
+      <c r="B151" s="13"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="13"/>
+      <c r="E151" s="13"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A152" s="31"/>
+      <c r="B152" s="13"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="13"/>
+      <c r="E152" s="13"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A153" s="31"/>
+      <c r="B153" s="13"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="13"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A154" s="31"/>
+      <c r="B154" s="13"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="13"/>
+      <c r="E154" s="13"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A155" s="31"/>
+      <c r="B155" s="13"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="13"/>
+      <c r="E155" s="13"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A156" s="31"/>
+      <c r="B156" s="13"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="13"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A157" s="31"/>
+      <c r="B157" s="13"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="13"/>
+      <c r="E157" s="13"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A158" s="31"/>
+      <c r="B158" s="13"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="13"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A159" s="31"/>
+      <c r="B159" s="13"/>
+      <c r="C159" s="13"/>
+      <c r="D159" s="13"/>
+      <c r="E159" s="13"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A160" s="31"/>
+      <c r="B160" s="13"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="13"/>
+      <c r="E160" s="13"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A161" s="31"/>
+      <c r="B161" s="13"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="13"/>
+      <c r="E161" s="13"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A162" s="31"/>
+      <c r="B162" s="13"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="13"/>
+      <c r="E162" s="13"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A163" s="31"/>
+      <c r="B163" s="13"/>
+      <c r="C163" s="13"/>
+      <c r="D163" s="13"/>
+      <c r="E163" s="13"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A164" s="31"/>
+      <c r="B164" s="13"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="13"/>
+      <c r="E164" s="13"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A165" s="31"/>
+      <c r="B165" s="13"/>
+      <c r="C165" s="13"/>
+      <c r="D165" s="13"/>
+      <c r="E165" s="13"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A166" s="31"/>
+      <c r="B166" s="13"/>
+      <c r="C166" s="13"/>
+      <c r="D166" s="13"/>
+      <c r="E166" s="13"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A167" s="31"/>
+      <c r="B167" s="13"/>
+      <c r="C167" s="13"/>
+      <c r="D167" s="13"/>
+      <c r="E167" s="13"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A168" s="31"/>
+      <c r="B168" s="13"/>
+      <c r="C168" s="13"/>
+      <c r="D168" s="13"/>
+      <c r="E168" s="13"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A169" s="31"/>
+      <c r="B169" s="13"/>
+      <c r="C169" s="13"/>
+      <c r="D169" s="13"/>
+      <c r="E169" s="13"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A170" s="31"/>
+      <c r="B170" s="13"/>
+      <c r="C170" s="13"/>
+      <c r="D170" s="13"/>
+      <c r="E170" s="13"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A171" s="31"/>
+      <c r="B171" s="13"/>
+      <c r="C171" s="13"/>
+      <c r="D171" s="13"/>
+      <c r="E171" s="13"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A172" s="31"/>
+      <c r="B172" s="13"/>
+      <c r="C172" s="13"/>
+      <c r="D172" s="13"/>
+      <c r="E172" s="13"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A173" s="31"/>
+      <c r="B173" s="13"/>
+      <c r="C173" s="13"/>
+      <c r="D173" s="13"/>
+      <c r="E173" s="13"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A174" s="31"/>
+      <c r="B174" s="13"/>
+      <c r="C174" s="13"/>
+      <c r="D174" s="13"/>
+      <c r="E174" s="13"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A175" s="31"/>
+      <c r="B175" s="13"/>
+      <c r="C175" s="13"/>
+      <c r="D175" s="13"/>
+      <c r="E175" s="13"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A176" s="31"/>
+      <c r="B176" s="13"/>
+      <c r="C176" s="13"/>
+      <c r="D176" s="13"/>
+      <c r="E176" s="13"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A177" s="31"/>
+      <c r="B177" s="13"/>
+      <c r="C177" s="13"/>
+      <c r="D177" s="13"/>
+      <c r="E177" s="13"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A178" s="31"/>
+      <c r="B178" s="13"/>
+      <c r="C178" s="13"/>
+      <c r="D178" s="13"/>
+      <c r="E178" s="13"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A179" s="31"/>
+      <c r="B179" s="13"/>
+      <c r="C179" s="13"/>
+      <c r="D179" s="13"/>
+      <c r="E179" s="13"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A180" s="31"/>
+      <c r="B180" s="13"/>
+      <c r="C180" s="13"/>
+      <c r="D180" s="13"/>
+      <c r="E180" s="13"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A181" s="31"/>
+      <c r="B181" s="13"/>
+      <c r="C181" s="13"/>
+      <c r="D181" s="13"/>
+      <c r="E181" s="13"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A182" s="31"/>
+      <c r="B182" s="13"/>
+      <c r="C182" s="13"/>
+      <c r="D182" s="13"/>
+      <c r="E182" s="13"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A183" s="31"/>
+      <c r="B183" s="13"/>
+      <c r="C183" s="13"/>
+      <c r="D183" s="13"/>
+      <c r="E183" s="13"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A184" s="31"/>
+      <c r="B184" s="13"/>
+      <c r="C184" s="13"/>
+      <c r="D184" s="13"/>
+      <c r="E184" s="13"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A185" s="31"/>
+      <c r="B185" s="13"/>
+      <c r="C185" s="13"/>
+      <c r="D185" s="13"/>
+      <c r="E185" s="13"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A186" s="31"/>
+      <c r="B186" s="13"/>
+      <c r="C186" s="13"/>
+      <c r="D186" s="13"/>
+      <c r="E186" s="13"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A187" s="31"/>
+      <c r="B187" s="13"/>
+      <c r="C187" s="13"/>
+      <c r="D187" s="13"/>
+      <c r="E187" s="13"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A188" s="31"/>
+      <c r="B188" s="13"/>
+      <c r="C188" s="13"/>
+      <c r="D188" s="13"/>
+      <c r="E188" s="13"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A189" s="31"/>
+      <c r="B189" s="13"/>
+      <c r="C189" s="13"/>
+      <c r="D189" s="13"/>
+      <c r="E189" s="13"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A190" s="31"/>
+      <c r="B190" s="13"/>
+      <c r="C190" s="13"/>
+      <c r="D190" s="13"/>
+      <c r="E190" s="13"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A191" s="31"/>
+      <c r="B191" s="13"/>
+      <c r="C191" s="13"/>
+      <c r="D191" s="13"/>
+      <c r="E191" s="13"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A192" s="31"/>
+      <c r="B192" s="13"/>
+      <c r="C192" s="13"/>
+      <c r="D192" s="13"/>
+      <c r="E192" s="13"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A193" s="31"/>
+      <c r="B193" s="13"/>
+      <c r="C193" s="13"/>
+      <c r="D193" s="13"/>
+      <c r="E193" s="13"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A194" s="31"/>
+      <c r="B194" s="13"/>
+      <c r="C194" s="13"/>
+      <c r="D194" s="13"/>
+      <c r="E194" s="13"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A195" s="31"/>
+      <c r="B195" s="13"/>
+      <c r="C195" s="13"/>
+      <c r="D195" s="13"/>
+      <c r="E195" s="13"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A196" s="31"/>
+      <c r="B196" s="13"/>
+      <c r="C196" s="13"/>
+      <c r="D196" s="13"/>
+      <c r="E196" s="13"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A197" s="31"/>
+      <c r="B197" s="13"/>
+      <c r="C197" s="13"/>
+      <c r="D197" s="13"/>
+      <c r="E197" s="13"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A198" s="31"/>
+      <c r="B198" s="13"/>
+      <c r="C198" s="13"/>
+      <c r="D198" s="13"/>
+      <c r="E198" s="13"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A199" s="31"/>
+      <c r="B199" s="13"/>
+      <c r="C199" s="13"/>
+      <c r="D199" s="13"/>
+      <c r="E199" s="13"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A200" s="31"/>
+      <c r="B200" s="13"/>
+      <c r="C200" s="13"/>
+      <c r="D200" s="13"/>
+      <c r="E200" s="13"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A201" s="31"/>
+      <c r="B201" s="13"/>
+      <c r="C201" s="13"/>
+      <c r="D201" s="13"/>
+      <c r="E201" s="13"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A202" s="31"/>
+      <c r="B202" s="13"/>
+      <c r="C202" s="13"/>
+      <c r="D202" s="13"/>
+      <c r="E202" s="13"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A203" s="31"/>
+      <c r="B203" s="13"/>
+      <c r="C203" s="13"/>
+      <c r="D203" s="13"/>
+      <c r="E203" s="13"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A204" s="31"/>
+      <c r="B204" s="13"/>
+      <c r="C204" s="13"/>
+      <c r="D204" s="13"/>
+      <c r="E204" s="13"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A205" s="31"/>
+      <c r="B205" s="13"/>
+      <c r="C205" s="13"/>
+      <c r="D205" s="13"/>
+      <c r="E205" s="13"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A206" s="31"/>
+      <c r="B206" s="13"/>
+      <c r="C206" s="13"/>
+      <c r="D206" s="13"/>
+      <c r="E206" s="13"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A207" s="31"/>
+      <c r="B207" s="13"/>
+      <c r="C207" s="13"/>
+      <c r="D207" s="13"/>
+      <c r="E207" s="13"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A208" s="31"/>
+      <c r="B208" s="13"/>
+      <c r="C208" s="13"/>
+      <c r="D208" s="13"/>
+      <c r="E208" s="13"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A209" s="31"/>
+      <c r="B209" s="13"/>
+      <c r="C209" s="13"/>
+      <c r="D209" s="13"/>
+      <c r="E209" s="13"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A210" s="31"/>
+      <c r="B210" s="13"/>
+      <c r="C210" s="13"/>
+      <c r="D210" s="13"/>
+      <c r="E210" s="13"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A211" s="31"/>
+      <c r="B211" s="13"/>
+      <c r="C211" s="13"/>
+      <c r="D211" s="13"/>
+      <c r="E211" s="13"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A212" s="31"/>
+      <c r="B212" s="13"/>
+      <c r="C212" s="13"/>
+      <c r="D212" s="13"/>
+      <c r="E212" s="13"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A213" s="31"/>
+      <c r="B213" s="13"/>
+      <c r="C213" s="13"/>
+      <c r="D213" s="13"/>
+      <c r="E213" s="13"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A214" s="31"/>
+      <c r="B214" s="13"/>
+      <c r="C214" s="13"/>
+      <c r="D214" s="13"/>
+      <c r="E214" s="13"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A215" s="31"/>
+      <c r="B215" s="13"/>
+      <c r="C215" s="13"/>
+      <c r="D215" s="13"/>
+      <c r="E215" s="13"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A216" s="31"/>
+      <c r="B216" s="13"/>
+      <c r="C216" s="13"/>
+      <c r="D216" s="13"/>
+      <c r="E216" s="13"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A217" s="31"/>
+      <c r="B217" s="13"/>
+      <c r="C217" s="13"/>
+      <c r="D217" s="13"/>
+      <c r="E217" s="13"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A218" s="31"/>
+      <c r="B218" s="13"/>
+      <c r="C218" s="13"/>
+      <c r="D218" s="13"/>
+      <c r="E218" s="13"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A219" s="31"/>
+      <c r="B219" s="13"/>
+      <c r="C219" s="13"/>
+      <c r="D219" s="13"/>
+      <c r="E219" s="13"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A220" s="31"/>
+      <c r="B220" s="13"/>
+      <c r="C220" s="13"/>
+      <c r="D220" s="13"/>
+      <c r="E220" s="13"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A221" s="31"/>
+      <c r="B221" s="13"/>
+      <c r="C221" s="13"/>
+      <c r="D221" s="13"/>
+      <c r="E221" s="13"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A222" s="31"/>
+      <c r="B222" s="13"/>
+      <c r="C222" s="13"/>
+      <c r="D222" s="13"/>
+      <c r="E222" s="13"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A223" s="31"/>
+      <c r="B223" s="13"/>
+      <c r="C223" s="13"/>
+      <c r="D223" s="13"/>
+      <c r="E223" s="13"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A224" s="31"/>
+      <c r="B224" s="13"/>
+      <c r="C224" s="13"/>
+      <c r="D224" s="13"/>
+      <c r="E224" s="13"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A225" s="31"/>
+      <c r="B225" s="13"/>
+      <c r="C225" s="13"/>
+      <c r="D225" s="13"/>
+      <c r="E225" s="13"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A226" s="31"/>
+      <c r="B226" s="13"/>
+      <c r="C226" s="13"/>
+      <c r="D226" s="13"/>
+      <c r="E226" s="13"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A227" s="31"/>
+      <c r="B227" s="13"/>
+      <c r="C227" s="13"/>
+      <c r="D227" s="13"/>
+      <c r="E227" s="13"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A228" s="31"/>
+      <c r="B228" s="13"/>
+      <c r="C228" s="13"/>
+      <c r="D228" s="13"/>
+      <c r="E228" s="13"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A229" s="31"/>
+      <c r="B229" s="13"/>
+      <c r="C229" s="13"/>
+      <c r="D229" s="13"/>
+      <c r="E229" s="13"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A230" s="31"/>
+      <c r="B230" s="13"/>
+      <c r="C230" s="13"/>
+      <c r="D230" s="13"/>
+      <c r="E230" s="13"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A231" s="31"/>
+      <c r="B231" s="13"/>
+      <c r="C231" s="13"/>
+      <c r="D231" s="13"/>
+      <c r="E231" s="13"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A232" s="31"/>
+      <c r="B232" s="13"/>
+      <c r="C232" s="13"/>
+      <c r="D232" s="13"/>
+      <c r="E232" s="13"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A233" s="31"/>
+      <c r="B233" s="13"/>
+      <c r="C233" s="13"/>
+      <c r="D233" s="13"/>
+      <c r="E233" s="13"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A234" s="31"/>
+      <c r="B234" s="13"/>
+      <c r="C234" s="13"/>
+      <c r="D234" s="13"/>
+      <c r="E234" s="13"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A235" s="31"/>
+      <c r="B235" s="13"/>
+      <c r="C235" s="13"/>
+      <c r="D235" s="13"/>
+      <c r="E235" s="13"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A236" s="31"/>
+      <c r="B236" s="13"/>
+      <c r="C236" s="13"/>
+      <c r="D236" s="13"/>
+      <c r="E236" s="13"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A237" s="31"/>
+      <c r="B237" s="13"/>
+      <c r="C237" s="13"/>
+      <c r="D237" s="13"/>
+      <c r="E237" s="13"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A238" s="31"/>
+      <c r="B238" s="13"/>
+      <c r="C238" s="13"/>
+      <c r="D238" s="13"/>
+      <c r="E238" s="13"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A239" s="31"/>
+      <c r="B239" s="13"/>
+      <c r="C239" s="13"/>
+      <c r="D239" s="13"/>
+      <c r="E239" s="13"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A240" s="31"/>
+      <c r="B240" s="13"/>
+      <c r="C240" s="13"/>
+      <c r="D240" s="13"/>
+      <c r="E240" s="13"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A241" s="31"/>
+      <c r="B241" s="13"/>
+      <c r="C241" s="13"/>
+      <c r="D241" s="13"/>
+      <c r="E241" s="13"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A242" s="31"/>
+      <c r="B242" s="13"/>
+      <c r="C242" s="13"/>
+      <c r="D242" s="13"/>
+      <c r="E242" s="13"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A243" s="31"/>
+      <c r="B243" s="13"/>
+      <c r="C243" s="13"/>
+      <c r="D243" s="13"/>
+      <c r="E243" s="13"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A244" s="31"/>
+      <c r="B244" s="13"/>
+      <c r="C244" s="13"/>
+      <c r="D244" s="13"/>
+      <c r="E244" s="13"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A245" s="31"/>
+      <c r="B245" s="13"/>
+      <c r="C245" s="13"/>
+      <c r="D245" s="13"/>
+      <c r="E245" s="13"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A246" s="31"/>
+      <c r="B246" s="13"/>
+      <c r="C246" s="13"/>
+      <c r="D246" s="13"/>
+      <c r="E246" s="13"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A247" s="31"/>
+      <c r="B247" s="13"/>
+      <c r="C247" s="13"/>
+      <c r="D247" s="13"/>
+      <c r="E247" s="13"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A248" s="31"/>
+      <c r="B248" s="13"/>
+      <c r="C248" s="13"/>
+      <c r="D248" s="13"/>
+      <c r="E248" s="13"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A249" s="31"/>
+      <c r="B249" s="13"/>
+      <c r="C249" s="13"/>
+      <c r="D249" s="13"/>
+      <c r="E249" s="13"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A250" s="31"/>
+      <c r="B250" s="13"/>
+      <c r="C250" s="13"/>
+      <c r="D250" s="13"/>
+      <c r="E250" s="13"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A251" s="31"/>
+      <c r="B251" s="13"/>
+      <c r="C251" s="13"/>
+      <c r="D251" s="13"/>
+      <c r="E251" s="13"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A252" s="31"/>
+      <c r="B252" s="13"/>
+      <c r="C252" s="13"/>
+      <c r="D252" s="13"/>
+      <c r="E252" s="13"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A253" s="31"/>
+      <c r="B253" s="13"/>
+      <c r="C253" s="13"/>
+      <c r="D253" s="13"/>
+      <c r="E253" s="13"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A254" s="31"/>
+      <c r="B254" s="13"/>
+      <c r="C254" s="13"/>
+      <c r="D254" s="13"/>
+      <c r="E254" s="13"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A255" s="31"/>
+      <c r="B255" s="13"/>
+      <c r="C255" s="13"/>
+      <c r="D255" s="13"/>
+      <c r="E255" s="13"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A256" s="31"/>
+      <c r="B256" s="13"/>
+      <c r="C256" s="13"/>
+      <c r="D256" s="13"/>
+      <c r="E256" s="13"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A257" s="31"/>
+      <c r="B257" s="13"/>
+      <c r="C257" s="13"/>
+      <c r="D257" s="13"/>
+      <c r="E257" s="13"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A258" s="31"/>
+      <c r="B258" s="13"/>
+      <c r="C258" s="13"/>
+      <c r="D258" s="13"/>
+      <c r="E258" s="13"/>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A259" s="31"/>
+      <c r="B259" s="13"/>
+      <c r="C259" s="13"/>
+      <c r="D259" s="13"/>
+      <c r="E259" s="13"/>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A260" s="31"/>
+      <c r="B260" s="13"/>
+      <c r="C260" s="13"/>
+      <c r="D260" s="13"/>
+      <c r="E260" s="13"/>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A261" s="31"/>
+      <c r="B261" s="13"/>
+      <c r="C261" s="13"/>
+      <c r="D261" s="13"/>
+      <c r="E261" s="13"/>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A262" s="31"/>
+      <c r="B262" s="13"/>
+      <c r="C262" s="13"/>
+      <c r="D262" s="13"/>
+      <c r="E262" s="13"/>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A263" s="31"/>
+      <c r="B263" s="13"/>
+      <c r="C263" s="13"/>
+      <c r="D263" s="13"/>
+      <c r="E263" s="13"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A264" s="31"/>
+      <c r="B264" s="13"/>
+      <c r="C264" s="13"/>
+      <c r="D264" s="13"/>
+      <c r="E264" s="13"/>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A265" s="31"/>
+      <c r="B265" s="13"/>
+      <c r="C265" s="13"/>
+      <c r="D265" s="13"/>
+      <c r="E265" s="13"/>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A266" s="31"/>
+      <c r="B266" s="13"/>
+      <c r="C266" s="13"/>
+      <c r="D266" s="13"/>
+      <c r="E266" s="13"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A267" s="31"/>
+      <c r="B267" s="13"/>
+      <c r="C267" s="13"/>
+      <c r="D267" s="13"/>
+      <c r="E267" s="13"/>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A268" s="31"/>
+      <c r="B268" s="13"/>
+      <c r="C268" s="13"/>
+      <c r="D268" s="13"/>
+      <c r="E268" s="13"/>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A269" s="31"/>
+      <c r="B269" s="13"/>
+      <c r="C269" s="13"/>
+      <c r="D269" s="13"/>
+      <c r="E269" s="13"/>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A270" s="31"/>
+      <c r="B270" s="13"/>
+      <c r="C270" s="13"/>
+      <c r="D270" s="13"/>
+      <c r="E270" s="13"/>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A271" s="31"/>
+      <c r="B271" s="13"/>
+      <c r="C271" s="13"/>
+      <c r="D271" s="13"/>
+      <c r="E271" s="13"/>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A272" s="31"/>
+      <c r="B272" s="13"/>
+      <c r="C272" s="13"/>
+      <c r="D272" s="13"/>
+      <c r="E272" s="13"/>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A273" s="31"/>
+      <c r="B273" s="13"/>
+      <c r="C273" s="13"/>
+      <c r="D273" s="13"/>
+      <c r="E273" s="13"/>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A274" s="31"/>
+      <c r="B274" s="13"/>
+      <c r="C274" s="13"/>
+      <c r="D274" s="13"/>
+      <c r="E274" s="13"/>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A275" s="31"/>
+      <c r="B275" s="13"/>
+      <c r="C275" s="13"/>
+      <c r="D275" s="13"/>
+      <c r="E275" s="13"/>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A276" s="31"/>
+      <c r="B276" s="13"/>
+      <c r="C276" s="13"/>
+      <c r="D276" s="13"/>
+      <c r="E276" s="13"/>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A277" s="31"/>
+      <c r="B277" s="13"/>
+      <c r="C277" s="13"/>
+      <c r="D277" s="13"/>
+      <c r="E277" s="13"/>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A278" s="31"/>
+      <c r="B278" s="13"/>
+      <c r="C278" s="13"/>
+      <c r="D278" s="13"/>
+      <c r="E278" s="13"/>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A279" s="31"/>
+      <c r="B279" s="13"/>
+      <c r="C279" s="13"/>
+      <c r="D279" s="13"/>
+      <c r="E279" s="13"/>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A280" s="31"/>
+      <c r="B280" s="13"/>
+      <c r="C280" s="13"/>
+      <c r="D280" s="13"/>
+      <c r="E280" s="13"/>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A281" s="31"/>
+      <c r="B281" s="13"/>
+      <c r="C281" s="13"/>
+      <c r="D281" s="13"/>
+      <c r="E281" s="13"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A282" s="31"/>
+      <c r="B282" s="13"/>
+      <c r="C282" s="13"/>
+      <c r="D282" s="13"/>
+      <c r="E282" s="13"/>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A283" s="31"/>
+      <c r="B283" s="13"/>
+      <c r="C283" s="13"/>
+      <c r="D283" s="13"/>
+      <c r="E283" s="13"/>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A284" s="31"/>
+      <c r="B284" s="13"/>
+      <c r="C284" s="13"/>
+      <c r="D284" s="13"/>
+      <c r="E284" s="13"/>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A285" s="31"/>
+      <c r="B285" s="13"/>
+      <c r="C285" s="13"/>
+      <c r="D285" s="13"/>
+      <c r="E285" s="13"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A286" s="31"/>
+      <c r="B286" s="13"/>
+      <c r="C286" s="13"/>
+      <c r="D286" s="13"/>
+      <c r="E286" s="13"/>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A287" s="31"/>
+      <c r="B287" s="13"/>
+      <c r="C287" s="13"/>
+      <c r="D287" s="13"/>
+      <c r="E287" s="13"/>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A288" s="31"/>
+      <c r="B288" s="13"/>
+      <c r="C288" s="13"/>
+      <c r="D288" s="13"/>
+      <c r="E288" s="13"/>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A289" s="31"/>
+      <c r="B289" s="13"/>
+      <c r="C289" s="13"/>
+      <c r="D289" s="13"/>
+      <c r="E289" s="13"/>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A290" s="31"/>
+      <c r="B290" s="13"/>
+      <c r="C290" s="13"/>
+      <c r="D290" s="13"/>
+      <c r="E290" s="13"/>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A291" s="31"/>
+      <c r="B291" s="13"/>
+      <c r="C291" s="13"/>
+      <c r="D291" s="13"/>
+      <c r="E291" s="13"/>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A292" s="31"/>
+      <c r="B292" s="13"/>
+      <c r="C292" s="13"/>
+      <c r="D292" s="13"/>
+      <c r="E292" s="13"/>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A293" s="31"/>
+      <c r="B293" s="13"/>
+      <c r="C293" s="13"/>
+      <c r="D293" s="13"/>
+      <c r="E293" s="13"/>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A294" s="31"/>
+      <c r="B294" s="13"/>
+      <c r="C294" s="13"/>
+      <c r="D294" s="13"/>
+      <c r="E294" s="13"/>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A295" s="31"/>
+      <c r="B295" s="13"/>
+      <c r="C295" s="13"/>
+      <c r="D295" s="13"/>
+      <c r="E295" s="13"/>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A296" s="31"/>
+      <c r="B296" s="13"/>
+      <c r="C296" s="13"/>
+      <c r="D296" s="13"/>
+      <c r="E296" s="13"/>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A297" s="31"/>
+      <c r="B297" s="13"/>
+      <c r="C297" s="13"/>
+      <c r="D297" s="13"/>
+      <c r="E297" s="13"/>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A298" s="31"/>
+      <c r="B298" s="13"/>
+      <c r="C298" s="13"/>
+      <c r="D298" s="13"/>
+      <c r="E298" s="13"/>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A299" s="31"/>
+      <c r="B299" s="13"/>
+      <c r="C299" s="13"/>
+      <c r="D299" s="13"/>
+      <c r="E299" s="13"/>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A300" s="31"/>
+      <c r="B300" s="13"/>
+      <c r="C300" s="13"/>
+      <c r="D300" s="13"/>
+      <c r="E300" s="13"/>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A301" s="31"/>
+      <c r="B301" s="13"/>
+      <c r="C301" s="13"/>
+      <c r="D301" s="13"/>
+      <c r="E301" s="13"/>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A302" s="31"/>
+      <c r="B302" s="13"/>
+      <c r="C302" s="13"/>
+      <c r="D302" s="13"/>
+      <c r="E302" s="13"/>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A303" s="31"/>
+      <c r="B303" s="13"/>
+      <c r="C303" s="13"/>
+      <c r="D303" s="13"/>
+      <c r="E303" s="13"/>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A304" s="31"/>
+      <c r="B304" s="13"/>
+      <c r="C304" s="13"/>
+      <c r="D304" s="13"/>
+      <c r="E304" s="13"/>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A305" s="31"/>
+      <c r="B305" s="13"/>
+      <c r="C305" s="13"/>
+      <c r="D305" s="13"/>
+      <c r="E305" s="13"/>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A306" s="31"/>
+      <c r="B306" s="13"/>
+      <c r="C306" s="13"/>
+      <c r="D306" s="13"/>
+      <c r="E306" s="13"/>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A307" s="31"/>
+      <c r="B307" s="13"/>
+      <c r="C307" s="13"/>
+      <c r="D307" s="13"/>
+      <c r="E307" s="13"/>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A308" s="31"/>
+      <c r="B308" s="13"/>
+      <c r="C308" s="13"/>
+      <c r="D308" s="13"/>
+      <c r="E308" s="13"/>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A309" s="31"/>
+      <c r="B309" s="13"/>
+      <c r="C309" s="13"/>
+      <c r="D309" s="13"/>
+      <c r="E309" s="13"/>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A310" s="31"/>
+      <c r="B310" s="13"/>
+      <c r="C310" s="13"/>
+      <c r="D310" s="13"/>
+      <c r="E310" s="13"/>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A311" s="31"/>
+      <c r="B311" s="13"/>
+      <c r="C311" s="13"/>
+      <c r="D311" s="13"/>
+      <c r="E311" s="13"/>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A312" s="31"/>
+      <c r="B312" s="13"/>
+      <c r="C312" s="13"/>
+      <c r="D312" s="13"/>
+      <c r="E312" s="13"/>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A313" s="31"/>
+      <c r="B313" s="13"/>
+      <c r="C313" s="13"/>
+      <c r="D313" s="13"/>
+      <c r="E313" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B20"/>
+  </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="23.75" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="16.875" customWidth="1"/>
-    <col min="5" max="5" width="23.25" customWidth="1"/>
-    <col min="6" max="6" width="38" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="24" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="24" customWidth="1"/>
+    <col min="6" max="6" width="41.125" customWidth="1"/>
+    <col min="7" max="7" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -958,13 +3615,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -974,63 +3631,63 @@
         <v>3</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="42"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="7" t="s">
         <v>14</v>
       </c>
@@ -1045,167 +3702,189 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
+      <c r="A8" s="25" t="s">
+        <v>119</v>
+      </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>51</v>
-      </c>
+      <c r="D8" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="26"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>51</v>
-      </c>
+      <c r="D9" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="A11" s="9"/>
+      <c r="B11" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+      <c r="B12" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="26" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+      <c r="B13" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+      <c r="B14" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="A17" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+      <c r="A18" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+      <c r="G19" s="23"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="G20" s="23"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="7" t="s">
         <v>14</v>
       </c>
@@ -1225,14 +3904,14 @@
         <v>42</v>
       </c>
       <c r="C23" s="12"/>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="10"/>
+      <c r="E23" s="23"/>
       <c r="F23" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="G23" s="10"/>
+        <v>113</v>
+      </c>
+      <c r="G23" s="23"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="11"/>
@@ -1240,30 +3919,31 @@
         <v>44</v>
       </c>
       <c r="C24" s="12"/>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="10"/>
+      <c r="E24" s="23"/>
       <c r="F24" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="10"/>
+      <c r="G24" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:C18"/>
     <mergeCell ref="A21:C21"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L48"/>
   <sheetViews>
@@ -1320,15 +4000,15 @@
     </row>
     <row r="6" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42"/>
       <c r="I7" s="16" t="s">
         <v>9</v>
       </c>
@@ -1343,11 +4023,11 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
@@ -1404,26 +4084,26 @@
       <c r="L10" s="20"/>
     </row>
     <row r="11" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="42"/>
       <c r="I11" s="18"/>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
     </row>
     <row r="12" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="7" t="s">
         <v>14</v>
       </c>
@@ -1557,22 +4237,22 @@
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="7" t="s">
         <v>14</v>
       </c>
@@ -1653,7 +4333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
@@ -1775,15 +4455,15 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42"/>
       <c r="H7" s="2"/>
       <c r="I7" s="16"/>
       <c r="J7" s="17"/>
@@ -1791,11 +4471,11 @@
       <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
@@ -1859,15 +4539,15 @@
       <c r="L10" s="20"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="42"/>
       <c r="H11" s="2"/>
       <c r="I11" s="18"/>
       <c r="J11" s="20"/>
@@ -1875,11 +4555,11 @@
       <c r="L11" s="20"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2029,11 +4709,11 @@
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="7"/>
@@ -2045,11 +4725,11 @@
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="7" t="s">
         <v>14</v>
       </c>
@@ -2122,7 +4802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
@@ -2209,22 +4889,22 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
@@ -2256,22 +4936,22 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="42"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="7" t="s">
         <v>14</v>
       </c>
@@ -2371,22 +5051,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="7" t="s">
         <v>14</v>
       </c>
@@ -2444,7 +5124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
@@ -2532,22 +5212,22 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
@@ -2809,22 +5489,22 @@
       <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="42"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="7" t="s">
         <v>14</v>
       </c>
@@ -2911,22 +5591,22 @@
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
       <c r="D37" s="7" t="s">
         <v>14</v>
       </c>
@@ -2984,7 +5664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
@@ -3071,22 +5751,22 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
@@ -3116,22 +5796,22 @@
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="42"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="7" t="s">
         <v>14</v>
       </c>
@@ -3252,22 +5932,22 @@
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="7" t="s">
         <v>14</v>
       </c>
@@ -3323,815 +6003,4 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
-    <col min="6" max="6" width="28.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A12:C12"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="22.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A12:C12"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="38.125" customWidth="1"/>
-    <col min="6" max="6" width="28.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A22:C22"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
 </file>
--- a/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
+++ b/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="180">
   <si>
     <t>接口名</t>
   </si>
@@ -454,107 +454,187 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>群组创建</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组编辑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组删除</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>群成员编辑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程查询</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程删除</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程创建</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程发布</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程状态修改</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒时间设置</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>分手机号注册，第三方微信、QQ</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据手机号修改登陆密码/根据原密码修改</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆类型：0：手机号，1：微信，2：QQ</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机，QQ，微信三选一，一项必填</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机密码登陆</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方登陆</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>担当</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程撤回</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出群组</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音助手语音接口</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音助手手动接口</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/27-8/29</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/5-9/6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/30-8/31</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/3-9/4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/6-9/7</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/10-9/10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/27-8/29</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/3-9/4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程编辑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/6-9/7</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/7-9/10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/10-9/12</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/12-9/13</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>查询群组</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>群组创建</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>群组编辑</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>群组删除</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>群成员编辑</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程查询</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程编辑</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程删除</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程创建</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程发布</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>类别</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程状态修改</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>提醒时间设置</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>分手机号注册，第三方微信、QQ</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据手机号修改登陆密码/根据原密码修改</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginType</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆类型：0：手机号，1：微信，2：QQ</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机，QQ，微信三选一，一项必填</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机密码登陆</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三方登陆</t>
+    <t>8/30-8/31</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -574,6 +654,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -581,12 +662,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -595,11 +678,13 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -785,7 +870,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -880,6 +965,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -906,6 +994,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1212,10 +1315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E313"/>
+  <dimension ref="A1:G315"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" activeCellId="1" sqref="E3 E4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1224,2368 +1327,3064 @@
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="20.125" customWidth="1"/>
     <col min="4" max="4" width="57.25" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="32" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="32" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B1" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="30">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>125</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>126</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+      <c r="F2" s="45"/>
+      <c r="G2" s="28"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="30">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="27" t="s">
         <v>127</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="F3" s="45"/>
+      <c r="G3" s="28"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="33"/>
-      <c r="B4" s="35"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="F4" s="45"/>
+      <c r="G4" s="28"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="30">
         <v>3</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="27" t="s">
         <v>128</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="F5" s="45"/>
+      <c r="G5" s="28"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="30">
         <v>4</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="27" t="s">
         <v>129</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="F6" s="45"/>
+      <c r="G6" s="28"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="30">
         <v>5</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="27" t="s">
         <v>130</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="F7" s="45"/>
+      <c r="G7" s="28"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="30">
         <v>6</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="27" t="s">
         <v>131</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="F8" s="45"/>
+      <c r="G8" s="28"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="30">
         <v>7</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="38" t="s">
         <v>132</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" s="28"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="30">
         <v>8</v>
       </c>
-      <c r="B10" s="35"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="G10" s="28"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="30">
         <v>9</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="G11" s="28"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="30">
         <v>10</v>
       </c>
-      <c r="B12" s="35"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="30">
-        <v>11</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" s="28"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="34"/>
       <c r="B13" s="36"/>
       <c r="C13" s="27" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="G13" s="28"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="30">
-        <v>12</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>133</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B14" s="37"/>
       <c r="C14" s="27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="28"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="30">
+        <v>12</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="G15" s="28"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="30">
         <v>13</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="30">
-        <v>14</v>
-      </c>
-      <c r="B16" s="35"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="27"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="30">
-        <v>15</v>
-      </c>
-      <c r="B17" s="35"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="36"/>
       <c r="C17" s="27" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" s="28"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="30">
-        <v>16</v>
-      </c>
-      <c r="B18" s="35"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="36"/>
       <c r="C18" s="27" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="30">
-        <v>17</v>
-      </c>
-      <c r="B19" s="35"/>
+        <v>146</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" s="28"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="34"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="27" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="G19" s="28"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="30">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" s="36"/>
       <c r="C20" s="27" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="G20" s="28"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="30">
+        <v>17</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" s="28"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="30">
+        <v>18</v>
+      </c>
+      <c r="B22" s="37"/>
+      <c r="C22" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="G22" s="28"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="30">
         <v>19</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="30">
+      <c r="B23" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="F23" s="46"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="30">
         <v>20</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="30">
+      <c r="B24" s="37"/>
+      <c r="C24" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" s="46"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="30">
         <v>21</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="30">
-        <v>22</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="30">
-        <v>23</v>
-      </c>
-      <c r="B25" s="13"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F25" s="46"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="30">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F26" s="46"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="30">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F27" s="46"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="30">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F28" s="46"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="30">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F29" s="46"/>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="30">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F30" s="46"/>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="30">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F31" s="46"/>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="30">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F32" s="46"/>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="30">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F33" s="46"/>
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="30">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F34" s="46"/>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="30">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="31"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="30">
+        <v>32</v>
+      </c>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="31"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="30">
+        <v>33</v>
+      </c>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F37" s="46"/>
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="31"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F38" s="46"/>
+      <c r="G38" s="13"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="31"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F39" s="46"/>
+      <c r="G39" s="13"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="31"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F40" s="46"/>
+      <c r="G40" s="13"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="31"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F41" s="46"/>
+      <c r="G41" s="13"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="31"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F42" s="46"/>
+      <c r="G42" s="13"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="31"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F43" s="46"/>
+      <c r="G43" s="13"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="31"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F44" s="46"/>
+      <c r="G44" s="13"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="31"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F45" s="46"/>
+      <c r="G45" s="13"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="31"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F46" s="46"/>
+      <c r="G46" s="13"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="31"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F47" s="46"/>
+      <c r="G47" s="13"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="31"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F48" s="46"/>
+      <c r="G48" s="13"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="31"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F49" s="46"/>
+      <c r="G49" s="13"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="31"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F50" s="46"/>
+      <c r="G50" s="13"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="31"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F51" s="46"/>
+      <c r="G51" s="13"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="31"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F52" s="46"/>
+      <c r="G52" s="13"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="31"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F53" s="46"/>
+      <c r="G53" s="13"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="31"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F54" s="46"/>
+      <c r="G54" s="13"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="31"/>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F55" s="46"/>
+      <c r="G55" s="13"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="31"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F56" s="46"/>
+      <c r="G56" s="13"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="31"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F57" s="46"/>
+      <c r="G57" s="13"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="31"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F58" s="46"/>
+      <c r="G58" s="13"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="31"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="E59" s="13"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F59" s="46"/>
+      <c r="G59" s="13"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="31"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
       <c r="E60" s="13"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F60" s="46"/>
+      <c r="G60" s="13"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="31"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
       <c r="E61" s="13"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F61" s="46"/>
+      <c r="G61" s="13"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="31"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F62" s="46"/>
+      <c r="G62" s="13"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="31"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
       <c r="E63" s="13"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F63" s="46"/>
+      <c r="G63" s="13"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="31"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
       <c r="E64" s="13"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F64" s="46"/>
+      <c r="G64" s="13"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="31"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F65" s="46"/>
+      <c r="G65" s="13"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="31"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
       <c r="E66" s="13"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F66" s="46"/>
+      <c r="G66" s="13"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="31"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="E67" s="13"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F67" s="46"/>
+      <c r="G67" s="13"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="31"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="13"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F68" s="46"/>
+      <c r="G68" s="13"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="31"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
       <c r="E69" s="13"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F69" s="46"/>
+      <c r="G69" s="13"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="31"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
       <c r="E70" s="13"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F70" s="46"/>
+      <c r="G70" s="13"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="31"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
       <c r="E71" s="13"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F71" s="46"/>
+      <c r="G71" s="13"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="31"/>
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
       <c r="E72" s="13"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F72" s="46"/>
+      <c r="G72" s="13"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="31"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
       <c r="E73" s="13"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F73" s="46"/>
+      <c r="G73" s="13"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="31"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
       <c r="E74" s="13"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F74" s="46"/>
+      <c r="G74" s="13"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="31"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F75" s="46"/>
+      <c r="G75" s="13"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="31"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F76" s="46"/>
+      <c r="G76" s="13"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="31"/>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F77" s="46"/>
+      <c r="G77" s="13"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="31"/>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F78" s="46"/>
+      <c r="G78" s="13"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="31"/>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F79" s="46"/>
+      <c r="G79" s="13"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="31"/>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F80" s="46"/>
+      <c r="G80" s="13"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="31"/>
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
       <c r="E81" s="13"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F81" s="46"/>
+      <c r="G81" s="13"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" s="31"/>
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
       <c r="E82" s="13"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F82" s="46"/>
+      <c r="G82" s="13"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" s="31"/>
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F83" s="46"/>
+      <c r="G83" s="13"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="31"/>
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
       <c r="D84" s="13"/>
       <c r="E84" s="13"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F84" s="46"/>
+      <c r="G84" s="13"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" s="31"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F85" s="46"/>
+      <c r="G85" s="13"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" s="31"/>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F86" s="46"/>
+      <c r="G86" s="13"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" s="31"/>
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
       <c r="E87" s="13"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F87" s="46"/>
+      <c r="G87" s="13"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" s="31"/>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F88" s="46"/>
+      <c r="G88" s="13"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" s="31"/>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F89" s="46"/>
+      <c r="G89" s="13"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" s="31"/>
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
       <c r="E90" s="13"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F90" s="46"/>
+      <c r="G90" s="13"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91" s="31"/>
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
       <c r="E91" s="13"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F91" s="46"/>
+      <c r="G91" s="13"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" s="31"/>
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
       <c r="D92" s="13"/>
       <c r="E92" s="13"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F92" s="46"/>
+      <c r="G92" s="13"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" s="31"/>
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
       <c r="E93" s="13"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F93" s="46"/>
+      <c r="G93" s="13"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94" s="31"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
       <c r="E94" s="13"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F94" s="46"/>
+      <c r="G94" s="13"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" s="31"/>
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F95" s="46"/>
+      <c r="G95" s="13"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" s="31"/>
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F96" s="46"/>
+      <c r="G96" s="13"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97" s="31"/>
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
       <c r="D97" s="13"/>
       <c r="E97" s="13"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F97" s="46"/>
+      <c r="G97" s="13"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" s="31"/>
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
       <c r="E98" s="13"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F98" s="46"/>
+      <c r="G98" s="13"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99" s="31"/>
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
       <c r="D99" s="13"/>
       <c r="E99" s="13"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F99" s="46"/>
+      <c r="G99" s="13"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" s="31"/>
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
       <c r="E100" s="13"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F100" s="46"/>
+      <c r="G100" s="13"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101" s="31"/>
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F101" s="46"/>
+      <c r="G101" s="13"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A102" s="31"/>
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
       <c r="D102" s="13"/>
       <c r="E102" s="13"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F102" s="46"/>
+      <c r="G102" s="13"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103" s="31"/>
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
       <c r="E103" s="13"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F103" s="46"/>
+      <c r="G103" s="13"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104" s="31"/>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
       <c r="D104" s="13"/>
       <c r="E104" s="13"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F104" s="46"/>
+      <c r="G104" s="13"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A105" s="31"/>
       <c r="B105" s="13"/>
       <c r="C105" s="13"/>
       <c r="D105" s="13"/>
       <c r="E105" s="13"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F105" s="46"/>
+      <c r="G105" s="13"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A106" s="31"/>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
       <c r="D106" s="13"/>
       <c r="E106" s="13"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F106" s="46"/>
+      <c r="G106" s="13"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A107" s="31"/>
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
       <c r="E107" s="13"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F107" s="46"/>
+      <c r="G107" s="13"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A108" s="31"/>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
       <c r="E108" s="13"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F108" s="46"/>
+      <c r="G108" s="13"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A109" s="31"/>
       <c r="B109" s="13"/>
       <c r="C109" s="13"/>
       <c r="D109" s="13"/>
       <c r="E109" s="13"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F109" s="46"/>
+      <c r="G109" s="13"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A110" s="31"/>
       <c r="B110" s="13"/>
       <c r="C110" s="13"/>
       <c r="D110" s="13"/>
       <c r="E110" s="13"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F110" s="46"/>
+      <c r="G110" s="13"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A111" s="31"/>
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F111" s="46"/>
+      <c r="G111" s="13"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A112" s="31"/>
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
       <c r="D112" s="13"/>
       <c r="E112" s="13"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F112" s="46"/>
+      <c r="G112" s="13"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A113" s="31"/>
       <c r="B113" s="13"/>
       <c r="C113" s="13"/>
       <c r="D113" s="13"/>
       <c r="E113" s="13"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F113" s="46"/>
+      <c r="G113" s="13"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A114" s="31"/>
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
       <c r="E114" s="13"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F114" s="46"/>
+      <c r="G114" s="13"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A115" s="31"/>
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
       <c r="D115" s="13"/>
       <c r="E115" s="13"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F115" s="46"/>
+      <c r="G115" s="13"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A116" s="31"/>
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
       <c r="D116" s="13"/>
       <c r="E116" s="13"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F116" s="46"/>
+      <c r="G116" s="13"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A117" s="31"/>
       <c r="B117" s="13"/>
       <c r="C117" s="13"/>
       <c r="D117" s="13"/>
       <c r="E117" s="13"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F117" s="46"/>
+      <c r="G117" s="13"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A118" s="31"/>
       <c r="B118" s="13"/>
       <c r="C118" s="13"/>
       <c r="D118" s="13"/>
       <c r="E118" s="13"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F118" s="46"/>
+      <c r="G118" s="13"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A119" s="31"/>
       <c r="B119" s="13"/>
       <c r="C119" s="13"/>
       <c r="D119" s="13"/>
       <c r="E119" s="13"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F119" s="46"/>
+      <c r="G119" s="13"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A120" s="31"/>
       <c r="B120" s="13"/>
       <c r="C120" s="13"/>
       <c r="D120" s="13"/>
       <c r="E120" s="13"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F120" s="46"/>
+      <c r="G120" s="13"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A121" s="31"/>
       <c r="B121" s="13"/>
       <c r="C121" s="13"/>
       <c r="D121" s="13"/>
       <c r="E121" s="13"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F121" s="46"/>
+      <c r="G121" s="13"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A122" s="31"/>
       <c r="B122" s="13"/>
       <c r="C122" s="13"/>
       <c r="D122" s="13"/>
       <c r="E122" s="13"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F122" s="46"/>
+      <c r="G122" s="13"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A123" s="31"/>
       <c r="B123" s="13"/>
       <c r="C123" s="13"/>
       <c r="D123" s="13"/>
       <c r="E123" s="13"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F123" s="46"/>
+      <c r="G123" s="13"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A124" s="31"/>
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
       <c r="D124" s="13"/>
       <c r="E124" s="13"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F124" s="46"/>
+      <c r="G124" s="13"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A125" s="31"/>
       <c r="B125" s="13"/>
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
       <c r="E125" s="13"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F125" s="46"/>
+      <c r="G125" s="13"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A126" s="31"/>
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
       <c r="E126" s="13"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F126" s="46"/>
+      <c r="G126" s="13"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A127" s="31"/>
       <c r="B127" s="13"/>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
       <c r="E127" s="13"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F127" s="46"/>
+      <c r="G127" s="13"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A128" s="31"/>
       <c r="B128" s="13"/>
       <c r="C128" s="13"/>
       <c r="D128" s="13"/>
       <c r="E128" s="13"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F128" s="46"/>
+      <c r="G128" s="13"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A129" s="31"/>
       <c r="B129" s="13"/>
       <c r="C129" s="13"/>
       <c r="D129" s="13"/>
       <c r="E129" s="13"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F129" s="46"/>
+      <c r="G129" s="13"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A130" s="31"/>
       <c r="B130" s="13"/>
       <c r="C130" s="13"/>
       <c r="D130" s="13"/>
       <c r="E130" s="13"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F130" s="46"/>
+      <c r="G130" s="13"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A131" s="31"/>
       <c r="B131" s="13"/>
       <c r="C131" s="13"/>
       <c r="D131" s="13"/>
       <c r="E131" s="13"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F131" s="46"/>
+      <c r="G131" s="13"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A132" s="31"/>
       <c r="B132" s="13"/>
       <c r="C132" s="13"/>
       <c r="D132" s="13"/>
       <c r="E132" s="13"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F132" s="46"/>
+      <c r="G132" s="13"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A133" s="31"/>
       <c r="B133" s="13"/>
       <c r="C133" s="13"/>
       <c r="D133" s="13"/>
       <c r="E133" s="13"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F133" s="46"/>
+      <c r="G133" s="13"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A134" s="31"/>
       <c r="B134" s="13"/>
       <c r="C134" s="13"/>
       <c r="D134" s="13"/>
       <c r="E134" s="13"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F134" s="46"/>
+      <c r="G134" s="13"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A135" s="31"/>
       <c r="B135" s="13"/>
       <c r="C135" s="13"/>
       <c r="D135" s="13"/>
       <c r="E135" s="13"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F135" s="46"/>
+      <c r="G135" s="13"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A136" s="31"/>
       <c r="B136" s="13"/>
       <c r="C136" s="13"/>
       <c r="D136" s="13"/>
       <c r="E136" s="13"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F136" s="46"/>
+      <c r="G136" s="13"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A137" s="31"/>
       <c r="B137" s="13"/>
       <c r="C137" s="13"/>
       <c r="D137" s="13"/>
       <c r="E137" s="13"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F137" s="46"/>
+      <c r="G137" s="13"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A138" s="31"/>
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
       <c r="D138" s="13"/>
       <c r="E138" s="13"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F138" s="46"/>
+      <c r="G138" s="13"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A139" s="31"/>
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
       <c r="D139" s="13"/>
       <c r="E139" s="13"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F139" s="46"/>
+      <c r="G139" s="13"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A140" s="31"/>
       <c r="B140" s="13"/>
       <c r="C140" s="13"/>
       <c r="D140" s="13"/>
       <c r="E140" s="13"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F140" s="46"/>
+      <c r="G140" s="13"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A141" s="31"/>
       <c r="B141" s="13"/>
       <c r="C141" s="13"/>
       <c r="D141" s="13"/>
       <c r="E141" s="13"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F141" s="46"/>
+      <c r="G141" s="13"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A142" s="31"/>
       <c r="B142" s="13"/>
       <c r="C142" s="13"/>
       <c r="D142" s="13"/>
       <c r="E142" s="13"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F142" s="46"/>
+      <c r="G142" s="13"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A143" s="31"/>
       <c r="B143" s="13"/>
       <c r="C143" s="13"/>
       <c r="D143" s="13"/>
       <c r="E143" s="13"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F143" s="46"/>
+      <c r="G143" s="13"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A144" s="31"/>
       <c r="B144" s="13"/>
       <c r="C144" s="13"/>
       <c r="D144" s="13"/>
       <c r="E144" s="13"/>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F144" s="46"/>
+      <c r="G144" s="13"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A145" s="31"/>
       <c r="B145" s="13"/>
       <c r="C145" s="13"/>
       <c r="D145" s="13"/>
       <c r="E145" s="13"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F145" s="46"/>
+      <c r="G145" s="13"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A146" s="31"/>
       <c r="B146" s="13"/>
       <c r="C146" s="13"/>
       <c r="D146" s="13"/>
       <c r="E146" s="13"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F146" s="46"/>
+      <c r="G146" s="13"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A147" s="31"/>
       <c r="B147" s="13"/>
       <c r="C147" s="13"/>
       <c r="D147" s="13"/>
       <c r="E147" s="13"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F147" s="46"/>
+      <c r="G147" s="13"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A148" s="31"/>
       <c r="B148" s="13"/>
       <c r="C148" s="13"/>
       <c r="D148" s="13"/>
       <c r="E148" s="13"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F148" s="46"/>
+      <c r="G148" s="13"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A149" s="31"/>
       <c r="B149" s="13"/>
       <c r="C149" s="13"/>
       <c r="D149" s="13"/>
       <c r="E149" s="13"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F149" s="46"/>
+      <c r="G149" s="13"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A150" s="31"/>
       <c r="B150" s="13"/>
       <c r="C150" s="13"/>
       <c r="D150" s="13"/>
       <c r="E150" s="13"/>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F150" s="46"/>
+      <c r="G150" s="13"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A151" s="31"/>
       <c r="B151" s="13"/>
       <c r="C151" s="13"/>
       <c r="D151" s="13"/>
       <c r="E151" s="13"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F151" s="46"/>
+      <c r="G151" s="13"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A152" s="31"/>
       <c r="B152" s="13"/>
       <c r="C152" s="13"/>
       <c r="D152" s="13"/>
       <c r="E152" s="13"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F152" s="46"/>
+      <c r="G152" s="13"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A153" s="31"/>
       <c r="B153" s="13"/>
       <c r="C153" s="13"/>
       <c r="D153" s="13"/>
       <c r="E153" s="13"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F153" s="46"/>
+      <c r="G153" s="13"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A154" s="31"/>
       <c r="B154" s="13"/>
       <c r="C154" s="13"/>
       <c r="D154" s="13"/>
       <c r="E154" s="13"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F154" s="46"/>
+      <c r="G154" s="13"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A155" s="31"/>
       <c r="B155" s="13"/>
       <c r="C155" s="13"/>
       <c r="D155" s="13"/>
       <c r="E155" s="13"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F155" s="46"/>
+      <c r="G155" s="13"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A156" s="31"/>
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
       <c r="D156" s="13"/>
       <c r="E156" s="13"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F156" s="46"/>
+      <c r="G156" s="13"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A157" s="31"/>
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
       <c r="D157" s="13"/>
       <c r="E157" s="13"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F157" s="46"/>
+      <c r="G157" s="13"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A158" s="31"/>
       <c r="B158" s="13"/>
       <c r="C158" s="13"/>
       <c r="D158" s="13"/>
       <c r="E158" s="13"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F158" s="46"/>
+      <c r="G158" s="13"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A159" s="31"/>
       <c r="B159" s="13"/>
       <c r="C159" s="13"/>
       <c r="D159" s="13"/>
       <c r="E159" s="13"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F159" s="46"/>
+      <c r="G159" s="13"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A160" s="31"/>
       <c r="B160" s="13"/>
       <c r="C160" s="13"/>
       <c r="D160" s="13"/>
       <c r="E160" s="13"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F160" s="46"/>
+      <c r="G160" s="13"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A161" s="31"/>
       <c r="B161" s="13"/>
       <c r="C161" s="13"/>
       <c r="D161" s="13"/>
       <c r="E161" s="13"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F161" s="46"/>
+      <c r="G161" s="13"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A162" s="31"/>
       <c r="B162" s="13"/>
       <c r="C162" s="13"/>
       <c r="D162" s="13"/>
       <c r="E162" s="13"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F162" s="46"/>
+      <c r="G162" s="13"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A163" s="31"/>
       <c r="B163" s="13"/>
       <c r="C163" s="13"/>
       <c r="D163" s="13"/>
       <c r="E163" s="13"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F163" s="46"/>
+      <c r="G163" s="13"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A164" s="31"/>
       <c r="B164" s="13"/>
       <c r="C164" s="13"/>
       <c r="D164" s="13"/>
       <c r="E164" s="13"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F164" s="46"/>
+      <c r="G164" s="13"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A165" s="31"/>
       <c r="B165" s="13"/>
       <c r="C165" s="13"/>
       <c r="D165" s="13"/>
       <c r="E165" s="13"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F165" s="46"/>
+      <c r="G165" s="13"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A166" s="31"/>
       <c r="B166" s="13"/>
       <c r="C166" s="13"/>
       <c r="D166" s="13"/>
       <c r="E166" s="13"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F166" s="46"/>
+      <c r="G166" s="13"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A167" s="31"/>
       <c r="B167" s="13"/>
       <c r="C167" s="13"/>
       <c r="D167" s="13"/>
       <c r="E167" s="13"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F167" s="46"/>
+      <c r="G167" s="13"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A168" s="31"/>
       <c r="B168" s="13"/>
       <c r="C168" s="13"/>
       <c r="D168" s="13"/>
       <c r="E168" s="13"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F168" s="46"/>
+      <c r="G168" s="13"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A169" s="31"/>
       <c r="B169" s="13"/>
       <c r="C169" s="13"/>
       <c r="D169" s="13"/>
       <c r="E169" s="13"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F169" s="46"/>
+      <c r="G169" s="13"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A170" s="31"/>
       <c r="B170" s="13"/>
       <c r="C170" s="13"/>
       <c r="D170" s="13"/>
       <c r="E170" s="13"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F170" s="46"/>
+      <c r="G170" s="13"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A171" s="31"/>
       <c r="B171" s="13"/>
       <c r="C171" s="13"/>
       <c r="D171" s="13"/>
       <c r="E171" s="13"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F171" s="46"/>
+      <c r="G171" s="13"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A172" s="31"/>
       <c r="B172" s="13"/>
       <c r="C172" s="13"/>
       <c r="D172" s="13"/>
       <c r="E172" s="13"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F172" s="46"/>
+      <c r="G172" s="13"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A173" s="31"/>
       <c r="B173" s="13"/>
       <c r="C173" s="13"/>
       <c r="D173" s="13"/>
       <c r="E173" s="13"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F173" s="46"/>
+      <c r="G173" s="13"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A174" s="31"/>
       <c r="B174" s="13"/>
       <c r="C174" s="13"/>
       <c r="D174" s="13"/>
       <c r="E174" s="13"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F174" s="46"/>
+      <c r="G174" s="13"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A175" s="31"/>
       <c r="B175" s="13"/>
       <c r="C175" s="13"/>
       <c r="D175" s="13"/>
       <c r="E175" s="13"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F175" s="46"/>
+      <c r="G175" s="13"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A176" s="31"/>
       <c r="B176" s="13"/>
       <c r="C176" s="13"/>
       <c r="D176" s="13"/>
       <c r="E176" s="13"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F176" s="46"/>
+      <c r="G176" s="13"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A177" s="31"/>
       <c r="B177" s="13"/>
       <c r="C177" s="13"/>
       <c r="D177" s="13"/>
       <c r="E177" s="13"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F177" s="46"/>
+      <c r="G177" s="13"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A178" s="31"/>
       <c r="B178" s="13"/>
       <c r="C178" s="13"/>
       <c r="D178" s="13"/>
       <c r="E178" s="13"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F178" s="46"/>
+      <c r="G178" s="13"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A179" s="31"/>
       <c r="B179" s="13"/>
       <c r="C179" s="13"/>
       <c r="D179" s="13"/>
       <c r="E179" s="13"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F179" s="46"/>
+      <c r="G179" s="13"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A180" s="31"/>
       <c r="B180" s="13"/>
       <c r="C180" s="13"/>
       <c r="D180" s="13"/>
       <c r="E180" s="13"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F180" s="46"/>
+      <c r="G180" s="13"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A181" s="31"/>
       <c r="B181" s="13"/>
       <c r="C181" s="13"/>
       <c r="D181" s="13"/>
       <c r="E181" s="13"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F181" s="46"/>
+      <c r="G181" s="13"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A182" s="31"/>
       <c r="B182" s="13"/>
       <c r="C182" s="13"/>
       <c r="D182" s="13"/>
       <c r="E182" s="13"/>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F182" s="46"/>
+      <c r="G182" s="13"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A183" s="31"/>
       <c r="B183" s="13"/>
       <c r="C183" s="13"/>
       <c r="D183" s="13"/>
       <c r="E183" s="13"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F183" s="46"/>
+      <c r="G183" s="13"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A184" s="31"/>
       <c r="B184" s="13"/>
       <c r="C184" s="13"/>
       <c r="D184" s="13"/>
       <c r="E184" s="13"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F184" s="46"/>
+      <c r="G184" s="13"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A185" s="31"/>
       <c r="B185" s="13"/>
       <c r="C185" s="13"/>
       <c r="D185" s="13"/>
       <c r="E185" s="13"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F185" s="46"/>
+      <c r="G185" s="13"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A186" s="31"/>
       <c r="B186" s="13"/>
       <c r="C186" s="13"/>
       <c r="D186" s="13"/>
       <c r="E186" s="13"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F186" s="46"/>
+      <c r="G186" s="13"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A187" s="31"/>
       <c r="B187" s="13"/>
       <c r="C187" s="13"/>
       <c r="D187" s="13"/>
       <c r="E187" s="13"/>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F187" s="46"/>
+      <c r="G187" s="13"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A188" s="31"/>
       <c r="B188" s="13"/>
       <c r="C188" s="13"/>
       <c r="D188" s="13"/>
       <c r="E188" s="13"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F188" s="46"/>
+      <c r="G188" s="13"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A189" s="31"/>
       <c r="B189" s="13"/>
       <c r="C189" s="13"/>
       <c r="D189" s="13"/>
       <c r="E189" s="13"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F189" s="46"/>
+      <c r="G189" s="13"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A190" s="31"/>
       <c r="B190" s="13"/>
       <c r="C190" s="13"/>
       <c r="D190" s="13"/>
       <c r="E190" s="13"/>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F190" s="46"/>
+      <c r="G190" s="13"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A191" s="31"/>
       <c r="B191" s="13"/>
       <c r="C191" s="13"/>
       <c r="D191" s="13"/>
       <c r="E191" s="13"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F191" s="46"/>
+      <c r="G191" s="13"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A192" s="31"/>
       <c r="B192" s="13"/>
       <c r="C192" s="13"/>
       <c r="D192" s="13"/>
       <c r="E192" s="13"/>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F192" s="46"/>
+      <c r="G192" s="13"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A193" s="31"/>
       <c r="B193" s="13"/>
       <c r="C193" s="13"/>
       <c r="D193" s="13"/>
       <c r="E193" s="13"/>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F193" s="46"/>
+      <c r="G193" s="13"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A194" s="31"/>
       <c r="B194" s="13"/>
       <c r="C194" s="13"/>
       <c r="D194" s="13"/>
       <c r="E194" s="13"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F194" s="46"/>
+      <c r="G194" s="13"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A195" s="31"/>
       <c r="B195" s="13"/>
       <c r="C195" s="13"/>
       <c r="D195" s="13"/>
       <c r="E195" s="13"/>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F195" s="46"/>
+      <c r="G195" s="13"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A196" s="31"/>
       <c r="B196" s="13"/>
       <c r="C196" s="13"/>
       <c r="D196" s="13"/>
       <c r="E196" s="13"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F196" s="46"/>
+      <c r="G196" s="13"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A197" s="31"/>
       <c r="B197" s="13"/>
       <c r="C197" s="13"/>
       <c r="D197" s="13"/>
       <c r="E197" s="13"/>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F197" s="46"/>
+      <c r="G197" s="13"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A198" s="31"/>
       <c r="B198" s="13"/>
       <c r="C198" s="13"/>
       <c r="D198" s="13"/>
       <c r="E198" s="13"/>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F198" s="46"/>
+      <c r="G198" s="13"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A199" s="31"/>
       <c r="B199" s="13"/>
       <c r="C199" s="13"/>
       <c r="D199" s="13"/>
       <c r="E199" s="13"/>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F199" s="46"/>
+      <c r="G199" s="13"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A200" s="31"/>
       <c r="B200" s="13"/>
       <c r="C200" s="13"/>
       <c r="D200" s="13"/>
       <c r="E200" s="13"/>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F200" s="46"/>
+      <c r="G200" s="13"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A201" s="31"/>
       <c r="B201" s="13"/>
       <c r="C201" s="13"/>
       <c r="D201" s="13"/>
       <c r="E201" s="13"/>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F201" s="46"/>
+      <c r="G201" s="13"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A202" s="31"/>
       <c r="B202" s="13"/>
       <c r="C202" s="13"/>
       <c r="D202" s="13"/>
       <c r="E202" s="13"/>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F202" s="46"/>
+      <c r="G202" s="13"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A203" s="31"/>
       <c r="B203" s="13"/>
       <c r="C203" s="13"/>
       <c r="D203" s="13"/>
       <c r="E203" s="13"/>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F203" s="46"/>
+      <c r="G203" s="13"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A204" s="31"/>
       <c r="B204" s="13"/>
       <c r="C204" s="13"/>
       <c r="D204" s="13"/>
       <c r="E204" s="13"/>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F204" s="46"/>
+      <c r="G204" s="13"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A205" s="31"/>
       <c r="B205" s="13"/>
       <c r="C205" s="13"/>
       <c r="D205" s="13"/>
       <c r="E205" s="13"/>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F205" s="46"/>
+      <c r="G205" s="13"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A206" s="31"/>
       <c r="B206" s="13"/>
       <c r="C206" s="13"/>
       <c r="D206" s="13"/>
       <c r="E206" s="13"/>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F206" s="46"/>
+      <c r="G206" s="13"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A207" s="31"/>
       <c r="B207" s="13"/>
       <c r="C207" s="13"/>
       <c r="D207" s="13"/>
       <c r="E207" s="13"/>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F207" s="46"/>
+      <c r="G207" s="13"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A208" s="31"/>
       <c r="B208" s="13"/>
       <c r="C208" s="13"/>
       <c r="D208" s="13"/>
       <c r="E208" s="13"/>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F208" s="46"/>
+      <c r="G208" s="13"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A209" s="31"/>
       <c r="B209" s="13"/>
       <c r="C209" s="13"/>
       <c r="D209" s="13"/>
       <c r="E209" s="13"/>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F209" s="46"/>
+      <c r="G209" s="13"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A210" s="31"/>
       <c r="B210" s="13"/>
       <c r="C210" s="13"/>
       <c r="D210" s="13"/>
       <c r="E210" s="13"/>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F210" s="46"/>
+      <c r="G210" s="13"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A211" s="31"/>
       <c r="B211" s="13"/>
       <c r="C211" s="13"/>
       <c r="D211" s="13"/>
       <c r="E211" s="13"/>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F211" s="46"/>
+      <c r="G211" s="13"/>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A212" s="31"/>
       <c r="B212" s="13"/>
       <c r="C212" s="13"/>
       <c r="D212" s="13"/>
       <c r="E212" s="13"/>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F212" s="46"/>
+      <c r="G212" s="13"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A213" s="31"/>
       <c r="B213" s="13"/>
       <c r="C213" s="13"/>
       <c r="D213" s="13"/>
       <c r="E213" s="13"/>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F213" s="46"/>
+      <c r="G213" s="13"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A214" s="31"/>
       <c r="B214" s="13"/>
       <c r="C214" s="13"/>
       <c r="D214" s="13"/>
       <c r="E214" s="13"/>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F214" s="46"/>
+      <c r="G214" s="13"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A215" s="31"/>
       <c r="B215" s="13"/>
       <c r="C215" s="13"/>
       <c r="D215" s="13"/>
       <c r="E215" s="13"/>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F215" s="46"/>
+      <c r="G215" s="13"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A216" s="31"/>
       <c r="B216" s="13"/>
       <c r="C216" s="13"/>
       <c r="D216" s="13"/>
       <c r="E216" s="13"/>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F216" s="46"/>
+      <c r="G216" s="13"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A217" s="31"/>
       <c r="B217" s="13"/>
       <c r="C217" s="13"/>
       <c r="D217" s="13"/>
       <c r="E217" s="13"/>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F217" s="46"/>
+      <c r="G217" s="13"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A218" s="31"/>
       <c r="B218" s="13"/>
       <c r="C218" s="13"/>
       <c r="D218" s="13"/>
       <c r="E218" s="13"/>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F218" s="46"/>
+      <c r="G218" s="13"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A219" s="31"/>
       <c r="B219" s="13"/>
       <c r="C219" s="13"/>
       <c r="D219" s="13"/>
       <c r="E219" s="13"/>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F219" s="46"/>
+      <c r="G219" s="13"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A220" s="31"/>
       <c r="B220" s="13"/>
       <c r="C220" s="13"/>
       <c r="D220" s="13"/>
       <c r="E220" s="13"/>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F220" s="46"/>
+      <c r="G220" s="13"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A221" s="31"/>
       <c r="B221" s="13"/>
       <c r="C221" s="13"/>
       <c r="D221" s="13"/>
       <c r="E221" s="13"/>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F221" s="46"/>
+      <c r="G221" s="13"/>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A222" s="31"/>
       <c r="B222" s="13"/>
       <c r="C222" s="13"/>
       <c r="D222" s="13"/>
       <c r="E222" s="13"/>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F222" s="46"/>
+      <c r="G222" s="13"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A223" s="31"/>
       <c r="B223" s="13"/>
       <c r="C223" s="13"/>
       <c r="D223" s="13"/>
       <c r="E223" s="13"/>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F223" s="46"/>
+      <c r="G223" s="13"/>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A224" s="31"/>
       <c r="B224" s="13"/>
       <c r="C224" s="13"/>
       <c r="D224" s="13"/>
       <c r="E224" s="13"/>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F224" s="46"/>
+      <c r="G224" s="13"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A225" s="31"/>
       <c r="B225" s="13"/>
       <c r="C225" s="13"/>
       <c r="D225" s="13"/>
       <c r="E225" s="13"/>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F225" s="46"/>
+      <c r="G225" s="13"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A226" s="31"/>
       <c r="B226" s="13"/>
       <c r="C226" s="13"/>
       <c r="D226" s="13"/>
       <c r="E226" s="13"/>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F226" s="46"/>
+      <c r="G226" s="13"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A227" s="31"/>
       <c r="B227" s="13"/>
       <c r="C227" s="13"/>
       <c r="D227" s="13"/>
       <c r="E227" s="13"/>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F227" s="46"/>
+      <c r="G227" s="13"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A228" s="31"/>
       <c r="B228" s="13"/>
       <c r="C228" s="13"/>
       <c r="D228" s="13"/>
       <c r="E228" s="13"/>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F228" s="46"/>
+      <c r="G228" s="13"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A229" s="31"/>
       <c r="B229" s="13"/>
       <c r="C229" s="13"/>
       <c r="D229" s="13"/>
       <c r="E229" s="13"/>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F229" s="46"/>
+      <c r="G229" s="13"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A230" s="31"/>
       <c r="B230" s="13"/>
       <c r="C230" s="13"/>
       <c r="D230" s="13"/>
       <c r="E230" s="13"/>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F230" s="46"/>
+      <c r="G230" s="13"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A231" s="31"/>
       <c r="B231" s="13"/>
       <c r="C231" s="13"/>
       <c r="D231" s="13"/>
       <c r="E231" s="13"/>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F231" s="46"/>
+      <c r="G231" s="13"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A232" s="31"/>
       <c r="B232" s="13"/>
       <c r="C232" s="13"/>
       <c r="D232" s="13"/>
       <c r="E232" s="13"/>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F232" s="46"/>
+      <c r="G232" s="13"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A233" s="31"/>
       <c r="B233" s="13"/>
       <c r="C233" s="13"/>
       <c r="D233" s="13"/>
       <c r="E233" s="13"/>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F233" s="46"/>
+      <c r="G233" s="13"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A234" s="31"/>
       <c r="B234" s="13"/>
       <c r="C234" s="13"/>
       <c r="D234" s="13"/>
       <c r="E234" s="13"/>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F234" s="46"/>
+      <c r="G234" s="13"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A235" s="31"/>
       <c r="B235" s="13"/>
       <c r="C235" s="13"/>
       <c r="D235" s="13"/>
       <c r="E235" s="13"/>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F235" s="46"/>
+      <c r="G235" s="13"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A236" s="31"/>
       <c r="B236" s="13"/>
       <c r="C236" s="13"/>
       <c r="D236" s="13"/>
       <c r="E236" s="13"/>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F236" s="46"/>
+      <c r="G236" s="13"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A237" s="31"/>
       <c r="B237" s="13"/>
       <c r="C237" s="13"/>
       <c r="D237" s="13"/>
       <c r="E237" s="13"/>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F237" s="46"/>
+      <c r="G237" s="13"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A238" s="31"/>
       <c r="B238" s="13"/>
       <c r="C238" s="13"/>
       <c r="D238" s="13"/>
       <c r="E238" s="13"/>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F238" s="46"/>
+      <c r="G238" s="13"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A239" s="31"/>
       <c r="B239" s="13"/>
       <c r="C239" s="13"/>
       <c r="D239" s="13"/>
       <c r="E239" s="13"/>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F239" s="46"/>
+      <c r="G239" s="13"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A240" s="31"/>
       <c r="B240" s="13"/>
       <c r="C240" s="13"/>
       <c r="D240" s="13"/>
       <c r="E240" s="13"/>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F240" s="46"/>
+      <c r="G240" s="13"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A241" s="31"/>
       <c r="B241" s="13"/>
       <c r="C241" s="13"/>
       <c r="D241" s="13"/>
       <c r="E241" s="13"/>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F241" s="46"/>
+      <c r="G241" s="13"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A242" s="31"/>
       <c r="B242" s="13"/>
       <c r="C242" s="13"/>
       <c r="D242" s="13"/>
       <c r="E242" s="13"/>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F242" s="46"/>
+      <c r="G242" s="13"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A243" s="31"/>
       <c r="B243" s="13"/>
       <c r="C243" s="13"/>
       <c r="D243" s="13"/>
       <c r="E243" s="13"/>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F243" s="46"/>
+      <c r="G243" s="13"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A244" s="31"/>
       <c r="B244" s="13"/>
       <c r="C244" s="13"/>
       <c r="D244" s="13"/>
       <c r="E244" s="13"/>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F244" s="46"/>
+      <c r="G244" s="13"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A245" s="31"/>
       <c r="B245" s="13"/>
       <c r="C245" s="13"/>
       <c r="D245" s="13"/>
       <c r="E245" s="13"/>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F245" s="46"/>
+      <c r="G245" s="13"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A246" s="31"/>
       <c r="B246" s="13"/>
       <c r="C246" s="13"/>
       <c r="D246" s="13"/>
       <c r="E246" s="13"/>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F246" s="46"/>
+      <c r="G246" s="13"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A247" s="31"/>
       <c r="B247" s="13"/>
       <c r="C247" s="13"/>
       <c r="D247" s="13"/>
       <c r="E247" s="13"/>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F247" s="46"/>
+      <c r="G247" s="13"/>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A248" s="31"/>
       <c r="B248" s="13"/>
       <c r="C248" s="13"/>
       <c r="D248" s="13"/>
       <c r="E248" s="13"/>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F248" s="46"/>
+      <c r="G248" s="13"/>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A249" s="31"/>
       <c r="B249" s="13"/>
       <c r="C249" s="13"/>
       <c r="D249" s="13"/>
       <c r="E249" s="13"/>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F249" s="46"/>
+      <c r="G249" s="13"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A250" s="31"/>
       <c r="B250" s="13"/>
       <c r="C250" s="13"/>
       <c r="D250" s="13"/>
       <c r="E250" s="13"/>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F250" s="46"/>
+      <c r="G250" s="13"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A251" s="31"/>
       <c r="B251" s="13"/>
       <c r="C251" s="13"/>
       <c r="D251" s="13"/>
       <c r="E251" s="13"/>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F251" s="46"/>
+      <c r="G251" s="13"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A252" s="31"/>
       <c r="B252" s="13"/>
       <c r="C252" s="13"/>
       <c r="D252" s="13"/>
       <c r="E252" s="13"/>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F252" s="46"/>
+      <c r="G252" s="13"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A253" s="31"/>
       <c r="B253" s="13"/>
       <c r="C253" s="13"/>
       <c r="D253" s="13"/>
       <c r="E253" s="13"/>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F253" s="46"/>
+      <c r="G253" s="13"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A254" s="31"/>
       <c r="B254" s="13"/>
       <c r="C254" s="13"/>
       <c r="D254" s="13"/>
       <c r="E254" s="13"/>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F254" s="46"/>
+      <c r="G254" s="13"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A255" s="31"/>
       <c r="B255" s="13"/>
       <c r="C255" s="13"/>
       <c r="D255" s="13"/>
       <c r="E255" s="13"/>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F255" s="46"/>
+      <c r="G255" s="13"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A256" s="31"/>
       <c r="B256" s="13"/>
       <c r="C256" s="13"/>
       <c r="D256" s="13"/>
       <c r="E256" s="13"/>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F256" s="46"/>
+      <c r="G256" s="13"/>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A257" s="31"/>
       <c r="B257" s="13"/>
       <c r="C257" s="13"/>
       <c r="D257" s="13"/>
       <c r="E257" s="13"/>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F257" s="46"/>
+      <c r="G257" s="13"/>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A258" s="31"/>
       <c r="B258" s="13"/>
       <c r="C258" s="13"/>
       <c r="D258" s="13"/>
       <c r="E258" s="13"/>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F258" s="46"/>
+      <c r="G258" s="13"/>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A259" s="31"/>
       <c r="B259" s="13"/>
       <c r="C259" s="13"/>
       <c r="D259" s="13"/>
       <c r="E259" s="13"/>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F259" s="46"/>
+      <c r="G259" s="13"/>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A260" s="31"/>
       <c r="B260" s="13"/>
       <c r="C260" s="13"/>
       <c r="D260" s="13"/>
       <c r="E260" s="13"/>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F260" s="46"/>
+      <c r="G260" s="13"/>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A261" s="31"/>
       <c r="B261" s="13"/>
       <c r="C261" s="13"/>
       <c r="D261" s="13"/>
       <c r="E261" s="13"/>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F261" s="46"/>
+      <c r="G261" s="13"/>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A262" s="31"/>
       <c r="B262" s="13"/>
       <c r="C262" s="13"/>
       <c r="D262" s="13"/>
       <c r="E262" s="13"/>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F262" s="46"/>
+      <c r="G262" s="13"/>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A263" s="31"/>
       <c r="B263" s="13"/>
       <c r="C263" s="13"/>
       <c r="D263" s="13"/>
       <c r="E263" s="13"/>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F263" s="46"/>
+      <c r="G263" s="13"/>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A264" s="31"/>
       <c r="B264" s="13"/>
       <c r="C264" s="13"/>
       <c r="D264" s="13"/>
       <c r="E264" s="13"/>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F264" s="46"/>
+      <c r="G264" s="13"/>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A265" s="31"/>
       <c r="B265" s="13"/>
       <c r="C265" s="13"/>
       <c r="D265" s="13"/>
       <c r="E265" s="13"/>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F265" s="46"/>
+      <c r="G265" s="13"/>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A266" s="31"/>
       <c r="B266" s="13"/>
       <c r="C266" s="13"/>
       <c r="D266" s="13"/>
       <c r="E266" s="13"/>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F266" s="46"/>
+      <c r="G266" s="13"/>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A267" s="31"/>
       <c r="B267" s="13"/>
       <c r="C267" s="13"/>
       <c r="D267" s="13"/>
       <c r="E267" s="13"/>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F267" s="46"/>
+      <c r="G267" s="13"/>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A268" s="31"/>
       <c r="B268" s="13"/>
       <c r="C268" s="13"/>
       <c r="D268" s="13"/>
       <c r="E268" s="13"/>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F268" s="46"/>
+      <c r="G268" s="13"/>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A269" s="31"/>
       <c r="B269" s="13"/>
       <c r="C269" s="13"/>
       <c r="D269" s="13"/>
       <c r="E269" s="13"/>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F269" s="46"/>
+      <c r="G269" s="13"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A270" s="31"/>
       <c r="B270" s="13"/>
       <c r="C270" s="13"/>
       <c r="D270" s="13"/>
       <c r="E270" s="13"/>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F270" s="46"/>
+      <c r="G270" s="13"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A271" s="31"/>
       <c r="B271" s="13"/>
       <c r="C271" s="13"/>
       <c r="D271" s="13"/>
       <c r="E271" s="13"/>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F271" s="46"/>
+      <c r="G271" s="13"/>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A272" s="31"/>
       <c r="B272" s="13"/>
       <c r="C272" s="13"/>
       <c r="D272" s="13"/>
       <c r="E272" s="13"/>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F272" s="46"/>
+      <c r="G272" s="13"/>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A273" s="31"/>
       <c r="B273" s="13"/>
       <c r="C273" s="13"/>
       <c r="D273" s="13"/>
       <c r="E273" s="13"/>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F273" s="46"/>
+      <c r="G273" s="13"/>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A274" s="31"/>
       <c r="B274" s="13"/>
       <c r="C274" s="13"/>
       <c r="D274" s="13"/>
       <c r="E274" s="13"/>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F274" s="46"/>
+      <c r="G274" s="13"/>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A275" s="31"/>
       <c r="B275" s="13"/>
       <c r="C275" s="13"/>
       <c r="D275" s="13"/>
       <c r="E275" s="13"/>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F275" s="46"/>
+      <c r="G275" s="13"/>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A276" s="31"/>
       <c r="B276" s="13"/>
       <c r="C276" s="13"/>
       <c r="D276" s="13"/>
       <c r="E276" s="13"/>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F276" s="46"/>
+      <c r="G276" s="13"/>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A277" s="31"/>
       <c r="B277" s="13"/>
       <c r="C277" s="13"/>
       <c r="D277" s="13"/>
       <c r="E277" s="13"/>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F277" s="46"/>
+      <c r="G277" s="13"/>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A278" s="31"/>
       <c r="B278" s="13"/>
       <c r="C278" s="13"/>
       <c r="D278" s="13"/>
       <c r="E278" s="13"/>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F278" s="46"/>
+      <c r="G278" s="13"/>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A279" s="31"/>
       <c r="B279" s="13"/>
       <c r="C279" s="13"/>
       <c r="D279" s="13"/>
       <c r="E279" s="13"/>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F279" s="46"/>
+      <c r="G279" s="13"/>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A280" s="31"/>
       <c r="B280" s="13"/>
       <c r="C280" s="13"/>
       <c r="D280" s="13"/>
       <c r="E280" s="13"/>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F280" s="46"/>
+      <c r="G280" s="13"/>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A281" s="31"/>
       <c r="B281" s="13"/>
       <c r="C281" s="13"/>
       <c r="D281" s="13"/>
       <c r="E281" s="13"/>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F281" s="46"/>
+      <c r="G281" s="13"/>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A282" s="31"/>
       <c r="B282" s="13"/>
       <c r="C282" s="13"/>
       <c r="D282" s="13"/>
       <c r="E282" s="13"/>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F282" s="46"/>
+      <c r="G282" s="13"/>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A283" s="31"/>
       <c r="B283" s="13"/>
       <c r="C283" s="13"/>
       <c r="D283" s="13"/>
       <c r="E283" s="13"/>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F283" s="46"/>
+      <c r="G283" s="13"/>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A284" s="31"/>
       <c r="B284" s="13"/>
       <c r="C284" s="13"/>
       <c r="D284" s="13"/>
       <c r="E284" s="13"/>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F284" s="46"/>
+      <c r="G284" s="13"/>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A285" s="31"/>
       <c r="B285" s="13"/>
       <c r="C285" s="13"/>
       <c r="D285" s="13"/>
       <c r="E285" s="13"/>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F285" s="46"/>
+      <c r="G285" s="13"/>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A286" s="31"/>
       <c r="B286" s="13"/>
       <c r="C286" s="13"/>
       <c r="D286" s="13"/>
       <c r="E286" s="13"/>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F286" s="46"/>
+      <c r="G286" s="13"/>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A287" s="31"/>
       <c r="B287" s="13"/>
       <c r="C287" s="13"/>
       <c r="D287" s="13"/>
       <c r="E287" s="13"/>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F287" s="46"/>
+      <c r="G287" s="13"/>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A288" s="31"/>
       <c r="B288" s="13"/>
       <c r="C288" s="13"/>
       <c r="D288" s="13"/>
       <c r="E288" s="13"/>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F288" s="46"/>
+      <c r="G288" s="13"/>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A289" s="31"/>
       <c r="B289" s="13"/>
       <c r="C289" s="13"/>
       <c r="D289" s="13"/>
       <c r="E289" s="13"/>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F289" s="46"/>
+      <c r="G289" s="13"/>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A290" s="31"/>
       <c r="B290" s="13"/>
       <c r="C290" s="13"/>
       <c r="D290" s="13"/>
       <c r="E290" s="13"/>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F290" s="46"/>
+      <c r="G290" s="13"/>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A291" s="31"/>
       <c r="B291" s="13"/>
       <c r="C291" s="13"/>
       <c r="D291" s="13"/>
       <c r="E291" s="13"/>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F291" s="46"/>
+      <c r="G291" s="13"/>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A292" s="31"/>
       <c r="B292" s="13"/>
       <c r="C292" s="13"/>
       <c r="D292" s="13"/>
       <c r="E292" s="13"/>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F292" s="46"/>
+      <c r="G292" s="13"/>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A293" s="31"/>
       <c r="B293" s="13"/>
       <c r="C293" s="13"/>
       <c r="D293" s="13"/>
       <c r="E293" s="13"/>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F293" s="46"/>
+      <c r="G293" s="13"/>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A294" s="31"/>
       <c r="B294" s="13"/>
       <c r="C294" s="13"/>
       <c r="D294" s="13"/>
       <c r="E294" s="13"/>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F294" s="46"/>
+      <c r="G294" s="13"/>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A295" s="31"/>
       <c r="B295" s="13"/>
       <c r="C295" s="13"/>
       <c r="D295" s="13"/>
       <c r="E295" s="13"/>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F295" s="46"/>
+      <c r="G295" s="13"/>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A296" s="31"/>
       <c r="B296" s="13"/>
       <c r="C296" s="13"/>
       <c r="D296" s="13"/>
       <c r="E296" s="13"/>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F296" s="46"/>
+      <c r="G296" s="13"/>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A297" s="31"/>
       <c r="B297" s="13"/>
       <c r="C297" s="13"/>
       <c r="D297" s="13"/>
       <c r="E297" s="13"/>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F297" s="46"/>
+      <c r="G297" s="13"/>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A298" s="31"/>
       <c r="B298" s="13"/>
       <c r="C298" s="13"/>
       <c r="D298" s="13"/>
       <c r="E298" s="13"/>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F298" s="46"/>
+      <c r="G298" s="13"/>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A299" s="31"/>
       <c r="B299" s="13"/>
       <c r="C299" s="13"/>
       <c r="D299" s="13"/>
       <c r="E299" s="13"/>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F299" s="46"/>
+      <c r="G299" s="13"/>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A300" s="31"/>
       <c r="B300" s="13"/>
       <c r="C300" s="13"/>
       <c r="D300" s="13"/>
       <c r="E300" s="13"/>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F300" s="46"/>
+      <c r="G300" s="13"/>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A301" s="31"/>
       <c r="B301" s="13"/>
       <c r="C301" s="13"/>
       <c r="D301" s="13"/>
       <c r="E301" s="13"/>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F301" s="46"/>
+      <c r="G301" s="13"/>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A302" s="31"/>
       <c r="B302" s="13"/>
       <c r="C302" s="13"/>
       <c r="D302" s="13"/>
       <c r="E302" s="13"/>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F302" s="46"/>
+      <c r="G302" s="13"/>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A303" s="31"/>
       <c r="B303" s="13"/>
       <c r="C303" s="13"/>
       <c r="D303" s="13"/>
       <c r="E303" s="13"/>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F303" s="46"/>
+      <c r="G303" s="13"/>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A304" s="31"/>
       <c r="B304" s="13"/>
       <c r="C304" s="13"/>
       <c r="D304" s="13"/>
       <c r="E304" s="13"/>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F304" s="46"/>
+      <c r="G304" s="13"/>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A305" s="31"/>
       <c r="B305" s="13"/>
       <c r="C305" s="13"/>
       <c r="D305" s="13"/>
       <c r="E305" s="13"/>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F305" s="46"/>
+      <c r="G305" s="13"/>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A306" s="31"/>
       <c r="B306" s="13"/>
       <c r="C306" s="13"/>
       <c r="D306" s="13"/>
       <c r="E306" s="13"/>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F306" s="46"/>
+      <c r="G306" s="13"/>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A307" s="31"/>
       <c r="B307" s="13"/>
       <c r="C307" s="13"/>
       <c r="D307" s="13"/>
       <c r="E307" s="13"/>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F307" s="46"/>
+      <c r="G307" s="13"/>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A308" s="31"/>
       <c r="B308" s="13"/>
       <c r="C308" s="13"/>
       <c r="D308" s="13"/>
       <c r="E308" s="13"/>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F308" s="46"/>
+      <c r="G308" s="13"/>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A309" s="31"/>
       <c r="B309" s="13"/>
       <c r="C309" s="13"/>
       <c r="D309" s="13"/>
       <c r="E309" s="13"/>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F309" s="46"/>
+      <c r="G309" s="13"/>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A310" s="31"/>
       <c r="B310" s="13"/>
       <c r="C310" s="13"/>
       <c r="D310" s="13"/>
       <c r="E310" s="13"/>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F310" s="46"/>
+      <c r="G310" s="13"/>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A311" s="31"/>
       <c r="B311" s="13"/>
       <c r="C311" s="13"/>
       <c r="D311" s="13"/>
       <c r="E311" s="13"/>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F311" s="46"/>
+      <c r="G311" s="13"/>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A312" s="31"/>
       <c r="B312" s="13"/>
       <c r="C312" s="13"/>
       <c r="D312" s="13"/>
       <c r="E312" s="13"/>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F312" s="46"/>
+      <c r="G312" s="13"/>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A313" s="31"/>
       <c r="B313" s="13"/>
       <c r="C313" s="13"/>
       <c r="D313" s="13"/>
       <c r="E313" s="13"/>
+      <c r="F313" s="46"/>
+      <c r="G313" s="13"/>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A314" s="31"/>
+      <c r="B314" s="13"/>
+      <c r="C314" s="13"/>
+      <c r="D314" s="13"/>
+      <c r="E314" s="13"/>
+      <c r="F314" s="46"/>
+      <c r="G314" s="13"/>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A315" s="31"/>
+      <c r="B315" s="13"/>
+      <c r="C315" s="13"/>
+      <c r="D315" s="13"/>
+      <c r="E315" s="13"/>
+      <c r="F315" s="46"/>
+      <c r="G315" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B15:B22"/>
+    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3672,22 +4471,22 @@
       <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="43"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="7" t="s">
         <v>14</v>
       </c>
@@ -3725,7 +4524,7 @@
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G9" s="23"/>
     </row>
@@ -3773,7 +4572,7 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="25" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="26" t="s">
@@ -3781,7 +4580,7 @@
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G13" s="26" t="s">
         <v>118</v>
@@ -3821,22 +4620,22 @@
       <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
       <c r="D18" s="7" t="s">
         <v>14</v>
       </c>
@@ -3869,22 +4668,22 @@
       <c r="G20" s="23"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="7" t="s">
         <v>14</v>
       </c>
@@ -4000,15 +4799,15 @@
     </row>
     <row r="6" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="43"/>
       <c r="I7" s="16" t="s">
         <v>9</v>
       </c>
@@ -4023,11 +4822,11 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
@@ -4084,26 +4883,26 @@
       <c r="L10" s="20"/>
     </row>
     <row r="11" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
       <c r="I11" s="18"/>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
     </row>
     <row r="12" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="7" t="s">
         <v>14</v>
       </c>
@@ -4237,22 +5036,22 @@
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="7" t="s">
         <v>14</v>
       </c>
@@ -4455,15 +5254,15 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="43"/>
       <c r="H7" s="2"/>
       <c r="I7" s="16"/>
       <c r="J7" s="17"/>
@@ -4471,11 +5270,11 @@
       <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
@@ -4539,15 +5338,15 @@
       <c r="L10" s="20"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
       <c r="H11" s="2"/>
       <c r="I11" s="18"/>
       <c r="J11" s="20"/>
@@ -4555,11 +5354,11 @@
       <c r="L11" s="20"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="7" t="s">
         <v>14</v>
       </c>
@@ -4709,11 +5508,11 @@
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="7"/>
@@ -4725,11 +5524,11 @@
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="7" t="s">
         <v>14</v>
       </c>
@@ -4889,22 +5688,22 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="43"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
@@ -4936,22 +5735,22 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="7" t="s">
         <v>14</v>
       </c>
@@ -5051,22 +5850,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="7" t="s">
         <v>14</v>
       </c>
@@ -5212,22 +6011,22 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="43"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
@@ -5489,22 +6288,22 @@
       <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="43"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
       <c r="D27" s="7" t="s">
         <v>14</v>
       </c>
@@ -5591,22 +6390,22 @@
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
       <c r="D37" s="7" t="s">
         <v>14</v>
       </c>
@@ -5751,22 +6550,22 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="43"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
@@ -5796,22 +6595,22 @@
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="7" t="s">
         <v>14</v>
       </c>
@@ -5932,22 +6731,22 @@
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="7" t="s">
         <v>14</v>
       </c>

--- a/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
+++ b/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
@@ -968,6 +968,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -994,21 +1009,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1318,7 +1318,7 @@
   <dimension ref="A1:G315"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1327,7 +1327,7 @@
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="20.125" customWidth="1"/>
     <col min="4" max="4" width="57.25" customWidth="1"/>
-    <col min="6" max="6" width="19.5" style="47" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="32" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1357,7 +1357,7 @@
       <c r="A2" s="30">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="40" t="s">
         <v>125</v>
       </c>
       <c r="C2" s="28" t="s">
@@ -1369,14 +1369,14 @@
       <c r="E2" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="45"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="28"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="30">
         <v>2</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="27" t="s">
         <v>127</v>
       </c>
@@ -1386,12 +1386,12 @@
       <c r="E3" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="F3" s="45"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="33"/>
-      <c r="B4" s="36"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="27" t="s">
         <v>157</v>
       </c>
@@ -1399,14 +1399,14 @@
       <c r="E4" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="F4" s="45"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="30">
         <v>3</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="27" t="s">
         <v>128</v>
       </c>
@@ -1416,14 +1416,14 @@
       <c r="E5" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="45"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="28"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="30">
         <v>4</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="27" t="s">
         <v>129</v>
       </c>
@@ -1431,14 +1431,14 @@
       <c r="E6" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="F6" s="45"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="28"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="30">
         <v>5</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="27" t="s">
         <v>130</v>
       </c>
@@ -1446,14 +1446,14 @@
       <c r="E7" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="F7" s="45"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="28"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="30">
         <v>6</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="27" t="s">
         <v>131</v>
       </c>
@@ -1461,14 +1461,14 @@
       <c r="E8" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="F8" s="45"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="30">
         <v>7</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="43" t="s">
         <v>132</v>
       </c>
       <c r="C9" s="27" t="s">
@@ -1478,7 +1478,7 @@
       <c r="E9" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="35" t="s">
         <v>165</v>
       </c>
       <c r="G9" s="28"/>
@@ -1487,7 +1487,7 @@
       <c r="A10" s="30">
         <v>8</v>
       </c>
-      <c r="B10" s="36"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="27" t="s">
         <v>134</v>
       </c>
@@ -1495,7 +1495,7 @@
       <c r="E10" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="36" t="s">
         <v>179</v>
       </c>
       <c r="G10" s="28"/>
@@ -1504,7 +1504,7 @@
       <c r="A11" s="30">
         <v>9</v>
       </c>
-      <c r="B11" s="36"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="27" t="s">
         <v>135</v>
       </c>
@@ -1512,7 +1512,7 @@
       <c r="E11" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="36" t="s">
         <v>168</v>
       </c>
       <c r="G11" s="28"/>
@@ -1521,7 +1521,7 @@
       <c r="A12" s="30">
         <v>10</v>
       </c>
-      <c r="B12" s="36"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="27" t="s">
         <v>136</v>
       </c>
@@ -1529,14 +1529,14 @@
       <c r="E12" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="F12" s="45" t="s">
+      <c r="F12" s="36" t="s">
         <v>166</v>
       </c>
       <c r="G12" s="28"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="34"/>
-      <c r="B13" s="36"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="27" t="s">
         <v>160</v>
       </c>
@@ -1544,7 +1544,7 @@
       <c r="E13" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="36" t="s">
         <v>169</v>
       </c>
       <c r="G13" s="28"/>
@@ -1553,7 +1553,7 @@
       <c r="A14" s="30">
         <v>11</v>
       </c>
-      <c r="B14" s="37"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="27" t="s">
         <v>137</v>
       </c>
@@ -1561,7 +1561,7 @@
       <c r="E14" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="F14" s="45" t="s">
+      <c r="F14" s="36" t="s">
         <v>170</v>
       </c>
       <c r="G14" s="28"/>
@@ -1570,7 +1570,7 @@
       <c r="A15" s="30">
         <v>12</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="43" t="s">
         <v>133</v>
       </c>
       <c r="C15" s="27" t="s">
@@ -1580,7 +1580,7 @@
       <c r="E15" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="36" t="s">
         <v>171</v>
       </c>
       <c r="G15" s="28"/>
@@ -1589,7 +1589,7 @@
       <c r="A16" s="30">
         <v>13</v>
       </c>
-      <c r="B16" s="36"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="27" t="s">
         <v>140</v>
       </c>
@@ -1597,7 +1597,7 @@
       <c r="E16" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="36" t="s">
         <v>167</v>
       </c>
       <c r="G16" s="28"/>
@@ -1606,7 +1606,7 @@
       <c r="A17" s="30">
         <v>14</v>
       </c>
-      <c r="B17" s="36"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="27" t="s">
         <v>173</v>
       </c>
@@ -1614,7 +1614,7 @@
       <c r="E17" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="36" t="s">
         <v>172</v>
       </c>
       <c r="G17" s="28"/>
@@ -1623,7 +1623,7 @@
       <c r="A18" s="30">
         <v>15</v>
       </c>
-      <c r="B18" s="36"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="27" t="s">
         <v>139</v>
       </c>
@@ -1631,14 +1631,14 @@
       <c r="E18" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="F18" s="45" t="s">
+      <c r="F18" s="36" t="s">
         <v>166</v>
       </c>
       <c r="G18" s="28"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="34"/>
-      <c r="B19" s="36"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="27" t="s">
         <v>159</v>
       </c>
@@ -1646,7 +1646,7 @@
       <c r="E19" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="F19" s="45" t="s">
+      <c r="F19" s="36" t="s">
         <v>176</v>
       </c>
       <c r="G19" s="28"/>
@@ -1655,7 +1655,7 @@
       <c r="A20" s="30">
         <v>16</v>
       </c>
-      <c r="B20" s="36"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="27" t="s">
         <v>141</v>
       </c>
@@ -1663,7 +1663,7 @@
       <c r="E20" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="F20" s="45" t="s">
+      <c r="F20" s="36" t="s">
         <v>174</v>
       </c>
       <c r="G20" s="28"/>
@@ -1672,7 +1672,7 @@
       <c r="A21" s="30">
         <v>17</v>
       </c>
-      <c r="B21" s="36"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="27" t="s">
         <v>149</v>
       </c>
@@ -1680,7 +1680,7 @@
       <c r="E21" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="F21" s="45" t="s">
+      <c r="F21" s="36" t="s">
         <v>175</v>
       </c>
       <c r="G21" s="28"/>
@@ -1689,7 +1689,7 @@
       <c r="A22" s="30">
         <v>18</v>
       </c>
-      <c r="B22" s="37"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="27" t="s">
         <v>150</v>
       </c>
@@ -1697,7 +1697,7 @@
       <c r="E22" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="F22" s="48" t="s">
+      <c r="F22" s="39" t="s">
         <v>177</v>
       </c>
       <c r="G22" s="28"/>
@@ -1706,7 +1706,7 @@
       <c r="A23" s="30">
         <v>19</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="43" t="s">
         <v>161</v>
       </c>
       <c r="C23" s="27" t="s">
@@ -1716,14 +1716,14 @@
       <c r="E23" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="F23" s="46"/>
+      <c r="F23" s="37"/>
       <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="30">
         <v>20</v>
       </c>
-      <c r="B24" s="37"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="27" t="s">
         <v>163</v>
       </c>
@@ -1731,7 +1731,7 @@
       <c r="E24" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="F24" s="46"/>
+      <c r="F24" s="37"/>
       <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -1742,7 +1742,7 @@
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
-      <c r="F25" s="46"/>
+      <c r="F25" s="37"/>
       <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -1753,7 +1753,7 @@
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
-      <c r="F26" s="46"/>
+      <c r="F26" s="37"/>
       <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
@@ -1764,7 +1764,7 @@
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
-      <c r="F27" s="46"/>
+      <c r="F27" s="37"/>
       <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
@@ -1775,7 +1775,7 @@
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
-      <c r="F28" s="46"/>
+      <c r="F28" s="37"/>
       <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -1786,7 +1786,7 @@
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
-      <c r="F29" s="46"/>
+      <c r="F29" s="37"/>
       <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
@@ -1797,7 +1797,7 @@
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
-      <c r="F30" s="46"/>
+      <c r="F30" s="37"/>
       <c r="G30" s="13"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
@@ -1808,7 +1808,7 @@
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
-      <c r="F31" s="46"/>
+      <c r="F31" s="37"/>
       <c r="G31" s="13"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
@@ -1819,7 +1819,7 @@
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
-      <c r="F32" s="46"/>
+      <c r="F32" s="37"/>
       <c r="G32" s="13"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
@@ -1830,7 +1830,7 @@
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
-      <c r="F33" s="46"/>
+      <c r="F33" s="37"/>
       <c r="G33" s="13"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
@@ -1841,7 +1841,7 @@
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
-      <c r="F34" s="46"/>
+      <c r="F34" s="37"/>
       <c r="G34" s="13"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
@@ -1852,7 +1852,7 @@
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
-      <c r="F35" s="46"/>
+      <c r="F35" s="37"/>
       <c r="G35" s="13"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
@@ -1863,7 +1863,7 @@
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
-      <c r="F36" s="46"/>
+      <c r="F36" s="37"/>
       <c r="G36" s="13"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
@@ -1874,7 +1874,7 @@
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
-      <c r="F37" s="46"/>
+      <c r="F37" s="37"/>
       <c r="G37" s="13"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
@@ -1883,7 +1883,7 @@
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
-      <c r="F38" s="46"/>
+      <c r="F38" s="37"/>
       <c r="G38" s="13"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
@@ -1892,7 +1892,7 @@
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
-      <c r="F39" s="46"/>
+      <c r="F39" s="37"/>
       <c r="G39" s="13"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
@@ -1901,7 +1901,7 @@
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
-      <c r="F40" s="46"/>
+      <c r="F40" s="37"/>
       <c r="G40" s="13"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
@@ -1910,7 +1910,7 @@
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
-      <c r="F41" s="46"/>
+      <c r="F41" s="37"/>
       <c r="G41" s="13"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
@@ -1919,7 +1919,7 @@
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
-      <c r="F42" s="46"/>
+      <c r="F42" s="37"/>
       <c r="G42" s="13"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
@@ -1928,7 +1928,7 @@
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
-      <c r="F43" s="46"/>
+      <c r="F43" s="37"/>
       <c r="G43" s="13"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
@@ -1937,7 +1937,7 @@
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
-      <c r="F44" s="46"/>
+      <c r="F44" s="37"/>
       <c r="G44" s="13"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
@@ -1946,7 +1946,7 @@
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
-      <c r="F45" s="46"/>
+      <c r="F45" s="37"/>
       <c r="G45" s="13"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
@@ -1955,7 +1955,7 @@
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
-      <c r="F46" s="46"/>
+      <c r="F46" s="37"/>
       <c r="G46" s="13"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
@@ -1964,7 +1964,7 @@
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
-      <c r="F47" s="46"/>
+      <c r="F47" s="37"/>
       <c r="G47" s="13"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
@@ -1973,7 +1973,7 @@
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
-      <c r="F48" s="46"/>
+      <c r="F48" s="37"/>
       <c r="G48" s="13"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
@@ -1982,7 +1982,7 @@
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
-      <c r="F49" s="46"/>
+      <c r="F49" s="37"/>
       <c r="G49" s="13"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
@@ -1991,7 +1991,7 @@
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
-      <c r="F50" s="46"/>
+      <c r="F50" s="37"/>
       <c r="G50" s="13"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
@@ -2000,7 +2000,7 @@
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
-      <c r="F51" s="46"/>
+      <c r="F51" s="37"/>
       <c r="G51" s="13"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
@@ -2009,7 +2009,7 @@
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
-      <c r="F52" s="46"/>
+      <c r="F52" s="37"/>
       <c r="G52" s="13"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
@@ -2018,7 +2018,7 @@
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
-      <c r="F53" s="46"/>
+      <c r="F53" s="37"/>
       <c r="G53" s="13"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
@@ -2027,7 +2027,7 @@
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
-      <c r="F54" s="46"/>
+      <c r="F54" s="37"/>
       <c r="G54" s="13"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
@@ -2036,7 +2036,7 @@
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
-      <c r="F55" s="46"/>
+      <c r="F55" s="37"/>
       <c r="G55" s="13"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
@@ -2045,7 +2045,7 @@
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
-      <c r="F56" s="46"/>
+      <c r="F56" s="37"/>
       <c r="G56" s="13"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
@@ -2054,7 +2054,7 @@
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
-      <c r="F57" s="46"/>
+      <c r="F57" s="37"/>
       <c r="G57" s="13"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
@@ -2063,7 +2063,7 @@
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13"/>
-      <c r="F58" s="46"/>
+      <c r="F58" s="37"/>
       <c r="G58" s="13"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
@@ -2072,7 +2072,7 @@
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="E59" s="13"/>
-      <c r="F59" s="46"/>
+      <c r="F59" s="37"/>
       <c r="G59" s="13"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
@@ -2081,7 +2081,7 @@
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
       <c r="E60" s="13"/>
-      <c r="F60" s="46"/>
+      <c r="F60" s="37"/>
       <c r="G60" s="13"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
@@ -2090,7 +2090,7 @@
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
       <c r="E61" s="13"/>
-      <c r="F61" s="46"/>
+      <c r="F61" s="37"/>
       <c r="G61" s="13"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
@@ -2099,7 +2099,7 @@
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13"/>
-      <c r="F62" s="46"/>
+      <c r="F62" s="37"/>
       <c r="G62" s="13"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
@@ -2108,7 +2108,7 @@
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
       <c r="E63" s="13"/>
-      <c r="F63" s="46"/>
+      <c r="F63" s="37"/>
       <c r="G63" s="13"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
@@ -2117,7 +2117,7 @@
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
       <c r="E64" s="13"/>
-      <c r="F64" s="46"/>
+      <c r="F64" s="37"/>
       <c r="G64" s="13"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
@@ -2126,7 +2126,7 @@
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
-      <c r="F65" s="46"/>
+      <c r="F65" s="37"/>
       <c r="G65" s="13"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
@@ -2135,7 +2135,7 @@
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
       <c r="E66" s="13"/>
-      <c r="F66" s="46"/>
+      <c r="F66" s="37"/>
       <c r="G66" s="13"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
@@ -2144,7 +2144,7 @@
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="E67" s="13"/>
-      <c r="F67" s="46"/>
+      <c r="F67" s="37"/>
       <c r="G67" s="13"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
@@ -2153,7 +2153,7 @@
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="13"/>
-      <c r="F68" s="46"/>
+      <c r="F68" s="37"/>
       <c r="G68" s="13"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
@@ -2162,7 +2162,7 @@
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
       <c r="E69" s="13"/>
-      <c r="F69" s="46"/>
+      <c r="F69" s="37"/>
       <c r="G69" s="13"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
@@ -2171,7 +2171,7 @@
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
       <c r="E70" s="13"/>
-      <c r="F70" s="46"/>
+      <c r="F70" s="37"/>
       <c r="G70" s="13"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
@@ -2180,7 +2180,7 @@
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
       <c r="E71" s="13"/>
-      <c r="F71" s="46"/>
+      <c r="F71" s="37"/>
       <c r="G71" s="13"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
@@ -2189,7 +2189,7 @@
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
       <c r="E72" s="13"/>
-      <c r="F72" s="46"/>
+      <c r="F72" s="37"/>
       <c r="G72" s="13"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
@@ -2198,7 +2198,7 @@
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
       <c r="E73" s="13"/>
-      <c r="F73" s="46"/>
+      <c r="F73" s="37"/>
       <c r="G73" s="13"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
@@ -2207,7 +2207,7 @@
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
       <c r="E74" s="13"/>
-      <c r="F74" s="46"/>
+      <c r="F74" s="37"/>
       <c r="G74" s="13"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
@@ -2216,7 +2216,7 @@
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
-      <c r="F75" s="46"/>
+      <c r="F75" s="37"/>
       <c r="G75" s="13"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
@@ -2225,7 +2225,7 @@
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
-      <c r="F76" s="46"/>
+      <c r="F76" s="37"/>
       <c r="G76" s="13"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
@@ -2234,7 +2234,7 @@
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
-      <c r="F77" s="46"/>
+      <c r="F77" s="37"/>
       <c r="G77" s="13"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
@@ -2243,7 +2243,7 @@
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
-      <c r="F78" s="46"/>
+      <c r="F78" s="37"/>
       <c r="G78" s="13"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
@@ -2252,7 +2252,7 @@
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
-      <c r="F79" s="46"/>
+      <c r="F79" s="37"/>
       <c r="G79" s="13"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
@@ -2261,7 +2261,7 @@
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
-      <c r="F80" s="46"/>
+      <c r="F80" s="37"/>
       <c r="G80" s="13"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
@@ -2270,7 +2270,7 @@
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
       <c r="E81" s="13"/>
-      <c r="F81" s="46"/>
+      <c r="F81" s="37"/>
       <c r="G81" s="13"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
@@ -2279,7 +2279,7 @@
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
       <c r="E82" s="13"/>
-      <c r="F82" s="46"/>
+      <c r="F82" s="37"/>
       <c r="G82" s="13"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
@@ -2288,7 +2288,7 @@
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
-      <c r="F83" s="46"/>
+      <c r="F83" s="37"/>
       <c r="G83" s="13"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
@@ -2297,7 +2297,7 @@
       <c r="C84" s="13"/>
       <c r="D84" s="13"/>
       <c r="E84" s="13"/>
-      <c r="F84" s="46"/>
+      <c r="F84" s="37"/>
       <c r="G84" s="13"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
@@ -2306,7 +2306,7 @@
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
-      <c r="F85" s="46"/>
+      <c r="F85" s="37"/>
       <c r="G85" s="13"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
@@ -2315,7 +2315,7 @@
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13"/>
-      <c r="F86" s="46"/>
+      <c r="F86" s="37"/>
       <c r="G86" s="13"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
@@ -2324,7 +2324,7 @@
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
       <c r="E87" s="13"/>
-      <c r="F87" s="46"/>
+      <c r="F87" s="37"/>
       <c r="G87" s="13"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
@@ -2333,7 +2333,7 @@
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13"/>
-      <c r="F88" s="46"/>
+      <c r="F88" s="37"/>
       <c r="G88" s="13"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
@@ -2342,7 +2342,7 @@
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13"/>
-      <c r="F89" s="46"/>
+      <c r="F89" s="37"/>
       <c r="G89" s="13"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
@@ -2351,7 +2351,7 @@
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
       <c r="E90" s="13"/>
-      <c r="F90" s="46"/>
+      <c r="F90" s="37"/>
       <c r="G90" s="13"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.15">
@@ -2360,7 +2360,7 @@
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
       <c r="E91" s="13"/>
-      <c r="F91" s="46"/>
+      <c r="F91" s="37"/>
       <c r="G91" s="13"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
@@ -2369,7 +2369,7 @@
       <c r="C92" s="13"/>
       <c r="D92" s="13"/>
       <c r="E92" s="13"/>
-      <c r="F92" s="46"/>
+      <c r="F92" s="37"/>
       <c r="G92" s="13"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
@@ -2378,7 +2378,7 @@
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
       <c r="E93" s="13"/>
-      <c r="F93" s="46"/>
+      <c r="F93" s="37"/>
       <c r="G93" s="13"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.15">
@@ -2387,7 +2387,7 @@
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
       <c r="E94" s="13"/>
-      <c r="F94" s="46"/>
+      <c r="F94" s="37"/>
       <c r="G94" s="13"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
@@ -2396,7 +2396,7 @@
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13"/>
-      <c r="F95" s="46"/>
+      <c r="F95" s="37"/>
       <c r="G95" s="13"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.15">
@@ -2405,7 +2405,7 @@
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
-      <c r="F96" s="46"/>
+      <c r="F96" s="37"/>
       <c r="G96" s="13"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.15">
@@ -2414,7 +2414,7 @@
       <c r="C97" s="13"/>
       <c r="D97" s="13"/>
       <c r="E97" s="13"/>
-      <c r="F97" s="46"/>
+      <c r="F97" s="37"/>
       <c r="G97" s="13"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
@@ -2423,7 +2423,7 @@
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
       <c r="E98" s="13"/>
-      <c r="F98" s="46"/>
+      <c r="F98" s="37"/>
       <c r="G98" s="13"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.15">
@@ -2432,7 +2432,7 @@
       <c r="C99" s="13"/>
       <c r="D99" s="13"/>
       <c r="E99" s="13"/>
-      <c r="F99" s="46"/>
+      <c r="F99" s="37"/>
       <c r="G99" s="13"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.15">
@@ -2441,7 +2441,7 @@
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
       <c r="E100" s="13"/>
-      <c r="F100" s="46"/>
+      <c r="F100" s="37"/>
       <c r="G100" s="13"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.15">
@@ -2450,7 +2450,7 @@
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13"/>
-      <c r="F101" s="46"/>
+      <c r="F101" s="37"/>
       <c r="G101" s="13"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.15">
@@ -2459,7 +2459,7 @@
       <c r="C102" s="13"/>
       <c r="D102" s="13"/>
       <c r="E102" s="13"/>
-      <c r="F102" s="46"/>
+      <c r="F102" s="37"/>
       <c r="G102" s="13"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.15">
@@ -2468,7 +2468,7 @@
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
       <c r="E103" s="13"/>
-      <c r="F103" s="46"/>
+      <c r="F103" s="37"/>
       <c r="G103" s="13"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.15">
@@ -2477,7 +2477,7 @@
       <c r="C104" s="13"/>
       <c r="D104" s="13"/>
       <c r="E104" s="13"/>
-      <c r="F104" s="46"/>
+      <c r="F104" s="37"/>
       <c r="G104" s="13"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.15">
@@ -2486,7 +2486,7 @@
       <c r="C105" s="13"/>
       <c r="D105" s="13"/>
       <c r="E105" s="13"/>
-      <c r="F105" s="46"/>
+      <c r="F105" s="37"/>
       <c r="G105" s="13"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.15">
@@ -2495,7 +2495,7 @@
       <c r="C106" s="13"/>
       <c r="D106" s="13"/>
       <c r="E106" s="13"/>
-      <c r="F106" s="46"/>
+      <c r="F106" s="37"/>
       <c r="G106" s="13"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.15">
@@ -2504,7 +2504,7 @@
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
       <c r="E107" s="13"/>
-      <c r="F107" s="46"/>
+      <c r="F107" s="37"/>
       <c r="G107" s="13"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.15">
@@ -2513,7 +2513,7 @@
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
       <c r="E108" s="13"/>
-      <c r="F108" s="46"/>
+      <c r="F108" s="37"/>
       <c r="G108" s="13"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.15">
@@ -2522,7 +2522,7 @@
       <c r="C109" s="13"/>
       <c r="D109" s="13"/>
       <c r="E109" s="13"/>
-      <c r="F109" s="46"/>
+      <c r="F109" s="37"/>
       <c r="G109" s="13"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.15">
@@ -2531,7 +2531,7 @@
       <c r="C110" s="13"/>
       <c r="D110" s="13"/>
       <c r="E110" s="13"/>
-      <c r="F110" s="46"/>
+      <c r="F110" s="37"/>
       <c r="G110" s="13"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.15">
@@ -2540,7 +2540,7 @@
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13"/>
-      <c r="F111" s="46"/>
+      <c r="F111" s="37"/>
       <c r="G111" s="13"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.15">
@@ -2549,7 +2549,7 @@
       <c r="C112" s="13"/>
       <c r="D112" s="13"/>
       <c r="E112" s="13"/>
-      <c r="F112" s="46"/>
+      <c r="F112" s="37"/>
       <c r="G112" s="13"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.15">
@@ -2558,7 +2558,7 @@
       <c r="C113" s="13"/>
       <c r="D113" s="13"/>
       <c r="E113" s="13"/>
-      <c r="F113" s="46"/>
+      <c r="F113" s="37"/>
       <c r="G113" s="13"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.15">
@@ -2567,7 +2567,7 @@
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
       <c r="E114" s="13"/>
-      <c r="F114" s="46"/>
+      <c r="F114" s="37"/>
       <c r="G114" s="13"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.15">
@@ -2576,7 +2576,7 @@
       <c r="C115" s="13"/>
       <c r="D115" s="13"/>
       <c r="E115" s="13"/>
-      <c r="F115" s="46"/>
+      <c r="F115" s="37"/>
       <c r="G115" s="13"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.15">
@@ -2585,7 +2585,7 @@
       <c r="C116" s="13"/>
       <c r="D116" s="13"/>
       <c r="E116" s="13"/>
-      <c r="F116" s="46"/>
+      <c r="F116" s="37"/>
       <c r="G116" s="13"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.15">
@@ -2594,7 +2594,7 @@
       <c r="C117" s="13"/>
       <c r="D117" s="13"/>
       <c r="E117" s="13"/>
-      <c r="F117" s="46"/>
+      <c r="F117" s="37"/>
       <c r="G117" s="13"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.15">
@@ -2603,7 +2603,7 @@
       <c r="C118" s="13"/>
       <c r="D118" s="13"/>
       <c r="E118" s="13"/>
-      <c r="F118" s="46"/>
+      <c r="F118" s="37"/>
       <c r="G118" s="13"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.15">
@@ -2612,7 +2612,7 @@
       <c r="C119" s="13"/>
       <c r="D119" s="13"/>
       <c r="E119" s="13"/>
-      <c r="F119" s="46"/>
+      <c r="F119" s="37"/>
       <c r="G119" s="13"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.15">
@@ -2621,7 +2621,7 @@
       <c r="C120" s="13"/>
       <c r="D120" s="13"/>
       <c r="E120" s="13"/>
-      <c r="F120" s="46"/>
+      <c r="F120" s="37"/>
       <c r="G120" s="13"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.15">
@@ -2630,7 +2630,7 @@
       <c r="C121" s="13"/>
       <c r="D121" s="13"/>
       <c r="E121" s="13"/>
-      <c r="F121" s="46"/>
+      <c r="F121" s="37"/>
       <c r="G121" s="13"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.15">
@@ -2639,7 +2639,7 @@
       <c r="C122" s="13"/>
       <c r="D122" s="13"/>
       <c r="E122" s="13"/>
-      <c r="F122" s="46"/>
+      <c r="F122" s="37"/>
       <c r="G122" s="13"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.15">
@@ -2648,7 +2648,7 @@
       <c r="C123" s="13"/>
       <c r="D123" s="13"/>
       <c r="E123" s="13"/>
-      <c r="F123" s="46"/>
+      <c r="F123" s="37"/>
       <c r="G123" s="13"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.15">
@@ -2657,7 +2657,7 @@
       <c r="C124" s="13"/>
       <c r="D124" s="13"/>
       <c r="E124" s="13"/>
-      <c r="F124" s="46"/>
+      <c r="F124" s="37"/>
       <c r="G124" s="13"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.15">
@@ -2666,7 +2666,7 @@
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
       <c r="E125" s="13"/>
-      <c r="F125" s="46"/>
+      <c r="F125" s="37"/>
       <c r="G125" s="13"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.15">
@@ -2675,7 +2675,7 @@
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
       <c r="E126" s="13"/>
-      <c r="F126" s="46"/>
+      <c r="F126" s="37"/>
       <c r="G126" s="13"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.15">
@@ -2684,7 +2684,7 @@
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
       <c r="E127" s="13"/>
-      <c r="F127" s="46"/>
+      <c r="F127" s="37"/>
       <c r="G127" s="13"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.15">
@@ -2693,7 +2693,7 @@
       <c r="C128" s="13"/>
       <c r="D128" s="13"/>
       <c r="E128" s="13"/>
-      <c r="F128" s="46"/>
+      <c r="F128" s="37"/>
       <c r="G128" s="13"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.15">
@@ -2702,7 +2702,7 @@
       <c r="C129" s="13"/>
       <c r="D129" s="13"/>
       <c r="E129" s="13"/>
-      <c r="F129" s="46"/>
+      <c r="F129" s="37"/>
       <c r="G129" s="13"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.15">
@@ -2711,7 +2711,7 @@
       <c r="C130" s="13"/>
       <c r="D130" s="13"/>
       <c r="E130" s="13"/>
-      <c r="F130" s="46"/>
+      <c r="F130" s="37"/>
       <c r="G130" s="13"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.15">
@@ -2720,7 +2720,7 @@
       <c r="C131" s="13"/>
       <c r="D131" s="13"/>
       <c r="E131" s="13"/>
-      <c r="F131" s="46"/>
+      <c r="F131" s="37"/>
       <c r="G131" s="13"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.15">
@@ -2729,7 +2729,7 @@
       <c r="C132" s="13"/>
       <c r="D132" s="13"/>
       <c r="E132" s="13"/>
-      <c r="F132" s="46"/>
+      <c r="F132" s="37"/>
       <c r="G132" s="13"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.15">
@@ -2738,7 +2738,7 @@
       <c r="C133" s="13"/>
       <c r="D133" s="13"/>
       <c r="E133" s="13"/>
-      <c r="F133" s="46"/>
+      <c r="F133" s="37"/>
       <c r="G133" s="13"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.15">
@@ -2747,7 +2747,7 @@
       <c r="C134" s="13"/>
       <c r="D134" s="13"/>
       <c r="E134" s="13"/>
-      <c r="F134" s="46"/>
+      <c r="F134" s="37"/>
       <c r="G134" s="13"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.15">
@@ -2756,7 +2756,7 @@
       <c r="C135" s="13"/>
       <c r="D135" s="13"/>
       <c r="E135" s="13"/>
-      <c r="F135" s="46"/>
+      <c r="F135" s="37"/>
       <c r="G135" s="13"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.15">
@@ -2765,7 +2765,7 @@
       <c r="C136" s="13"/>
       <c r="D136" s="13"/>
       <c r="E136" s="13"/>
-      <c r="F136" s="46"/>
+      <c r="F136" s="37"/>
       <c r="G136" s="13"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.15">
@@ -2774,7 +2774,7 @@
       <c r="C137" s="13"/>
       <c r="D137" s="13"/>
       <c r="E137" s="13"/>
-      <c r="F137" s="46"/>
+      <c r="F137" s="37"/>
       <c r="G137" s="13"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.15">
@@ -2783,7 +2783,7 @@
       <c r="C138" s="13"/>
       <c r="D138" s="13"/>
       <c r="E138" s="13"/>
-      <c r="F138" s="46"/>
+      <c r="F138" s="37"/>
       <c r="G138" s="13"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.15">
@@ -2792,7 +2792,7 @@
       <c r="C139" s="13"/>
       <c r="D139" s="13"/>
       <c r="E139" s="13"/>
-      <c r="F139" s="46"/>
+      <c r="F139" s="37"/>
       <c r="G139" s="13"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.15">
@@ -2801,7 +2801,7 @@
       <c r="C140" s="13"/>
       <c r="D140" s="13"/>
       <c r="E140" s="13"/>
-      <c r="F140" s="46"/>
+      <c r="F140" s="37"/>
       <c r="G140" s="13"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.15">
@@ -2810,7 +2810,7 @@
       <c r="C141" s="13"/>
       <c r="D141" s="13"/>
       <c r="E141" s="13"/>
-      <c r="F141" s="46"/>
+      <c r="F141" s="37"/>
       <c r="G141" s="13"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.15">
@@ -2819,7 +2819,7 @@
       <c r="C142" s="13"/>
       <c r="D142" s="13"/>
       <c r="E142" s="13"/>
-      <c r="F142" s="46"/>
+      <c r="F142" s="37"/>
       <c r="G142" s="13"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.15">
@@ -2828,7 +2828,7 @@
       <c r="C143" s="13"/>
       <c r="D143" s="13"/>
       <c r="E143" s="13"/>
-      <c r="F143" s="46"/>
+      <c r="F143" s="37"/>
       <c r="G143" s="13"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.15">
@@ -2837,7 +2837,7 @@
       <c r="C144" s="13"/>
       <c r="D144" s="13"/>
       <c r="E144" s="13"/>
-      <c r="F144" s="46"/>
+      <c r="F144" s="37"/>
       <c r="G144" s="13"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.15">
@@ -2846,7 +2846,7 @@
       <c r="C145" s="13"/>
       <c r="D145" s="13"/>
       <c r="E145" s="13"/>
-      <c r="F145" s="46"/>
+      <c r="F145" s="37"/>
       <c r="G145" s="13"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.15">
@@ -2855,7 +2855,7 @@
       <c r="C146" s="13"/>
       <c r="D146" s="13"/>
       <c r="E146" s="13"/>
-      <c r="F146" s="46"/>
+      <c r="F146" s="37"/>
       <c r="G146" s="13"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.15">
@@ -2864,7 +2864,7 @@
       <c r="C147" s="13"/>
       <c r="D147" s="13"/>
       <c r="E147" s="13"/>
-      <c r="F147" s="46"/>
+      <c r="F147" s="37"/>
       <c r="G147" s="13"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.15">
@@ -2873,7 +2873,7 @@
       <c r="C148" s="13"/>
       <c r="D148" s="13"/>
       <c r="E148" s="13"/>
-      <c r="F148" s="46"/>
+      <c r="F148" s="37"/>
       <c r="G148" s="13"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.15">
@@ -2882,7 +2882,7 @@
       <c r="C149" s="13"/>
       <c r="D149" s="13"/>
       <c r="E149" s="13"/>
-      <c r="F149" s="46"/>
+      <c r="F149" s="37"/>
       <c r="G149" s="13"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.15">
@@ -2891,7 +2891,7 @@
       <c r="C150" s="13"/>
       <c r="D150" s="13"/>
       <c r="E150" s="13"/>
-      <c r="F150" s="46"/>
+      <c r="F150" s="37"/>
       <c r="G150" s="13"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.15">
@@ -2900,7 +2900,7 @@
       <c r="C151" s="13"/>
       <c r="D151" s="13"/>
       <c r="E151" s="13"/>
-      <c r="F151" s="46"/>
+      <c r="F151" s="37"/>
       <c r="G151" s="13"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.15">
@@ -2909,7 +2909,7 @@
       <c r="C152" s="13"/>
       <c r="D152" s="13"/>
       <c r="E152" s="13"/>
-      <c r="F152" s="46"/>
+      <c r="F152" s="37"/>
       <c r="G152" s="13"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.15">
@@ -2918,7 +2918,7 @@
       <c r="C153" s="13"/>
       <c r="D153" s="13"/>
       <c r="E153" s="13"/>
-      <c r="F153" s="46"/>
+      <c r="F153" s="37"/>
       <c r="G153" s="13"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.15">
@@ -2927,7 +2927,7 @@
       <c r="C154" s="13"/>
       <c r="D154" s="13"/>
       <c r="E154" s="13"/>
-      <c r="F154" s="46"/>
+      <c r="F154" s="37"/>
       <c r="G154" s="13"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.15">
@@ -2936,7 +2936,7 @@
       <c r="C155" s="13"/>
       <c r="D155" s="13"/>
       <c r="E155" s="13"/>
-      <c r="F155" s="46"/>
+      <c r="F155" s="37"/>
       <c r="G155" s="13"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.15">
@@ -2945,7 +2945,7 @@
       <c r="C156" s="13"/>
       <c r="D156" s="13"/>
       <c r="E156" s="13"/>
-      <c r="F156" s="46"/>
+      <c r="F156" s="37"/>
       <c r="G156" s="13"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.15">
@@ -2954,7 +2954,7 @@
       <c r="C157" s="13"/>
       <c r="D157" s="13"/>
       <c r="E157" s="13"/>
-      <c r="F157" s="46"/>
+      <c r="F157" s="37"/>
       <c r="G157" s="13"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.15">
@@ -2963,7 +2963,7 @@
       <c r="C158" s="13"/>
       <c r="D158" s="13"/>
       <c r="E158" s="13"/>
-      <c r="F158" s="46"/>
+      <c r="F158" s="37"/>
       <c r="G158" s="13"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.15">
@@ -2972,7 +2972,7 @@
       <c r="C159" s="13"/>
       <c r="D159" s="13"/>
       <c r="E159" s="13"/>
-      <c r="F159" s="46"/>
+      <c r="F159" s="37"/>
       <c r="G159" s="13"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.15">
@@ -2981,7 +2981,7 @@
       <c r="C160" s="13"/>
       <c r="D160" s="13"/>
       <c r="E160" s="13"/>
-      <c r="F160" s="46"/>
+      <c r="F160" s="37"/>
       <c r="G160" s="13"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.15">
@@ -2990,7 +2990,7 @@
       <c r="C161" s="13"/>
       <c r="D161" s="13"/>
       <c r="E161" s="13"/>
-      <c r="F161" s="46"/>
+      <c r="F161" s="37"/>
       <c r="G161" s="13"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.15">
@@ -2999,7 +2999,7 @@
       <c r="C162" s="13"/>
       <c r="D162" s="13"/>
       <c r="E162" s="13"/>
-      <c r="F162" s="46"/>
+      <c r="F162" s="37"/>
       <c r="G162" s="13"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.15">
@@ -3008,7 +3008,7 @@
       <c r="C163" s="13"/>
       <c r="D163" s="13"/>
       <c r="E163" s="13"/>
-      <c r="F163" s="46"/>
+      <c r="F163" s="37"/>
       <c r="G163" s="13"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.15">
@@ -3017,7 +3017,7 @@
       <c r="C164" s="13"/>
       <c r="D164" s="13"/>
       <c r="E164" s="13"/>
-      <c r="F164" s="46"/>
+      <c r="F164" s="37"/>
       <c r="G164" s="13"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.15">
@@ -3026,7 +3026,7 @@
       <c r="C165" s="13"/>
       <c r="D165" s="13"/>
       <c r="E165" s="13"/>
-      <c r="F165" s="46"/>
+      <c r="F165" s="37"/>
       <c r="G165" s="13"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.15">
@@ -3035,7 +3035,7 @@
       <c r="C166" s="13"/>
       <c r="D166" s="13"/>
       <c r="E166" s="13"/>
-      <c r="F166" s="46"/>
+      <c r="F166" s="37"/>
       <c r="G166" s="13"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.15">
@@ -3044,7 +3044,7 @@
       <c r="C167" s="13"/>
       <c r="D167" s="13"/>
       <c r="E167" s="13"/>
-      <c r="F167" s="46"/>
+      <c r="F167" s="37"/>
       <c r="G167" s="13"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.15">
@@ -3053,7 +3053,7 @@
       <c r="C168" s="13"/>
       <c r="D168" s="13"/>
       <c r="E168" s="13"/>
-      <c r="F168" s="46"/>
+      <c r="F168" s="37"/>
       <c r="G168" s="13"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.15">
@@ -3062,7 +3062,7 @@
       <c r="C169" s="13"/>
       <c r="D169" s="13"/>
       <c r="E169" s="13"/>
-      <c r="F169" s="46"/>
+      <c r="F169" s="37"/>
       <c r="G169" s="13"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.15">
@@ -3071,7 +3071,7 @@
       <c r="C170" s="13"/>
       <c r="D170" s="13"/>
       <c r="E170" s="13"/>
-      <c r="F170" s="46"/>
+      <c r="F170" s="37"/>
       <c r="G170" s="13"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.15">
@@ -3080,7 +3080,7 @@
       <c r="C171" s="13"/>
       <c r="D171" s="13"/>
       <c r="E171" s="13"/>
-      <c r="F171" s="46"/>
+      <c r="F171" s="37"/>
       <c r="G171" s="13"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.15">
@@ -3089,7 +3089,7 @@
       <c r="C172" s="13"/>
       <c r="D172" s="13"/>
       <c r="E172" s="13"/>
-      <c r="F172" s="46"/>
+      <c r="F172" s="37"/>
       <c r="G172" s="13"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.15">
@@ -3098,7 +3098,7 @@
       <c r="C173" s="13"/>
       <c r="D173" s="13"/>
       <c r="E173" s="13"/>
-      <c r="F173" s="46"/>
+      <c r="F173" s="37"/>
       <c r="G173" s="13"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.15">
@@ -3107,7 +3107,7 @@
       <c r="C174" s="13"/>
       <c r="D174" s="13"/>
       <c r="E174" s="13"/>
-      <c r="F174" s="46"/>
+      <c r="F174" s="37"/>
       <c r="G174" s="13"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.15">
@@ -3116,7 +3116,7 @@
       <c r="C175" s="13"/>
       <c r="D175" s="13"/>
       <c r="E175" s="13"/>
-      <c r="F175" s="46"/>
+      <c r="F175" s="37"/>
       <c r="G175" s="13"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.15">
@@ -3125,7 +3125,7 @@
       <c r="C176" s="13"/>
       <c r="D176" s="13"/>
       <c r="E176" s="13"/>
-      <c r="F176" s="46"/>
+      <c r="F176" s="37"/>
       <c r="G176" s="13"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.15">
@@ -3134,7 +3134,7 @@
       <c r="C177" s="13"/>
       <c r="D177" s="13"/>
       <c r="E177" s="13"/>
-      <c r="F177" s="46"/>
+      <c r="F177" s="37"/>
       <c r="G177" s="13"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.15">
@@ -3143,7 +3143,7 @@
       <c r="C178" s="13"/>
       <c r="D178" s="13"/>
       <c r="E178" s="13"/>
-      <c r="F178" s="46"/>
+      <c r="F178" s="37"/>
       <c r="G178" s="13"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.15">
@@ -3152,7 +3152,7 @@
       <c r="C179" s="13"/>
       <c r="D179" s="13"/>
       <c r="E179" s="13"/>
-      <c r="F179" s="46"/>
+      <c r="F179" s="37"/>
       <c r="G179" s="13"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.15">
@@ -3161,7 +3161,7 @@
       <c r="C180" s="13"/>
       <c r="D180" s="13"/>
       <c r="E180" s="13"/>
-      <c r="F180" s="46"/>
+      <c r="F180" s="37"/>
       <c r="G180" s="13"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.15">
@@ -3170,7 +3170,7 @@
       <c r="C181" s="13"/>
       <c r="D181" s="13"/>
       <c r="E181" s="13"/>
-      <c r="F181" s="46"/>
+      <c r="F181" s="37"/>
       <c r="G181" s="13"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.15">
@@ -3179,7 +3179,7 @@
       <c r="C182" s="13"/>
       <c r="D182" s="13"/>
       <c r="E182" s="13"/>
-      <c r="F182" s="46"/>
+      <c r="F182" s="37"/>
       <c r="G182" s="13"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.15">
@@ -3188,7 +3188,7 @@
       <c r="C183" s="13"/>
       <c r="D183" s="13"/>
       <c r="E183" s="13"/>
-      <c r="F183" s="46"/>
+      <c r="F183" s="37"/>
       <c r="G183" s="13"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.15">
@@ -3197,7 +3197,7 @@
       <c r="C184" s="13"/>
       <c r="D184" s="13"/>
       <c r="E184" s="13"/>
-      <c r="F184" s="46"/>
+      <c r="F184" s="37"/>
       <c r="G184" s="13"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.15">
@@ -3206,7 +3206,7 @@
       <c r="C185" s="13"/>
       <c r="D185" s="13"/>
       <c r="E185" s="13"/>
-      <c r="F185" s="46"/>
+      <c r="F185" s="37"/>
       <c r="G185" s="13"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.15">
@@ -3215,7 +3215,7 @@
       <c r="C186" s="13"/>
       <c r="D186" s="13"/>
       <c r="E186" s="13"/>
-      <c r="F186" s="46"/>
+      <c r="F186" s="37"/>
       <c r="G186" s="13"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.15">
@@ -3224,7 +3224,7 @@
       <c r="C187" s="13"/>
       <c r="D187" s="13"/>
       <c r="E187" s="13"/>
-      <c r="F187" s="46"/>
+      <c r="F187" s="37"/>
       <c r="G187" s="13"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.15">
@@ -3233,7 +3233,7 @@
       <c r="C188" s="13"/>
       <c r="D188" s="13"/>
       <c r="E188" s="13"/>
-      <c r="F188" s="46"/>
+      <c r="F188" s="37"/>
       <c r="G188" s="13"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.15">
@@ -3242,7 +3242,7 @@
       <c r="C189" s="13"/>
       <c r="D189" s="13"/>
       <c r="E189" s="13"/>
-      <c r="F189" s="46"/>
+      <c r="F189" s="37"/>
       <c r="G189" s="13"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.15">
@@ -3251,7 +3251,7 @@
       <c r="C190" s="13"/>
       <c r="D190" s="13"/>
       <c r="E190" s="13"/>
-      <c r="F190" s="46"/>
+      <c r="F190" s="37"/>
       <c r="G190" s="13"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.15">
@@ -3260,7 +3260,7 @@
       <c r="C191" s="13"/>
       <c r="D191" s="13"/>
       <c r="E191" s="13"/>
-      <c r="F191" s="46"/>
+      <c r="F191" s="37"/>
       <c r="G191" s="13"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.15">
@@ -3269,7 +3269,7 @@
       <c r="C192" s="13"/>
       <c r="D192" s="13"/>
       <c r="E192" s="13"/>
-      <c r="F192" s="46"/>
+      <c r="F192" s="37"/>
       <c r="G192" s="13"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.15">
@@ -3278,7 +3278,7 @@
       <c r="C193" s="13"/>
       <c r="D193" s="13"/>
       <c r="E193" s="13"/>
-      <c r="F193" s="46"/>
+      <c r="F193" s="37"/>
       <c r="G193" s="13"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.15">
@@ -3287,7 +3287,7 @@
       <c r="C194" s="13"/>
       <c r="D194" s="13"/>
       <c r="E194" s="13"/>
-      <c r="F194" s="46"/>
+      <c r="F194" s="37"/>
       <c r="G194" s="13"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.15">
@@ -3296,7 +3296,7 @@
       <c r="C195" s="13"/>
       <c r="D195" s="13"/>
       <c r="E195" s="13"/>
-      <c r="F195" s="46"/>
+      <c r="F195" s="37"/>
       <c r="G195" s="13"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.15">
@@ -3305,7 +3305,7 @@
       <c r="C196" s="13"/>
       <c r="D196" s="13"/>
       <c r="E196" s="13"/>
-      <c r="F196" s="46"/>
+      <c r="F196" s="37"/>
       <c r="G196" s="13"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.15">
@@ -3314,7 +3314,7 @@
       <c r="C197" s="13"/>
       <c r="D197" s="13"/>
       <c r="E197" s="13"/>
-      <c r="F197" s="46"/>
+      <c r="F197" s="37"/>
       <c r="G197" s="13"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.15">
@@ -3323,7 +3323,7 @@
       <c r="C198" s="13"/>
       <c r="D198" s="13"/>
       <c r="E198" s="13"/>
-      <c r="F198" s="46"/>
+      <c r="F198" s="37"/>
       <c r="G198" s="13"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.15">
@@ -3332,7 +3332,7 @@
       <c r="C199" s="13"/>
       <c r="D199" s="13"/>
       <c r="E199" s="13"/>
-      <c r="F199" s="46"/>
+      <c r="F199" s="37"/>
       <c r="G199" s="13"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.15">
@@ -3341,7 +3341,7 @@
       <c r="C200" s="13"/>
       <c r="D200" s="13"/>
       <c r="E200" s="13"/>
-      <c r="F200" s="46"/>
+      <c r="F200" s="37"/>
       <c r="G200" s="13"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.15">
@@ -3350,7 +3350,7 @@
       <c r="C201" s="13"/>
       <c r="D201" s="13"/>
       <c r="E201" s="13"/>
-      <c r="F201" s="46"/>
+      <c r="F201" s="37"/>
       <c r="G201" s="13"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.15">
@@ -3359,7 +3359,7 @@
       <c r="C202" s="13"/>
       <c r="D202" s="13"/>
       <c r="E202" s="13"/>
-      <c r="F202" s="46"/>
+      <c r="F202" s="37"/>
       <c r="G202" s="13"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.15">
@@ -3368,7 +3368,7 @@
       <c r="C203" s="13"/>
       <c r="D203" s="13"/>
       <c r="E203" s="13"/>
-      <c r="F203" s="46"/>
+      <c r="F203" s="37"/>
       <c r="G203" s="13"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.15">
@@ -3377,7 +3377,7 @@
       <c r="C204" s="13"/>
       <c r="D204" s="13"/>
       <c r="E204" s="13"/>
-      <c r="F204" s="46"/>
+      <c r="F204" s="37"/>
       <c r="G204" s="13"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.15">
@@ -3386,7 +3386,7 @@
       <c r="C205" s="13"/>
       <c r="D205" s="13"/>
       <c r="E205" s="13"/>
-      <c r="F205" s="46"/>
+      <c r="F205" s="37"/>
       <c r="G205" s="13"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.15">
@@ -3395,7 +3395,7 @@
       <c r="C206" s="13"/>
       <c r="D206" s="13"/>
       <c r="E206" s="13"/>
-      <c r="F206" s="46"/>
+      <c r="F206" s="37"/>
       <c r="G206" s="13"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.15">
@@ -3404,7 +3404,7 @@
       <c r="C207" s="13"/>
       <c r="D207" s="13"/>
       <c r="E207" s="13"/>
-      <c r="F207" s="46"/>
+      <c r="F207" s="37"/>
       <c r="G207" s="13"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.15">
@@ -3413,7 +3413,7 @@
       <c r="C208" s="13"/>
       <c r="D208" s="13"/>
       <c r="E208" s="13"/>
-      <c r="F208" s="46"/>
+      <c r="F208" s="37"/>
       <c r="G208" s="13"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.15">
@@ -3422,7 +3422,7 @@
       <c r="C209" s="13"/>
       <c r="D209" s="13"/>
       <c r="E209" s="13"/>
-      <c r="F209" s="46"/>
+      <c r="F209" s="37"/>
       <c r="G209" s="13"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.15">
@@ -3431,7 +3431,7 @@
       <c r="C210" s="13"/>
       <c r="D210" s="13"/>
       <c r="E210" s="13"/>
-      <c r="F210" s="46"/>
+      <c r="F210" s="37"/>
       <c r="G210" s="13"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.15">
@@ -3440,7 +3440,7 @@
       <c r="C211" s="13"/>
       <c r="D211" s="13"/>
       <c r="E211" s="13"/>
-      <c r="F211" s="46"/>
+      <c r="F211" s="37"/>
       <c r="G211" s="13"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.15">
@@ -3449,7 +3449,7 @@
       <c r="C212" s="13"/>
       <c r="D212" s="13"/>
       <c r="E212" s="13"/>
-      <c r="F212" s="46"/>
+      <c r="F212" s="37"/>
       <c r="G212" s="13"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.15">
@@ -3458,7 +3458,7 @@
       <c r="C213" s="13"/>
       <c r="D213" s="13"/>
       <c r="E213" s="13"/>
-      <c r="F213" s="46"/>
+      <c r="F213" s="37"/>
       <c r="G213" s="13"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.15">
@@ -3467,7 +3467,7 @@
       <c r="C214" s="13"/>
       <c r="D214" s="13"/>
       <c r="E214" s="13"/>
-      <c r="F214" s="46"/>
+      <c r="F214" s="37"/>
       <c r="G214" s="13"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.15">
@@ -3476,7 +3476,7 @@
       <c r="C215" s="13"/>
       <c r="D215" s="13"/>
       <c r="E215" s="13"/>
-      <c r="F215" s="46"/>
+      <c r="F215" s="37"/>
       <c r="G215" s="13"/>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.15">
@@ -3485,7 +3485,7 @@
       <c r="C216" s="13"/>
       <c r="D216" s="13"/>
       <c r="E216" s="13"/>
-      <c r="F216" s="46"/>
+      <c r="F216" s="37"/>
       <c r="G216" s="13"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.15">
@@ -3494,7 +3494,7 @@
       <c r="C217" s="13"/>
       <c r="D217" s="13"/>
       <c r="E217" s="13"/>
-      <c r="F217" s="46"/>
+      <c r="F217" s="37"/>
       <c r="G217" s="13"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.15">
@@ -3503,7 +3503,7 @@
       <c r="C218" s="13"/>
       <c r="D218" s="13"/>
       <c r="E218" s="13"/>
-      <c r="F218" s="46"/>
+      <c r="F218" s="37"/>
       <c r="G218" s="13"/>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.15">
@@ -3512,7 +3512,7 @@
       <c r="C219" s="13"/>
       <c r="D219" s="13"/>
       <c r="E219" s="13"/>
-      <c r="F219" s="46"/>
+      <c r="F219" s="37"/>
       <c r="G219" s="13"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.15">
@@ -3521,7 +3521,7 @@
       <c r="C220" s="13"/>
       <c r="D220" s="13"/>
       <c r="E220" s="13"/>
-      <c r="F220" s="46"/>
+      <c r="F220" s="37"/>
       <c r="G220" s="13"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.15">
@@ -3530,7 +3530,7 @@
       <c r="C221" s="13"/>
       <c r="D221" s="13"/>
       <c r="E221" s="13"/>
-      <c r="F221" s="46"/>
+      <c r="F221" s="37"/>
       <c r="G221" s="13"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.15">
@@ -3539,7 +3539,7 @@
       <c r="C222" s="13"/>
       <c r="D222" s="13"/>
       <c r="E222" s="13"/>
-      <c r="F222" s="46"/>
+      <c r="F222" s="37"/>
       <c r="G222" s="13"/>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.15">
@@ -3548,7 +3548,7 @@
       <c r="C223" s="13"/>
       <c r="D223" s="13"/>
       <c r="E223" s="13"/>
-      <c r="F223" s="46"/>
+      <c r="F223" s="37"/>
       <c r="G223" s="13"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.15">
@@ -3557,7 +3557,7 @@
       <c r="C224" s="13"/>
       <c r="D224" s="13"/>
       <c r="E224" s="13"/>
-      <c r="F224" s="46"/>
+      <c r="F224" s="37"/>
       <c r="G224" s="13"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.15">
@@ -3566,7 +3566,7 @@
       <c r="C225" s="13"/>
       <c r="D225" s="13"/>
       <c r="E225" s="13"/>
-      <c r="F225" s="46"/>
+      <c r="F225" s="37"/>
       <c r="G225" s="13"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.15">
@@ -3575,7 +3575,7 @@
       <c r="C226" s="13"/>
       <c r="D226" s="13"/>
       <c r="E226" s="13"/>
-      <c r="F226" s="46"/>
+      <c r="F226" s="37"/>
       <c r="G226" s="13"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.15">
@@ -3584,7 +3584,7 @@
       <c r="C227" s="13"/>
       <c r="D227" s="13"/>
       <c r="E227" s="13"/>
-      <c r="F227" s="46"/>
+      <c r="F227" s="37"/>
       <c r="G227" s="13"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.15">
@@ -3593,7 +3593,7 @@
       <c r="C228" s="13"/>
       <c r="D228" s="13"/>
       <c r="E228" s="13"/>
-      <c r="F228" s="46"/>
+      <c r="F228" s="37"/>
       <c r="G228" s="13"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.15">
@@ -3602,7 +3602,7 @@
       <c r="C229" s="13"/>
       <c r="D229" s="13"/>
       <c r="E229" s="13"/>
-      <c r="F229" s="46"/>
+      <c r="F229" s="37"/>
       <c r="G229" s="13"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.15">
@@ -3611,7 +3611,7 @@
       <c r="C230" s="13"/>
       <c r="D230" s="13"/>
       <c r="E230" s="13"/>
-      <c r="F230" s="46"/>
+      <c r="F230" s="37"/>
       <c r="G230" s="13"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.15">
@@ -3620,7 +3620,7 @@
       <c r="C231" s="13"/>
       <c r="D231" s="13"/>
       <c r="E231" s="13"/>
-      <c r="F231" s="46"/>
+      <c r="F231" s="37"/>
       <c r="G231" s="13"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.15">
@@ -3629,7 +3629,7 @@
       <c r="C232" s="13"/>
       <c r="D232" s="13"/>
       <c r="E232" s="13"/>
-      <c r="F232" s="46"/>
+      <c r="F232" s="37"/>
       <c r="G232" s="13"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.15">
@@ -3638,7 +3638,7 @@
       <c r="C233" s="13"/>
       <c r="D233" s="13"/>
       <c r="E233" s="13"/>
-      <c r="F233" s="46"/>
+      <c r="F233" s="37"/>
       <c r="G233" s="13"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.15">
@@ -3647,7 +3647,7 @@
       <c r="C234" s="13"/>
       <c r="D234" s="13"/>
       <c r="E234" s="13"/>
-      <c r="F234" s="46"/>
+      <c r="F234" s="37"/>
       <c r="G234" s="13"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.15">
@@ -3656,7 +3656,7 @@
       <c r="C235" s="13"/>
       <c r="D235" s="13"/>
       <c r="E235" s="13"/>
-      <c r="F235" s="46"/>
+      <c r="F235" s="37"/>
       <c r="G235" s="13"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.15">
@@ -3665,7 +3665,7 @@
       <c r="C236" s="13"/>
       <c r="D236" s="13"/>
       <c r="E236" s="13"/>
-      <c r="F236" s="46"/>
+      <c r="F236" s="37"/>
       <c r="G236" s="13"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.15">
@@ -3674,7 +3674,7 @@
       <c r="C237" s="13"/>
       <c r="D237" s="13"/>
       <c r="E237" s="13"/>
-      <c r="F237" s="46"/>
+      <c r="F237" s="37"/>
       <c r="G237" s="13"/>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.15">
@@ -3683,7 +3683,7 @@
       <c r="C238" s="13"/>
       <c r="D238" s="13"/>
       <c r="E238" s="13"/>
-      <c r="F238" s="46"/>
+      <c r="F238" s="37"/>
       <c r="G238" s="13"/>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.15">
@@ -3692,7 +3692,7 @@
       <c r="C239" s="13"/>
       <c r="D239" s="13"/>
       <c r="E239" s="13"/>
-      <c r="F239" s="46"/>
+      <c r="F239" s="37"/>
       <c r="G239" s="13"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.15">
@@ -3701,7 +3701,7 @@
       <c r="C240" s="13"/>
       <c r="D240" s="13"/>
       <c r="E240" s="13"/>
-      <c r="F240" s="46"/>
+      <c r="F240" s="37"/>
       <c r="G240" s="13"/>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.15">
@@ -3710,7 +3710,7 @@
       <c r="C241" s="13"/>
       <c r="D241" s="13"/>
       <c r="E241" s="13"/>
-      <c r="F241" s="46"/>
+      <c r="F241" s="37"/>
       <c r="G241" s="13"/>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.15">
@@ -3719,7 +3719,7 @@
       <c r="C242" s="13"/>
       <c r="D242" s="13"/>
       <c r="E242" s="13"/>
-      <c r="F242" s="46"/>
+      <c r="F242" s="37"/>
       <c r="G242" s="13"/>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.15">
@@ -3728,7 +3728,7 @@
       <c r="C243" s="13"/>
       <c r="D243" s="13"/>
       <c r="E243" s="13"/>
-      <c r="F243" s="46"/>
+      <c r="F243" s="37"/>
       <c r="G243" s="13"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.15">
@@ -3737,7 +3737,7 @@
       <c r="C244" s="13"/>
       <c r="D244" s="13"/>
       <c r="E244" s="13"/>
-      <c r="F244" s="46"/>
+      <c r="F244" s="37"/>
       <c r="G244" s="13"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.15">
@@ -3746,7 +3746,7 @@
       <c r="C245" s="13"/>
       <c r="D245" s="13"/>
       <c r="E245" s="13"/>
-      <c r="F245" s="46"/>
+      <c r="F245" s="37"/>
       <c r="G245" s="13"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.15">
@@ -3755,7 +3755,7 @@
       <c r="C246" s="13"/>
       <c r="D246" s="13"/>
       <c r="E246" s="13"/>
-      <c r="F246" s="46"/>
+      <c r="F246" s="37"/>
       <c r="G246" s="13"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.15">
@@ -3764,7 +3764,7 @@
       <c r="C247" s="13"/>
       <c r="D247" s="13"/>
       <c r="E247" s="13"/>
-      <c r="F247" s="46"/>
+      <c r="F247" s="37"/>
       <c r="G247" s="13"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.15">
@@ -3773,7 +3773,7 @@
       <c r="C248" s="13"/>
       <c r="D248" s="13"/>
       <c r="E248" s="13"/>
-      <c r="F248" s="46"/>
+      <c r="F248" s="37"/>
       <c r="G248" s="13"/>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.15">
@@ -3782,7 +3782,7 @@
       <c r="C249" s="13"/>
       <c r="D249" s="13"/>
       <c r="E249" s="13"/>
-      <c r="F249" s="46"/>
+      <c r="F249" s="37"/>
       <c r="G249" s="13"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.15">
@@ -3791,7 +3791,7 @@
       <c r="C250" s="13"/>
       <c r="D250" s="13"/>
       <c r="E250" s="13"/>
-      <c r="F250" s="46"/>
+      <c r="F250" s="37"/>
       <c r="G250" s="13"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.15">
@@ -3800,7 +3800,7 @@
       <c r="C251" s="13"/>
       <c r="D251" s="13"/>
       <c r="E251" s="13"/>
-      <c r="F251" s="46"/>
+      <c r="F251" s="37"/>
       <c r="G251" s="13"/>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.15">
@@ -3809,7 +3809,7 @@
       <c r="C252" s="13"/>
       <c r="D252" s="13"/>
       <c r="E252" s="13"/>
-      <c r="F252" s="46"/>
+      <c r="F252" s="37"/>
       <c r="G252" s="13"/>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.15">
@@ -3818,7 +3818,7 @@
       <c r="C253" s="13"/>
       <c r="D253" s="13"/>
       <c r="E253" s="13"/>
-      <c r="F253" s="46"/>
+      <c r="F253" s="37"/>
       <c r="G253" s="13"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.15">
@@ -3827,7 +3827,7 @@
       <c r="C254" s="13"/>
       <c r="D254" s="13"/>
       <c r="E254" s="13"/>
-      <c r="F254" s="46"/>
+      <c r="F254" s="37"/>
       <c r="G254" s="13"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.15">
@@ -3836,7 +3836,7 @@
       <c r="C255" s="13"/>
       <c r="D255" s="13"/>
       <c r="E255" s="13"/>
-      <c r="F255" s="46"/>
+      <c r="F255" s="37"/>
       <c r="G255" s="13"/>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.15">
@@ -3845,7 +3845,7 @@
       <c r="C256" s="13"/>
       <c r="D256" s="13"/>
       <c r="E256" s="13"/>
-      <c r="F256" s="46"/>
+      <c r="F256" s="37"/>
       <c r="G256" s="13"/>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.15">
@@ -3854,7 +3854,7 @@
       <c r="C257" s="13"/>
       <c r="D257" s="13"/>
       <c r="E257" s="13"/>
-      <c r="F257" s="46"/>
+      <c r="F257" s="37"/>
       <c r="G257" s="13"/>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.15">
@@ -3863,7 +3863,7 @@
       <c r="C258" s="13"/>
       <c r="D258" s="13"/>
       <c r="E258" s="13"/>
-      <c r="F258" s="46"/>
+      <c r="F258" s="37"/>
       <c r="G258" s="13"/>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.15">
@@ -3872,7 +3872,7 @@
       <c r="C259" s="13"/>
       <c r="D259" s="13"/>
       <c r="E259" s="13"/>
-      <c r="F259" s="46"/>
+      <c r="F259" s="37"/>
       <c r="G259" s="13"/>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.15">
@@ -3881,7 +3881,7 @@
       <c r="C260" s="13"/>
       <c r="D260" s="13"/>
       <c r="E260" s="13"/>
-      <c r="F260" s="46"/>
+      <c r="F260" s="37"/>
       <c r="G260" s="13"/>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.15">
@@ -3890,7 +3890,7 @@
       <c r="C261" s="13"/>
       <c r="D261" s="13"/>
       <c r="E261" s="13"/>
-      <c r="F261" s="46"/>
+      <c r="F261" s="37"/>
       <c r="G261" s="13"/>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.15">
@@ -3899,7 +3899,7 @@
       <c r="C262" s="13"/>
       <c r="D262" s="13"/>
       <c r="E262" s="13"/>
-      <c r="F262" s="46"/>
+      <c r="F262" s="37"/>
       <c r="G262" s="13"/>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.15">
@@ -3908,7 +3908,7 @@
       <c r="C263" s="13"/>
       <c r="D263" s="13"/>
       <c r="E263" s="13"/>
-      <c r="F263" s="46"/>
+      <c r="F263" s="37"/>
       <c r="G263" s="13"/>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.15">
@@ -3917,7 +3917,7 @@
       <c r="C264" s="13"/>
       <c r="D264" s="13"/>
       <c r="E264" s="13"/>
-      <c r="F264" s="46"/>
+      <c r="F264" s="37"/>
       <c r="G264" s="13"/>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.15">
@@ -3926,7 +3926,7 @@
       <c r="C265" s="13"/>
       <c r="D265" s="13"/>
       <c r="E265" s="13"/>
-      <c r="F265" s="46"/>
+      <c r="F265" s="37"/>
       <c r="G265" s="13"/>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.15">
@@ -3935,7 +3935,7 @@
       <c r="C266" s="13"/>
       <c r="D266" s="13"/>
       <c r="E266" s="13"/>
-      <c r="F266" s="46"/>
+      <c r="F266" s="37"/>
       <c r="G266" s="13"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.15">
@@ -3944,7 +3944,7 @@
       <c r="C267" s="13"/>
       <c r="D267" s="13"/>
       <c r="E267" s="13"/>
-      <c r="F267" s="46"/>
+      <c r="F267" s="37"/>
       <c r="G267" s="13"/>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.15">
@@ -3953,7 +3953,7 @@
       <c r="C268" s="13"/>
       <c r="D268" s="13"/>
       <c r="E268" s="13"/>
-      <c r="F268" s="46"/>
+      <c r="F268" s="37"/>
       <c r="G268" s="13"/>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.15">
@@ -3962,7 +3962,7 @@
       <c r="C269" s="13"/>
       <c r="D269" s="13"/>
       <c r="E269" s="13"/>
-      <c r="F269" s="46"/>
+      <c r="F269" s="37"/>
       <c r="G269" s="13"/>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.15">
@@ -3971,7 +3971,7 @@
       <c r="C270" s="13"/>
       <c r="D270" s="13"/>
       <c r="E270" s="13"/>
-      <c r="F270" s="46"/>
+      <c r="F270" s="37"/>
       <c r="G270" s="13"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.15">
@@ -3980,7 +3980,7 @@
       <c r="C271" s="13"/>
       <c r="D271" s="13"/>
       <c r="E271" s="13"/>
-      <c r="F271" s="46"/>
+      <c r="F271" s="37"/>
       <c r="G271" s="13"/>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.15">
@@ -3989,7 +3989,7 @@
       <c r="C272" s="13"/>
       <c r="D272" s="13"/>
       <c r="E272" s="13"/>
-      <c r="F272" s="46"/>
+      <c r="F272" s="37"/>
       <c r="G272" s="13"/>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.15">
@@ -3998,7 +3998,7 @@
       <c r="C273" s="13"/>
       <c r="D273" s="13"/>
       <c r="E273" s="13"/>
-      <c r="F273" s="46"/>
+      <c r="F273" s="37"/>
       <c r="G273" s="13"/>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.15">
@@ -4007,7 +4007,7 @@
       <c r="C274" s="13"/>
       <c r="D274" s="13"/>
       <c r="E274" s="13"/>
-      <c r="F274" s="46"/>
+      <c r="F274" s="37"/>
       <c r="G274" s="13"/>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.15">
@@ -4016,7 +4016,7 @@
       <c r="C275" s="13"/>
       <c r="D275" s="13"/>
       <c r="E275" s="13"/>
-      <c r="F275" s="46"/>
+      <c r="F275" s="37"/>
       <c r="G275" s="13"/>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.15">
@@ -4025,7 +4025,7 @@
       <c r="C276" s="13"/>
       <c r="D276" s="13"/>
       <c r="E276" s="13"/>
-      <c r="F276" s="46"/>
+      <c r="F276" s="37"/>
       <c r="G276" s="13"/>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.15">
@@ -4034,7 +4034,7 @@
       <c r="C277" s="13"/>
       <c r="D277" s="13"/>
       <c r="E277" s="13"/>
-      <c r="F277" s="46"/>
+      <c r="F277" s="37"/>
       <c r="G277" s="13"/>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.15">
@@ -4043,7 +4043,7 @@
       <c r="C278" s="13"/>
       <c r="D278" s="13"/>
       <c r="E278" s="13"/>
-      <c r="F278" s="46"/>
+      <c r="F278" s="37"/>
       <c r="G278" s="13"/>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.15">
@@ -4052,7 +4052,7 @@
       <c r="C279" s="13"/>
       <c r="D279" s="13"/>
       <c r="E279" s="13"/>
-      <c r="F279" s="46"/>
+      <c r="F279" s="37"/>
       <c r="G279" s="13"/>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.15">
@@ -4061,7 +4061,7 @@
       <c r="C280" s="13"/>
       <c r="D280" s="13"/>
       <c r="E280" s="13"/>
-      <c r="F280" s="46"/>
+      <c r="F280" s="37"/>
       <c r="G280" s="13"/>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.15">
@@ -4070,7 +4070,7 @@
       <c r="C281" s="13"/>
       <c r="D281" s="13"/>
       <c r="E281" s="13"/>
-      <c r="F281" s="46"/>
+      <c r="F281" s="37"/>
       <c r="G281" s="13"/>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.15">
@@ -4079,7 +4079,7 @@
       <c r="C282" s="13"/>
       <c r="D282" s="13"/>
       <c r="E282" s="13"/>
-      <c r="F282" s="46"/>
+      <c r="F282" s="37"/>
       <c r="G282" s="13"/>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.15">
@@ -4088,7 +4088,7 @@
       <c r="C283" s="13"/>
       <c r="D283" s="13"/>
       <c r="E283" s="13"/>
-      <c r="F283" s="46"/>
+      <c r="F283" s="37"/>
       <c r="G283" s="13"/>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.15">
@@ -4097,7 +4097,7 @@
       <c r="C284" s="13"/>
       <c r="D284" s="13"/>
       <c r="E284" s="13"/>
-      <c r="F284" s="46"/>
+      <c r="F284" s="37"/>
       <c r="G284" s="13"/>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.15">
@@ -4106,7 +4106,7 @@
       <c r="C285" s="13"/>
       <c r="D285" s="13"/>
       <c r="E285" s="13"/>
-      <c r="F285" s="46"/>
+      <c r="F285" s="37"/>
       <c r="G285" s="13"/>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.15">
@@ -4115,7 +4115,7 @@
       <c r="C286" s="13"/>
       <c r="D286" s="13"/>
       <c r="E286" s="13"/>
-      <c r="F286" s="46"/>
+      <c r="F286" s="37"/>
       <c r="G286" s="13"/>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.15">
@@ -4124,7 +4124,7 @@
       <c r="C287" s="13"/>
       <c r="D287" s="13"/>
       <c r="E287" s="13"/>
-      <c r="F287" s="46"/>
+      <c r="F287" s="37"/>
       <c r="G287" s="13"/>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.15">
@@ -4133,7 +4133,7 @@
       <c r="C288" s="13"/>
       <c r="D288" s="13"/>
       <c r="E288" s="13"/>
-      <c r="F288" s="46"/>
+      <c r="F288" s="37"/>
       <c r="G288" s="13"/>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.15">
@@ -4142,7 +4142,7 @@
       <c r="C289" s="13"/>
       <c r="D289" s="13"/>
       <c r="E289" s="13"/>
-      <c r="F289" s="46"/>
+      <c r="F289" s="37"/>
       <c r="G289" s="13"/>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.15">
@@ -4151,7 +4151,7 @@
       <c r="C290" s="13"/>
       <c r="D290" s="13"/>
       <c r="E290" s="13"/>
-      <c r="F290" s="46"/>
+      <c r="F290" s="37"/>
       <c r="G290" s="13"/>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.15">
@@ -4160,7 +4160,7 @@
       <c r="C291" s="13"/>
       <c r="D291" s="13"/>
       <c r="E291" s="13"/>
-      <c r="F291" s="46"/>
+      <c r="F291" s="37"/>
       <c r="G291" s="13"/>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.15">
@@ -4169,7 +4169,7 @@
       <c r="C292" s="13"/>
       <c r="D292" s="13"/>
       <c r="E292" s="13"/>
-      <c r="F292" s="46"/>
+      <c r="F292" s="37"/>
       <c r="G292" s="13"/>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.15">
@@ -4178,7 +4178,7 @@
       <c r="C293" s="13"/>
       <c r="D293" s="13"/>
       <c r="E293" s="13"/>
-      <c r="F293" s="46"/>
+      <c r="F293" s="37"/>
       <c r="G293" s="13"/>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.15">
@@ -4187,7 +4187,7 @@
       <c r="C294" s="13"/>
       <c r="D294" s="13"/>
       <c r="E294" s="13"/>
-      <c r="F294" s="46"/>
+      <c r="F294" s="37"/>
       <c r="G294" s="13"/>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.15">
@@ -4196,7 +4196,7 @@
       <c r="C295" s="13"/>
       <c r="D295" s="13"/>
       <c r="E295" s="13"/>
-      <c r="F295" s="46"/>
+      <c r="F295" s="37"/>
       <c r="G295" s="13"/>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.15">
@@ -4205,7 +4205,7 @@
       <c r="C296" s="13"/>
       <c r="D296" s="13"/>
       <c r="E296" s="13"/>
-      <c r="F296" s="46"/>
+      <c r="F296" s="37"/>
       <c r="G296" s="13"/>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.15">
@@ -4214,7 +4214,7 @@
       <c r="C297" s="13"/>
       <c r="D297" s="13"/>
       <c r="E297" s="13"/>
-      <c r="F297" s="46"/>
+      <c r="F297" s="37"/>
       <c r="G297" s="13"/>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.15">
@@ -4223,7 +4223,7 @@
       <c r="C298" s="13"/>
       <c r="D298" s="13"/>
       <c r="E298" s="13"/>
-      <c r="F298" s="46"/>
+      <c r="F298" s="37"/>
       <c r="G298" s="13"/>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.15">
@@ -4232,7 +4232,7 @@
       <c r="C299" s="13"/>
       <c r="D299" s="13"/>
       <c r="E299" s="13"/>
-      <c r="F299" s="46"/>
+      <c r="F299" s="37"/>
       <c r="G299" s="13"/>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.15">
@@ -4241,7 +4241,7 @@
       <c r="C300" s="13"/>
       <c r="D300" s="13"/>
       <c r="E300" s="13"/>
-      <c r="F300" s="46"/>
+      <c r="F300" s="37"/>
       <c r="G300" s="13"/>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.15">
@@ -4250,7 +4250,7 @@
       <c r="C301" s="13"/>
       <c r="D301" s="13"/>
       <c r="E301" s="13"/>
-      <c r="F301" s="46"/>
+      <c r="F301" s="37"/>
       <c r="G301" s="13"/>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.15">
@@ -4259,7 +4259,7 @@
       <c r="C302" s="13"/>
       <c r="D302" s="13"/>
       <c r="E302" s="13"/>
-      <c r="F302" s="46"/>
+      <c r="F302" s="37"/>
       <c r="G302" s="13"/>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.15">
@@ -4268,7 +4268,7 @@
       <c r="C303" s="13"/>
       <c r="D303" s="13"/>
       <c r="E303" s="13"/>
-      <c r="F303" s="46"/>
+      <c r="F303" s="37"/>
       <c r="G303" s="13"/>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.15">
@@ -4277,7 +4277,7 @@
       <c r="C304" s="13"/>
       <c r="D304" s="13"/>
       <c r="E304" s="13"/>
-      <c r="F304" s="46"/>
+      <c r="F304" s="37"/>
       <c r="G304" s="13"/>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.15">
@@ -4286,7 +4286,7 @@
       <c r="C305" s="13"/>
       <c r="D305" s="13"/>
       <c r="E305" s="13"/>
-      <c r="F305" s="46"/>
+      <c r="F305" s="37"/>
       <c r="G305" s="13"/>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.15">
@@ -4295,7 +4295,7 @@
       <c r="C306" s="13"/>
       <c r="D306" s="13"/>
       <c r="E306" s="13"/>
-      <c r="F306" s="46"/>
+      <c r="F306" s="37"/>
       <c r="G306" s="13"/>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.15">
@@ -4304,7 +4304,7 @@
       <c r="C307" s="13"/>
       <c r="D307" s="13"/>
       <c r="E307" s="13"/>
-      <c r="F307" s="46"/>
+      <c r="F307" s="37"/>
       <c r="G307" s="13"/>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.15">
@@ -4313,7 +4313,7 @@
       <c r="C308" s="13"/>
       <c r="D308" s="13"/>
       <c r="E308" s="13"/>
-      <c r="F308" s="46"/>
+      <c r="F308" s="37"/>
       <c r="G308" s="13"/>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.15">
@@ -4322,7 +4322,7 @@
       <c r="C309" s="13"/>
       <c r="D309" s="13"/>
       <c r="E309" s="13"/>
-      <c r="F309" s="46"/>
+      <c r="F309" s="37"/>
       <c r="G309" s="13"/>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.15">
@@ -4331,7 +4331,7 @@
       <c r="C310" s="13"/>
       <c r="D310" s="13"/>
       <c r="E310" s="13"/>
-      <c r="F310" s="46"/>
+      <c r="F310" s="37"/>
       <c r="G310" s="13"/>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.15">
@@ -4340,7 +4340,7 @@
       <c r="C311" s="13"/>
       <c r="D311" s="13"/>
       <c r="E311" s="13"/>
-      <c r="F311" s="46"/>
+      <c r="F311" s="37"/>
       <c r="G311" s="13"/>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.15">
@@ -4349,7 +4349,7 @@
       <c r="C312" s="13"/>
       <c r="D312" s="13"/>
       <c r="E312" s="13"/>
-      <c r="F312" s="46"/>
+      <c r="F312" s="37"/>
       <c r="G312" s="13"/>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.15">
@@ -4358,7 +4358,7 @@
       <c r="C313" s="13"/>
       <c r="D313" s="13"/>
       <c r="E313" s="13"/>
-      <c r="F313" s="46"/>
+      <c r="F313" s="37"/>
       <c r="G313" s="13"/>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.15">
@@ -4367,7 +4367,7 @@
       <c r="C314" s="13"/>
       <c r="D314" s="13"/>
       <c r="E314" s="13"/>
-      <c r="F314" s="46"/>
+      <c r="F314" s="37"/>
       <c r="G314" s="13"/>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.15">
@@ -4376,7 +4376,7 @@
       <c r="C315" s="13"/>
       <c r="D315" s="13"/>
       <c r="E315" s="13"/>
-      <c r="F315" s="46"/>
+      <c r="F315" s="37"/>
       <c r="G315" s="13"/>
     </row>
   </sheetData>
@@ -4471,22 +4471,22 @@
       <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="43"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="48"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="7" t="s">
         <v>14</v>
       </c>
@@ -4620,22 +4620,22 @@
       <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="7" t="s">
         <v>14</v>
       </c>
@@ -4668,22 +4668,22 @@
       <c r="G20" s="23"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="7" t="s">
         <v>14</v>
       </c>
@@ -4799,15 +4799,15 @@
     </row>
     <row r="6" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="43"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
       <c r="I7" s="16" t="s">
         <v>9</v>
       </c>
@@ -4822,11 +4822,11 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
@@ -4883,26 +4883,26 @@
       <c r="L10" s="20"/>
     </row>
     <row r="11" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
       <c r="I11" s="18"/>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
     </row>
     <row r="12" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="7" t="s">
         <v>14</v>
       </c>
@@ -5036,22 +5036,22 @@
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
       <c r="D23" s="7" t="s">
         <v>14</v>
       </c>
@@ -5254,15 +5254,15 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="43"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
       <c r="H7" s="2"/>
       <c r="I7" s="16"/>
       <c r="J7" s="17"/>
@@ -5270,11 +5270,11 @@
       <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
@@ -5338,15 +5338,15 @@
       <c r="L10" s="20"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
       <c r="H11" s="2"/>
       <c r="I11" s="18"/>
       <c r="J11" s="20"/>
@@ -5354,11 +5354,11 @@
       <c r="L11" s="20"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="7" t="s">
         <v>14</v>
       </c>
@@ -5508,11 +5508,11 @@
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="7"/>
@@ -5524,11 +5524,11 @@
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
       <c r="D23" s="7" t="s">
         <v>14</v>
       </c>
@@ -5688,22 +5688,22 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="43"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
@@ -5735,22 +5735,22 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="43"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="7" t="s">
         <v>14</v>
       </c>
@@ -5850,22 +5850,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="7" t="s">
         <v>14</v>
       </c>
@@ -6011,22 +6011,22 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="43"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
@@ -6288,22 +6288,22 @@
       <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="43"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="48"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="7" t="s">
         <v>14</v>
       </c>
@@ -6390,22 +6390,22 @@
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
       <c r="D37" s="7" t="s">
         <v>14</v>
       </c>
@@ -6550,22 +6550,22 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="43"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
@@ -6595,22 +6595,22 @@
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="43"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="7" t="s">
         <v>14</v>
       </c>
@@ -6731,22 +6731,22 @@
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="7" t="s">
         <v>14</v>
       </c>

--- a/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
+++ b/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="183">
   <si>
     <t>接口名</t>
   </si>
@@ -578,46 +578,38 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>9/5-9/6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/30-8/31</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/6-9/7</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/10-9/10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>8/27-8/29</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>9/5-9/6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>8/30-8/31</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>9/3-9/4</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>日程编辑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>9/6-9/7</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>9/10-9/10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>8/27-8/29</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>9/3-9/4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程编辑</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>9/6-9/7</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>9/7-9/10</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -634,7 +626,27 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>8/30-8/31</t>
+    <t>8/27-8/28</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/29-8/30</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/31-9/4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询所有群组，根据群名、标签名查询符合条件群组</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建群组，若带有权限标签，则执行权限操作</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑群名，增删群标签，权限标签不可删除可添加，若添加权限标签，则执行权限操作</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1318,7 +1330,7 @@
   <dimension ref="A1:G315"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1326,7 +1338,7 @@
     <col min="1" max="1" width="5.25" style="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="20.125" customWidth="1"/>
-    <col min="4" max="4" width="57.25" customWidth="1"/>
+    <col min="4" max="4" width="93.375" customWidth="1"/>
     <col min="6" max="6" width="19.5" style="38" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1472,14 +1484,16 @@
         <v>132</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="D9" s="27"/>
+        <v>176</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>180</v>
+      </c>
       <c r="E9" s="28" t="s">
         <v>146</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="G9" s="28"/>
     </row>
@@ -1491,12 +1505,14 @@
       <c r="C10" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="D10" s="27"/>
+      <c r="D10" s="27" t="s">
+        <v>181</v>
+      </c>
       <c r="E10" s="28" t="s">
         <v>146</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G10" s="28"/>
     </row>
@@ -1508,12 +1524,14 @@
       <c r="C11" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="D11" s="27"/>
+      <c r="D11" s="27" t="s">
+        <v>182</v>
+      </c>
       <c r="E11" s="28" t="s">
         <v>146</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="G11" s="28"/>
     </row>
@@ -1530,7 +1548,7 @@
         <v>146</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G12" s="28"/>
     </row>
@@ -1545,7 +1563,7 @@
         <v>146</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G13" s="28"/>
     </row>
@@ -1562,7 +1580,7 @@
         <v>146</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G14" s="28"/>
     </row>
@@ -1581,7 +1599,7 @@
         <v>146</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G15" s="28"/>
     </row>
@@ -1598,7 +1616,7 @@
         <v>146</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G16" s="28"/>
     </row>
@@ -1608,14 +1626,14 @@
       </c>
       <c r="B17" s="41"/>
       <c r="C17" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="28" t="s">
         <v>146</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G17" s="28"/>
     </row>
@@ -1632,7 +1650,7 @@
         <v>146</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G18" s="28"/>
     </row>
@@ -1647,7 +1665,7 @@
         <v>146</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G19" s="28"/>
     </row>
@@ -1664,7 +1682,7 @@
         <v>146</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G20" s="28"/>
     </row>
@@ -1681,7 +1699,7 @@
         <v>146</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G21" s="28"/>
     </row>
@@ -1698,7 +1716,7 @@
         <v>146</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G22" s="28"/>
     </row>

--- a/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
+++ b/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="197">
   <si>
     <t>接口名</t>
   </si>
@@ -646,7 +646,62 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>编辑群名，增删群标签，权限标签不可删除可添加，若添加权限标签，则执行权限操作</t>
+    <t>本地群组直接删除，权限群组给群成员发布通知</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出群组并删除所有群组相关日程</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加/删除群成员</t>
+  </si>
+  <si>
+    <t>群成员添加删除</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/11-9/11</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改群成员名称和联系方式</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询所有日程，根据标签，日程主题，时间条件查询符合条件日程</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建日程</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布日程</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑群名，若为群组创建人，则可以增删群标签，权限标签不可删除可添加，若添加权限标签，则执行权限操作</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑日程，若为发布人，则可以修改增删日程标签，日程主题，日程时间，参与人。参与人不可修改</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人可以删除日程，删除后会给发布人反馈通知</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在五分钟内，能够选择撤回（删除）已发布日程</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人可以修改日程状态为完成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加设置提醒时间</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -882,7 +937,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -994,6 +1049,9 @@
     </xf>
     <xf numFmtId="58" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1327,10 +1385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G315"/>
+  <dimension ref="A1:G316"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1369,7 +1427,7 @@
       <c r="A2" s="30">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>125</v>
       </c>
       <c r="C2" s="28" t="s">
@@ -1388,7 +1446,7 @@
       <c r="A3" s="30">
         <v>2</v>
       </c>
-      <c r="B3" s="41"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="27" t="s">
         <v>127</v>
       </c>
@@ -1403,7 +1461,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="33"/>
-      <c r="B4" s="41"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="27" t="s">
         <v>157</v>
       </c>
@@ -1418,7 +1476,7 @@
       <c r="A5" s="30">
         <v>3</v>
       </c>
-      <c r="B5" s="41"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="27" t="s">
         <v>128</v>
       </c>
@@ -1435,7 +1493,7 @@
       <c r="A6" s="30">
         <v>4</v>
       </c>
-      <c r="B6" s="41"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="27" t="s">
         <v>129</v>
       </c>
@@ -1450,7 +1508,7 @@
       <c r="A7" s="30">
         <v>5</v>
       </c>
-      <c r="B7" s="41"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="27" t="s">
         <v>130</v>
       </c>
@@ -1465,7 +1523,7 @@
       <c r="A8" s="30">
         <v>6</v>
       </c>
-      <c r="B8" s="42"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="27" t="s">
         <v>131</v>
       </c>
@@ -1480,7 +1538,7 @@
       <c r="A9" s="30">
         <v>7</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="44" t="s">
         <v>132</v>
       </c>
       <c r="C9" s="27" t="s">
@@ -1501,7 +1559,7 @@
       <c r="A10" s="30">
         <v>8</v>
       </c>
-      <c r="B10" s="41"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="27" t="s">
         <v>134</v>
       </c>
@@ -1520,12 +1578,12 @@
       <c r="A11" s="30">
         <v>9</v>
       </c>
-      <c r="B11" s="41"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="27" t="s">
         <v>135</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E11" s="28" t="s">
         <v>146</v>
@@ -1539,11 +1597,13 @@
       <c r="A12" s="30">
         <v>10</v>
       </c>
-      <c r="B12" s="41"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="27"/>
+      <c r="D12" s="27" t="s">
+        <v>182</v>
+      </c>
       <c r="E12" s="28" t="s">
         <v>146</v>
       </c>
@@ -1554,11 +1614,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="34"/>
-      <c r="B13" s="41"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="D13" s="27"/>
+      <c r="D13" s="27" t="s">
+        <v>183</v>
+      </c>
       <c r="E13" s="28" t="s">
         <v>146</v>
       </c>
@@ -1568,182 +1630,202 @@
       <c r="G13" s="28"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="30">
-        <v>11</v>
-      </c>
+      <c r="A14" s="40"/>
       <c r="B14" s="42"/>
       <c r="C14" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" s="27"/>
+        <v>185</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>184</v>
+      </c>
       <c r="E14" s="28" t="s">
         <v>146</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="G14" s="28"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="30">
-        <v>12</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>133</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B15" s="43"/>
       <c r="C15" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="D15" s="27"/>
+        <v>137</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>187</v>
+      </c>
       <c r="E15" s="28" t="s">
         <v>146</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="30">
-        <v>13</v>
-      </c>
-      <c r="B16" s="41"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>133</v>
+      </c>
       <c r="C16" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="13"/>
+        <v>138</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>188</v>
+      </c>
       <c r="E16" s="28" t="s">
         <v>146</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G16" s="28"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="30">
-        <v>14</v>
-      </c>
-      <c r="B17" s="41"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="42"/>
       <c r="C17" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="D17" s="27"/>
+        <v>140</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>189</v>
+      </c>
       <c r="E17" s="28" t="s">
         <v>146</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G17" s="28"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="30">
-        <v>15</v>
-      </c>
-      <c r="B18" s="41"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="42"/>
       <c r="C18" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="D18" s="27"/>
+        <v>171</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>192</v>
+      </c>
       <c r="E18" s="28" t="s">
         <v>146</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G18" s="28"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="34"/>
-      <c r="B19" s="41"/>
+      <c r="A19" s="30">
+        <v>15</v>
+      </c>
+      <c r="B19" s="42"/>
       <c r="C19" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="D19" s="27"/>
+        <v>139</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>193</v>
+      </c>
       <c r="E19" s="28" t="s">
         <v>146</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="G19" s="28"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="30">
-        <v>16</v>
-      </c>
-      <c r="B20" s="41"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="D20" s="27"/>
+        <v>159</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>194</v>
+      </c>
       <c r="E20" s="28" t="s">
         <v>146</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G20" s="28"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="30">
-        <v>17</v>
-      </c>
-      <c r="B21" s="41"/>
+        <v>16</v>
+      </c>
+      <c r="B21" s="42"/>
       <c r="C21" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D21" s="27"/>
+        <v>141</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>190</v>
+      </c>
       <c r="E21" s="28" t="s">
         <v>146</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G21" s="28"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="30">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="42"/>
       <c r="C22" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D22" s="27"/>
+        <v>149</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>195</v>
+      </c>
       <c r="E22" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="F22" s="39" t="s">
-        <v>175</v>
+      <c r="F22" s="36" t="s">
+        <v>173</v>
       </c>
       <c r="G22" s="28"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="30">
-        <v>19</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>161</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B23" s="43"/>
       <c r="C23" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="D23" s="13"/>
+        <v>150</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>196</v>
+      </c>
       <c r="E23" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="F23" s="37"/>
-      <c r="G23" s="13"/>
+      <c r="F23" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" s="28"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="30">
-        <v>20</v>
-      </c>
-      <c r="B24" s="42"/>
+        <v>19</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>161</v>
+      </c>
       <c r="C24" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="28" t="s">
@@ -1754,20 +1836,24 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="30">
-        <v>21</v>
-      </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="13"/>
+        <v>20</v>
+      </c>
+      <c r="B25" s="43"/>
+      <c r="C25" s="27" t="s">
+        <v>163</v>
+      </c>
       <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
+      <c r="E25" s="28" t="s">
+        <v>146</v>
+      </c>
       <c r="F25" s="37"/>
       <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="30">
-        <v>22</v>
-      </c>
-      <c r="B26" s="13"/>
+        <v>21</v>
+      </c>
+      <c r="B26" s="27"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
@@ -1776,7 +1862,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="30">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -1787,7 +1873,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="30">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -1798,7 +1884,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="30">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -1809,7 +1895,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="30">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -1820,7 +1906,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="30">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -1831,7 +1917,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="30">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -1842,7 +1928,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -1853,7 +1939,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -1864,7 +1950,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="30">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -1875,7 +1961,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="30">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -1886,7 +1972,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="30">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -1896,7 +1982,9 @@
       <c r="G37" s="13"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="31"/>
+      <c r="A38" s="30">
+        <v>33</v>
+      </c>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
@@ -4397,12 +4485,21 @@
       <c r="F315" s="37"/>
       <c r="G315" s="13"/>
     </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A316" s="31"/>
+      <c r="B316" s="13"/>
+      <c r="C316" s="13"/>
+      <c r="D316" s="13"/>
+      <c r="E316" s="13"/>
+      <c r="F316" s="37"/>
+      <c r="G316" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="B15:B22"/>
-    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="B24:B25"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4489,22 +4586,22 @@
       <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="48"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="7" t="s">
         <v>14</v>
       </c>
@@ -4638,22 +4735,22 @@
       <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="7" t="s">
         <v>14</v>
       </c>
@@ -4686,22 +4783,22 @@
       <c r="G20" s="23"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="7" t="s">
         <v>14</v>
       </c>
@@ -4817,15 +4914,15 @@
     </row>
     <row r="6" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="49"/>
       <c r="I7" s="16" t="s">
         <v>9</v>
       </c>
@@ -4840,11 +4937,11 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
@@ -4901,26 +4998,26 @@
       <c r="L10" s="20"/>
     </row>
     <row r="11" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="49"/>
       <c r="I11" s="18"/>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
     </row>
     <row r="12" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="7" t="s">
         <v>14</v>
       </c>
@@ -5054,22 +5151,22 @@
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
       <c r="D23" s="7" t="s">
         <v>14</v>
       </c>
@@ -5272,15 +5369,15 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="49"/>
       <c r="H7" s="2"/>
       <c r="I7" s="16"/>
       <c r="J7" s="17"/>
@@ -5288,11 +5385,11 @@
       <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
@@ -5356,15 +5453,15 @@
       <c r="L10" s="20"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="49"/>
       <c r="H11" s="2"/>
       <c r="I11" s="18"/>
       <c r="J11" s="20"/>
@@ -5372,11 +5469,11 @@
       <c r="L11" s="20"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="7" t="s">
         <v>14</v>
       </c>
@@ -5526,11 +5623,11 @@
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="7"/>
@@ -5542,11 +5639,11 @@
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
       <c r="D23" s="7" t="s">
         <v>14</v>
       </c>
@@ -5706,22 +5803,22 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="49"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
@@ -5753,22 +5850,22 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="49"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="7" t="s">
         <v>14</v>
       </c>
@@ -5868,22 +5965,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="7" t="s">
         <v>14</v>
       </c>
@@ -6029,22 +6126,22 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="49"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
@@ -6306,22 +6403,22 @@
       <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
       <c r="D27" s="7" t="s">
         <v>14</v>
       </c>
@@ -6408,22 +6505,22 @@
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
       <c r="D37" s="7" t="s">
         <v>14</v>
       </c>
@@ -6568,22 +6665,22 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="49"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
@@ -6613,22 +6710,22 @@
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="49"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="7" t="s">
         <v>14</v>
       </c>
@@ -6749,22 +6846,22 @@
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
       <c r="D21" s="7" t="s">
         <v>14</v>
       </c>

--- a/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
+++ b/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="9930" activeTab="5"/>
+    <workbookView windowWidth="21495" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="10" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179">
   <si>
     <t>序号</t>
   </si>
@@ -37,6 +37,9 @@
     <t>状态</t>
   </si>
   <si>
+    <t>完成度</t>
+  </si>
+  <si>
     <t>时间</t>
   </si>
   <si>
@@ -158,6 +161,9 @@
   </si>
   <si>
     <t>8/27-8/29</t>
+  </si>
+  <si>
+    <t>曹萍</t>
   </si>
   <si>
     <t>日程创建</t>
@@ -452,9 +458,6 @@
     <t>inDto</t>
   </si>
   <si>
-    <t>ScheduleInDto</t>
-  </si>
-  <si>
     <t>userId</t>
   </si>
   <si>
@@ -494,7 +497,10 @@
     <t>createId</t>
   </si>
   <si>
-    <t>创建人</t>
+    <t>创建人(默认用户ID)</t>
+  </si>
+  <si>
+    <t>否</t>
   </si>
   <si>
     <t>createDate</t>
@@ -559,12 +565,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,7 +607,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -614,16 +636,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,23 +674,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -698,37 +720,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -742,8 +733,16 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -776,7 +775,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,7 +817,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,25 +871,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,49 +913,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,19 +937,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,43 +949,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,17 +1080,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1113,35 +1111,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1170,6 +1139,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1190,10 +1183,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1202,16 +1195,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1221,119 +1214,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1384,11 +1377,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1411,43 +1404,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1800,3114 +1802,3451 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G316"/>
+  <dimension ref="A1:H316"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="28" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="27" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="20.125" customWidth="1"/>
     <col min="4" max="4" width="93.375" customWidth="1"/>
-    <col min="6" max="6" width="19.5" style="29" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="28" customWidth="1"/>
+    <col min="8" max="8" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="28" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A1" s="30" t="s">
+    <row r="1" s="27" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="31">
+      <c r="H1" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="D2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="33"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="31">
+      <c r="E2" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="30">
         <v>2</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="33"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="31"/>
+      <c r="E3" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="33"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="30"/>
       <c r="B4" s="35"/>
       <c r="C4" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="33"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="31">
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="33"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="30">
         <v>3</v>
       </c>
       <c r="B5" s="35"/>
       <c r="C5" s="36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="33"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="31">
+        <v>17</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="33"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="30">
         <v>4</v>
       </c>
       <c r="B6" s="35"/>
       <c r="C6" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="36"/>
-      <c r="E6" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="33"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="31">
+      <c r="E6" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="33"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="30">
         <v>5</v>
       </c>
       <c r="B7" s="35"/>
       <c r="C7" s="36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="36"/>
-      <c r="E7" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="33"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="31">
+      <c r="E7" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="33"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="33"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="30">
         <v>6</v>
       </c>
-      <c r="B8" s="31"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="36"/>
-      <c r="E8" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="33"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="31">
+      <c r="E8" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="33"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="30">
         <v>7</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="33"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="31">
+      <c r="E9" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="33"/>
+      <c r="G9" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="33"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="30">
         <v>8</v>
       </c>
       <c r="B10" s="35"/>
       <c r="C10" s="36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="33"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="31">
+      <c r="E10" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="33"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="30">
         <v>9</v>
       </c>
       <c r="B11" s="35"/>
       <c r="C11" s="36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="33"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="31">
+      <c r="E11" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="33"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="30">
         <v>10</v>
       </c>
       <c r="B12" s="35"/>
       <c r="C12" s="36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="33"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="31"/>
+      <c r="E12" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="33"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="30"/>
       <c r="B13" s="35"/>
       <c r="C13" s="36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="33"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="31"/>
+      <c r="E13" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="33"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="30"/>
       <c r="B14" s="35"/>
       <c r="C14" s="36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="33"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="31">
+      <c r="E14" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="33"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="30">
         <v>11</v>
       </c>
-      <c r="B15" s="31"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="33"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="31">
+      <c r="E15" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="33"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="30">
         <v>12</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="33"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="31">
+      <c r="E16" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="30">
         <v>13</v>
       </c>
       <c r="B17" s="35"/>
       <c r="C17" s="36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D17" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="39">
+        <v>0.8</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="33"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="31">
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="30">
         <v>14</v>
       </c>
       <c r="B18" s="35"/>
       <c r="C18" s="36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="33"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="31">
+        <v>52</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="30">
         <v>15</v>
       </c>
       <c r="B19" s="35"/>
       <c r="C19" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="33"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="31"/>
+        <v>55</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="30"/>
       <c r="B20" s="35"/>
       <c r="C20" s="36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="33"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="31">
+        <v>57</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="30">
         <v>16</v>
       </c>
       <c r="B21" s="35"/>
       <c r="C21" s="36" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="33"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="31">
+        <v>60</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="33"/>
+      <c r="G21" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="30">
         <v>17</v>
       </c>
       <c r="B22" s="35"/>
       <c r="C22" s="36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="33"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="31">
+        <v>62</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="30">
         <v>18</v>
       </c>
-      <c r="B23" s="31"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" s="33"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="31">
+        <v>65</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="33"/>
+      <c r="G23" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="30">
         <v>19</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D24" s="16"/>
-      <c r="E24" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="40"/>
-      <c r="G24" s="16"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="31">
+      <c r="E24" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="43"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="30">
         <v>20</v>
       </c>
-      <c r="B25" s="31"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="36" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D25" s="16"/>
-      <c r="E25" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="40"/>
-      <c r="G25" s="16"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="31">
+      <c r="E25" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="41"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="30">
         <v>21</v>
       </c>
       <c r="B26" s="36"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="16"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="31">
+      <c r="F26" s="16"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="16"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="30">
         <v>22</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="16"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="31">
+      <c r="F27" s="16"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="16"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="30">
         <v>23</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="16"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="31">
+      <c r="F28" s="16"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="16"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="30">
         <v>24</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="16"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="31">
+      <c r="F29" s="16"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="16"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="30">
         <v>25</v>
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="16"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="31">
+      <c r="F30" s="16"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="16"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="30">
         <v>26</v>
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="16"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="31">
+      <c r="F31" s="16"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="16"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="30">
         <v>27</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="16"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="31">
+      <c r="F32" s="16"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="16"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="30">
         <v>28</v>
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="16"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="31">
+      <c r="F33" s="16"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="16"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="30">
         <v>29</v>
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="16"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="31">
+      <c r="F34" s="16"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="16"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="30">
         <v>30</v>
       </c>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="16"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="31">
+      <c r="F35" s="16"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="16"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="30">
         <v>31</v>
       </c>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="16"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="31">
+      <c r="F36" s="16"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="16"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="30">
         <v>32</v>
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="16"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="31">
+      <c r="F37" s="16"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="16"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="30">
         <v>33</v>
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="16"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="41"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="16"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="44"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="16"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="41"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="16"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="44"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="16"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="41"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="16"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="44"/>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="16"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="41"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="16"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="44"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="16"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="41"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="16"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="44"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="16"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="41"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="16"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="44"/>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="16"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="41"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="16"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="44"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="16"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="41"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="16"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="44"/>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="16"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="41"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="16"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="44"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="16"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="41"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="16"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="44"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="16"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="41"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="16"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="44"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="16"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="41"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="16"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="44"/>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="16"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="41"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="16"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="44"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
       <c r="D51" s="16"/>
       <c r="E51" s="16"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="16"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="41"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="16"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="44"/>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="16"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="41"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="16"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="44"/>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="16"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="41"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="16"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="44"/>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="16"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="41"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="16"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="44"/>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
       <c r="D55" s="16"/>
       <c r="E55" s="16"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="16"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="41"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="16"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="44"/>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
       <c r="D56" s="16"/>
       <c r="E56" s="16"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="16"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="41"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="16"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="44"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
       <c r="D57" s="16"/>
       <c r="E57" s="16"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="16"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="41"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="16"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="44"/>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
       <c r="D58" s="16"/>
       <c r="E58" s="16"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="16"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="41"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="16"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="44"/>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
       <c r="D59" s="16"/>
       <c r="E59" s="16"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="16"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="41"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="16"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="44"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
       <c r="E60" s="16"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="16"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="41"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="16"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="44"/>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
       <c r="E61" s="16"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="16"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="41"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="16"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="44"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
       <c r="E62" s="16"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="16"/>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="41"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="16"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="44"/>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
       <c r="D63" s="16"/>
       <c r="E63" s="16"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="16"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="41"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="16"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="44"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
       <c r="D64" s="16"/>
       <c r="E64" s="16"/>
-      <c r="F64" s="40"/>
-      <c r="G64" s="16"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="41"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="16"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="44"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
       <c r="D65" s="16"/>
       <c r="E65" s="16"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="16"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="41"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="16"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="44"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
       <c r="D66" s="16"/>
       <c r="E66" s="16"/>
-      <c r="F66" s="40"/>
-      <c r="G66" s="16"/>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="41"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="16"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="44"/>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
       <c r="D67" s="16"/>
       <c r="E67" s="16"/>
-      <c r="F67" s="40"/>
-      <c r="G67" s="16"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="41"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="16"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="44"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
       <c r="D68" s="16"/>
       <c r="E68" s="16"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="16"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="41"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="16"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="44"/>
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
-      <c r="F69" s="40"/>
-      <c r="G69" s="16"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="41"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="16"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="44"/>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
       <c r="E70" s="16"/>
-      <c r="F70" s="40"/>
-      <c r="G70" s="16"/>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="41"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="16"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="44"/>
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
       <c r="D71" s="16"/>
       <c r="E71" s="16"/>
-      <c r="F71" s="40"/>
-      <c r="G71" s="16"/>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="41"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="16"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="44"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
       <c r="D72" s="16"/>
       <c r="E72" s="16"/>
-      <c r="F72" s="40"/>
-      <c r="G72" s="16"/>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="41"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="16"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="44"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
       <c r="D73" s="16"/>
       <c r="E73" s="16"/>
-      <c r="F73" s="40"/>
-      <c r="G73" s="16"/>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="41"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="16"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="44"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
       <c r="D74" s="16"/>
       <c r="E74" s="16"/>
-      <c r="F74" s="40"/>
-      <c r="G74" s="16"/>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="41"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="16"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="44"/>
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
       <c r="D75" s="16"/>
       <c r="E75" s="16"/>
-      <c r="F75" s="40"/>
-      <c r="G75" s="16"/>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="41"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="16"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="44"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
       <c r="D76" s="16"/>
       <c r="E76" s="16"/>
-      <c r="F76" s="40"/>
-      <c r="G76" s="16"/>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="41"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="16"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="44"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
       <c r="D77" s="16"/>
       <c r="E77" s="16"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="16"/>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="41"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="42"/>
+      <c r="H77" s="16"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="44"/>
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
       <c r="D78" s="16"/>
       <c r="E78" s="16"/>
-      <c r="F78" s="40"/>
-      <c r="G78" s="16"/>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="41"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="16"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="44"/>
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
       <c r="D79" s="16"/>
       <c r="E79" s="16"/>
-      <c r="F79" s="40"/>
-      <c r="G79" s="16"/>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="41"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="16"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="44"/>
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
       <c r="D80" s="16"/>
       <c r="E80" s="16"/>
-      <c r="F80" s="40"/>
-      <c r="G80" s="16"/>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="41"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="16"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="44"/>
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
       <c r="D81" s="16"/>
       <c r="E81" s="16"/>
-      <c r="F81" s="40"/>
-      <c r="G81" s="16"/>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="41"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="16"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="44"/>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
       <c r="D82" s="16"/>
       <c r="E82" s="16"/>
-      <c r="F82" s="40"/>
-      <c r="G82" s="16"/>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="41"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="16"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="44"/>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
-      <c r="F83" s="40"/>
-      <c r="G83" s="16"/>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="41"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="42"/>
+      <c r="H83" s="16"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="44"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
       <c r="D84" s="16"/>
       <c r="E84" s="16"/>
-      <c r="F84" s="40"/>
-      <c r="G84" s="16"/>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="41"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="42"/>
+      <c r="H84" s="16"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="44"/>
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
       <c r="D85" s="16"/>
       <c r="E85" s="16"/>
-      <c r="F85" s="40"/>
-      <c r="G85" s="16"/>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="41"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="42"/>
+      <c r="H85" s="16"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="44"/>
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
       <c r="D86" s="16"/>
       <c r="E86" s="16"/>
-      <c r="F86" s="40"/>
-      <c r="G86" s="16"/>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="41"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="42"/>
+      <c r="H86" s="16"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="44"/>
       <c r="B87" s="16"/>
       <c r="C87" s="16"/>
       <c r="D87" s="16"/>
       <c r="E87" s="16"/>
-      <c r="F87" s="40"/>
-      <c r="G87" s="16"/>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="41"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="42"/>
+      <c r="H87" s="16"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="44"/>
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
       <c r="D88" s="16"/>
       <c r="E88" s="16"/>
-      <c r="F88" s="40"/>
-      <c r="G88" s="16"/>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="41"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="42"/>
+      <c r="H88" s="16"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="44"/>
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
       <c r="D89" s="16"/>
       <c r="E89" s="16"/>
-      <c r="F89" s="40"/>
-      <c r="G89" s="16"/>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="41"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="42"/>
+      <c r="H89" s="16"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="44"/>
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
       <c r="D90" s="16"/>
       <c r="E90" s="16"/>
-      <c r="F90" s="40"/>
-      <c r="G90" s="16"/>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="41"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="42"/>
+      <c r="H90" s="16"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="44"/>
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
       <c r="D91" s="16"/>
       <c r="E91" s="16"/>
-      <c r="F91" s="40"/>
-      <c r="G91" s="16"/>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="41"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="42"/>
+      <c r="H91" s="16"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="44"/>
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
       <c r="D92" s="16"/>
       <c r="E92" s="16"/>
-      <c r="F92" s="40"/>
-      <c r="G92" s="16"/>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="41"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="42"/>
+      <c r="H92" s="16"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="44"/>
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
       <c r="D93" s="16"/>
       <c r="E93" s="16"/>
-      <c r="F93" s="40"/>
-      <c r="G93" s="16"/>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="41"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="42"/>
+      <c r="H93" s="16"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="44"/>
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
       <c r="D94" s="16"/>
       <c r="E94" s="16"/>
-      <c r="F94" s="40"/>
-      <c r="G94" s="16"/>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="41"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="42"/>
+      <c r="H94" s="16"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="44"/>
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
       <c r="D95" s="16"/>
       <c r="E95" s="16"/>
-      <c r="F95" s="40"/>
-      <c r="G95" s="16"/>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="41"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="42"/>
+      <c r="H95" s="16"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="44"/>
       <c r="B96" s="16"/>
       <c r="C96" s="16"/>
       <c r="D96" s="16"/>
       <c r="E96" s="16"/>
-      <c r="F96" s="40"/>
-      <c r="G96" s="16"/>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="41"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="42"/>
+      <c r="H96" s="16"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="44"/>
       <c r="B97" s="16"/>
       <c r="C97" s="16"/>
       <c r="D97" s="16"/>
       <c r="E97" s="16"/>
-      <c r="F97" s="40"/>
-      <c r="G97" s="16"/>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="41"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="42"/>
+      <c r="H97" s="16"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="44"/>
       <c r="B98" s="16"/>
       <c r="C98" s="16"/>
       <c r="D98" s="16"/>
       <c r="E98" s="16"/>
-      <c r="F98" s="40"/>
-      <c r="G98" s="16"/>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="41"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="42"/>
+      <c r="H98" s="16"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="44"/>
       <c r="B99" s="16"/>
       <c r="C99" s="16"/>
       <c r="D99" s="16"/>
       <c r="E99" s="16"/>
-      <c r="F99" s="40"/>
-      <c r="G99" s="16"/>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="41"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="42"/>
+      <c r="H99" s="16"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="44"/>
       <c r="B100" s="16"/>
       <c r="C100" s="16"/>
       <c r="D100" s="16"/>
       <c r="E100" s="16"/>
-      <c r="F100" s="40"/>
-      <c r="G100" s="16"/>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" s="41"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="42"/>
+      <c r="H100" s="16"/>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="44"/>
       <c r="B101" s="16"/>
       <c r="C101" s="16"/>
       <c r="D101" s="16"/>
       <c r="E101" s="16"/>
-      <c r="F101" s="40"/>
-      <c r="G101" s="16"/>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="41"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="42"/>
+      <c r="H101" s="16"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="44"/>
       <c r="B102" s="16"/>
       <c r="C102" s="16"/>
       <c r="D102" s="16"/>
       <c r="E102" s="16"/>
-      <c r="F102" s="40"/>
-      <c r="G102" s="16"/>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" s="41"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="42"/>
+      <c r="H102" s="16"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="44"/>
       <c r="B103" s="16"/>
       <c r="C103" s="16"/>
       <c r="D103" s="16"/>
       <c r="E103" s="16"/>
-      <c r="F103" s="40"/>
-      <c r="G103" s="16"/>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="41"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="42"/>
+      <c r="H103" s="16"/>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="44"/>
       <c r="B104" s="16"/>
       <c r="C104" s="16"/>
       <c r="D104" s="16"/>
       <c r="E104" s="16"/>
-      <c r="F104" s="40"/>
-      <c r="G104" s="16"/>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="41"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="42"/>
+      <c r="H104" s="16"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="44"/>
       <c r="B105" s="16"/>
       <c r="C105" s="16"/>
       <c r="D105" s="16"/>
       <c r="E105" s="16"/>
-      <c r="F105" s="40"/>
-      <c r="G105" s="16"/>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" s="41"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="42"/>
+      <c r="H105" s="16"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="44"/>
       <c r="B106" s="16"/>
       <c r="C106" s="16"/>
       <c r="D106" s="16"/>
       <c r="E106" s="16"/>
-      <c r="F106" s="40"/>
-      <c r="G106" s="16"/>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107" s="41"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="42"/>
+      <c r="H106" s="16"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="44"/>
       <c r="B107" s="16"/>
       <c r="C107" s="16"/>
       <c r="D107" s="16"/>
       <c r="E107" s="16"/>
-      <c r="F107" s="40"/>
-      <c r="G107" s="16"/>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108" s="41"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="42"/>
+      <c r="H107" s="16"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="44"/>
       <c r="B108" s="16"/>
       <c r="C108" s="16"/>
       <c r="D108" s="16"/>
       <c r="E108" s="16"/>
-      <c r="F108" s="40"/>
-      <c r="G108" s="16"/>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109" s="41"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="42"/>
+      <c r="H108" s="16"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="44"/>
       <c r="B109" s="16"/>
       <c r="C109" s="16"/>
       <c r="D109" s="16"/>
       <c r="E109" s="16"/>
-      <c r="F109" s="40"/>
-      <c r="G109" s="16"/>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" s="41"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="42"/>
+      <c r="H109" s="16"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="44"/>
       <c r="B110" s="16"/>
       <c r="C110" s="16"/>
       <c r="D110" s="16"/>
       <c r="E110" s="16"/>
-      <c r="F110" s="40"/>
-      <c r="G110" s="16"/>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="41"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="42"/>
+      <c r="H110" s="16"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="44"/>
       <c r="B111" s="16"/>
       <c r="C111" s="16"/>
       <c r="D111" s="16"/>
       <c r="E111" s="16"/>
-      <c r="F111" s="40"/>
-      <c r="G111" s="16"/>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112" s="41"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="42"/>
+      <c r="H111" s="16"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="44"/>
       <c r="B112" s="16"/>
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
       <c r="E112" s="16"/>
-      <c r="F112" s="40"/>
-      <c r="G112" s="16"/>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113" s="41"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="42"/>
+      <c r="H112" s="16"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="44"/>
       <c r="B113" s="16"/>
       <c r="C113" s="16"/>
       <c r="D113" s="16"/>
       <c r="E113" s="16"/>
-      <c r="F113" s="40"/>
-      <c r="G113" s="16"/>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114" s="41"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="42"/>
+      <c r="H113" s="16"/>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="44"/>
       <c r="B114" s="16"/>
       <c r="C114" s="16"/>
       <c r="D114" s="16"/>
       <c r="E114" s="16"/>
-      <c r="F114" s="40"/>
-      <c r="G114" s="16"/>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115" s="41"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="42"/>
+      <c r="H114" s="16"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="44"/>
       <c r="B115" s="16"/>
       <c r="C115" s="16"/>
       <c r="D115" s="16"/>
       <c r="E115" s="16"/>
-      <c r="F115" s="40"/>
-      <c r="G115" s="16"/>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116" s="41"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="42"/>
+      <c r="H115" s="16"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="44"/>
       <c r="B116" s="16"/>
       <c r="C116" s="16"/>
       <c r="D116" s="16"/>
       <c r="E116" s="16"/>
-      <c r="F116" s="40"/>
-      <c r="G116" s="16"/>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" s="41"/>
+      <c r="F116" s="16"/>
+      <c r="G116" s="42"/>
+      <c r="H116" s="16"/>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="44"/>
       <c r="B117" s="16"/>
       <c r="C117" s="16"/>
       <c r="D117" s="16"/>
       <c r="E117" s="16"/>
-      <c r="F117" s="40"/>
-      <c r="G117" s="16"/>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118" s="41"/>
+      <c r="F117" s="16"/>
+      <c r="G117" s="42"/>
+      <c r="H117" s="16"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="44"/>
       <c r="B118" s="16"/>
       <c r="C118" s="16"/>
       <c r="D118" s="16"/>
       <c r="E118" s="16"/>
-      <c r="F118" s="40"/>
-      <c r="G118" s="16"/>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119" s="41"/>
+      <c r="F118" s="16"/>
+      <c r="G118" s="42"/>
+      <c r="H118" s="16"/>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="44"/>
       <c r="B119" s="16"/>
       <c r="C119" s="16"/>
       <c r="D119" s="16"/>
       <c r="E119" s="16"/>
-      <c r="F119" s="40"/>
-      <c r="G119" s="16"/>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" s="41"/>
+      <c r="F119" s="16"/>
+      <c r="G119" s="42"/>
+      <c r="H119" s="16"/>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="44"/>
       <c r="B120" s="16"/>
       <c r="C120" s="16"/>
       <c r="D120" s="16"/>
       <c r="E120" s="16"/>
-      <c r="F120" s="40"/>
-      <c r="G120" s="16"/>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121" s="41"/>
+      <c r="F120" s="16"/>
+      <c r="G120" s="42"/>
+      <c r="H120" s="16"/>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="44"/>
       <c r="B121" s="16"/>
       <c r="C121" s="16"/>
       <c r="D121" s="16"/>
       <c r="E121" s="16"/>
-      <c r="F121" s="40"/>
-      <c r="G121" s="16"/>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122" s="41"/>
+      <c r="F121" s="16"/>
+      <c r="G121" s="42"/>
+      <c r="H121" s="16"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="44"/>
       <c r="B122" s="16"/>
       <c r="C122" s="16"/>
       <c r="D122" s="16"/>
       <c r="E122" s="16"/>
-      <c r="F122" s="40"/>
-      <c r="G122" s="16"/>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123" s="41"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="42"/>
+      <c r="H122" s="16"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="44"/>
       <c r="B123" s="16"/>
       <c r="C123" s="16"/>
       <c r="D123" s="16"/>
       <c r="E123" s="16"/>
-      <c r="F123" s="40"/>
-      <c r="G123" s="16"/>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124" s="41"/>
+      <c r="F123" s="16"/>
+      <c r="G123" s="42"/>
+      <c r="H123" s="16"/>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="44"/>
       <c r="B124" s="16"/>
       <c r="C124" s="16"/>
       <c r="D124" s="16"/>
       <c r="E124" s="16"/>
-      <c r="F124" s="40"/>
-      <c r="G124" s="16"/>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="A125" s="41"/>
+      <c r="F124" s="16"/>
+      <c r="G124" s="42"/>
+      <c r="H124" s="16"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="44"/>
       <c r="B125" s="16"/>
       <c r="C125" s="16"/>
       <c r="D125" s="16"/>
       <c r="E125" s="16"/>
-      <c r="F125" s="40"/>
-      <c r="G125" s="16"/>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="A126" s="41"/>
+      <c r="F125" s="16"/>
+      <c r="G125" s="42"/>
+      <c r="H125" s="16"/>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="44"/>
       <c r="B126" s="16"/>
       <c r="C126" s="16"/>
       <c r="D126" s="16"/>
       <c r="E126" s="16"/>
-      <c r="F126" s="40"/>
-      <c r="G126" s="16"/>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127" s="41"/>
+      <c r="F126" s="16"/>
+      <c r="G126" s="42"/>
+      <c r="H126" s="16"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="44"/>
       <c r="B127" s="16"/>
       <c r="C127" s="16"/>
       <c r="D127" s="16"/>
       <c r="E127" s="16"/>
-      <c r="F127" s="40"/>
-      <c r="G127" s="16"/>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128" s="41"/>
+      <c r="F127" s="16"/>
+      <c r="G127" s="42"/>
+      <c r="H127" s="16"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="44"/>
       <c r="B128" s="16"/>
       <c r="C128" s="16"/>
       <c r="D128" s="16"/>
       <c r="E128" s="16"/>
-      <c r="F128" s="40"/>
-      <c r="G128" s="16"/>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129" s="41"/>
+      <c r="F128" s="16"/>
+      <c r="G128" s="42"/>
+      <c r="H128" s="16"/>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="44"/>
       <c r="B129" s="16"/>
       <c r="C129" s="16"/>
       <c r="D129" s="16"/>
       <c r="E129" s="16"/>
-      <c r="F129" s="40"/>
-      <c r="G129" s="16"/>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130" s="41"/>
+      <c r="F129" s="16"/>
+      <c r="G129" s="42"/>
+      <c r="H129" s="16"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="44"/>
       <c r="B130" s="16"/>
       <c r="C130" s="16"/>
       <c r="D130" s="16"/>
       <c r="E130" s="16"/>
-      <c r="F130" s="40"/>
-      <c r="G130" s="16"/>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131" s="41"/>
+      <c r="F130" s="16"/>
+      <c r="G130" s="42"/>
+      <c r="H130" s="16"/>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="44"/>
       <c r="B131" s="16"/>
       <c r="C131" s="16"/>
       <c r="D131" s="16"/>
       <c r="E131" s="16"/>
-      <c r="F131" s="40"/>
-      <c r="G131" s="16"/>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132" s="41"/>
+      <c r="F131" s="16"/>
+      <c r="G131" s="42"/>
+      <c r="H131" s="16"/>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="44"/>
       <c r="B132" s="16"/>
       <c r="C132" s="16"/>
       <c r="D132" s="16"/>
       <c r="E132" s="16"/>
-      <c r="F132" s="40"/>
-      <c r="G132" s="16"/>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133" s="41"/>
+      <c r="F132" s="16"/>
+      <c r="G132" s="42"/>
+      <c r="H132" s="16"/>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="44"/>
       <c r="B133" s="16"/>
       <c r="C133" s="16"/>
       <c r="D133" s="16"/>
       <c r="E133" s="16"/>
-      <c r="F133" s="40"/>
-      <c r="G133" s="16"/>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134" s="41"/>
+      <c r="F133" s="16"/>
+      <c r="G133" s="42"/>
+      <c r="H133" s="16"/>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="44"/>
       <c r="B134" s="16"/>
       <c r="C134" s="16"/>
       <c r="D134" s="16"/>
       <c r="E134" s="16"/>
-      <c r="F134" s="40"/>
-      <c r="G134" s="16"/>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="A135" s="41"/>
+      <c r="F134" s="16"/>
+      <c r="G134" s="42"/>
+      <c r="H134" s="16"/>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="44"/>
       <c r="B135" s="16"/>
       <c r="C135" s="16"/>
       <c r="D135" s="16"/>
       <c r="E135" s="16"/>
-      <c r="F135" s="40"/>
-      <c r="G135" s="16"/>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="A136" s="41"/>
+      <c r="F135" s="16"/>
+      <c r="G135" s="42"/>
+      <c r="H135" s="16"/>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="44"/>
       <c r="B136" s="16"/>
       <c r="C136" s="16"/>
       <c r="D136" s="16"/>
       <c r="E136" s="16"/>
-      <c r="F136" s="40"/>
-      <c r="G136" s="16"/>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="A137" s="41"/>
+      <c r="F136" s="16"/>
+      <c r="G136" s="42"/>
+      <c r="H136" s="16"/>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="44"/>
       <c r="B137" s="16"/>
       <c r="C137" s="16"/>
       <c r="D137" s="16"/>
       <c r="E137" s="16"/>
-      <c r="F137" s="40"/>
-      <c r="G137" s="16"/>
-    </row>
-    <row r="138" spans="1:7">
-      <c r="A138" s="41"/>
+      <c r="F137" s="16"/>
+      <c r="G137" s="42"/>
+      <c r="H137" s="16"/>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="44"/>
       <c r="B138" s="16"/>
       <c r="C138" s="16"/>
       <c r="D138" s="16"/>
       <c r="E138" s="16"/>
-      <c r="F138" s="40"/>
-      <c r="G138" s="16"/>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="A139" s="41"/>
+      <c r="F138" s="16"/>
+      <c r="G138" s="42"/>
+      <c r="H138" s="16"/>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="44"/>
       <c r="B139" s="16"/>
       <c r="C139" s="16"/>
       <c r="D139" s="16"/>
       <c r="E139" s="16"/>
-      <c r="F139" s="40"/>
-      <c r="G139" s="16"/>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140" s="41"/>
+      <c r="F139" s="16"/>
+      <c r="G139" s="42"/>
+      <c r="H139" s="16"/>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="44"/>
       <c r="B140" s="16"/>
       <c r="C140" s="16"/>
       <c r="D140" s="16"/>
       <c r="E140" s="16"/>
-      <c r="F140" s="40"/>
-      <c r="G140" s="16"/>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="A141" s="41"/>
+      <c r="F140" s="16"/>
+      <c r="G140" s="42"/>
+      <c r="H140" s="16"/>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="44"/>
       <c r="B141" s="16"/>
       <c r="C141" s="16"/>
       <c r="D141" s="16"/>
       <c r="E141" s="16"/>
-      <c r="F141" s="40"/>
-      <c r="G141" s="16"/>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="A142" s="41"/>
+      <c r="F141" s="16"/>
+      <c r="G141" s="42"/>
+      <c r="H141" s="16"/>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="44"/>
       <c r="B142" s="16"/>
       <c r="C142" s="16"/>
       <c r="D142" s="16"/>
       <c r="E142" s="16"/>
-      <c r="F142" s="40"/>
-      <c r="G142" s="16"/>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="A143" s="41"/>
+      <c r="F142" s="16"/>
+      <c r="G142" s="42"/>
+      <c r="H142" s="16"/>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="44"/>
       <c r="B143" s="16"/>
       <c r="C143" s="16"/>
       <c r="D143" s="16"/>
       <c r="E143" s="16"/>
-      <c r="F143" s="40"/>
-      <c r="G143" s="16"/>
-    </row>
-    <row r="144" spans="1:7">
-      <c r="A144" s="41"/>
+      <c r="F143" s="16"/>
+      <c r="G143" s="42"/>
+      <c r="H143" s="16"/>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="44"/>
       <c r="B144" s="16"/>
       <c r="C144" s="16"/>
       <c r="D144" s="16"/>
       <c r="E144" s="16"/>
-      <c r="F144" s="40"/>
-      <c r="G144" s="16"/>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145" s="41"/>
+      <c r="F144" s="16"/>
+      <c r="G144" s="42"/>
+      <c r="H144" s="16"/>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="44"/>
       <c r="B145" s="16"/>
       <c r="C145" s="16"/>
       <c r="D145" s="16"/>
       <c r="E145" s="16"/>
-      <c r="F145" s="40"/>
-      <c r="G145" s="16"/>
-    </row>
-    <row r="146" spans="1:7">
-      <c r="A146" s="41"/>
+      <c r="F145" s="16"/>
+      <c r="G145" s="42"/>
+      <c r="H145" s="16"/>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="44"/>
       <c r="B146" s="16"/>
       <c r="C146" s="16"/>
       <c r="D146" s="16"/>
       <c r="E146" s="16"/>
-      <c r="F146" s="40"/>
-      <c r="G146" s="16"/>
-    </row>
-    <row r="147" spans="1:7">
-      <c r="A147" s="41"/>
+      <c r="F146" s="16"/>
+      <c r="G146" s="42"/>
+      <c r="H146" s="16"/>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="44"/>
       <c r="B147" s="16"/>
       <c r="C147" s="16"/>
       <c r="D147" s="16"/>
       <c r="E147" s="16"/>
-      <c r="F147" s="40"/>
-      <c r="G147" s="16"/>
-    </row>
-    <row r="148" spans="1:7">
-      <c r="A148" s="41"/>
+      <c r="F147" s="16"/>
+      <c r="G147" s="42"/>
+      <c r="H147" s="16"/>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="44"/>
       <c r="B148" s="16"/>
       <c r="C148" s="16"/>
       <c r="D148" s="16"/>
       <c r="E148" s="16"/>
-      <c r="F148" s="40"/>
-      <c r="G148" s="16"/>
-    </row>
-    <row r="149" spans="1:7">
-      <c r="A149" s="41"/>
+      <c r="F148" s="16"/>
+      <c r="G148" s="42"/>
+      <c r="H148" s="16"/>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="44"/>
       <c r="B149" s="16"/>
       <c r="C149" s="16"/>
       <c r="D149" s="16"/>
       <c r="E149" s="16"/>
-      <c r="F149" s="40"/>
-      <c r="G149" s="16"/>
-    </row>
-    <row r="150" spans="1:7">
-      <c r="A150" s="41"/>
+      <c r="F149" s="16"/>
+      <c r="G149" s="42"/>
+      <c r="H149" s="16"/>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="44"/>
       <c r="B150" s="16"/>
       <c r="C150" s="16"/>
       <c r="D150" s="16"/>
       <c r="E150" s="16"/>
-      <c r="F150" s="40"/>
-      <c r="G150" s="16"/>
-    </row>
-    <row r="151" spans="1:7">
-      <c r="A151" s="41"/>
+      <c r="F150" s="16"/>
+      <c r="G150" s="42"/>
+      <c r="H150" s="16"/>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="44"/>
       <c r="B151" s="16"/>
       <c r="C151" s="16"/>
       <c r="D151" s="16"/>
       <c r="E151" s="16"/>
-      <c r="F151" s="40"/>
-      <c r="G151" s="16"/>
-    </row>
-    <row r="152" spans="1:7">
-      <c r="A152" s="41"/>
+      <c r="F151" s="16"/>
+      <c r="G151" s="42"/>
+      <c r="H151" s="16"/>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="44"/>
       <c r="B152" s="16"/>
       <c r="C152" s="16"/>
       <c r="D152" s="16"/>
       <c r="E152" s="16"/>
-      <c r="F152" s="40"/>
-      <c r="G152" s="16"/>
-    </row>
-    <row r="153" spans="1:7">
-      <c r="A153" s="41"/>
+      <c r="F152" s="16"/>
+      <c r="G152" s="42"/>
+      <c r="H152" s="16"/>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="44"/>
       <c r="B153" s="16"/>
       <c r="C153" s="16"/>
       <c r="D153" s="16"/>
       <c r="E153" s="16"/>
-      <c r="F153" s="40"/>
-      <c r="G153" s="16"/>
-    </row>
-    <row r="154" spans="1:7">
-      <c r="A154" s="41"/>
+      <c r="F153" s="16"/>
+      <c r="G153" s="42"/>
+      <c r="H153" s="16"/>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="44"/>
       <c r="B154" s="16"/>
       <c r="C154" s="16"/>
       <c r="D154" s="16"/>
       <c r="E154" s="16"/>
-      <c r="F154" s="40"/>
-      <c r="G154" s="16"/>
-    </row>
-    <row r="155" spans="1:7">
-      <c r="A155" s="41"/>
+      <c r="F154" s="16"/>
+      <c r="G154" s="42"/>
+      <c r="H154" s="16"/>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="44"/>
       <c r="B155" s="16"/>
       <c r="C155" s="16"/>
       <c r="D155" s="16"/>
       <c r="E155" s="16"/>
-      <c r="F155" s="40"/>
-      <c r="G155" s="16"/>
-    </row>
-    <row r="156" spans="1:7">
-      <c r="A156" s="41"/>
+      <c r="F155" s="16"/>
+      <c r="G155" s="42"/>
+      <c r="H155" s="16"/>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="44"/>
       <c r="B156" s="16"/>
       <c r="C156" s="16"/>
       <c r="D156" s="16"/>
       <c r="E156" s="16"/>
-      <c r="F156" s="40"/>
-      <c r="G156" s="16"/>
-    </row>
-    <row r="157" spans="1:7">
-      <c r="A157" s="41"/>
+      <c r="F156" s="16"/>
+      <c r="G156" s="42"/>
+      <c r="H156" s="16"/>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="44"/>
       <c r="B157" s="16"/>
       <c r="C157" s="16"/>
       <c r="D157" s="16"/>
       <c r="E157" s="16"/>
-      <c r="F157" s="40"/>
-      <c r="G157" s="16"/>
-    </row>
-    <row r="158" spans="1:7">
-      <c r="A158" s="41"/>
+      <c r="F157" s="16"/>
+      <c r="G157" s="42"/>
+      <c r="H157" s="16"/>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="44"/>
       <c r="B158" s="16"/>
       <c r="C158" s="16"/>
       <c r="D158" s="16"/>
       <c r="E158" s="16"/>
-      <c r="F158" s="40"/>
-      <c r="G158" s="16"/>
-    </row>
-    <row r="159" spans="1:7">
-      <c r="A159" s="41"/>
+      <c r="F158" s="16"/>
+      <c r="G158" s="42"/>
+      <c r="H158" s="16"/>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="44"/>
       <c r="B159" s="16"/>
       <c r="C159" s="16"/>
       <c r="D159" s="16"/>
       <c r="E159" s="16"/>
-      <c r="F159" s="40"/>
-      <c r="G159" s="16"/>
-    </row>
-    <row r="160" spans="1:7">
-      <c r="A160" s="41"/>
+      <c r="F159" s="16"/>
+      <c r="G159" s="42"/>
+      <c r="H159" s="16"/>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="44"/>
       <c r="B160" s="16"/>
       <c r="C160" s="16"/>
       <c r="D160" s="16"/>
       <c r="E160" s="16"/>
-      <c r="F160" s="40"/>
-      <c r="G160" s="16"/>
-    </row>
-    <row r="161" spans="1:7">
-      <c r="A161" s="41"/>
+      <c r="F160" s="16"/>
+      <c r="G160" s="42"/>
+      <c r="H160" s="16"/>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="44"/>
       <c r="B161" s="16"/>
       <c r="C161" s="16"/>
       <c r="D161" s="16"/>
       <c r="E161" s="16"/>
-      <c r="F161" s="40"/>
-      <c r="G161" s="16"/>
-    </row>
-    <row r="162" spans="1:7">
-      <c r="A162" s="41"/>
+      <c r="F161" s="16"/>
+      <c r="G161" s="42"/>
+      <c r="H161" s="16"/>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="44"/>
       <c r="B162" s="16"/>
       <c r="C162" s="16"/>
       <c r="D162" s="16"/>
       <c r="E162" s="16"/>
-      <c r="F162" s="40"/>
-      <c r="G162" s="16"/>
-    </row>
-    <row r="163" spans="1:7">
-      <c r="A163" s="41"/>
+      <c r="F162" s="16"/>
+      <c r="G162" s="42"/>
+      <c r="H162" s="16"/>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="44"/>
       <c r="B163" s="16"/>
       <c r="C163" s="16"/>
       <c r="D163" s="16"/>
       <c r="E163" s="16"/>
-      <c r="F163" s="40"/>
-      <c r="G163" s="16"/>
-    </row>
-    <row r="164" spans="1:7">
-      <c r="A164" s="41"/>
+      <c r="F163" s="16"/>
+      <c r="G163" s="42"/>
+      <c r="H163" s="16"/>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="44"/>
       <c r="B164" s="16"/>
       <c r="C164" s="16"/>
       <c r="D164" s="16"/>
       <c r="E164" s="16"/>
-      <c r="F164" s="40"/>
-      <c r="G164" s="16"/>
-    </row>
-    <row r="165" spans="1:7">
-      <c r="A165" s="41"/>
+      <c r="F164" s="16"/>
+      <c r="G164" s="42"/>
+      <c r="H164" s="16"/>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="44"/>
       <c r="B165" s="16"/>
       <c r="C165" s="16"/>
       <c r="D165" s="16"/>
       <c r="E165" s="16"/>
-      <c r="F165" s="40"/>
-      <c r="G165" s="16"/>
-    </row>
-    <row r="166" spans="1:7">
-      <c r="A166" s="41"/>
+      <c r="F165" s="16"/>
+      <c r="G165" s="42"/>
+      <c r="H165" s="16"/>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="44"/>
       <c r="B166" s="16"/>
       <c r="C166" s="16"/>
       <c r="D166" s="16"/>
       <c r="E166" s="16"/>
-      <c r="F166" s="40"/>
-      <c r="G166" s="16"/>
-    </row>
-    <row r="167" spans="1:7">
-      <c r="A167" s="41"/>
+      <c r="F166" s="16"/>
+      <c r="G166" s="42"/>
+      <c r="H166" s="16"/>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="44"/>
       <c r="B167" s="16"/>
       <c r="C167" s="16"/>
       <c r="D167" s="16"/>
       <c r="E167" s="16"/>
-      <c r="F167" s="40"/>
-      <c r="G167" s="16"/>
-    </row>
-    <row r="168" spans="1:7">
-      <c r="A168" s="41"/>
+      <c r="F167" s="16"/>
+      <c r="G167" s="42"/>
+      <c r="H167" s="16"/>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="44"/>
       <c r="B168" s="16"/>
       <c r="C168" s="16"/>
       <c r="D168" s="16"/>
       <c r="E168" s="16"/>
-      <c r="F168" s="40"/>
-      <c r="G168" s="16"/>
-    </row>
-    <row r="169" spans="1:7">
-      <c r="A169" s="41"/>
+      <c r="F168" s="16"/>
+      <c r="G168" s="42"/>
+      <c r="H168" s="16"/>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="44"/>
       <c r="B169" s="16"/>
       <c r="C169" s="16"/>
       <c r="D169" s="16"/>
       <c r="E169" s="16"/>
-      <c r="F169" s="40"/>
-      <c r="G169" s="16"/>
-    </row>
-    <row r="170" spans="1:7">
-      <c r="A170" s="41"/>
+      <c r="F169" s="16"/>
+      <c r="G169" s="42"/>
+      <c r="H169" s="16"/>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="44"/>
       <c r="B170" s="16"/>
       <c r="C170" s="16"/>
       <c r="D170" s="16"/>
       <c r="E170" s="16"/>
-      <c r="F170" s="40"/>
-      <c r="G170" s="16"/>
-    </row>
-    <row r="171" spans="1:7">
-      <c r="A171" s="41"/>
+      <c r="F170" s="16"/>
+      <c r="G170" s="42"/>
+      <c r="H170" s="16"/>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="44"/>
       <c r="B171" s="16"/>
       <c r="C171" s="16"/>
       <c r="D171" s="16"/>
       <c r="E171" s="16"/>
-      <c r="F171" s="40"/>
-      <c r="G171" s="16"/>
-    </row>
-    <row r="172" spans="1:7">
-      <c r="A172" s="41"/>
+      <c r="F171" s="16"/>
+      <c r="G171" s="42"/>
+      <c r="H171" s="16"/>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="44"/>
       <c r="B172" s="16"/>
       <c r="C172" s="16"/>
       <c r="D172" s="16"/>
       <c r="E172" s="16"/>
-      <c r="F172" s="40"/>
-      <c r="G172" s="16"/>
-    </row>
-    <row r="173" spans="1:7">
-      <c r="A173" s="41"/>
+      <c r="F172" s="16"/>
+      <c r="G172" s="42"/>
+      <c r="H172" s="16"/>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="44"/>
       <c r="B173" s="16"/>
       <c r="C173" s="16"/>
       <c r="D173" s="16"/>
       <c r="E173" s="16"/>
-      <c r="F173" s="40"/>
-      <c r="G173" s="16"/>
-    </row>
-    <row r="174" spans="1:7">
-      <c r="A174" s="41"/>
+      <c r="F173" s="16"/>
+      <c r="G173" s="42"/>
+      <c r="H173" s="16"/>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="44"/>
       <c r="B174" s="16"/>
       <c r="C174" s="16"/>
       <c r="D174" s="16"/>
       <c r="E174" s="16"/>
-      <c r="F174" s="40"/>
-      <c r="G174" s="16"/>
-    </row>
-    <row r="175" spans="1:7">
-      <c r="A175" s="41"/>
+      <c r="F174" s="16"/>
+      <c r="G174" s="42"/>
+      <c r="H174" s="16"/>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="44"/>
       <c r="B175" s="16"/>
       <c r="C175" s="16"/>
       <c r="D175" s="16"/>
       <c r="E175" s="16"/>
-      <c r="F175" s="40"/>
-      <c r="G175" s="16"/>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="A176" s="41"/>
+      <c r="F175" s="16"/>
+      <c r="G175" s="42"/>
+      <c r="H175" s="16"/>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="44"/>
       <c r="B176" s="16"/>
       <c r="C176" s="16"/>
       <c r="D176" s="16"/>
       <c r="E176" s="16"/>
-      <c r="F176" s="40"/>
-      <c r="G176" s="16"/>
-    </row>
-    <row r="177" spans="1:7">
-      <c r="A177" s="41"/>
+      <c r="F176" s="16"/>
+      <c r="G176" s="42"/>
+      <c r="H176" s="16"/>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="44"/>
       <c r="B177" s="16"/>
       <c r="C177" s="16"/>
       <c r="D177" s="16"/>
       <c r="E177" s="16"/>
-      <c r="F177" s="40"/>
-      <c r="G177" s="16"/>
-    </row>
-    <row r="178" spans="1:7">
-      <c r="A178" s="41"/>
+      <c r="F177" s="16"/>
+      <c r="G177" s="42"/>
+      <c r="H177" s="16"/>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="44"/>
       <c r="B178" s="16"/>
       <c r="C178" s="16"/>
       <c r="D178" s="16"/>
       <c r="E178" s="16"/>
-      <c r="F178" s="40"/>
-      <c r="G178" s="16"/>
-    </row>
-    <row r="179" spans="1:7">
-      <c r="A179" s="41"/>
+      <c r="F178" s="16"/>
+      <c r="G178" s="42"/>
+      <c r="H178" s="16"/>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="44"/>
       <c r="B179" s="16"/>
       <c r="C179" s="16"/>
       <c r="D179" s="16"/>
       <c r="E179" s="16"/>
-      <c r="F179" s="40"/>
-      <c r="G179" s="16"/>
-    </row>
-    <row r="180" spans="1:7">
-      <c r="A180" s="41"/>
+      <c r="F179" s="16"/>
+      <c r="G179" s="42"/>
+      <c r="H179" s="16"/>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="44"/>
       <c r="B180" s="16"/>
       <c r="C180" s="16"/>
       <c r="D180" s="16"/>
       <c r="E180" s="16"/>
-      <c r="F180" s="40"/>
-      <c r="G180" s="16"/>
-    </row>
-    <row r="181" spans="1:7">
-      <c r="A181" s="41"/>
+      <c r="F180" s="16"/>
+      <c r="G180" s="42"/>
+      <c r="H180" s="16"/>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" s="44"/>
       <c r="B181" s="16"/>
       <c r="C181" s="16"/>
       <c r="D181" s="16"/>
       <c r="E181" s="16"/>
-      <c r="F181" s="40"/>
-      <c r="G181" s="16"/>
-    </row>
-    <row r="182" spans="1:7">
-      <c r="A182" s="41"/>
+      <c r="F181" s="16"/>
+      <c r="G181" s="42"/>
+      <c r="H181" s="16"/>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" s="44"/>
       <c r="B182" s="16"/>
       <c r="C182" s="16"/>
       <c r="D182" s="16"/>
       <c r="E182" s="16"/>
-      <c r="F182" s="40"/>
-      <c r="G182" s="16"/>
-    </row>
-    <row r="183" spans="1:7">
-      <c r="A183" s="41"/>
+      <c r="F182" s="16"/>
+      <c r="G182" s="42"/>
+      <c r="H182" s="16"/>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" s="44"/>
       <c r="B183" s="16"/>
       <c r="C183" s="16"/>
       <c r="D183" s="16"/>
       <c r="E183" s="16"/>
-      <c r="F183" s="40"/>
-      <c r="G183" s="16"/>
-    </row>
-    <row r="184" spans="1:7">
-      <c r="A184" s="41"/>
+      <c r="F183" s="16"/>
+      <c r="G183" s="42"/>
+      <c r="H183" s="16"/>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="44"/>
       <c r="B184" s="16"/>
       <c r="C184" s="16"/>
       <c r="D184" s="16"/>
       <c r="E184" s="16"/>
-      <c r="F184" s="40"/>
-      <c r="G184" s="16"/>
-    </row>
-    <row r="185" spans="1:7">
-      <c r="A185" s="41"/>
+      <c r="F184" s="16"/>
+      <c r="G184" s="42"/>
+      <c r="H184" s="16"/>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" s="44"/>
       <c r="B185" s="16"/>
       <c r="C185" s="16"/>
       <c r="D185" s="16"/>
       <c r="E185" s="16"/>
-      <c r="F185" s="40"/>
-      <c r="G185" s="16"/>
-    </row>
-    <row r="186" spans="1:7">
-      <c r="A186" s="41"/>
+      <c r="F185" s="16"/>
+      <c r="G185" s="42"/>
+      <c r="H185" s="16"/>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" s="44"/>
       <c r="B186" s="16"/>
       <c r="C186" s="16"/>
       <c r="D186" s="16"/>
       <c r="E186" s="16"/>
-      <c r="F186" s="40"/>
-      <c r="G186" s="16"/>
-    </row>
-    <row r="187" spans="1:7">
-      <c r="A187" s="41"/>
+      <c r="F186" s="16"/>
+      <c r="G186" s="42"/>
+      <c r="H186" s="16"/>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" s="44"/>
       <c r="B187" s="16"/>
       <c r="C187" s="16"/>
       <c r="D187" s="16"/>
       <c r="E187" s="16"/>
-      <c r="F187" s="40"/>
-      <c r="G187" s="16"/>
-    </row>
-    <row r="188" spans="1:7">
-      <c r="A188" s="41"/>
+      <c r="F187" s="16"/>
+      <c r="G187" s="42"/>
+      <c r="H187" s="16"/>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" s="44"/>
       <c r="B188" s="16"/>
       <c r="C188" s="16"/>
       <c r="D188" s="16"/>
       <c r="E188" s="16"/>
-      <c r="F188" s="40"/>
-      <c r="G188" s="16"/>
-    </row>
-    <row r="189" spans="1:7">
-      <c r="A189" s="41"/>
+      <c r="F188" s="16"/>
+      <c r="G188" s="42"/>
+      <c r="H188" s="16"/>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" s="44"/>
       <c r="B189" s="16"/>
       <c r="C189" s="16"/>
       <c r="D189" s="16"/>
       <c r="E189" s="16"/>
-      <c r="F189" s="40"/>
-      <c r="G189" s="16"/>
-    </row>
-    <row r="190" spans="1:7">
-      <c r="A190" s="41"/>
+      <c r="F189" s="16"/>
+      <c r="G189" s="42"/>
+      <c r="H189" s="16"/>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" s="44"/>
       <c r="B190" s="16"/>
       <c r="C190" s="16"/>
       <c r="D190" s="16"/>
       <c r="E190" s="16"/>
-      <c r="F190" s="40"/>
-      <c r="G190" s="16"/>
-    </row>
-    <row r="191" spans="1:7">
-      <c r="A191" s="41"/>
+      <c r="F190" s="16"/>
+      <c r="G190" s="42"/>
+      <c r="H190" s="16"/>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" s="44"/>
       <c r="B191" s="16"/>
       <c r="C191" s="16"/>
       <c r="D191" s="16"/>
       <c r="E191" s="16"/>
-      <c r="F191" s="40"/>
-      <c r="G191" s="16"/>
-    </row>
-    <row r="192" spans="1:7">
-      <c r="A192" s="41"/>
+      <c r="F191" s="16"/>
+      <c r="G191" s="42"/>
+      <c r="H191" s="16"/>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" s="44"/>
       <c r="B192" s="16"/>
       <c r="C192" s="16"/>
       <c r="D192" s="16"/>
       <c r="E192" s="16"/>
-      <c r="F192" s="40"/>
-      <c r="G192" s="16"/>
-    </row>
-    <row r="193" spans="1:7">
-      <c r="A193" s="41"/>
+      <c r="F192" s="16"/>
+      <c r="G192" s="42"/>
+      <c r="H192" s="16"/>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" s="44"/>
       <c r="B193" s="16"/>
       <c r="C193" s="16"/>
       <c r="D193" s="16"/>
       <c r="E193" s="16"/>
-      <c r="F193" s="40"/>
-      <c r="G193" s="16"/>
-    </row>
-    <row r="194" spans="1:7">
-      <c r="A194" s="41"/>
+      <c r="F193" s="16"/>
+      <c r="G193" s="42"/>
+      <c r="H193" s="16"/>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" s="44"/>
       <c r="B194" s="16"/>
       <c r="C194" s="16"/>
       <c r="D194" s="16"/>
       <c r="E194" s="16"/>
-      <c r="F194" s="40"/>
-      <c r="G194" s="16"/>
-    </row>
-    <row r="195" spans="1:7">
-      <c r="A195" s="41"/>
+      <c r="F194" s="16"/>
+      <c r="G194" s="42"/>
+      <c r="H194" s="16"/>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" s="44"/>
       <c r="B195" s="16"/>
       <c r="C195" s="16"/>
       <c r="D195" s="16"/>
       <c r="E195" s="16"/>
-      <c r="F195" s="40"/>
-      <c r="G195" s="16"/>
-    </row>
-    <row r="196" spans="1:7">
-      <c r="A196" s="41"/>
+      <c r="F195" s="16"/>
+      <c r="G195" s="42"/>
+      <c r="H195" s="16"/>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" s="44"/>
       <c r="B196" s="16"/>
       <c r="C196" s="16"/>
       <c r="D196" s="16"/>
       <c r="E196" s="16"/>
-      <c r="F196" s="40"/>
-      <c r="G196" s="16"/>
-    </row>
-    <row r="197" spans="1:7">
-      <c r="A197" s="41"/>
+      <c r="F196" s="16"/>
+      <c r="G196" s="42"/>
+      <c r="H196" s="16"/>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" s="44"/>
       <c r="B197" s="16"/>
       <c r="C197" s="16"/>
       <c r="D197" s="16"/>
       <c r="E197" s="16"/>
-      <c r="F197" s="40"/>
-      <c r="G197" s="16"/>
-    </row>
-    <row r="198" spans="1:7">
-      <c r="A198" s="41"/>
+      <c r="F197" s="16"/>
+      <c r="G197" s="42"/>
+      <c r="H197" s="16"/>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" s="44"/>
       <c r="B198" s="16"/>
       <c r="C198" s="16"/>
       <c r="D198" s="16"/>
       <c r="E198" s="16"/>
-      <c r="F198" s="40"/>
-      <c r="G198" s="16"/>
-    </row>
-    <row r="199" spans="1:7">
-      <c r="A199" s="41"/>
+      <c r="F198" s="16"/>
+      <c r="G198" s="42"/>
+      <c r="H198" s="16"/>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" s="44"/>
       <c r="B199" s="16"/>
       <c r="C199" s="16"/>
       <c r="D199" s="16"/>
       <c r="E199" s="16"/>
-      <c r="F199" s="40"/>
-      <c r="G199" s="16"/>
-    </row>
-    <row r="200" spans="1:7">
-      <c r="A200" s="41"/>
+      <c r="F199" s="16"/>
+      <c r="G199" s="42"/>
+      <c r="H199" s="16"/>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" s="44"/>
       <c r="B200" s="16"/>
       <c r="C200" s="16"/>
       <c r="D200" s="16"/>
       <c r="E200" s="16"/>
-      <c r="F200" s="40"/>
-      <c r="G200" s="16"/>
-    </row>
-    <row r="201" spans="1:7">
-      <c r="A201" s="41"/>
+      <c r="F200" s="16"/>
+      <c r="G200" s="42"/>
+      <c r="H200" s="16"/>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" s="44"/>
       <c r="B201" s="16"/>
       <c r="C201" s="16"/>
       <c r="D201" s="16"/>
       <c r="E201" s="16"/>
-      <c r="F201" s="40"/>
-      <c r="G201" s="16"/>
-    </row>
-    <row r="202" spans="1:7">
-      <c r="A202" s="41"/>
+      <c r="F201" s="16"/>
+      <c r="G201" s="42"/>
+      <c r="H201" s="16"/>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" s="44"/>
       <c r="B202" s="16"/>
       <c r="C202" s="16"/>
       <c r="D202" s="16"/>
       <c r="E202" s="16"/>
-      <c r="F202" s="40"/>
-      <c r="G202" s="16"/>
-    </row>
-    <row r="203" spans="1:7">
-      <c r="A203" s="41"/>
+      <c r="F202" s="16"/>
+      <c r="G202" s="42"/>
+      <c r="H202" s="16"/>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" s="44"/>
       <c r="B203" s="16"/>
       <c r="C203" s="16"/>
       <c r="D203" s="16"/>
       <c r="E203" s="16"/>
-      <c r="F203" s="40"/>
-      <c r="G203" s="16"/>
-    </row>
-    <row r="204" spans="1:7">
-      <c r="A204" s="41"/>
+      <c r="F203" s="16"/>
+      <c r="G203" s="42"/>
+      <c r="H203" s="16"/>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" s="44"/>
       <c r="B204" s="16"/>
       <c r="C204" s="16"/>
       <c r="D204" s="16"/>
       <c r="E204" s="16"/>
-      <c r="F204" s="40"/>
-      <c r="G204" s="16"/>
-    </row>
-    <row r="205" spans="1:7">
-      <c r="A205" s="41"/>
+      <c r="F204" s="16"/>
+      <c r="G204" s="42"/>
+      <c r="H204" s="16"/>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" s="44"/>
       <c r="B205" s="16"/>
       <c r="C205" s="16"/>
       <c r="D205" s="16"/>
       <c r="E205" s="16"/>
-      <c r="F205" s="40"/>
-      <c r="G205" s="16"/>
-    </row>
-    <row r="206" spans="1:7">
-      <c r="A206" s="41"/>
+      <c r="F205" s="16"/>
+      <c r="G205" s="42"/>
+      <c r="H205" s="16"/>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" s="44"/>
       <c r="B206" s="16"/>
       <c r="C206" s="16"/>
       <c r="D206" s="16"/>
       <c r="E206" s="16"/>
-      <c r="F206" s="40"/>
-      <c r="G206" s="16"/>
-    </row>
-    <row r="207" spans="1:7">
-      <c r="A207" s="41"/>
+      <c r="F206" s="16"/>
+      <c r="G206" s="42"/>
+      <c r="H206" s="16"/>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" s="44"/>
       <c r="B207" s="16"/>
       <c r="C207" s="16"/>
       <c r="D207" s="16"/>
       <c r="E207" s="16"/>
-      <c r="F207" s="40"/>
-      <c r="G207" s="16"/>
-    </row>
-    <row r="208" spans="1:7">
-      <c r="A208" s="41"/>
+      <c r="F207" s="16"/>
+      <c r="G207" s="42"/>
+      <c r="H207" s="16"/>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" s="44"/>
       <c r="B208" s="16"/>
       <c r="C208" s="16"/>
       <c r="D208" s="16"/>
       <c r="E208" s="16"/>
-      <c r="F208" s="40"/>
-      <c r="G208" s="16"/>
-    </row>
-    <row r="209" spans="1:7">
-      <c r="A209" s="41"/>
+      <c r="F208" s="16"/>
+      <c r="G208" s="42"/>
+      <c r="H208" s="16"/>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" s="44"/>
       <c r="B209" s="16"/>
       <c r="C209" s="16"/>
       <c r="D209" s="16"/>
       <c r="E209" s="16"/>
-      <c r="F209" s="40"/>
-      <c r="G209" s="16"/>
-    </row>
-    <row r="210" spans="1:7">
-      <c r="A210" s="41"/>
+      <c r="F209" s="16"/>
+      <c r="G209" s="42"/>
+      <c r="H209" s="16"/>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" s="44"/>
       <c r="B210" s="16"/>
       <c r="C210" s="16"/>
       <c r="D210" s="16"/>
       <c r="E210" s="16"/>
-      <c r="F210" s="40"/>
-      <c r="G210" s="16"/>
-    </row>
-    <row r="211" spans="1:7">
-      <c r="A211" s="41"/>
+      <c r="F210" s="16"/>
+      <c r="G210" s="42"/>
+      <c r="H210" s="16"/>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" s="44"/>
       <c r="B211" s="16"/>
       <c r="C211" s="16"/>
       <c r="D211" s="16"/>
       <c r="E211" s="16"/>
-      <c r="F211" s="40"/>
-      <c r="G211" s="16"/>
-    </row>
-    <row r="212" spans="1:7">
-      <c r="A212" s="41"/>
+      <c r="F211" s="16"/>
+      <c r="G211" s="42"/>
+      <c r="H211" s="16"/>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" s="44"/>
       <c r="B212" s="16"/>
       <c r="C212" s="16"/>
       <c r="D212" s="16"/>
       <c r="E212" s="16"/>
-      <c r="F212" s="40"/>
-      <c r="G212" s="16"/>
-    </row>
-    <row r="213" spans="1:7">
-      <c r="A213" s="41"/>
+      <c r="F212" s="16"/>
+      <c r="G212" s="42"/>
+      <c r="H212" s="16"/>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" s="44"/>
       <c r="B213" s="16"/>
       <c r="C213" s="16"/>
       <c r="D213" s="16"/>
       <c r="E213" s="16"/>
-      <c r="F213" s="40"/>
-      <c r="G213" s="16"/>
-    </row>
-    <row r="214" spans="1:7">
-      <c r="A214" s="41"/>
+      <c r="F213" s="16"/>
+      <c r="G213" s="42"/>
+      <c r="H213" s="16"/>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" s="44"/>
       <c r="B214" s="16"/>
       <c r="C214" s="16"/>
       <c r="D214" s="16"/>
       <c r="E214" s="16"/>
-      <c r="F214" s="40"/>
-      <c r="G214" s="16"/>
-    </row>
-    <row r="215" spans="1:7">
-      <c r="A215" s="41"/>
+      <c r="F214" s="16"/>
+      <c r="G214" s="42"/>
+      <c r="H214" s="16"/>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" s="44"/>
       <c r="B215" s="16"/>
       <c r="C215" s="16"/>
       <c r="D215" s="16"/>
       <c r="E215" s="16"/>
-      <c r="F215" s="40"/>
-      <c r="G215" s="16"/>
-    </row>
-    <row r="216" spans="1:7">
-      <c r="A216" s="41"/>
+      <c r="F215" s="16"/>
+      <c r="G215" s="42"/>
+      <c r="H215" s="16"/>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" s="44"/>
       <c r="B216" s="16"/>
       <c r="C216" s="16"/>
       <c r="D216" s="16"/>
       <c r="E216" s="16"/>
-      <c r="F216" s="40"/>
-      <c r="G216" s="16"/>
-    </row>
-    <row r="217" spans="1:7">
-      <c r="A217" s="41"/>
+      <c r="F216" s="16"/>
+      <c r="G216" s="42"/>
+      <c r="H216" s="16"/>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" s="44"/>
       <c r="B217" s="16"/>
       <c r="C217" s="16"/>
       <c r="D217" s="16"/>
       <c r="E217" s="16"/>
-      <c r="F217" s="40"/>
-      <c r="G217" s="16"/>
-    </row>
-    <row r="218" spans="1:7">
-      <c r="A218" s="41"/>
+      <c r="F217" s="16"/>
+      <c r="G217" s="42"/>
+      <c r="H217" s="16"/>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" s="44"/>
       <c r="B218" s="16"/>
       <c r="C218" s="16"/>
       <c r="D218" s="16"/>
       <c r="E218" s="16"/>
-      <c r="F218" s="40"/>
-      <c r="G218" s="16"/>
-    </row>
-    <row r="219" spans="1:7">
-      <c r="A219" s="41"/>
+      <c r="F218" s="16"/>
+      <c r="G218" s="42"/>
+      <c r="H218" s="16"/>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" s="44"/>
       <c r="B219" s="16"/>
       <c r="C219" s="16"/>
       <c r="D219" s="16"/>
       <c r="E219" s="16"/>
-      <c r="F219" s="40"/>
-      <c r="G219" s="16"/>
-    </row>
-    <row r="220" spans="1:7">
-      <c r="A220" s="41"/>
+      <c r="F219" s="16"/>
+      <c r="G219" s="42"/>
+      <c r="H219" s="16"/>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" s="44"/>
       <c r="B220" s="16"/>
       <c r="C220" s="16"/>
       <c r="D220" s="16"/>
       <c r="E220" s="16"/>
-      <c r="F220" s="40"/>
-      <c r="G220" s="16"/>
-    </row>
-    <row r="221" spans="1:7">
-      <c r="A221" s="41"/>
+      <c r="F220" s="16"/>
+      <c r="G220" s="42"/>
+      <c r="H220" s="16"/>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" s="44"/>
       <c r="B221" s="16"/>
       <c r="C221" s="16"/>
       <c r="D221" s="16"/>
       <c r="E221" s="16"/>
-      <c r="F221" s="40"/>
-      <c r="G221" s="16"/>
-    </row>
-    <row r="222" spans="1:7">
-      <c r="A222" s="41"/>
+      <c r="F221" s="16"/>
+      <c r="G221" s="42"/>
+      <c r="H221" s="16"/>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" s="44"/>
       <c r="B222" s="16"/>
       <c r="C222" s="16"/>
       <c r="D222" s="16"/>
       <c r="E222" s="16"/>
-      <c r="F222" s="40"/>
-      <c r="G222" s="16"/>
-    </row>
-    <row r="223" spans="1:7">
-      <c r="A223" s="41"/>
+      <c r="F222" s="16"/>
+      <c r="G222" s="42"/>
+      <c r="H222" s="16"/>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" s="44"/>
       <c r="B223" s="16"/>
       <c r="C223" s="16"/>
       <c r="D223" s="16"/>
       <c r="E223" s="16"/>
-      <c r="F223" s="40"/>
-      <c r="G223" s="16"/>
-    </row>
-    <row r="224" spans="1:7">
-      <c r="A224" s="41"/>
+      <c r="F223" s="16"/>
+      <c r="G223" s="42"/>
+      <c r="H223" s="16"/>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" s="44"/>
       <c r="B224" s="16"/>
       <c r="C224" s="16"/>
       <c r="D224" s="16"/>
       <c r="E224" s="16"/>
-      <c r="F224" s="40"/>
-      <c r="G224" s="16"/>
-    </row>
-    <row r="225" spans="1:7">
-      <c r="A225" s="41"/>
+      <c r="F224" s="16"/>
+      <c r="G224" s="42"/>
+      <c r="H224" s="16"/>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225" s="44"/>
       <c r="B225" s="16"/>
       <c r="C225" s="16"/>
       <c r="D225" s="16"/>
       <c r="E225" s="16"/>
-      <c r="F225" s="40"/>
-      <c r="G225" s="16"/>
-    </row>
-    <row r="226" spans="1:7">
-      <c r="A226" s="41"/>
+      <c r="F225" s="16"/>
+      <c r="G225" s="42"/>
+      <c r="H225" s="16"/>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" s="44"/>
       <c r="B226" s="16"/>
       <c r="C226" s="16"/>
       <c r="D226" s="16"/>
       <c r="E226" s="16"/>
-      <c r="F226" s="40"/>
-      <c r="G226" s="16"/>
-    </row>
-    <row r="227" spans="1:7">
-      <c r="A227" s="41"/>
+      <c r="F226" s="16"/>
+      <c r="G226" s="42"/>
+      <c r="H226" s="16"/>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227" s="44"/>
       <c r="B227" s="16"/>
       <c r="C227" s="16"/>
       <c r="D227" s="16"/>
       <c r="E227" s="16"/>
-      <c r="F227" s="40"/>
-      <c r="G227" s="16"/>
-    </row>
-    <row r="228" spans="1:7">
-      <c r="A228" s="41"/>
+      <c r="F227" s="16"/>
+      <c r="G227" s="42"/>
+      <c r="H227" s="16"/>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228" s="44"/>
       <c r="B228" s="16"/>
       <c r="C228" s="16"/>
       <c r="D228" s="16"/>
       <c r="E228" s="16"/>
-      <c r="F228" s="40"/>
-      <c r="G228" s="16"/>
-    </row>
-    <row r="229" spans="1:7">
-      <c r="A229" s="41"/>
+      <c r="F228" s="16"/>
+      <c r="G228" s="42"/>
+      <c r="H228" s="16"/>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229" s="44"/>
       <c r="B229" s="16"/>
       <c r="C229" s="16"/>
       <c r="D229" s="16"/>
       <c r="E229" s="16"/>
-      <c r="F229" s="40"/>
-      <c r="G229" s="16"/>
-    </row>
-    <row r="230" spans="1:7">
-      <c r="A230" s="41"/>
+      <c r="F229" s="16"/>
+      <c r="G229" s="42"/>
+      <c r="H229" s="16"/>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230" s="44"/>
       <c r="B230" s="16"/>
       <c r="C230" s="16"/>
       <c r="D230" s="16"/>
       <c r="E230" s="16"/>
-      <c r="F230" s="40"/>
-      <c r="G230" s="16"/>
-    </row>
-    <row r="231" spans="1:7">
-      <c r="A231" s="41"/>
+      <c r="F230" s="16"/>
+      <c r="G230" s="42"/>
+      <c r="H230" s="16"/>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231" s="44"/>
       <c r="B231" s="16"/>
       <c r="C231" s="16"/>
       <c r="D231" s="16"/>
       <c r="E231" s="16"/>
-      <c r="F231" s="40"/>
-      <c r="G231" s="16"/>
-    </row>
-    <row r="232" spans="1:7">
-      <c r="A232" s="41"/>
+      <c r="F231" s="16"/>
+      <c r="G231" s="42"/>
+      <c r="H231" s="16"/>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232" s="44"/>
       <c r="B232" s="16"/>
       <c r="C232" s="16"/>
       <c r="D232" s="16"/>
       <c r="E232" s="16"/>
-      <c r="F232" s="40"/>
-      <c r="G232" s="16"/>
-    </row>
-    <row r="233" spans="1:7">
-      <c r="A233" s="41"/>
+      <c r="F232" s="16"/>
+      <c r="G232" s="42"/>
+      <c r="H232" s="16"/>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" s="44"/>
       <c r="B233" s="16"/>
       <c r="C233" s="16"/>
       <c r="D233" s="16"/>
       <c r="E233" s="16"/>
-      <c r="F233" s="40"/>
-      <c r="G233" s="16"/>
-    </row>
-    <row r="234" spans="1:7">
-      <c r="A234" s="41"/>
+      <c r="F233" s="16"/>
+      <c r="G233" s="42"/>
+      <c r="H233" s="16"/>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234" s="44"/>
       <c r="B234" s="16"/>
       <c r="C234" s="16"/>
       <c r="D234" s="16"/>
       <c r="E234" s="16"/>
-      <c r="F234" s="40"/>
-      <c r="G234" s="16"/>
-    </row>
-    <row r="235" spans="1:7">
-      <c r="A235" s="41"/>
+      <c r="F234" s="16"/>
+      <c r="G234" s="42"/>
+      <c r="H234" s="16"/>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235" s="44"/>
       <c r="B235" s="16"/>
       <c r="C235" s="16"/>
       <c r="D235" s="16"/>
       <c r="E235" s="16"/>
-      <c r="F235" s="40"/>
-      <c r="G235" s="16"/>
-    </row>
-    <row r="236" spans="1:7">
-      <c r="A236" s="41"/>
+      <c r="F235" s="16"/>
+      <c r="G235" s="42"/>
+      <c r="H235" s="16"/>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236" s="44"/>
       <c r="B236" s="16"/>
       <c r="C236" s="16"/>
       <c r="D236" s="16"/>
       <c r="E236" s="16"/>
-      <c r="F236" s="40"/>
-      <c r="G236" s="16"/>
-    </row>
-    <row r="237" spans="1:7">
-      <c r="A237" s="41"/>
+      <c r="F236" s="16"/>
+      <c r="G236" s="42"/>
+      <c r="H236" s="16"/>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237" s="44"/>
       <c r="B237" s="16"/>
       <c r="C237" s="16"/>
       <c r="D237" s="16"/>
       <c r="E237" s="16"/>
-      <c r="F237" s="40"/>
-      <c r="G237" s="16"/>
-    </row>
-    <row r="238" spans="1:7">
-      <c r="A238" s="41"/>
+      <c r="F237" s="16"/>
+      <c r="G237" s="42"/>
+      <c r="H237" s="16"/>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238" s="44"/>
       <c r="B238" s="16"/>
       <c r="C238" s="16"/>
       <c r="D238" s="16"/>
       <c r="E238" s="16"/>
-      <c r="F238" s="40"/>
-      <c r="G238" s="16"/>
-    </row>
-    <row r="239" spans="1:7">
-      <c r="A239" s="41"/>
+      <c r="F238" s="16"/>
+      <c r="G238" s="42"/>
+      <c r="H238" s="16"/>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239" s="44"/>
       <c r="B239" s="16"/>
       <c r="C239" s="16"/>
       <c r="D239" s="16"/>
       <c r="E239" s="16"/>
-      <c r="F239" s="40"/>
-      <c r="G239" s="16"/>
-    </row>
-    <row r="240" spans="1:7">
-      <c r="A240" s="41"/>
+      <c r="F239" s="16"/>
+      <c r="G239" s="42"/>
+      <c r="H239" s="16"/>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240" s="44"/>
       <c r="B240" s="16"/>
       <c r="C240" s="16"/>
       <c r="D240" s="16"/>
       <c r="E240" s="16"/>
-      <c r="F240" s="40"/>
-      <c r="G240" s="16"/>
-    </row>
-    <row r="241" spans="1:7">
-      <c r="A241" s="41"/>
+      <c r="F240" s="16"/>
+      <c r="G240" s="42"/>
+      <c r="H240" s="16"/>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241" s="44"/>
       <c r="B241" s="16"/>
       <c r="C241" s="16"/>
       <c r="D241" s="16"/>
       <c r="E241" s="16"/>
-      <c r="F241" s="40"/>
-      <c r="G241" s="16"/>
-    </row>
-    <row r="242" spans="1:7">
-      <c r="A242" s="41"/>
+      <c r="F241" s="16"/>
+      <c r="G241" s="42"/>
+      <c r="H241" s="16"/>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" s="44"/>
       <c r="B242" s="16"/>
       <c r="C242" s="16"/>
       <c r="D242" s="16"/>
       <c r="E242" s="16"/>
-      <c r="F242" s="40"/>
-      <c r="G242" s="16"/>
-    </row>
-    <row r="243" spans="1:7">
-      <c r="A243" s="41"/>
+      <c r="F242" s="16"/>
+      <c r="G242" s="42"/>
+      <c r="H242" s="16"/>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243" s="44"/>
       <c r="B243" s="16"/>
       <c r="C243" s="16"/>
       <c r="D243" s="16"/>
       <c r="E243" s="16"/>
-      <c r="F243" s="40"/>
-      <c r="G243" s="16"/>
-    </row>
-    <row r="244" spans="1:7">
-      <c r="A244" s="41"/>
+      <c r="F243" s="16"/>
+      <c r="G243" s="42"/>
+      <c r="H243" s="16"/>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244" s="44"/>
       <c r="B244" s="16"/>
       <c r="C244" s="16"/>
       <c r="D244" s="16"/>
       <c r="E244" s="16"/>
-      <c r="F244" s="40"/>
-      <c r="G244" s="16"/>
-    </row>
-    <row r="245" spans="1:7">
-      <c r="A245" s="41"/>
+      <c r="F244" s="16"/>
+      <c r="G244" s="42"/>
+      <c r="H244" s="16"/>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245" s="44"/>
       <c r="B245" s="16"/>
       <c r="C245" s="16"/>
       <c r="D245" s="16"/>
       <c r="E245" s="16"/>
-      <c r="F245" s="40"/>
-      <c r="G245" s="16"/>
-    </row>
-    <row r="246" spans="1:7">
-      <c r="A246" s="41"/>
+      <c r="F245" s="16"/>
+      <c r="G245" s="42"/>
+      <c r="H245" s="16"/>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" s="44"/>
       <c r="B246" s="16"/>
       <c r="C246" s="16"/>
       <c r="D246" s="16"/>
       <c r="E246" s="16"/>
-      <c r="F246" s="40"/>
-      <c r="G246" s="16"/>
-    </row>
-    <row r="247" spans="1:7">
-      <c r="A247" s="41"/>
+      <c r="F246" s="16"/>
+      <c r="G246" s="42"/>
+      <c r="H246" s="16"/>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247" s="44"/>
       <c r="B247" s="16"/>
       <c r="C247" s="16"/>
       <c r="D247" s="16"/>
       <c r="E247" s="16"/>
-      <c r="F247" s="40"/>
-      <c r="G247" s="16"/>
-    </row>
-    <row r="248" spans="1:7">
-      <c r="A248" s="41"/>
+      <c r="F247" s="16"/>
+      <c r="G247" s="42"/>
+      <c r="H247" s="16"/>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248" s="44"/>
       <c r="B248" s="16"/>
       <c r="C248" s="16"/>
       <c r="D248" s="16"/>
       <c r="E248" s="16"/>
-      <c r="F248" s="40"/>
-      <c r="G248" s="16"/>
-    </row>
-    <row r="249" spans="1:7">
-      <c r="A249" s="41"/>
+      <c r="F248" s="16"/>
+      <c r="G248" s="42"/>
+      <c r="H248" s="16"/>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" s="44"/>
       <c r="B249" s="16"/>
       <c r="C249" s="16"/>
       <c r="D249" s="16"/>
       <c r="E249" s="16"/>
-      <c r="F249" s="40"/>
-      <c r="G249" s="16"/>
-    </row>
-    <row r="250" spans="1:7">
-      <c r="A250" s="41"/>
+      <c r="F249" s="16"/>
+      <c r="G249" s="42"/>
+      <c r="H249" s="16"/>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" s="44"/>
       <c r="B250" s="16"/>
       <c r="C250" s="16"/>
       <c r="D250" s="16"/>
       <c r="E250" s="16"/>
-      <c r="F250" s="40"/>
-      <c r="G250" s="16"/>
-    </row>
-    <row r="251" spans="1:7">
-      <c r="A251" s="41"/>
+      <c r="F250" s="16"/>
+      <c r="G250" s="42"/>
+      <c r="H250" s="16"/>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" s="44"/>
       <c r="B251" s="16"/>
       <c r="C251" s="16"/>
       <c r="D251" s="16"/>
       <c r="E251" s="16"/>
-      <c r="F251" s="40"/>
-      <c r="G251" s="16"/>
-    </row>
-    <row r="252" spans="1:7">
-      <c r="A252" s="41"/>
+      <c r="F251" s="16"/>
+      <c r="G251" s="42"/>
+      <c r="H251" s="16"/>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252" s="44"/>
       <c r="B252" s="16"/>
       <c r="C252" s="16"/>
       <c r="D252" s="16"/>
       <c r="E252" s="16"/>
-      <c r="F252" s="40"/>
-      <c r="G252" s="16"/>
-    </row>
-    <row r="253" spans="1:7">
-      <c r="A253" s="41"/>
+      <c r="F252" s="16"/>
+      <c r="G252" s="42"/>
+      <c r="H252" s="16"/>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" s="44"/>
       <c r="B253" s="16"/>
       <c r="C253" s="16"/>
       <c r="D253" s="16"/>
       <c r="E253" s="16"/>
-      <c r="F253" s="40"/>
-      <c r="G253" s="16"/>
-    </row>
-    <row r="254" spans="1:7">
-      <c r="A254" s="41"/>
+      <c r="F253" s="16"/>
+      <c r="G253" s="42"/>
+      <c r="H253" s="16"/>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254" s="44"/>
       <c r="B254" s="16"/>
       <c r="C254" s="16"/>
       <c r="D254" s="16"/>
       <c r="E254" s="16"/>
-      <c r="F254" s="40"/>
-      <c r="G254" s="16"/>
-    </row>
-    <row r="255" spans="1:7">
-      <c r="A255" s="41"/>
+      <c r="F254" s="16"/>
+      <c r="G254" s="42"/>
+      <c r="H254" s="16"/>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" s="44"/>
       <c r="B255" s="16"/>
       <c r="C255" s="16"/>
       <c r="D255" s="16"/>
       <c r="E255" s="16"/>
-      <c r="F255" s="40"/>
-      <c r="G255" s="16"/>
-    </row>
-    <row r="256" spans="1:7">
-      <c r="A256" s="41"/>
+      <c r="F255" s="16"/>
+      <c r="G255" s="42"/>
+      <c r="H255" s="16"/>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" s="44"/>
       <c r="B256" s="16"/>
       <c r="C256" s="16"/>
       <c r="D256" s="16"/>
       <c r="E256" s="16"/>
-      <c r="F256" s="40"/>
-      <c r="G256" s="16"/>
-    </row>
-    <row r="257" spans="1:7">
-      <c r="A257" s="41"/>
+      <c r="F256" s="16"/>
+      <c r="G256" s="42"/>
+      <c r="H256" s="16"/>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257" s="44"/>
       <c r="B257" s="16"/>
       <c r="C257" s="16"/>
       <c r="D257" s="16"/>
       <c r="E257" s="16"/>
-      <c r="F257" s="40"/>
-      <c r="G257" s="16"/>
-    </row>
-    <row r="258" spans="1:7">
-      <c r="A258" s="41"/>
+      <c r="F257" s="16"/>
+      <c r="G257" s="42"/>
+      <c r="H257" s="16"/>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258" s="44"/>
       <c r="B258" s="16"/>
       <c r="C258" s="16"/>
       <c r="D258" s="16"/>
       <c r="E258" s="16"/>
-      <c r="F258" s="40"/>
-      <c r="G258" s="16"/>
-    </row>
-    <row r="259" spans="1:7">
-      <c r="A259" s="41"/>
+      <c r="F258" s="16"/>
+      <c r="G258" s="42"/>
+      <c r="H258" s="16"/>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" s="44"/>
       <c r="B259" s="16"/>
       <c r="C259" s="16"/>
       <c r="D259" s="16"/>
       <c r="E259" s="16"/>
-      <c r="F259" s="40"/>
-      <c r="G259" s="16"/>
-    </row>
-    <row r="260" spans="1:7">
-      <c r="A260" s="41"/>
+      <c r="F259" s="16"/>
+      <c r="G259" s="42"/>
+      <c r="H259" s="16"/>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260" s="44"/>
       <c r="B260" s="16"/>
       <c r="C260" s="16"/>
       <c r="D260" s="16"/>
       <c r="E260" s="16"/>
-      <c r="F260" s="40"/>
-      <c r="G260" s="16"/>
-    </row>
-    <row r="261" spans="1:7">
-      <c r="A261" s="41"/>
+      <c r="F260" s="16"/>
+      <c r="G260" s="42"/>
+      <c r="H260" s="16"/>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261" s="44"/>
       <c r="B261" s="16"/>
       <c r="C261" s="16"/>
       <c r="D261" s="16"/>
       <c r="E261" s="16"/>
-      <c r="F261" s="40"/>
-      <c r="G261" s="16"/>
-    </row>
-    <row r="262" spans="1:7">
-      <c r="A262" s="41"/>
+      <c r="F261" s="16"/>
+      <c r="G261" s="42"/>
+      <c r="H261" s="16"/>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262" s="44"/>
       <c r="B262" s="16"/>
       <c r="C262" s="16"/>
       <c r="D262" s="16"/>
       <c r="E262" s="16"/>
-      <c r="F262" s="40"/>
-      <c r="G262" s="16"/>
-    </row>
-    <row r="263" spans="1:7">
-      <c r="A263" s="41"/>
+      <c r="F262" s="16"/>
+      <c r="G262" s="42"/>
+      <c r="H262" s="16"/>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263" s="44"/>
       <c r="B263" s="16"/>
       <c r="C263" s="16"/>
       <c r="D263" s="16"/>
       <c r="E263" s="16"/>
-      <c r="F263" s="40"/>
-      <c r="G263" s="16"/>
-    </row>
-    <row r="264" spans="1:7">
-      <c r="A264" s="41"/>
+      <c r="F263" s="16"/>
+      <c r="G263" s="42"/>
+      <c r="H263" s="16"/>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264" s="44"/>
       <c r="B264" s="16"/>
       <c r="C264" s="16"/>
       <c r="D264" s="16"/>
       <c r="E264" s="16"/>
-      <c r="F264" s="40"/>
-      <c r="G264" s="16"/>
-    </row>
-    <row r="265" spans="1:7">
-      <c r="A265" s="41"/>
+      <c r="F264" s="16"/>
+      <c r="G264" s="42"/>
+      <c r="H264" s="16"/>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" s="44"/>
       <c r="B265" s="16"/>
       <c r="C265" s="16"/>
       <c r="D265" s="16"/>
       <c r="E265" s="16"/>
-      <c r="F265" s="40"/>
-      <c r="G265" s="16"/>
-    </row>
-    <row r="266" spans="1:7">
-      <c r="A266" s="41"/>
+      <c r="F265" s="16"/>
+      <c r="G265" s="42"/>
+      <c r="H265" s="16"/>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" s="44"/>
       <c r="B266" s="16"/>
       <c r="C266" s="16"/>
       <c r="D266" s="16"/>
       <c r="E266" s="16"/>
-      <c r="F266" s="40"/>
-      <c r="G266" s="16"/>
-    </row>
-    <row r="267" spans="1:7">
-      <c r="A267" s="41"/>
+      <c r="F266" s="16"/>
+      <c r="G266" s="42"/>
+      <c r="H266" s="16"/>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267" s="44"/>
       <c r="B267" s="16"/>
       <c r="C267" s="16"/>
       <c r="D267" s="16"/>
       <c r="E267" s="16"/>
-      <c r="F267" s="40"/>
-      <c r="G267" s="16"/>
-    </row>
-    <row r="268" spans="1:7">
-      <c r="A268" s="41"/>
+      <c r="F267" s="16"/>
+      <c r="G267" s="42"/>
+      <c r="H267" s="16"/>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" s="44"/>
       <c r="B268" s="16"/>
       <c r="C268" s="16"/>
       <c r="D268" s="16"/>
       <c r="E268" s="16"/>
-      <c r="F268" s="40"/>
-      <c r="G268" s="16"/>
-    </row>
-    <row r="269" spans="1:7">
-      <c r="A269" s="41"/>
+      <c r="F268" s="16"/>
+      <c r="G268" s="42"/>
+      <c r="H268" s="16"/>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269" s="44"/>
       <c r="B269" s="16"/>
       <c r="C269" s="16"/>
       <c r="D269" s="16"/>
       <c r="E269" s="16"/>
-      <c r="F269" s="40"/>
-      <c r="G269" s="16"/>
-    </row>
-    <row r="270" spans="1:7">
-      <c r="A270" s="41"/>
+      <c r="F269" s="16"/>
+      <c r="G269" s="42"/>
+      <c r="H269" s="16"/>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="A270" s="44"/>
       <c r="B270" s="16"/>
       <c r="C270" s="16"/>
       <c r="D270" s="16"/>
       <c r="E270" s="16"/>
-      <c r="F270" s="40"/>
-      <c r="G270" s="16"/>
-    </row>
-    <row r="271" spans="1:7">
-      <c r="A271" s="41"/>
+      <c r="F270" s="16"/>
+      <c r="G270" s="42"/>
+      <c r="H270" s="16"/>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271" s="44"/>
       <c r="B271" s="16"/>
       <c r="C271" s="16"/>
       <c r="D271" s="16"/>
       <c r="E271" s="16"/>
-      <c r="F271" s="40"/>
-      <c r="G271" s="16"/>
-    </row>
-    <row r="272" spans="1:7">
-      <c r="A272" s="41"/>
+      <c r="F271" s="16"/>
+      <c r="G271" s="42"/>
+      <c r="H271" s="16"/>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272" s="44"/>
       <c r="B272" s="16"/>
       <c r="C272" s="16"/>
       <c r="D272" s="16"/>
       <c r="E272" s="16"/>
-      <c r="F272" s="40"/>
-      <c r="G272" s="16"/>
-    </row>
-    <row r="273" spans="1:7">
-      <c r="A273" s="41"/>
+      <c r="F272" s="16"/>
+      <c r="G272" s="42"/>
+      <c r="H272" s="16"/>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="A273" s="44"/>
       <c r="B273" s="16"/>
       <c r="C273" s="16"/>
       <c r="D273" s="16"/>
       <c r="E273" s="16"/>
-      <c r="F273" s="40"/>
-      <c r="G273" s="16"/>
-    </row>
-    <row r="274" spans="1:7">
-      <c r="A274" s="41"/>
+      <c r="F273" s="16"/>
+      <c r="G273" s="42"/>
+      <c r="H273" s="16"/>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" s="44"/>
       <c r="B274" s="16"/>
       <c r="C274" s="16"/>
       <c r="D274" s="16"/>
       <c r="E274" s="16"/>
-      <c r="F274" s="40"/>
-      <c r="G274" s="16"/>
-    </row>
-    <row r="275" spans="1:7">
-      <c r="A275" s="41"/>
+      <c r="F274" s="16"/>
+      <c r="G274" s="42"/>
+      <c r="H274" s="16"/>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" s="44"/>
       <c r="B275" s="16"/>
       <c r="C275" s="16"/>
       <c r="D275" s="16"/>
       <c r="E275" s="16"/>
-      <c r="F275" s="40"/>
-      <c r="G275" s="16"/>
-    </row>
-    <row r="276" spans="1:7">
-      <c r="A276" s="41"/>
+      <c r="F275" s="16"/>
+      <c r="G275" s="42"/>
+      <c r="H275" s="16"/>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276" s="44"/>
       <c r="B276" s="16"/>
       <c r="C276" s="16"/>
       <c r="D276" s="16"/>
       <c r="E276" s="16"/>
-      <c r="F276" s="40"/>
-      <c r="G276" s="16"/>
-    </row>
-    <row r="277" spans="1:7">
-      <c r="A277" s="41"/>
+      <c r="F276" s="16"/>
+      <c r="G276" s="42"/>
+      <c r="H276" s="16"/>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277" s="44"/>
       <c r="B277" s="16"/>
       <c r="C277" s="16"/>
       <c r="D277" s="16"/>
       <c r="E277" s="16"/>
-      <c r="F277" s="40"/>
-      <c r="G277" s="16"/>
-    </row>
-    <row r="278" spans="1:7">
-      <c r="A278" s="41"/>
+      <c r="F277" s="16"/>
+      <c r="G277" s="42"/>
+      <c r="H277" s="16"/>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278" s="44"/>
       <c r="B278" s="16"/>
       <c r="C278" s="16"/>
       <c r="D278" s="16"/>
       <c r="E278" s="16"/>
-      <c r="F278" s="40"/>
-      <c r="G278" s="16"/>
-    </row>
-    <row r="279" spans="1:7">
-      <c r="A279" s="41"/>
+      <c r="F278" s="16"/>
+      <c r="G278" s="42"/>
+      <c r="H278" s="16"/>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279" s="44"/>
       <c r="B279" s="16"/>
       <c r="C279" s="16"/>
       <c r="D279" s="16"/>
       <c r="E279" s="16"/>
-      <c r="F279" s="40"/>
-      <c r="G279" s="16"/>
-    </row>
-    <row r="280" spans="1:7">
-      <c r="A280" s="41"/>
+      <c r="F279" s="16"/>
+      <c r="G279" s="42"/>
+      <c r="H279" s="16"/>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280" s="44"/>
       <c r="B280" s="16"/>
       <c r="C280" s="16"/>
       <c r="D280" s="16"/>
       <c r="E280" s="16"/>
-      <c r="F280" s="40"/>
-      <c r="G280" s="16"/>
-    </row>
-    <row r="281" spans="1:7">
-      <c r="A281" s="41"/>
+      <c r="F280" s="16"/>
+      <c r="G280" s="42"/>
+      <c r="H280" s="16"/>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281" s="44"/>
       <c r="B281" s="16"/>
       <c r="C281" s="16"/>
       <c r="D281" s="16"/>
       <c r="E281" s="16"/>
-      <c r="F281" s="40"/>
-      <c r="G281" s="16"/>
-    </row>
-    <row r="282" spans="1:7">
-      <c r="A282" s="41"/>
+      <c r="F281" s="16"/>
+      <c r="G281" s="42"/>
+      <c r="H281" s="16"/>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="A282" s="44"/>
       <c r="B282" s="16"/>
       <c r="C282" s="16"/>
       <c r="D282" s="16"/>
       <c r="E282" s="16"/>
-      <c r="F282" s="40"/>
-      <c r="G282" s="16"/>
-    </row>
-    <row r="283" spans="1:7">
-      <c r="A283" s="41"/>
+      <c r="F282" s="16"/>
+      <c r="G282" s="42"/>
+      <c r="H282" s="16"/>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283" s="44"/>
       <c r="B283" s="16"/>
       <c r="C283" s="16"/>
       <c r="D283" s="16"/>
       <c r="E283" s="16"/>
-      <c r="F283" s="40"/>
-      <c r="G283" s="16"/>
-    </row>
-    <row r="284" spans="1:7">
-      <c r="A284" s="41"/>
+      <c r="F283" s="16"/>
+      <c r="G283" s="42"/>
+      <c r="H283" s="16"/>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="A284" s="44"/>
       <c r="B284" s="16"/>
       <c r="C284" s="16"/>
       <c r="D284" s="16"/>
       <c r="E284" s="16"/>
-      <c r="F284" s="40"/>
-      <c r="G284" s="16"/>
-    </row>
-    <row r="285" spans="1:7">
-      <c r="A285" s="41"/>
+      <c r="F284" s="16"/>
+      <c r="G284" s="42"/>
+      <c r="H284" s="16"/>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="A285" s="44"/>
       <c r="B285" s="16"/>
       <c r="C285" s="16"/>
       <c r="D285" s="16"/>
       <c r="E285" s="16"/>
-      <c r="F285" s="40"/>
-      <c r="G285" s="16"/>
-    </row>
-    <row r="286" spans="1:7">
-      <c r="A286" s="41"/>
+      <c r="F285" s="16"/>
+      <c r="G285" s="42"/>
+      <c r="H285" s="16"/>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="A286" s="44"/>
       <c r="B286" s="16"/>
       <c r="C286" s="16"/>
       <c r="D286" s="16"/>
       <c r="E286" s="16"/>
-      <c r="F286" s="40"/>
-      <c r="G286" s="16"/>
-    </row>
-    <row r="287" spans="1:7">
-      <c r="A287" s="41"/>
+      <c r="F286" s="16"/>
+      <c r="G286" s="42"/>
+      <c r="H286" s="16"/>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287" s="44"/>
       <c r="B287" s="16"/>
       <c r="C287" s="16"/>
       <c r="D287" s="16"/>
       <c r="E287" s="16"/>
-      <c r="F287" s="40"/>
-      <c r="G287" s="16"/>
-    </row>
-    <row r="288" spans="1:7">
-      <c r="A288" s="41"/>
+      <c r="F287" s="16"/>
+      <c r="G287" s="42"/>
+      <c r="H287" s="16"/>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="A288" s="44"/>
       <c r="B288" s="16"/>
       <c r="C288" s="16"/>
       <c r="D288" s="16"/>
       <c r="E288" s="16"/>
-      <c r="F288" s="40"/>
-      <c r="G288" s="16"/>
-    </row>
-    <row r="289" spans="1:7">
-      <c r="A289" s="41"/>
+      <c r="F288" s="16"/>
+      <c r="G288" s="42"/>
+      <c r="H288" s="16"/>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289" s="44"/>
       <c r="B289" s="16"/>
       <c r="C289" s="16"/>
       <c r="D289" s="16"/>
       <c r="E289" s="16"/>
-      <c r="F289" s="40"/>
-      <c r="G289" s="16"/>
-    </row>
-    <row r="290" spans="1:7">
-      <c r="A290" s="41"/>
+      <c r="F289" s="16"/>
+      <c r="G289" s="42"/>
+      <c r="H289" s="16"/>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="A290" s="44"/>
       <c r="B290" s="16"/>
       <c r="C290" s="16"/>
       <c r="D290" s="16"/>
       <c r="E290" s="16"/>
-      <c r="F290" s="40"/>
-      <c r="G290" s="16"/>
-    </row>
-    <row r="291" spans="1:7">
-      <c r="A291" s="41"/>
+      <c r="F290" s="16"/>
+      <c r="G290" s="42"/>
+      <c r="H290" s="16"/>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="A291" s="44"/>
       <c r="B291" s="16"/>
       <c r="C291" s="16"/>
       <c r="D291" s="16"/>
       <c r="E291" s="16"/>
-      <c r="F291" s="40"/>
-      <c r="G291" s="16"/>
-    </row>
-    <row r="292" spans="1:7">
-      <c r="A292" s="41"/>
+      <c r="F291" s="16"/>
+      <c r="G291" s="42"/>
+      <c r="H291" s="16"/>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="A292" s="44"/>
       <c r="B292" s="16"/>
       <c r="C292" s="16"/>
       <c r="D292" s="16"/>
       <c r="E292" s="16"/>
-      <c r="F292" s="40"/>
-      <c r="G292" s="16"/>
-    </row>
-    <row r="293" spans="1:7">
-      <c r="A293" s="41"/>
+      <c r="F292" s="16"/>
+      <c r="G292" s="42"/>
+      <c r="H292" s="16"/>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293" s="44"/>
       <c r="B293" s="16"/>
       <c r="C293" s="16"/>
       <c r="D293" s="16"/>
       <c r="E293" s="16"/>
-      <c r="F293" s="40"/>
-      <c r="G293" s="16"/>
-    </row>
-    <row r="294" spans="1:7">
-      <c r="A294" s="41"/>
+      <c r="F293" s="16"/>
+      <c r="G293" s="42"/>
+      <c r="H293" s="16"/>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="A294" s="44"/>
       <c r="B294" s="16"/>
       <c r="C294" s="16"/>
       <c r="D294" s="16"/>
       <c r="E294" s="16"/>
-      <c r="F294" s="40"/>
-      <c r="G294" s="16"/>
-    </row>
-    <row r="295" spans="1:7">
-      <c r="A295" s="41"/>
+      <c r="F294" s="16"/>
+      <c r="G294" s="42"/>
+      <c r="H294" s="16"/>
+    </row>
+    <row r="295" spans="1:8">
+      <c r="A295" s="44"/>
       <c r="B295" s="16"/>
       <c r="C295" s="16"/>
       <c r="D295" s="16"/>
       <c r="E295" s="16"/>
-      <c r="F295" s="40"/>
-      <c r="G295" s="16"/>
-    </row>
-    <row r="296" spans="1:7">
-      <c r="A296" s="41"/>
+      <c r="F295" s="16"/>
+      <c r="G295" s="42"/>
+      <c r="H295" s="16"/>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="A296" s="44"/>
       <c r="B296" s="16"/>
       <c r="C296" s="16"/>
       <c r="D296" s="16"/>
       <c r="E296" s="16"/>
-      <c r="F296" s="40"/>
-      <c r="G296" s="16"/>
-    </row>
-    <row r="297" spans="1:7">
-      <c r="A297" s="41"/>
+      <c r="F296" s="16"/>
+      <c r="G296" s="42"/>
+      <c r="H296" s="16"/>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="A297" s="44"/>
       <c r="B297" s="16"/>
       <c r="C297" s="16"/>
       <c r="D297" s="16"/>
       <c r="E297" s="16"/>
-      <c r="F297" s="40"/>
-      <c r="G297" s="16"/>
-    </row>
-    <row r="298" spans="1:7">
-      <c r="A298" s="41"/>
+      <c r="F297" s="16"/>
+      <c r="G297" s="42"/>
+      <c r="H297" s="16"/>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="A298" s="44"/>
       <c r="B298" s="16"/>
       <c r="C298" s="16"/>
       <c r="D298" s="16"/>
       <c r="E298" s="16"/>
-      <c r="F298" s="40"/>
-      <c r="G298" s="16"/>
-    </row>
-    <row r="299" spans="1:7">
-      <c r="A299" s="41"/>
+      <c r="F298" s="16"/>
+      <c r="G298" s="42"/>
+      <c r="H298" s="16"/>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="A299" s="44"/>
       <c r="B299" s="16"/>
       <c r="C299" s="16"/>
       <c r="D299" s="16"/>
       <c r="E299" s="16"/>
-      <c r="F299" s="40"/>
-      <c r="G299" s="16"/>
-    </row>
-    <row r="300" spans="1:7">
-      <c r="A300" s="41"/>
+      <c r="F299" s="16"/>
+      <c r="G299" s="42"/>
+      <c r="H299" s="16"/>
+    </row>
+    <row r="300" spans="1:8">
+      <c r="A300" s="44"/>
       <c r="B300" s="16"/>
       <c r="C300" s="16"/>
       <c r="D300" s="16"/>
       <c r="E300" s="16"/>
-      <c r="F300" s="40"/>
-      <c r="G300" s="16"/>
-    </row>
-    <row r="301" spans="1:7">
-      <c r="A301" s="41"/>
+      <c r="F300" s="16"/>
+      <c r="G300" s="42"/>
+      <c r="H300" s="16"/>
+    </row>
+    <row r="301" spans="1:8">
+      <c r="A301" s="44"/>
       <c r="B301" s="16"/>
       <c r="C301" s="16"/>
       <c r="D301" s="16"/>
       <c r="E301" s="16"/>
-      <c r="F301" s="40"/>
-      <c r="G301" s="16"/>
-    </row>
-    <row r="302" spans="1:7">
-      <c r="A302" s="41"/>
+      <c r="F301" s="16"/>
+      <c r="G301" s="42"/>
+      <c r="H301" s="16"/>
+    </row>
+    <row r="302" spans="1:8">
+      <c r="A302" s="44"/>
       <c r="B302" s="16"/>
       <c r="C302" s="16"/>
       <c r="D302" s="16"/>
       <c r="E302" s="16"/>
-      <c r="F302" s="40"/>
-      <c r="G302" s="16"/>
-    </row>
-    <row r="303" spans="1:7">
-      <c r="A303" s="41"/>
+      <c r="F302" s="16"/>
+      <c r="G302" s="42"/>
+      <c r="H302" s="16"/>
+    </row>
+    <row r="303" spans="1:8">
+      <c r="A303" s="44"/>
       <c r="B303" s="16"/>
       <c r="C303" s="16"/>
       <c r="D303" s="16"/>
       <c r="E303" s="16"/>
-      <c r="F303" s="40"/>
-      <c r="G303" s="16"/>
-    </row>
-    <row r="304" spans="1:7">
-      <c r="A304" s="41"/>
+      <c r="F303" s="16"/>
+      <c r="G303" s="42"/>
+      <c r="H303" s="16"/>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="A304" s="44"/>
       <c r="B304" s="16"/>
       <c r="C304" s="16"/>
       <c r="D304" s="16"/>
       <c r="E304" s="16"/>
-      <c r="F304" s="40"/>
-      <c r="G304" s="16"/>
-    </row>
-    <row r="305" spans="1:7">
-      <c r="A305" s="41"/>
+      <c r="F304" s="16"/>
+      <c r="G304" s="42"/>
+      <c r="H304" s="16"/>
+    </row>
+    <row r="305" spans="1:8">
+      <c r="A305" s="44"/>
       <c r="B305" s="16"/>
       <c r="C305" s="16"/>
       <c r="D305" s="16"/>
       <c r="E305" s="16"/>
-      <c r="F305" s="40"/>
-      <c r="G305" s="16"/>
-    </row>
-    <row r="306" spans="1:7">
-      <c r="A306" s="41"/>
+      <c r="F305" s="16"/>
+      <c r="G305" s="42"/>
+      <c r="H305" s="16"/>
+    </row>
+    <row r="306" spans="1:8">
+      <c r="A306" s="44"/>
       <c r="B306" s="16"/>
       <c r="C306" s="16"/>
       <c r="D306" s="16"/>
       <c r="E306" s="16"/>
-      <c r="F306" s="40"/>
-      <c r="G306" s="16"/>
-    </row>
-    <row r="307" spans="1:7">
-      <c r="A307" s="41"/>
+      <c r="F306" s="16"/>
+      <c r="G306" s="42"/>
+      <c r="H306" s="16"/>
+    </row>
+    <row r="307" spans="1:8">
+      <c r="A307" s="44"/>
       <c r="B307" s="16"/>
       <c r="C307" s="16"/>
       <c r="D307" s="16"/>
       <c r="E307" s="16"/>
-      <c r="F307" s="40"/>
-      <c r="G307" s="16"/>
-    </row>
-    <row r="308" spans="1:7">
-      <c r="A308" s="41"/>
+      <c r="F307" s="16"/>
+      <c r="G307" s="42"/>
+      <c r="H307" s="16"/>
+    </row>
+    <row r="308" spans="1:8">
+      <c r="A308" s="44"/>
       <c r="B308" s="16"/>
       <c r="C308" s="16"/>
       <c r="D308" s="16"/>
       <c r="E308" s="16"/>
-      <c r="F308" s="40"/>
-      <c r="G308" s="16"/>
-    </row>
-    <row r="309" spans="1:7">
-      <c r="A309" s="41"/>
+      <c r="F308" s="16"/>
+      <c r="G308" s="42"/>
+      <c r="H308" s="16"/>
+    </row>
+    <row r="309" spans="1:8">
+      <c r="A309" s="44"/>
       <c r="B309" s="16"/>
       <c r="C309" s="16"/>
       <c r="D309" s="16"/>
       <c r="E309" s="16"/>
-      <c r="F309" s="40"/>
-      <c r="G309" s="16"/>
-    </row>
-    <row r="310" spans="1:7">
-      <c r="A310" s="41"/>
+      <c r="F309" s="16"/>
+      <c r="G309" s="42"/>
+      <c r="H309" s="16"/>
+    </row>
+    <row r="310" spans="1:8">
+      <c r="A310" s="44"/>
       <c r="B310" s="16"/>
       <c r="C310" s="16"/>
       <c r="D310" s="16"/>
       <c r="E310" s="16"/>
-      <c r="F310" s="40"/>
-      <c r="G310" s="16"/>
-    </row>
-    <row r="311" spans="1:7">
-      <c r="A311" s="41"/>
+      <c r="F310" s="16"/>
+      <c r="G310" s="42"/>
+      <c r="H310" s="16"/>
+    </row>
+    <row r="311" spans="1:8">
+      <c r="A311" s="44"/>
       <c r="B311" s="16"/>
       <c r="C311" s="16"/>
       <c r="D311" s="16"/>
       <c r="E311" s="16"/>
-      <c r="F311" s="40"/>
-      <c r="G311" s="16"/>
-    </row>
-    <row r="312" spans="1:7">
-      <c r="A312" s="41"/>
+      <c r="F311" s="16"/>
+      <c r="G311" s="42"/>
+      <c r="H311" s="16"/>
+    </row>
+    <row r="312" spans="1:8">
+      <c r="A312" s="44"/>
       <c r="B312" s="16"/>
       <c r="C312" s="16"/>
       <c r="D312" s="16"/>
       <c r="E312" s="16"/>
-      <c r="F312" s="40"/>
-      <c r="G312" s="16"/>
-    </row>
-    <row r="313" spans="1:7">
-      <c r="A313" s="41"/>
+      <c r="F312" s="16"/>
+      <c r="G312" s="42"/>
+      <c r="H312" s="16"/>
+    </row>
+    <row r="313" spans="1:8">
+      <c r="A313" s="44"/>
       <c r="B313" s="16"/>
       <c r="C313" s="16"/>
       <c r="D313" s="16"/>
       <c r="E313" s="16"/>
-      <c r="F313" s="40"/>
-      <c r="G313" s="16"/>
-    </row>
-    <row r="314" spans="1:7">
-      <c r="A314" s="41"/>
+      <c r="F313" s="16"/>
+      <c r="G313" s="42"/>
+      <c r="H313" s="16"/>
+    </row>
+    <row r="314" spans="1:8">
+      <c r="A314" s="44"/>
       <c r="B314" s="16"/>
       <c r="C314" s="16"/>
       <c r="D314" s="16"/>
       <c r="E314" s="16"/>
-      <c r="F314" s="40"/>
-      <c r="G314" s="16"/>
-    </row>
-    <row r="315" spans="1:7">
-      <c r="A315" s="41"/>
+      <c r="F314" s="16"/>
+      <c r="G314" s="42"/>
+      <c r="H314" s="16"/>
+    </row>
+    <row r="315" spans="1:8">
+      <c r="A315" s="44"/>
       <c r="B315" s="16"/>
       <c r="C315" s="16"/>
       <c r="D315" s="16"/>
       <c r="E315" s="16"/>
-      <c r="F315" s="40"/>
-      <c r="G315" s="16"/>
-    </row>
-    <row r="316" spans="1:7">
-      <c r="A316" s="41"/>
+      <c r="F315" s="16"/>
+      <c r="G315" s="42"/>
+      <c r="H315" s="16"/>
+    </row>
+    <row r="316" spans="1:8">
+      <c r="A316" s="44"/>
       <c r="B316" s="16"/>
       <c r="C316" s="16"/>
       <c r="D316" s="16"/>
       <c r="E316" s="16"/>
-      <c r="F316" s="40"/>
-      <c r="G316" s="16"/>
+      <c r="F316" s="16"/>
+      <c r="G316" s="42"/>
+      <c r="H316" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4942,10 +5281,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="26"/>
@@ -4955,10 +5294,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="26"/>
@@ -4968,10 +5307,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="26"/>
@@ -4981,10 +5320,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="26"/>
@@ -5003,7 +5342,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -5014,145 +5353,145 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
-      <c r="D8" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="27"/>
+      <c r="D8" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="18"/>
       <c r="F8" s="15"/>
-      <c r="G8" s="27"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C9" s="15"/>
-      <c r="D9" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="27"/>
+      <c r="D9" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="18"/>
       <c r="F9" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="27"/>
+        <v>85</v>
+      </c>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="15"/>
       <c r="B10" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="27"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="15"/>
-      <c r="G10" s="27"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="15"/>
       <c r="B11" s="15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C11" s="15"/>
-      <c r="D11" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="27"/>
+      <c r="D11" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="18"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="27"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C12" s="15"/>
-      <c r="D12" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="27"/>
+      <c r="D12" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="18"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="27" t="s">
-        <v>87</v>
+      <c r="G12" s="18" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C13" s="15"/>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="18" t="s">
         <v>89</v>
-      </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="15"/>
       <c r="B14" s="15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C14" s="15"/>
-      <c r="D14" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>92</v>
+      <c r="D14" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>94</v>
       </c>
       <c r="F14" s="15"/>
-      <c r="G14" s="27"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="27"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="27"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -5163,44 +5502,44 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>3</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="15"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="27"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="13"/>
-      <c r="G20" s="27"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -5211,52 +5550,52 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>3</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="14"/>
       <c r="B23" s="17" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C23" s="17"/>
-      <c r="D23" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="27"/>
+      <c r="D23" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="18"/>
       <c r="F23" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G23" s="27"/>
+        <v>99</v>
+      </c>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="14"/>
       <c r="B24" s="17" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C24" s="17"/>
-      <c r="D24" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="27"/>
+      <c r="D24" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="18"/>
       <c r="F24" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G24" s="27"/>
+        <v>101</v>
+      </c>
+      <c r="G24" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5299,40 +5638,40 @@
     <row r="1" customHeight="1"/>
     <row r="2" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" customHeight="1"/>
     <row r="7" customHeight="1" spans="1:12">
       <c r="A7" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -5341,59 +5680,59 @@
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
       <c r="I7" s="20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J7" s="21" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:12">
       <c r="A8" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K8" s="23" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L8" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:12">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G9" s="14"/>
       <c r="I9" s="22"/>
@@ -5416,7 +5755,7 @@
     </row>
     <row r="11" customHeight="1" spans="1:12">
       <c r="A11" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -5431,26 +5770,26 @@
     </row>
     <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:7">
       <c r="A13" s="15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -5462,15 +5801,15 @@
     <row r="14" customHeight="1" spans="1:7">
       <c r="A14" s="15"/>
       <c r="B14" s="13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G14" s="13"/>
     </row>
@@ -5478,14 +5817,14 @@
       <c r="A15" s="15"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G15" s="13"/>
     </row>
@@ -5493,14 +5832,14 @@
       <c r="A16" s="15"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G16" s="13"/>
     </row>
@@ -5508,14 +5847,14 @@
       <c r="A17" s="15"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G17" s="13"/>
     </row>
@@ -5523,14 +5862,14 @@
       <c r="A18" s="15"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G18" s="13"/>
     </row>
@@ -5538,14 +5877,14 @@
       <c r="A19" s="15"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G19" s="13"/>
     </row>
@@ -5569,7 +5908,7 @@
     </row>
     <row r="22" customHeight="1" spans="1:7">
       <c r="A22" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -5580,50 +5919,50 @@
     </row>
     <row r="23" customHeight="1" spans="1:7">
       <c r="A23" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>3</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:7">
       <c r="A24" s="14"/>
       <c r="B24" s="17" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G24" s="13"/>
     </row>
     <row r="25" customHeight="1" spans="1:7">
       <c r="A25" s="14"/>
       <c r="B25" s="17" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G25" s="13"/>
     </row>
@@ -5702,10 +6041,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -5720,10 +6059,10 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -5738,10 +6077,10 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -5756,10 +6095,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -5788,7 +6127,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -5804,21 +6143,21 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="22"/>
@@ -5831,16 +6170,16 @@
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="22"/>
@@ -5853,16 +6192,16 @@
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="22"/>
@@ -5872,7 +6211,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -5888,21 +6227,21 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -5913,11 +6252,11 @@
     <row r="13" spans="1:12">
       <c r="A13" s="15"/>
       <c r="B13" s="13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -6042,7 +6381,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -6058,21 +6397,21 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>3</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -6083,15 +6422,15 @@
     <row r="24" spans="1:12">
       <c r="A24" s="14"/>
       <c r="B24" s="17" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="1"/>
@@ -6103,15 +6442,15 @@
     <row r="25" spans="1:12">
       <c r="A25" s="14"/>
       <c r="B25" s="17" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="1"/>
@@ -6162,10 +6501,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -6175,10 +6514,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -6188,10 +6527,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -6201,10 +6540,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -6223,7 +6562,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -6234,21 +6573,21 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -6256,21 +6595,21 @@
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -6281,31 +6620,31 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>3</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="15"/>
       <c r="B12" s="13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -6385,7 +6724,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -6396,50 +6735,50 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>3</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="14"/>
       <c r="B23" s="17" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="14"/>
       <c r="B24" s="17" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G24" s="13"/>
     </row>
@@ -6460,490 +6799,468 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="35.875" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="24.25" customWidth="1"/>
-    <col min="6" max="6" width="64.5" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="59.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="C8" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="D8" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="F8" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="13" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="13" t="s">
-        <v>143</v>
-      </c>
+      <c r="D9" s="13"/>
       <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="13"/>
-      <c r="B10" s="13" t="s">
-        <v>144</v>
-      </c>
+      <c r="B10" s="13"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="13" t="s">
-        <v>89</v>
-      </c>
+      <c r="D10" s="13"/>
       <c r="E10" s="13"/>
-      <c r="F10" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="13"/>
       <c r="B11" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="C11" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="13"/>
       <c r="B12" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="F12" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="13"/>
       <c r="B13" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="F13" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="13"/>
       <c r="B14" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13" t="s">
+      <c r="F14" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7">
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="13"/>
       <c r="B15" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="F15" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="13"/>
       <c r="B16" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13" t="s">
+      <c r="F16" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="1:7">
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="13"/>
       <c r="B17" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="1:7">
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="13" t="s">
+      <c r="C18" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="F18" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="13"/>
       <c r="B19" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="13" t="s">
+      <c r="C19" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="F19" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="18"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="B20" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="18"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="D21" s="16"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="18"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="D22" s="16"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="19"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
+      <c r="C25" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="D25" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="F25" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="15"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" spans="1:7">
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="15"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-    </row>
-    <row r="28" spans="1:7">
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="15"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" spans="1:7">
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="15"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-    </row>
-    <row r="30" spans="1:7">
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="15"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-    </row>
-    <row r="31" spans="1:7">
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="15"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-    </row>
-    <row r="32" spans="1:7">
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="15"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-    </row>
-    <row r="33" spans="1:7">
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-    </row>
-    <row r="34" spans="1:7">
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
+      <c r="C34" s="10"/>
       <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
+      <c r="E34" s="11"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="35" spans="1:7">
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
+      <c r="C35" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="D35" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F35" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G35" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="F35" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="14"/>
       <c r="B36" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="G36" s="13"/>
-    </row>
-    <row r="37" spans="1:7">
+        <v>98</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="14"/>
       <c r="B37" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G37" s="13"/>
+        <v>100</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F37" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -6978,10 +7295,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -6991,10 +7308,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -7004,10 +7321,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -7017,10 +7334,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -7039,7 +7356,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -7050,21 +7367,21 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -7072,19 +7389,19 @@
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -7095,31 +7412,31 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>3</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="15"/>
       <c r="B12" s="13" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -7129,14 +7446,14 @@
       <c r="A13" s="15"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="13" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G13" s="13"/>
     </row>
@@ -7144,14 +7461,14 @@
       <c r="A14" s="15"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G14" s="13"/>
     </row>
@@ -7159,14 +7476,14 @@
       <c r="A15" s="15"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="13" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G15" s="13"/>
     </row>
@@ -7174,14 +7491,14 @@
       <c r="A16" s="15"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="13" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G16" s="13"/>
     </row>
@@ -7189,14 +7506,14 @@
       <c r="A17" s="15"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="13" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G17" s="13"/>
     </row>
@@ -7220,7 +7537,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -7231,50 +7548,50 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>3</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="14"/>
       <c r="B22" s="17" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="13"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="14"/>
       <c r="B23" s="17" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G23" s="13"/>
     </row>

--- a/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
+++ b/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="9930"/>
+    <workbookView windowWidth="21495" windowHeight="9930" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="10" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182">
   <si>
     <t>序号</t>
   </si>
@@ -485,19 +485,28 @@
     <t>scheduleRepeatType</t>
   </si>
   <si>
+    <t>默认：0</t>
+  </si>
+  <si>
     <t>日程重复类型（0是单次日程，1是每天重复，2是每周重复，3是每月重复)</t>
   </si>
   <si>
     <t>scheduleStatus</t>
   </si>
   <si>
+    <t>默认：1</t>
+  </si>
+  <si>
     <t>完成状态(0是完成，1是未完成，2是过期)</t>
   </si>
   <si>
     <t>createId</t>
   </si>
   <si>
-    <t>创建人(默认用户ID)</t>
+    <t>默认：userId值</t>
+  </si>
+  <si>
+    <t>创建人</t>
   </si>
   <si>
     <t>否</t>
@@ -565,10 +574,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -607,6 +616,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -615,29 +631,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,6 +645,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -659,15 +682,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -681,6 +713,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -688,23 +728,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -719,26 +744,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -775,43 +784,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,37 +844,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,42 +898,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -937,19 +910,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,60 +1089,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1163,17 +1128,61 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1183,10 +1192,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1195,16 +1204,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1214,115 +1223,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1380,6 +1389,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1441,9 +1453,6 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1804,519 +1813,519 @@
   <sheetPr/>
   <dimension ref="A1:H316"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="27" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="28" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="20.125" customWidth="1"/>
     <col min="4" max="4" width="93.375" customWidth="1"/>
-    <col min="7" max="7" width="12.375" style="28" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="29" customWidth="1"/>
     <col min="8" max="8" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="27" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A1" s="29" t="s">
+    <row r="1" s="28" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="30">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="33"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="30">
+      <c r="A3" s="31">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="33"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="30"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="32" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="33"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="30">
+      <c r="A5" s="31">
         <v>3</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="33"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="30">
+      <c r="A6" s="31">
         <v>4</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="36" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="32" t="s">
+      <c r="D6" s="37"/>
+      <c r="E6" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="33"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="30">
+      <c r="A7" s="31">
         <v>5</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="32" t="s">
+      <c r="D7" s="37"/>
+      <c r="E7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="33"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="30">
+      <c r="A8" s="31">
         <v>6</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="36" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="32" t="s">
+      <c r="D8" s="37"/>
+      <c r="E8" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="34"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="30">
+      <c r="A9" s="31">
         <v>7</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="38" t="s">
+      <c r="F9" s="34"/>
+      <c r="G9" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="33"/>
+      <c r="H9" s="34"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="30">
+      <c r="A10" s="31">
         <v>8</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36" t="s">
+      <c r="B10" s="36"/>
+      <c r="C10" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34" t="s">
+      <c r="F10" s="34"/>
+      <c r="G10" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="33"/>
+      <c r="H10" s="34"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="30">
+      <c r="A11" s="31">
         <v>9</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="36" t="s">
+      <c r="B11" s="36"/>
+      <c r="C11" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="34" t="s">
+      <c r="F11" s="34"/>
+      <c r="G11" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="33"/>
+      <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="30">
+      <c r="A12" s="31">
         <v>10</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="36" t="s">
+      <c r="B12" s="36"/>
+      <c r="C12" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34" t="s">
+      <c r="F12" s="34"/>
+      <c r="G12" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="33"/>
+      <c r="H12" s="34"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="30"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="36" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="34" t="s">
+      <c r="F13" s="34"/>
+      <c r="G13" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="33"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="30"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="36" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34" t="s">
+      <c r="F14" s="34"/>
+      <c r="G14" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="33"/>
+      <c r="H14" s="34"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="30">
+      <c r="A15" s="31">
         <v>11</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="36" t="s">
+      <c r="B15" s="31"/>
+      <c r="C15" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34" t="s">
+      <c r="F15" s="34"/>
+      <c r="G15" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="33"/>
+      <c r="H15" s="34"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="30">
+      <c r="A16" s="31">
         <v>12</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34" t="s">
+      <c r="F16" s="34"/>
+      <c r="G16" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="33" t="s">
+      <c r="H16" s="34" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="30">
+      <c r="A17" s="31">
         <v>13</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="36" t="s">
+      <c r="B17" s="36"/>
+      <c r="C17" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="40">
         <v>0.8</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G17" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="33" t="s">
+      <c r="H17" s="34" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="30">
+      <c r="A18" s="31">
         <v>14</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="36" t="s">
+      <c r="B18" s="36"/>
+      <c r="C18" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34" t="s">
+      <c r="F18" s="34"/>
+      <c r="G18" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="33" t="s">
+      <c r="H18" s="34" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="30">
+      <c r="A19" s="31">
         <v>15</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="36" t="s">
+      <c r="B19" s="36"/>
+      <c r="C19" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34" t="s">
+      <c r="F19" s="34"/>
+      <c r="G19" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="33" t="s">
+      <c r="H19" s="34" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="30"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="36" t="s">
+      <c r="A20" s="31"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34" t="s">
+      <c r="F20" s="34"/>
+      <c r="G20" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="H20" s="33" t="s">
+      <c r="H20" s="34" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="30">
+      <c r="A21" s="31">
         <v>16</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="36" t="s">
+      <c r="B21" s="36"/>
+      <c r="C21" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="34" t="s">
+      <c r="F21" s="34"/>
+      <c r="G21" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="33" t="s">
+      <c r="H21" s="34" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="30">
+      <c r="A22" s="31">
         <v>17</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="36" t="s">
+      <c r="B22" s="36"/>
+      <c r="C22" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34" t="s">
+      <c r="F22" s="34"/>
+      <c r="G22" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="H22" s="33" t="s">
+      <c r="H22" s="34" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="30">
+      <c r="A23" s="31">
         <v>18</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="36" t="s">
+      <c r="B23" s="31"/>
+      <c r="C23" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="33"/>
-      <c r="G23" s="40" t="s">
+      <c r="F23" s="34"/>
+      <c r="G23" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="H23" s="33" t="s">
+      <c r="H23" s="34" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="30">
+      <c r="A24" s="31">
         <v>19</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="37" t="s">
         <v>68</v>
       </c>
       <c r="D24" s="16"/>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="41"/>
+      <c r="F24" s="34"/>
       <c r="G24" s="42"/>
       <c r="H24" s="43"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="30">
+      <c r="A25" s="31">
         <v>20</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="36" t="s">
+      <c r="B25" s="31"/>
+      <c r="C25" s="37" t="s">
         <v>69</v>
       </c>
       <c r="D25" s="16"/>
-      <c r="E25" s="32" t="s">
+      <c r="E25" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="41"/>
+      <c r="F25" s="34"/>
       <c r="G25" s="42"/>
       <c r="H25" s="43"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="30">
+      <c r="A26" s="31">
         <v>21</v>
       </c>
-      <c r="B26" s="36"/>
+      <c r="B26" s="37"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
@@ -2325,7 +2334,7 @@
       <c r="H26" s="16"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="30">
+      <c r="A27" s="31">
         <v>22</v>
       </c>
       <c r="B27" s="16"/>
@@ -2337,7 +2346,7 @@
       <c r="H27" s="16"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="30">
+      <c r="A28" s="31">
         <v>23</v>
       </c>
       <c r="B28" s="16"/>
@@ -2349,7 +2358,7 @@
       <c r="H28" s="16"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="30">
+      <c r="A29" s="31">
         <v>24</v>
       </c>
       <c r="B29" s="16"/>
@@ -2361,7 +2370,7 @@
       <c r="H29" s="16"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="30">
+      <c r="A30" s="31">
         <v>25</v>
       </c>
       <c r="B30" s="16"/>
@@ -2373,7 +2382,7 @@
       <c r="H30" s="16"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="30">
+      <c r="A31" s="31">
         <v>26</v>
       </c>
       <c r="B31" s="16"/>
@@ -2385,7 +2394,7 @@
       <c r="H31" s="16"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="30">
+      <c r="A32" s="31">
         <v>27</v>
       </c>
       <c r="B32" s="16"/>
@@ -2397,7 +2406,7 @@
       <c r="H32" s="16"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="30">
+      <c r="A33" s="31">
         <v>28</v>
       </c>
       <c r="B33" s="16"/>
@@ -2409,7 +2418,7 @@
       <c r="H33" s="16"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="30">
+      <c r="A34" s="31">
         <v>29</v>
       </c>
       <c r="B34" s="16"/>
@@ -2421,7 +2430,7 @@
       <c r="H34" s="16"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="30">
+      <c r="A35" s="31">
         <v>30</v>
       </c>
       <c r="B35" s="16"/>
@@ -2433,7 +2442,7 @@
       <c r="H35" s="16"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="30">
+      <c r="A36" s="31">
         <v>31</v>
       </c>
       <c r="B36" s="16"/>
@@ -2445,7 +2454,7 @@
       <c r="H36" s="16"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="30">
+      <c r="A37" s="31">
         <v>32</v>
       </c>
       <c r="B37" s="16"/>
@@ -2457,7 +2466,7 @@
       <c r="H37" s="16"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="30">
+      <c r="A38" s="31">
         <v>33</v>
       </c>
       <c r="B38" s="16"/>
@@ -5273,10 +5282,10 @@
   <cols>
     <col min="2" max="2" width="23.75" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="16.875" style="25" customWidth="1"/>
-    <col min="5" max="5" width="23.25" style="25" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="26" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="26" customWidth="1"/>
     <col min="6" max="6" width="41.125" customWidth="1"/>
-    <col min="7" max="7" width="9" style="25"/>
+    <col min="7" max="7" width="9" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -5287,10 +5296,10 @@
         <v>9</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="26"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
@@ -5300,10 +5309,10 @@
         <v>72</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="26"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
@@ -5313,10 +5322,10 @@
         <v>74</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="26"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
@@ -5326,19 +5335,19 @@
         <v>76</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="26"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
@@ -5679,16 +5688,16 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="L7" s="21" t="s">
+      <c r="L7" s="22" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5710,16 +5719,16 @@
       <c r="G8" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="K8" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="L8" s="23" t="s">
+      <c r="L8" s="24" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5735,10 +5744,10 @@
         <v>113</v>
       </c>
       <c r="G9" s="14"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
     </row>
     <row r="10" customHeight="1" spans="1:12">
       <c r="A10" s="15"/>
@@ -5748,10 +5757,10 @@
       <c r="E10" s="13"/>
       <c r="F10" s="15"/>
       <c r="G10" s="14"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
     </row>
     <row r="11" customHeight="1" spans="1:12">
       <c r="A11" s="6" t="s">
@@ -5763,10 +5772,10 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
     </row>
     <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="9" t="s">
@@ -6136,10 +6145,10 @@
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="9" t="s">
@@ -6160,10 +6169,10 @@
         <v>81</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="15"/>
@@ -6182,10 +6191,10 @@
         <v>134</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="15"/>
@@ -6204,10 +6213,10 @@
         <v>134</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="6" t="s">
@@ -6220,10 +6229,10 @@
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="9" t="s">
@@ -6801,15 +6810,15 @@
   <sheetPr/>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="35.875" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
     <col min="5" max="5" width="59.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6931,7 +6940,7 @@
       <c r="C11" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="13" t="s">
         <v>127</v>
       </c>
@@ -6947,7 +6956,7 @@
       <c r="C12" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="13" t="s">
         <v>147</v>
       </c>
@@ -6963,7 +6972,7 @@
       <c r="C13" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="13" t="s">
         <v>150</v>
       </c>
@@ -6979,7 +6988,7 @@
       <c r="C14" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="13" t="s">
         <v>152</v>
       </c>
@@ -6995,9 +7004,11 @@
       <c r="C15" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="19" t="s">
+        <v>154</v>
+      </c>
       <c r="E15" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>89</v>
@@ -7006,14 +7017,16 @@
     <row r="16" spans="1:6">
       <c r="A16" s="13"/>
       <c r="B16" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="16"/>
+      <c r="D16" s="19" t="s">
+        <v>157</v>
+      </c>
       <c r="E16" s="13" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>89</v>
@@ -7022,30 +7035,32 @@
     <row r="17" spans="1:6">
       <c r="A17" s="13"/>
       <c r="B17" s="13" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="16"/>
+      <c r="D17" s="19" t="s">
+        <v>160</v>
+      </c>
       <c r="E17" s="13" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="13" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="16"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="13" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>89</v>
@@ -7054,14 +7069,14 @@
     <row r="19" spans="1:6">
       <c r="A19" s="13"/>
       <c r="B19" s="13" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="D19" s="16"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="13" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>89</v>
@@ -7070,14 +7085,14 @@
     <row r="20" spans="1:6">
       <c r="A20" s="13"/>
       <c r="B20" s="13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="D20" s="16"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="13" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F20" s="18"/>
     </row>
@@ -7087,7 +7102,7 @@
       <c r="C21" s="13"/>
       <c r="D21" s="16"/>
       <c r="E21" s="13"/>
-      <c r="F21" s="19"/>
+      <c r="F21" s="20"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="13"/>
@@ -7095,7 +7110,7 @@
       <c r="C22" s="13"/>
       <c r="D22" s="16"/>
       <c r="E22" s="13"/>
-      <c r="F22" s="19"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="13"/>
@@ -7103,7 +7118,7 @@
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
-      <c r="F23" s="19"/>
+      <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="6" t="s">
@@ -7298,7 +7313,7 @@
         <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -7311,7 +7326,7 @@
         <v>71</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -7324,7 +7339,7 @@
         <v>73</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -7337,7 +7352,7 @@
         <v>75</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -7432,7 +7447,7 @@
     <row r="12" spans="1:7">
       <c r="A12" s="15"/>
       <c r="B12" s="13" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13" t="s">
@@ -7446,14 +7461,14 @@
       <c r="A13" s="15"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>84</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="13" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G13" s="13"/>
     </row>
@@ -7476,14 +7491,14 @@
       <c r="A15" s="15"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>91</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="13" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G15" s="13"/>
     </row>
@@ -7491,14 +7506,14 @@
       <c r="A16" s="15"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>84</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="13" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G16" s="13"/>
     </row>
@@ -7506,14 +7521,14 @@
       <c r="A17" s="15"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>91</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="13" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G17" s="13"/>
     </row>

--- a/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
+++ b/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IdeaProjects\GTD2\A-开发相关文档素材\1.一期接口文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GTD2\A-开发相关文档素材\1.一期接口文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8AF3FD41-6431-4B6F-9356-FBB1A4E76349}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="10" r:id="rId1"/>
@@ -141,9 +142,6 @@
     <t>日程查询</t>
   </si>
   <si>
-    <t>查询所有日程，根据标签，日程主题，时间条件查询符合条件日程</t>
-  </si>
-  <si>
     <t>8/27-8/29</t>
   </si>
   <si>
@@ -177,22 +175,13 @@
     <t>日程撤回</t>
   </si>
   <si>
-    <t>在五分钟内，能够选择撤回（删除）已发布日程</t>
-  </si>
-  <si>
     <t>9/10-9/12</t>
   </si>
   <si>
     <t>日程发布</t>
   </si>
   <si>
-    <t>发布日程</t>
-  </si>
-  <si>
     <t>日程状态修改</t>
-  </si>
-  <si>
-    <t>参与人可以修改日程状态为完成</t>
   </si>
   <si>
     <t>9/7-9/10</t>
@@ -578,13 +567,29 @@
   </si>
   <si>
     <t>修改群成员名称和联系方式，若为权限群组，则对成员发送邀请，同意后加入群组</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询所有日程，根据标签，日程主题，时间条件查询符合条件日程，参与人，状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在五分钟内，能够选择撤回（删除）已发布给参与人日程，删除参与人表数据</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布日程</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人可以修改日程状态为完成</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -912,6 +917,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -919,12 +930,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -945,7 +950,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -987,7 +992,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1020,9 +1025,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1055,6 +1077,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1230,11 +1269,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1402,7 +1441,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E9" s="28" t="s">
         <v>14</v>
@@ -1422,7 +1461,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E10" s="28" t="s">
         <v>14</v>
@@ -1442,7 +1481,7 @@
         <v>26</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E11" s="28" t="s">
         <v>14</v>
@@ -1462,7 +1501,7 @@
         <v>28</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E12" s="28" t="s">
         <v>14</v>
@@ -1480,7 +1519,7 @@
         <v>30</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E13" s="28" t="s">
         <v>14</v>
@@ -1498,7 +1537,7 @@
         <v>32</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E14" s="28" t="s">
         <v>14</v>
@@ -1518,7 +1557,7 @@
         <v>34</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E15" s="28" t="s">
         <v>14</v>
@@ -1540,17 +1579,17 @@
         <v>37</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="E16" s="28" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="29"/>
       <c r="G16" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="29" t="s">
         <v>39</v>
-      </c>
-      <c r="H16" s="29" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -1559,10 +1598,10 @@
       </c>
       <c r="B17" s="39"/>
       <c r="C17" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>42</v>
       </c>
       <c r="E17" s="28" t="s">
         <v>14</v>
@@ -1571,10 +1610,10 @@
         <v>0.8</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -1583,20 +1622,20 @@
       </c>
       <c r="B18" s="39"/>
       <c r="C18" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="31" t="s">
         <v>44</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>45</v>
       </c>
       <c r="E18" s="28" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -1605,10 +1644,10 @@
       </c>
       <c r="B19" s="39"/>
       <c r="C19" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="31" t="s">
         <v>47</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>48</v>
       </c>
       <c r="E19" s="28" t="s">
         <v>14</v>
@@ -1618,27 +1657,27 @@
         <v>29</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="27"/>
       <c r="B20" s="39"/>
       <c r="C20" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>50</v>
+        <v>179</v>
       </c>
       <c r="E20" s="28" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -1647,10 +1686,10 @@
       </c>
       <c r="B21" s="39"/>
       <c r="C21" s="31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>53</v>
+        <v>180</v>
       </c>
       <c r="E21" s="28" t="s">
         <v>14</v>
@@ -1660,7 +1699,7 @@
         <v>31</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
@@ -1669,20 +1708,20 @@
       </c>
       <c r="B22" s="39"/>
       <c r="C22" s="31" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>55</v>
+        <v>181</v>
       </c>
       <c r="E22" s="28" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="29"/>
       <c r="G22" s="30" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -1691,20 +1730,20 @@
       </c>
       <c r="B23" s="40"/>
       <c r="C23" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E23" s="28" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
@@ -1712,10 +1751,10 @@
         <v>19</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="28" t="s">
@@ -1731,7 +1770,7 @@
       </c>
       <c r="B25" s="40"/>
       <c r="C25" s="31" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="28" t="s">
@@ -4690,7 +4729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4709,7 +4748,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -4722,10 +4761,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="23"/>
@@ -4735,10 +4774,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="23"/>
@@ -4748,10 +4787,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="23"/>
@@ -4769,43 +4808,43 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
+      <c r="A6" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="46"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="A7" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="11"/>
@@ -4814,26 +4853,26 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
       <c r="B9" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
       <c r="B10" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="11"/>
@@ -4842,11 +4881,11 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="11"/>
       <c r="B11" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="11"/>
@@ -4855,46 +4894,46 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
       <c r="B12" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="11"/>
       <c r="G12" s="14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="11"/>
       <c r="B13" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="11"/>
       <c r="B14" s="11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="14"/>
@@ -4918,33 +4957,33 @@
       <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
+      <c r="A17" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="46"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
+      <c r="A18" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -4966,62 +5005,62 @@
       <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
+      <c r="A21" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="A22" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G24" s="14"/>
     </row>
@@ -5041,7 +5080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5065,101 +5104,101 @@
     <row r="1" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="44"/>
+      <c r="A7" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="46"/>
       <c r="I7" s="17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J7" s="18" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
+      <c r="A8" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
       <c r="B9" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G9" s="10"/>
       <c r="I9" s="19"/>
@@ -5181,42 +5220,42 @@
       <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
+      <c r="A11" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="46"/>
       <c r="I11" s="19"/>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
       <c r="L11" s="21"/>
     </row>
     <row r="12" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
+      <c r="A12" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -5228,15 +5267,15 @@
     <row r="14" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="11"/>
       <c r="B14" s="9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G14" s="9"/>
     </row>
@@ -5244,14 +5283,14 @@
       <c r="A15" s="11"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G15" s="9"/>
     </row>
@@ -5259,14 +5298,14 @@
       <c r="A16" s="11"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G16" s="9"/>
     </row>
@@ -5274,14 +5313,14 @@
       <c r="A17" s="11"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G17" s="9"/>
     </row>
@@ -5289,14 +5328,14 @@
       <c r="A18" s="11"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G18" s="9"/>
     </row>
@@ -5304,14 +5343,14 @@
       <c r="A19" s="11"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G19" s="9"/>
     </row>
@@ -5334,62 +5373,62 @@
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
+      <c r="A22" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
+      <c r="A23" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
       <c r="D23" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
       <c r="B25" s="13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G25" s="9"/>
     </row>
@@ -5431,7 +5470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5467,10 +5506,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -5485,10 +5524,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -5503,10 +5542,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -5521,10 +5560,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -5552,15 +5591,15 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="44"/>
+      <c r="A7" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="46"/>
       <c r="H7" s="1"/>
       <c r="I7" s="17"/>
       <c r="J7" s="18"/>
@@ -5568,22 +5607,22 @@
       <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
+      <c r="A8" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="19"/>
@@ -5596,16 +5635,16 @@
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="19"/>
@@ -5618,16 +5657,16 @@
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>128</v>
-      </c>
       <c r="F10" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="19"/>
@@ -5636,15 +5675,15 @@
       <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
+      <c r="A11" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="46"/>
       <c r="H11" s="1"/>
       <c r="I11" s="19"/>
       <c r="J11" s="21"/>
@@ -5652,22 +5691,22 @@
       <c r="L11" s="21"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
+      <c r="A12" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -5678,11 +5717,11 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="11"/>
       <c r="B13" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -5806,11 +5845,11 @@
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
+      <c r="A22" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="7"/>
@@ -5822,22 +5861,22 @@
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
+      <c r="A23" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
       <c r="D23" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -5848,15 +5887,15 @@
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="1"/>
@@ -5868,15 +5907,15 @@
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
       <c r="B25" s="13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="1"/>
@@ -5900,7 +5939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5926,7 +5965,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>37</v>
@@ -5939,10 +5978,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -5952,10 +5991,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -5965,10 +6004,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -5986,33 +6025,33 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="44"/>
+      <c r="A7" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="46"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
+      <c r="A8" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -6020,56 +6059,56 @@
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="46"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
+      <c r="A11" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
       <c r="B12" s="9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -6148,62 +6187,62 @@
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
+      <c r="A21" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="A22" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G24" s="9"/>
     </row>
@@ -6222,7 +6261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -6247,10 +6286,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -6259,10 +6298,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -6271,10 +6310,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -6283,10 +6322,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -6302,36 +6341,36 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="44"/>
+      <c r="A7" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="46"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="46"/>
+      <c r="A8" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="43"/>
       <c r="C8" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6350,164 +6389,164 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
       <c r="B17" s="9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
       <c r="B18" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
       <c r="B19" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F20" s="14"/>
     </row>
@@ -6536,31 +6575,31 @@
       <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="44"/>
+      <c r="A24" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="46"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="46"/>
+      <c r="A25" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="43"/>
       <c r="C25" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
@@ -6628,58 +6667,58 @@
       <c r="F33" s="9"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="43"/>
+      <c r="A34" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="45"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="46"/>
+      <c r="A35" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="43"/>
       <c r="C35" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="10"/>
       <c r="B36" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="10"/>
       <c r="B37" s="13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9"/>
     </row>
@@ -6698,7 +6737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6724,10 +6763,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -6737,10 +6776,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -6750,10 +6789,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -6763,10 +6802,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -6784,33 +6823,33 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="44"/>
+      <c r="A7" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="46"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
+      <c r="A8" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -6818,54 +6857,54 @@
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="46"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
+      <c r="A11" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
       <c r="B12" s="9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -6875,14 +6914,14 @@
       <c r="A13" s="11"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G13" s="9"/>
     </row>
@@ -6890,14 +6929,14 @@
       <c r="A14" s="11"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G14" s="9"/>
     </row>
@@ -6905,14 +6944,14 @@
       <c r="A15" s="11"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G15" s="9"/>
     </row>
@@ -6920,14 +6959,14 @@
       <c r="A16" s="11"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G16" s="9"/>
     </row>
@@ -6935,14 +6974,14 @@
       <c r="A17" s="11"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G17" s="9"/>
     </row>
@@ -6965,62 +7004,62 @@
       <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
+      <c r="A20" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
+      <c r="A21" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G23" s="9"/>
     </row>

--- a/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
+++ b/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="9930" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="9930" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="10" r:id="rId1"/>
@@ -20,14 +20,15 @@
     <sheet name="日程删除" sheetId="12" r:id="rId6"/>
     <sheet name="日程撤回" sheetId="13" r:id="rId7"/>
     <sheet name="日程状态修改" sheetId="14" r:id="rId8"/>
-    <sheet name="群组查询" sheetId="6" r:id="rId9"/>
+    <sheet name="参与人列表查询" sheetId="6" r:id="rId9"/>
+    <sheet name="参与人详情查询" sheetId="15" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="195">
   <si>
     <t>序号</t>
   </si>
@@ -297,9 +298,6 @@
   </si>
   <si>
     <t>用户ID</t>
-  </si>
-  <si>
-    <t>群组查询</t>
   </si>
   <si>
     <t>GroupController</t>
@@ -587,6 +585,158 @@
   </si>
   <si>
     <t>参与人名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>group/find_all</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>findType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1是查询个人，2是查询群组</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人列表查询</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人详情查询</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>group/find_single</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupList</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;GroupOutDto&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupName</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupHeadImg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupCreateId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;LabelDto&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>labelId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>labelName</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupOutDto</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupName</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>labelList</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;LabelDto&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupMembers</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;GroupMemberDto&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>userContact</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -797,7 +947,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -892,6 +1042,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -918,12 +1080,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1277,7 +1433,7 @@
       <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="38" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="23" t="s">
@@ -1297,7 +1453,7 @@
       <c r="A3" s="22">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="26" t="s">
         <v>12</v>
       </c>
@@ -1313,7 +1469,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="22"/>
-      <c r="B4" s="35"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="26" t="s">
         <v>15</v>
       </c>
@@ -1329,7 +1485,7 @@
       <c r="A5" s="22">
         <v>3</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="26" t="s">
         <v>16</v>
       </c>
@@ -1347,7 +1503,7 @@
       <c r="A6" s="22">
         <v>4</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="26" t="s">
         <v>18</v>
       </c>
@@ -1363,7 +1519,7 @@
       <c r="A7" s="22">
         <v>5</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="26" t="s">
         <v>19</v>
       </c>
@@ -1379,7 +1535,7 @@
       <c r="A8" s="22">
         <v>6</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="26" t="s">
         <v>20</v>
       </c>
@@ -1395,7 +1551,7 @@
       <c r="A9" s="22">
         <v>7</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="41" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="26" t="s">
@@ -1415,7 +1571,7 @@
       <c r="A10" s="22">
         <v>8</v>
       </c>
-      <c r="B10" s="35"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="26" t="s">
         <v>24</v>
       </c>
@@ -1433,7 +1589,7 @@
       <c r="A11" s="22">
         <v>9</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="26" t="s">
         <v>26</v>
       </c>
@@ -1451,7 +1607,7 @@
       <c r="A12" s="22">
         <v>10</v>
       </c>
-      <c r="B12" s="35"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="26" t="s">
         <v>28</v>
       </c>
@@ -1467,7 +1623,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="22"/>
-      <c r="B13" s="35"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="26" t="s">
         <v>30</v>
       </c>
@@ -1483,7 +1639,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="22"/>
-      <c r="B14" s="35"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="26" t="s">
         <v>32</v>
       </c>
@@ -1501,7 +1657,7 @@
       <c r="A15" s="22">
         <v>11</v>
       </c>
-      <c r="B15" s="36"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="26" t="s">
         <v>34</v>
       </c>
@@ -1519,7 +1675,7 @@
       <c r="A16" s="22">
         <v>12</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="41" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="26" t="s">
@@ -1541,7 +1697,7 @@
       <c r="A17" s="22">
         <v>13</v>
       </c>
-      <c r="B17" s="35"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="26" t="s">
         <v>40</v>
       </c>
@@ -1559,7 +1715,7 @@
       <c r="A18" s="22">
         <v>14</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="26" t="s">
         <v>42</v>
       </c>
@@ -1579,7 +1735,7 @@
       <c r="A19" s="22">
         <v>15</v>
       </c>
-      <c r="B19" s="35"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="26" t="s">
         <v>45</v>
       </c>
@@ -1597,7 +1753,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="22"/>
-      <c r="B20" s="35"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="26" t="s">
         <v>48</v>
       </c>
@@ -1617,7 +1773,7 @@
       <c r="A21" s="22">
         <v>16</v>
       </c>
-      <c r="B21" s="35"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="26" t="s">
         <v>50</v>
       </c>
@@ -1635,7 +1791,7 @@
       <c r="A22" s="22">
         <v>17</v>
       </c>
-      <c r="B22" s="35"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="26" t="s">
         <v>52</v>
       </c>
@@ -1653,7 +1809,7 @@
       <c r="A23" s="22">
         <v>18</v>
       </c>
-      <c r="B23" s="36"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="26" t="s">
         <v>54</v>
       </c>
@@ -1671,7 +1827,7 @@
       <c r="A24" s="22">
         <v>19</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="41" t="s">
         <v>56</v>
       </c>
       <c r="C24" s="26" t="s">
@@ -1689,7 +1845,7 @@
       <c r="A25" s="22">
         <v>20</v>
       </c>
-      <c r="B25" s="36"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="26" t="s">
         <v>58</v>
       </c>
@@ -4646,6 +4802,473 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="4" width="24.125" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="63.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="46"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="46"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="13"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="13"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="13"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="13"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="13"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="13"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="13"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="13"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="13"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="13"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="14"/>
+      <c r="B30" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H32" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4729,22 +5352,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="42"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="46"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -4878,22 +5501,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="46"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -4926,22 +5549,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -4962,11 +5585,11 @@
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G23" s="10"/>
     </row>
@@ -4981,14 +5604,14 @@
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="9" t="s">
@@ -4996,7 +5619,7 @@
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G25" s="10"/>
     </row>
@@ -5019,7 +5642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -5062,7 +5685,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -5108,23 +5731,23 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="42"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="46"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="33"/>
       <c r="E8" s="7" t="s">
         <v>68</v>
@@ -5180,23 +5803,23 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="42"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="46"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="33"/>
       <c r="E14" s="7" t="s">
         <v>68</v>
@@ -5212,8 +5835,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="43" t="s">
-        <v>135</v>
+      <c r="A15" s="36" t="s">
+        <v>134</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -5225,13 +5848,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="13"/>
-      <c r="B16" s="44" t="s">
-        <v>136</v>
+      <c r="B16" s="37" t="s">
+        <v>135</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="44" t="s">
-        <v>137</v>
+      <c r="E16" s="37" t="s">
+        <v>136</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -5240,16 +5863,16 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="D17" s="44"/>
+      <c r="C17" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="37"/>
       <c r="E17" s="9" t="s">
         <v>80</v>
       </c>
       <c r="F17" s="9"/>
-      <c r="G17" s="44" t="s">
-        <v>142</v>
+      <c r="G17" s="37" t="s">
+        <v>141</v>
       </c>
       <c r="H17" s="9"/>
     </row>
@@ -5257,15 +5880,15 @@
       <c r="A18" s="13"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
         <v>73</v>
       </c>
       <c r="F18" s="9"/>
-      <c r="G18" s="44" t="s">
-        <v>143</v>
+      <c r="G18" s="37" t="s">
+        <v>142</v>
       </c>
       <c r="H18" s="9"/>
     </row>
@@ -5273,15 +5896,15 @@
       <c r="A19" s="13"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9" t="s">
         <v>73</v>
       </c>
       <c r="F19" s="9"/>
-      <c r="G19" s="44" t="s">
-        <v>144</v>
+      <c r="G19" s="37" t="s">
+        <v>143</v>
       </c>
       <c r="H19" s="9"/>
     </row>
@@ -5289,15 +5912,15 @@
       <c r="A20" s="13"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
         <v>73</v>
       </c>
       <c r="F20" s="9"/>
-      <c r="G20" s="44" t="s">
-        <v>145</v>
+      <c r="G20" s="37" t="s">
+        <v>144</v>
       </c>
       <c r="H20" s="9"/>
     </row>
@@ -5305,15 +5928,15 @@
       <c r="A21" s="13"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9" t="s">
         <v>80</v>
       </c>
       <c r="F21" s="9"/>
-      <c r="G21" s="44" t="s">
-        <v>146</v>
+      <c r="G21" s="37" t="s">
+        <v>145</v>
       </c>
       <c r="H21" s="9"/>
     </row>
@@ -5321,15 +5944,15 @@
       <c r="A22" s="13"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9" t="s">
         <v>73</v>
       </c>
       <c r="F22" s="9"/>
-      <c r="G22" s="44" t="s">
-        <v>147</v>
+      <c r="G22" s="37" t="s">
+        <v>146</v>
       </c>
       <c r="H22" s="9"/>
     </row>
@@ -5337,31 +5960,31 @@
       <c r="A23" s="13"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="44" t="s">
-        <v>150</v>
+      <c r="E23" s="37" t="s">
+        <v>149</v>
       </c>
       <c r="F23" s="9"/>
-      <c r="G23" s="44" t="s">
-        <v>148</v>
+      <c r="G23" s="37" t="s">
+        <v>147</v>
       </c>
       <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="13"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="44" t="s">
-        <v>152</v>
-      </c>
       <c r="F24" s="9"/>
-      <c r="G24" s="44" t="s">
-        <v>149</v>
+      <c r="G24" s="37" t="s">
+        <v>148</v>
       </c>
       <c r="H24" s="9"/>
     </row>
@@ -5369,15 +5992,15 @@
       <c r="A25" s="13"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="E25" s="44" t="s">
-        <v>132</v>
+      <c r="D25" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>131</v>
       </c>
       <c r="F25" s="9"/>
-      <c r="G25" s="44" t="s">
-        <v>156</v>
+      <c r="G25" s="37" t="s">
+        <v>155</v>
       </c>
       <c r="H25" s="9"/>
     </row>
@@ -5385,15 +6008,15 @@
       <c r="A26" s="13"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="44" t="s">
+      <c r="D26" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="E26" s="44" t="s">
-        <v>155</v>
-      </c>
       <c r="F26" s="9"/>
-      <c r="G26" s="44" t="s">
-        <v>157</v>
+      <c r="G26" s="37" t="s">
+        <v>156</v>
       </c>
       <c r="H26" s="9"/>
     </row>
@@ -5418,11 +6041,11 @@
       <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
       <c r="D29" s="32"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -5430,11 +6053,11 @@
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="33"/>
       <c r="E30" s="7" t="s">
         <v>68</v>
@@ -5457,11 +6080,11 @@
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H31" s="9"/>
     </row>
@@ -5477,14 +6100,14 @@
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="14"/>
       <c r="B33" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -5493,7 +6116,7 @@
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H33" s="9"/>
     </row>
@@ -5552,7 +6175,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -5564,7 +6187,7 @@
         <v>62</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -5592,20 +6215,20 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="46"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="39"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="7" t="s">
         <v>68</v>
       </c>
@@ -5621,7 +6244,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -5640,7 +6263,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>80</v>
@@ -5656,14 +6279,14 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>78</v>
@@ -5672,14 +6295,14 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>78</v>
@@ -5688,14 +6311,14 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>78</v>
@@ -5704,68 +6327,68 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D15" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="F15" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>80</v>
       </c>
       <c r="D16" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>109</v>
-      </c>
       <c r="F16" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
       <c r="B17" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D17" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>112</v>
-      </c>
       <c r="F17" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
       <c r="B18" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>78</v>
@@ -5774,14 +6397,14 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
       <c r="B19" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F19" s="10"/>
     </row>
@@ -5810,20 +6433,20 @@
       <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="42"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="46"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="39"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="7" t="s">
         <v>68</v>
       </c>
@@ -5862,20 +6485,20 @@
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="41"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="39"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="7" t="s">
         <v>68</v>
       </c>
@@ -5895,11 +6518,11 @@
         <v>87</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F30" s="9"/>
     </row>
@@ -5913,21 +6536,21 @@
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="14"/>
       <c r="B32" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F32" s="9"/>
     </row>
@@ -5986,7 +6609,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -5998,7 +6621,7 @@
         <v>62</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -6026,20 +6649,20 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="46"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="39"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="7" t="s">
         <v>68</v>
       </c>
@@ -6055,7 +6678,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6074,7 +6697,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>80</v>
@@ -6090,14 +6713,14 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>80</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>78</v>
@@ -6106,14 +6729,14 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>78</v>
@@ -6122,14 +6745,14 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>78</v>
@@ -6138,14 +6761,14 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>78</v>
@@ -6154,68 +6777,68 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D16" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="F16" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
       <c r="B17" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>80</v>
       </c>
       <c r="D17" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>109</v>
-      </c>
       <c r="F17" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
       <c r="B18" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D18" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>112</v>
-      </c>
       <c r="F18" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
       <c r="B19" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>78</v>
@@ -6224,14 +6847,14 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F20" s="10"/>
     </row>
@@ -6260,20 +6883,20 @@
       <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="42"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="46"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="39"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="7" t="s">
         <v>68</v>
       </c>
@@ -6320,20 +6943,20 @@
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="41"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="39"/>
+      <c r="B31" s="43"/>
       <c r="C31" s="7" t="s">
         <v>68</v>
       </c>
@@ -6353,11 +6976,11 @@
         <v>87</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F32" s="9"/>
     </row>
@@ -6371,21 +6994,21 @@
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F33" s="9"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="14"/>
       <c r="B34" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F34" s="9"/>
     </row>
@@ -6444,7 +7067,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -6456,7 +7079,7 @@
         <v>62</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -6484,20 +7107,20 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="46"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="39"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="7" t="s">
         <v>68</v>
       </c>
@@ -6513,7 +7136,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6532,7 +7155,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>80</v>
@@ -6548,14 +7171,14 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>80</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>78</v>
@@ -6586,20 +7209,20 @@
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="42"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="46"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="39"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="7" t="s">
         <v>68</v>
       </c>
@@ -6678,20 +7301,20 @@
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="41"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="39"/>
+      <c r="B27" s="43"/>
       <c r="C27" s="7" t="s">
         <v>68</v>
       </c>
@@ -6711,11 +7334,11 @@
         <v>87</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F28" s="9"/>
     </row>
@@ -6729,21 +7352,21 @@
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="14"/>
       <c r="B30" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F30" s="9"/>
     </row>
@@ -6802,7 +7425,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -6814,7 +7437,7 @@
         <v>62</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -6842,20 +7465,20 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="46"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="39"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="7" t="s">
         <v>68</v>
       </c>
@@ -6871,7 +7494,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6890,7 +7513,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>80</v>
@@ -6906,14 +7529,14 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>80</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>78</v>
@@ -6922,50 +7545,50 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>80</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>109</v>
-      </c>
       <c r="F13" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>78</v>
@@ -6988,20 +7611,20 @@
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="42"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="46"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="39"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="7" t="s">
         <v>68</v>
       </c>
@@ -7080,20 +7703,20 @@
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="41"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="39"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="7" t="s">
         <v>68</v>
       </c>
@@ -7113,11 +7736,11 @@
         <v>87</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F30" s="9"/>
     </row>
@@ -7131,21 +7754,21 @@
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="14"/>
       <c r="B32" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F32" s="9"/>
     </row>
@@ -7205,7 +7828,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -7217,7 +7840,7 @@
         <v>62</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -7245,20 +7868,20 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="46"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="39"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="7" t="s">
         <v>68</v>
       </c>
@@ -7274,7 +7897,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7293,7 +7916,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>80</v>
@@ -7309,14 +7932,14 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>80</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>78</v>
@@ -7325,37 +7948,37 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>80</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -7391,20 +8014,20 @@
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="42"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="46"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="39"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="7" t="s">
         <v>68</v>
       </c>
@@ -7483,20 +8106,20 @@
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="41"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="39"/>
+      <c r="B30" s="43"/>
       <c r="C30" s="7" t="s">
         <v>68</v>
       </c>
@@ -7516,11 +8139,11 @@
         <v>87</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F31" s="9"/>
     </row>
@@ -7534,21 +8157,21 @@
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F32" s="9"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="14"/>
       <c r="B33" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F33" s="9"/>
     </row>
@@ -7568,21 +8191,22 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D23" sqref="D23:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="47" customWidth="1"/>
-    <col min="6" max="6" width="63.125" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="3" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="63.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7590,56 +8214,65 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>90</v>
+        <v>162</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>158</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -7647,231 +8280,370 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="40" t="s">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="38" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="46"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="7" t="s">
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>159</v>
+      </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="12"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="13"/>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="46"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="13" t="s">
+        <v>166</v>
+      </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="12"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
-      <c r="B17" s="9"/>
+      <c r="B17" s="9" t="s">
+        <v>167</v>
+      </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="9"/>
+      <c r="E17" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17" s="12"/>
       <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="13"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
+      <c r="C18" s="9" t="s">
+        <v>169</v>
+      </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F18" s="12"/>
       <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="13"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
+      <c r="C19" s="9" t="s">
+        <v>170</v>
+      </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="E19" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F19" s="12"/>
       <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="40" t="s">
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="13"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="13"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="13"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="13"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="13"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="13"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="13"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="38" t="s">
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="7" t="s">
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="G29" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H29" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="14"/>
+      <c r="B30" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15" t="s">
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="9" t="s">
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15" t="s">
+      <c r="F31" s="9"/>
+      <c r="G31" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="G24" s="9"/>
+      <c r="H32" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A7:H7"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A28:C28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
+++ b/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
@@ -9,26 +9,38 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="9930" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="9930" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="10" r:id="rId1"/>
     <sheet name="用户注册" sheetId="3" r:id="rId2"/>
-    <sheet name="日程查询" sheetId="4" r:id="rId3"/>
-    <sheet name="日程创建" sheetId="5" r:id="rId4"/>
-    <sheet name="日程编辑" sheetId="11" r:id="rId5"/>
-    <sheet name="日程删除" sheetId="12" r:id="rId6"/>
-    <sheet name="日程撤回" sheetId="13" r:id="rId7"/>
-    <sheet name="日程状态修改" sheetId="14" r:id="rId8"/>
-    <sheet name="参与人列表查询" sheetId="6" r:id="rId9"/>
-    <sheet name="参与人详情查询" sheetId="15" r:id="rId10"/>
+    <sheet name="用户登陆" sheetId="16" r:id="rId3"/>
+    <sheet name="用户资料查询" sheetId="17" r:id="rId4"/>
+    <sheet name="用户资料编辑" sheetId="18" r:id="rId5"/>
+    <sheet name="关系人编辑" sheetId="27" r:id="rId6"/>
+    <sheet name="日程查询" sheetId="4" r:id="rId7"/>
+    <sheet name="日程创建" sheetId="5" r:id="rId8"/>
+    <sheet name="日程编辑" sheetId="11" r:id="rId9"/>
+    <sheet name="日程删除" sheetId="12" r:id="rId10"/>
+    <sheet name="日程撤回" sheetId="13" r:id="rId11"/>
+    <sheet name="日程状态修改" sheetId="14" r:id="rId12"/>
+    <sheet name="提醒时间设置" sheetId="26" r:id="rId13"/>
+    <sheet name="参与人列表查询" sheetId="6" r:id="rId14"/>
+    <sheet name="参与人详情查询" sheetId="15" r:id="rId15"/>
+    <sheet name="参与人创建" sheetId="19" r:id="rId16"/>
+    <sheet name="参与人编辑" sheetId="20" r:id="rId17"/>
+    <sheet name="参与人删除" sheetId="21" r:id="rId18"/>
+    <sheet name="参与人退出" sheetId="22" r:id="rId19"/>
+    <sheet name="群成员编辑" sheetId="23" r:id="rId20"/>
+    <sheet name="群成员退出" sheetId="24" r:id="rId21"/>
+    <sheet name="群成员添加 删除" sheetId="25" r:id="rId22"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="206">
   <si>
     <t>序号</t>
   </si>
@@ -267,13 +279,7 @@
     <t>是</t>
   </si>
   <si>
-    <t>loginType</t>
-  </si>
-  <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>登陆类型：0：手机号，1：微信，2：QQ</t>
   </si>
   <si>
     <t>userName</t>
@@ -448,10 +454,6 @@
   </si>
   <si>
     <t>List&lt;ScheduleOutDto&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>scheduleid</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -737,6 +739,62 @@
   </si>
   <si>
     <t>userContact</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;Integer&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;Integer&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;Integer&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/login</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆密码，手机号注册时必填</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆密码，手机号登陆时必填</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>scheduleId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>scheduleName</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>labelId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupName</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -947,7 +1005,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1054,6 +1112,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1079,6 +1140,30 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1433,7 +1518,7 @@
       <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="23" t="s">
@@ -1453,7 +1538,7 @@
       <c r="A3" s="22">
         <v>2</v>
       </c>
-      <c r="B3" s="39"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="26" t="s">
         <v>12</v>
       </c>
@@ -1469,7 +1554,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="22"/>
-      <c r="B4" s="39"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="26" t="s">
         <v>15</v>
       </c>
@@ -1485,7 +1570,7 @@
       <c r="A5" s="22">
         <v>3</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="26" t="s">
         <v>16</v>
       </c>
@@ -1503,7 +1588,7 @@
       <c r="A6" s="22">
         <v>4</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="26" t="s">
         <v>18</v>
       </c>
@@ -1519,7 +1604,7 @@
       <c r="A7" s="22">
         <v>5</v>
       </c>
-      <c r="B7" s="39"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="26" t="s">
         <v>19</v>
       </c>
@@ -1535,7 +1620,7 @@
       <c r="A8" s="22">
         <v>6</v>
       </c>
-      <c r="B8" s="40"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="26" t="s">
         <v>20</v>
       </c>
@@ -1551,7 +1636,7 @@
       <c r="A9" s="22">
         <v>7</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="42" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="26" t="s">
@@ -1571,7 +1656,7 @@
       <c r="A10" s="22">
         <v>8</v>
       </c>
-      <c r="B10" s="39"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="26" t="s">
         <v>24</v>
       </c>
@@ -1589,7 +1674,7 @@
       <c r="A11" s="22">
         <v>9</v>
       </c>
-      <c r="B11" s="39"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="26" t="s">
         <v>26</v>
       </c>
@@ -1607,7 +1692,7 @@
       <c r="A12" s="22">
         <v>10</v>
       </c>
-      <c r="B12" s="39"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="26" t="s">
         <v>28</v>
       </c>
@@ -1623,7 +1708,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="22"/>
-      <c r="B13" s="39"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="26" t="s">
         <v>30</v>
       </c>
@@ -1639,7 +1724,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="22"/>
-      <c r="B14" s="39"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="26" t="s">
         <v>32</v>
       </c>
@@ -1657,7 +1742,7 @@
       <c r="A15" s="22">
         <v>11</v>
       </c>
-      <c r="B15" s="40"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="26" t="s">
         <v>34</v>
       </c>
@@ -1675,7 +1760,7 @@
       <c r="A16" s="22">
         <v>12</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="42" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="26" t="s">
@@ -1697,7 +1782,7 @@
       <c r="A17" s="22">
         <v>13</v>
       </c>
-      <c r="B17" s="39"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="26" t="s">
         <v>40</v>
       </c>
@@ -1715,7 +1800,7 @@
       <c r="A18" s="22">
         <v>14</v>
       </c>
-      <c r="B18" s="39"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="26" t="s">
         <v>42</v>
       </c>
@@ -1735,7 +1820,7 @@
       <c r="A19" s="22">
         <v>15</v>
       </c>
-      <c r="B19" s="39"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="26" t="s">
         <v>45</v>
       </c>
@@ -1753,7 +1838,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="22"/>
-      <c r="B20" s="39"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="26" t="s">
         <v>48</v>
       </c>
@@ -1773,7 +1858,7 @@
       <c r="A21" s="22">
         <v>16</v>
       </c>
-      <c r="B21" s="39"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="26" t="s">
         <v>50</v>
       </c>
@@ -1791,7 +1876,7 @@
       <c r="A22" s="22">
         <v>17</v>
       </c>
-      <c r="B22" s="39"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="26" t="s">
         <v>52</v>
       </c>
@@ -1809,7 +1894,7 @@
       <c r="A23" s="22">
         <v>18</v>
       </c>
-      <c r="B23" s="40"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="26" t="s">
         <v>54</v>
       </c>
@@ -1827,7 +1912,7 @@
       <c r="A24" s="22">
         <v>19</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="42" t="s">
         <v>56</v>
       </c>
       <c r="C24" s="26" t="s">
@@ -1845,7 +1930,7 @@
       <c r="A25" s="22">
         <v>20</v>
       </c>
-      <c r="B25" s="40"/>
+      <c r="B25" s="41"/>
       <c r="C25" s="26" t="s">
         <v>58</v>
       </c>
@@ -4806,2227 +4891,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="4" width="24.125" customWidth="1"/>
-    <col min="5" max="5" width="20.875" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="63.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="46"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="14"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="14"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="14"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="46"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="13"/>
-      <c r="B16" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="13"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="13"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="13"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="13"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="13"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="13"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="13"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="13"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="13"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="13"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="H30" s="9"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="H31" s="9"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H32" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="16.875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="23.25" style="17" customWidth="1"/>
-    <col min="6" max="6" width="41.125" customWidth="1"/>
-    <col min="7" max="7" width="9" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="18"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="18"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="18"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="18"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="46"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="13"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="G25" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A21:C21"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="24.625" customWidth="1"/>
-    <col min="5" max="5" width="19.625" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
-    <col min="7" max="7" width="49.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="46"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="46"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="13"/>
-      <c r="B16" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="13"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="13"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="13"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="13"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="13"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="13"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="13"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="13"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="13"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="E25" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="13"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="13"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="H31" s="9"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="H32" s="9"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H33" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A29:C29"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:E27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="35.875" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="16.875" customWidth="1"/>
-    <col min="5" max="5" width="59.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="46"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="46"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="13"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="13"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F30" s="9"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F31" s="9"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F32" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A28:B28"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32:D34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="35.875" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="16.875" customWidth="1"/>
-    <col min="5" max="5" width="59.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="46"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="46"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="13"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="13"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="13"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F32" s="9"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F33" s="9"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F34" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A30:B30"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
@@ -7067,7 +4931,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -7079,7 +4943,7 @@
         <v>62</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -7107,20 +4971,20 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="47"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="43"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="7" t="s">
         <v>68</v>
       </c>
@@ -7136,7 +5000,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7155,14 +5019,14 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>78</v>
@@ -7171,14 +5035,14 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>78</v>
@@ -7209,20 +5073,20 @@
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="46"/>
+      <c r="A16" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="47"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="43"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="7" t="s">
         <v>68</v>
       </c>
@@ -7301,20 +5165,20 @@
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="45"/>
+      <c r="A26" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="46"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="43"/>
+      <c r="A27" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="44"/>
       <c r="C27" s="7" t="s">
         <v>68</v>
       </c>
@@ -7331,42 +5195,42 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="14"/>
       <c r="B28" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
       <c r="B29" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="14"/>
       <c r="B30" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F30" s="9"/>
     </row>
@@ -7384,7 +5248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
@@ -7425,7 +5289,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -7437,7 +5301,7 @@
         <v>62</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -7465,20 +5329,20 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="47"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="43"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="7" t="s">
         <v>68</v>
       </c>
@@ -7494,7 +5358,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7513,14 +5377,14 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>78</v>
@@ -7529,14 +5393,14 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>78</v>
@@ -7545,50 +5409,50 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>108</v>
-      </c>
       <c r="F13" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>78</v>
@@ -7611,20 +5475,20 @@
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="46"/>
+      <c r="A18" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="47"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="7" t="s">
         <v>68</v>
       </c>
@@ -7703,20 +5567,20 @@
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" s="45"/>
+      <c r="A28" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="46"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" s="43"/>
+      <c r="A29" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="44"/>
       <c r="C29" s="7" t="s">
         <v>68</v>
       </c>
@@ -7733,42 +5597,42 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="14"/>
       <c r="B30" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="14"/>
       <c r="B31" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="14"/>
       <c r="B32" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F32" s="9"/>
     </row>
@@ -7786,7 +5650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
@@ -7828,7 +5692,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -7840,7 +5704,7 @@
         <v>62</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -7868,20 +5732,20 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="47"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="43"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="7" t="s">
         <v>68</v>
       </c>
@@ -7897,7 +5761,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7916,14 +5780,14 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>78</v>
@@ -7932,14 +5796,14 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>78</v>
@@ -7948,37 +5812,37 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -8014,20 +5878,20 @@
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46"/>
+      <c r="A19" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="47"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="43"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="7" t="s">
         <v>68</v>
       </c>
@@ -8106,20 +5970,20 @@
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" s="45"/>
+      <c r="A29" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="46"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" s="43"/>
+      <c r="A30" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="44"/>
       <c r="C30" s="7" t="s">
         <v>68</v>
       </c>
@@ -8136,42 +6000,42 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="14"/>
       <c r="B31" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="14"/>
       <c r="B32" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F32" s="9"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="14"/>
       <c r="B33" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F33" s="9"/>
     </row>
@@ -8189,12 +6053,335 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="17" customWidth="1"/>
+    <col min="6" max="6" width="41.125" customWidth="1"/>
+    <col min="7" max="7" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:E24"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8221,7 +6408,7 @@
         <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -8235,7 +6422,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -8249,7 +6436,7 @@
         <v>62</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -8263,7 +6450,7 @@
         <v>64</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -8283,23 +6470,23 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="47"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
       <c r="D8" s="34"/>
       <c r="E8" s="7" t="s">
         <v>68</v>
@@ -8317,7 +6504,7 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -8329,14 +6516,14 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H10" s="14"/>
     </row>
@@ -8371,23 +6558,23 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="46"/>
+      <c r="A14" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="47"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="34"/>
       <c r="E15" s="7" t="s">
         <v>68</v>
@@ -8404,7 +6591,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -8417,12 +6604,12 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
       <c r="B17" s="9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="9"/>
@@ -8432,11 +6619,11 @@
       <c r="A18" s="13"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="9"/>
@@ -8446,11 +6633,11 @@
       <c r="A19" s="13"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="9"/>
@@ -8460,11 +6647,11 @@
       <c r="A20" s="13"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="9"/>
@@ -8474,11 +6661,11 @@
       <c r="A21" s="13"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="9"/>
@@ -8488,11 +6675,11 @@
       <c r="A22" s="13"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="9"/>
@@ -8503,10 +6690,10 @@
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="9"/>
@@ -8517,10 +6704,10 @@
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="9"/>
@@ -8557,11 +6744,11 @@
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
+      <c r="A28" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
       <c r="D28" s="35"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -8569,11 +6756,11 @@
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
+      <c r="A29" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="34"/>
       <c r="E29" s="7" t="s">
         <v>68</v>
@@ -8591,23 +6778,23 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="14"/>
       <c r="B30" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H30" s="9"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="14"/>
       <c r="B31" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
@@ -8616,14 +6803,14 @@
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="14"/>
       <c r="B32" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -8632,7 +6819,7 @@
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H32" s="9"/>
     </row>
@@ -8648,4 +6835,5922 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="4" width="24.125" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="63.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="47"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="13"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="13"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="13"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="13"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="13"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="13"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="13"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="13"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="13"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="13"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="14"/>
+      <c r="B30" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H32" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A28:C28"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="17" customWidth="1"/>
+    <col min="6" max="6" width="41.125" customWidth="1"/>
+    <col min="7" max="7" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:C18"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="17" customWidth="1"/>
+    <col min="6" max="6" width="41.125" customWidth="1"/>
+    <col min="7" max="7" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="17" customWidth="1"/>
+    <col min="6" max="6" width="41.125" customWidth="1"/>
+    <col min="7" max="7" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="17" customWidth="1"/>
+    <col min="6" max="6" width="41.125" customWidth="1"/>
+    <col min="7" max="7" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="17" customWidth="1"/>
+    <col min="6" max="6" width="41.125" customWidth="1"/>
+    <col min="7" max="7" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="49"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="50"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="13"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="17" customWidth="1"/>
+    <col min="6" max="6" width="41.125" customWidth="1"/>
+    <col min="7" max="7" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="17" customWidth="1"/>
+    <col min="6" max="6" width="41.125" customWidth="1"/>
+    <col min="7" max="7" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="17" customWidth="1"/>
+    <col min="6" max="6" width="41.125" customWidth="1"/>
+    <col min="7" max="7" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="17" customWidth="1"/>
+    <col min="6" max="6" width="41.125" customWidth="1"/>
+    <col min="7" max="7" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="49"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="50"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="13"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:C18"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="17" customWidth="1"/>
+    <col min="6" max="6" width="41.125" customWidth="1"/>
+    <col min="7" max="7" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="17" customWidth="1"/>
+    <col min="6" max="6" width="41.125" customWidth="1"/>
+    <col min="7" max="7" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="17" customWidth="1"/>
+    <col min="6" max="6" width="41.125" customWidth="1"/>
+    <col min="7" max="7" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="24.625" customWidth="1"/>
+    <col min="5" max="5" width="19.625" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="49.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="47"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="13"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="13"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="47"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="13"/>
+      <c r="B22" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="13"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23" s="37"/>
+      <c r="E23" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="13"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="13"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="13"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="13"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="13"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="13"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="13"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="13"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="13"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="13"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="14"/>
+      <c r="B37" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="14"/>
+      <c r="B38" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="14"/>
+      <c r="B39" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H39" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A35:C35"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="35.875" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="59.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="47"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="47"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="44"/>
+      <c r="C23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="13"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="13"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="46"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="44"/>
+      <c r="C28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="14"/>
+      <c r="B30" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A27:B27"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="35.875" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="59.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="47"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="47"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="44"/>
+      <c r="C25" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="13"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="13"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="13"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="46"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="44"/>
+      <c r="C31" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="14"/>
+      <c r="B34" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A30:B30"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
 </file>
--- a/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
+++ b/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="9930" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="9930" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="206">
   <si>
     <t>序号</t>
   </si>
@@ -1115,6 +1115,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1143,15 +1149,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1160,11 +1157,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1518,7 +1518,7 @@
       <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="41" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="23" t="s">
@@ -1538,7 +1538,7 @@
       <c r="A3" s="22">
         <v>2</v>
       </c>
-      <c r="B3" s="40"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="26" t="s">
         <v>12</v>
       </c>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="22"/>
-      <c r="B4" s="40"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="26" t="s">
         <v>15</v>
       </c>
@@ -1570,7 +1570,7 @@
       <c r="A5" s="22">
         <v>3</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="26" t="s">
         <v>16</v>
       </c>
@@ -1588,7 +1588,7 @@
       <c r="A6" s="22">
         <v>4</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="26" t="s">
         <v>18</v>
       </c>
@@ -1604,7 +1604,7 @@
       <c r="A7" s="22">
         <v>5</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="26" t="s">
         <v>19</v>
       </c>
@@ -1620,7 +1620,7 @@
       <c r="A8" s="22">
         <v>6</v>
       </c>
-      <c r="B8" s="41"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="26" t="s">
         <v>20</v>
       </c>
@@ -1636,7 +1636,7 @@
       <c r="A9" s="22">
         <v>7</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="44" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="26" t="s">
@@ -1656,7 +1656,7 @@
       <c r="A10" s="22">
         <v>8</v>
       </c>
-      <c r="B10" s="40"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="26" t="s">
         <v>24</v>
       </c>
@@ -1674,7 +1674,7 @@
       <c r="A11" s="22">
         <v>9</v>
       </c>
-      <c r="B11" s="40"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="26" t="s">
         <v>26</v>
       </c>
@@ -1692,7 +1692,7 @@
       <c r="A12" s="22">
         <v>10</v>
       </c>
-      <c r="B12" s="40"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="26" t="s">
         <v>28</v>
       </c>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="22"/>
-      <c r="B13" s="40"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="26" t="s">
         <v>30</v>
       </c>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="22"/>
-      <c r="B14" s="40"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="26" t="s">
         <v>32</v>
       </c>
@@ -1742,7 +1742,7 @@
       <c r="A15" s="22">
         <v>11</v>
       </c>
-      <c r="B15" s="41"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="26" t="s">
         <v>34</v>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="A16" s="22">
         <v>12</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="44" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="26" t="s">
@@ -1782,7 +1782,7 @@
       <c r="A17" s="22">
         <v>13</v>
       </c>
-      <c r="B17" s="40"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="26" t="s">
         <v>40</v>
       </c>
@@ -1800,7 +1800,7 @@
       <c r="A18" s="22">
         <v>14</v>
       </c>
-      <c r="B18" s="40"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="26" t="s">
         <v>42</v>
       </c>
@@ -1820,7 +1820,7 @@
       <c r="A19" s="22">
         <v>15</v>
       </c>
-      <c r="B19" s="40"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="26" t="s">
         <v>45</v>
       </c>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="22"/>
-      <c r="B20" s="40"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="26" t="s">
         <v>48</v>
       </c>
@@ -1858,7 +1858,7 @@
       <c r="A21" s="22">
         <v>16</v>
       </c>
-      <c r="B21" s="40"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="26" t="s">
         <v>50</v>
       </c>
@@ -1876,7 +1876,7 @@
       <c r="A22" s="22">
         <v>17</v>
       </c>
-      <c r="B22" s="40"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="26" t="s">
         <v>52</v>
       </c>
@@ -1894,7 +1894,7 @@
       <c r="A23" s="22">
         <v>18</v>
       </c>
-      <c r="B23" s="41"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="26" t="s">
         <v>54</v>
       </c>
@@ -1912,7 +1912,7 @@
       <c r="A24" s="22">
         <v>19</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="44" t="s">
         <v>56</v>
       </c>
       <c r="C24" s="26" t="s">
@@ -1930,7 +1930,7 @@
       <c r="A25" s="22">
         <v>20</v>
       </c>
-      <c r="B25" s="41"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="26" t="s">
         <v>58</v>
       </c>
@@ -4971,20 +4971,20 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="49"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="44"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="7" t="s">
         <v>68</v>
       </c>
@@ -5073,20 +5073,20 @@
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="47"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="49"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="44"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="7" t="s">
         <v>68</v>
       </c>
@@ -5165,20 +5165,20 @@
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="46"/>
+      <c r="B26" s="48"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="44"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="7" t="s">
         <v>68</v>
       </c>
@@ -5329,20 +5329,20 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="49"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="44"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="7" t="s">
         <v>68</v>
       </c>
@@ -5475,20 +5475,20 @@
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="47"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="44"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="7" t="s">
         <v>68</v>
       </c>
@@ -5567,20 +5567,20 @@
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="46"/>
+      <c r="B28" s="48"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="44"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="7" t="s">
         <v>68</v>
       </c>
@@ -5732,20 +5732,20 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="49"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="44"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="7" t="s">
         <v>68</v>
       </c>
@@ -5878,20 +5878,20 @@
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="47"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="44"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="7" t="s">
         <v>68</v>
       </c>
@@ -5970,20 +5970,20 @@
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="46"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="44"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="7" t="s">
         <v>68</v>
       </c>
@@ -6127,22 +6127,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -6207,7 +6207,7 @@
       <c r="C13" s="13"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="54"/>
+      <c r="F13" s="39"/>
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -6238,22 +6238,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -6288,22 +6288,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -6364,12 +6364,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6378,10 +6378,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6470,23 +6470,23 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="49"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="34"/>
       <c r="E8" s="7" t="s">
         <v>68</v>
@@ -6558,23 +6558,23 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="47"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="49"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
       <c r="D15" s="34"/>
       <c r="E15" s="7" t="s">
         <v>68</v>
@@ -6716,9 +6716,13 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="13"/>
       <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+      <c r="C25" s="9" t="s">
+        <v>187</v>
+      </c>
       <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="E25" s="9" t="s">
+        <v>188</v>
+      </c>
       <c r="F25" s="12"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -6727,110 +6731,142 @@
       <c r="A26" s="13"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" s="12"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="9"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="D27" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F27" s="12"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="13"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="43" t="s">
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="7" t="s">
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G31" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H31" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H30" s="9"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="14"/>
       <c r="B32" s="15" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
       <c r="E32" s="9" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="14"/>
+      <c r="B34" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="H32" s="9"/>
+      <c r="H34" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A31:C31"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A30:C30"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -6842,7 +6878,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:H29"/>
+      <selection activeCell="C22" sqref="C22:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6931,23 +6967,23 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="49"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="34"/>
       <c r="E8" s="7" t="s">
         <v>68</v>
@@ -7007,23 +7043,23 @@
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="47"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="49"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="34"/>
       <c r="E14" s="7" t="s">
         <v>68</v>
@@ -7211,11 +7247,11 @@
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
       <c r="D28" s="35"/>
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
@@ -7223,11 +7259,11 @@
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
       <c r="D29" s="34"/>
       <c r="E29" s="7" t="s">
         <v>68</v>
@@ -7378,22 +7414,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -7458,7 +7494,7 @@
       <c r="C13" s="13"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="54"/>
+      <c r="F13" s="39"/>
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -7489,22 +7525,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -7539,22 +7575,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -7701,22 +7737,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -7781,7 +7817,7 @@
       <c r="C13" s="13"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="54"/>
+      <c r="F13" s="39"/>
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -7812,22 +7848,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -7862,22 +7898,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -7938,12 +7974,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8024,22 +8060,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -8104,7 +8140,7 @@
       <c r="C13" s="13"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="54"/>
+      <c r="F13" s="39"/>
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -8135,22 +8171,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -8185,22 +8221,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -8261,12 +8297,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8347,22 +8383,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -8427,7 +8463,7 @@
       <c r="C13" s="13"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="54"/>
+      <c r="F13" s="39"/>
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -8458,22 +8494,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -8508,22 +8544,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -8584,12 +8620,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8600,7 +8636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -8676,22 +8712,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -8728,10 +8764,10 @@
         <v>73</v>
       </c>
       <c r="E9" s="10"/>
-      <c r="F9" s="51" t="s">
+      <c r="F9" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="48" t="s">
+      <c r="G9" s="53" t="s">
         <v>78</v>
       </c>
     </row>
@@ -8745,8 +8781,8 @@
         <v>73</v>
       </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="49"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="54"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
@@ -8758,8 +8794,8 @@
         <v>73</v>
       </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="50"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="55"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
@@ -8771,7 +8807,7 @@
         <v>73</v>
       </c>
       <c r="E12" s="10"/>
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="40" t="s">
         <v>197</v>
       </c>
       <c r="G12" s="10" t="s">
@@ -8788,7 +8824,7 @@
         <v>73</v>
       </c>
       <c r="E13" s="10"/>
-      <c r="F13" s="54" t="s">
+      <c r="F13" s="39" t="s">
         <v>81</v>
       </c>
       <c r="G13" s="10" t="s">
@@ -8823,22 +8859,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -8871,22 +8907,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -9036,22 +9072,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -9116,7 +9152,7 @@
       <c r="C13" s="13"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="54"/>
+      <c r="F13" s="39"/>
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -9147,22 +9183,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -9197,22 +9233,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -9273,12 +9309,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9359,22 +9395,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -9439,7 +9475,7 @@
       <c r="C13" s="13"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="54"/>
+      <c r="F13" s="39"/>
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -9470,22 +9506,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -9520,22 +9556,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -9596,12 +9632,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9682,22 +9718,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -9762,7 +9798,7 @@
       <c r="C13" s="13"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="54"/>
+      <c r="F13" s="39"/>
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -9793,22 +9829,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -9843,22 +9879,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -9919,12 +9955,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10011,22 +10047,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -10063,10 +10099,10 @@
         <v>73</v>
       </c>
       <c r="E9" s="10"/>
-      <c r="F9" s="51" t="s">
+      <c r="F9" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="48" t="s">
+      <c r="G9" s="53" t="s">
         <v>78</v>
       </c>
     </row>
@@ -10080,8 +10116,8 @@
         <v>73</v>
       </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="49"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="54"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
@@ -10093,8 +10129,8 @@
         <v>73</v>
       </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="50"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="55"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
@@ -10106,7 +10142,7 @@
         <v>73</v>
       </c>
       <c r="E12" s="10"/>
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="40" t="s">
         <v>199</v>
       </c>
       <c r="G12" s="10" t="s">
@@ -10123,7 +10159,7 @@
         <v>73</v>
       </c>
       <c r="E13" s="10"/>
-      <c r="F13" s="54" t="s">
+      <c r="F13" s="39" t="s">
         <v>81</v>
       </c>
       <c r="G13" s="10" t="s">
@@ -10158,22 +10194,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -10206,22 +10242,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -10370,22 +10406,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -10450,7 +10486,7 @@
       <c r="C13" s="13"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="54"/>
+      <c r="F13" s="39"/>
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -10481,22 +10517,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -10531,22 +10567,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -10607,12 +10643,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10693,22 +10729,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -10773,7 +10809,7 @@
       <c r="C13" s="13"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="54"/>
+      <c r="F13" s="39"/>
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -10804,22 +10840,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -10854,22 +10890,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -10930,12 +10966,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11016,22 +11052,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -11096,7 +11132,7 @@
       <c r="C13" s="13"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="54"/>
+      <c r="F13" s="39"/>
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -11127,22 +11163,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -11177,22 +11213,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -11253,12 +11289,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11358,23 +11394,23 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="49"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="33"/>
       <c r="E8" s="7" t="s">
         <v>68</v>
@@ -11538,23 +11574,23 @@
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="47"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="49"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="33"/>
       <c r="E20" s="7" t="s">
         <v>68</v>
@@ -11776,11 +11812,11 @@
       <c r="H34" s="9"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
       <c r="D35" s="32"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -11788,11 +11824,11 @@
       <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
       <c r="D36" s="33"/>
       <c r="E36" s="7" t="s">
         <v>68</v>
@@ -11950,20 +11986,20 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="49"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="44"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="7" t="s">
         <v>68</v>
       </c>
@@ -12162,20 +12198,20 @@
       <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="47"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="49"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="44"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="7" t="s">
         <v>68</v>
       </c>
@@ -12214,20 +12250,20 @@
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="46"/>
+      <c r="B27" s="48"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="44"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="7" t="s">
         <v>68</v>
       </c>
@@ -12378,20 +12414,20 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="49"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="44"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="7" t="s">
         <v>68</v>
       </c>
@@ -12612,20 +12648,20 @@
       <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="47"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="49"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="44"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="7" t="s">
         <v>68</v>
       </c>
@@ -12672,20 +12708,20 @@
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="46"/>
+      <c r="B30" s="48"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="44"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="7" t="s">
         <v>68</v>
       </c>

--- a/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
+++ b/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="9930" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="9930" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="219">
   <si>
     <t>序号</t>
   </si>
@@ -795,6 +795,58 @@
   </si>
   <si>
     <t>groupName</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成/未测</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>群成员状态修改</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>schedule/find</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>remind</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;RemindOutDto&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>remindId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>remindDate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒时间列表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒时间ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒时间日期</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1005,7 +1057,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1120,6 +1172,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1471,10 +1529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H316"/>
+  <dimension ref="A1:H317"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1518,7 +1576,7 @@
       <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="43" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="23" t="s">
@@ -1538,7 +1596,7 @@
       <c r="A3" s="22">
         <v>2</v>
       </c>
-      <c r="B3" s="42"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="26" t="s">
         <v>12</v>
       </c>
@@ -1554,7 +1612,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="22"/>
-      <c r="B4" s="42"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="26" t="s">
         <v>15</v>
       </c>
@@ -1570,7 +1628,7 @@
       <c r="A5" s="22">
         <v>3</v>
       </c>
-      <c r="B5" s="42"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="26" t="s">
         <v>16</v>
       </c>
@@ -1588,7 +1646,7 @@
       <c r="A6" s="22">
         <v>4</v>
       </c>
-      <c r="B6" s="42"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="26" t="s">
         <v>18</v>
       </c>
@@ -1604,7 +1662,7 @@
       <c r="A7" s="22">
         <v>5</v>
       </c>
-      <c r="B7" s="42"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="26" t="s">
         <v>19</v>
       </c>
@@ -1620,7 +1678,7 @@
       <c r="A8" s="22">
         <v>6</v>
       </c>
-      <c r="B8" s="43"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="26" t="s">
         <v>20</v>
       </c>
@@ -1636,7 +1694,7 @@
       <c r="A9" s="22">
         <v>7</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="46" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="26" t="s">
@@ -1656,7 +1714,7 @@
       <c r="A10" s="22">
         <v>8</v>
       </c>
-      <c r="B10" s="42"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="26" t="s">
         <v>24</v>
       </c>
@@ -1674,7 +1732,7 @@
       <c r="A11" s="22">
         <v>9</v>
       </c>
-      <c r="B11" s="42"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="26" t="s">
         <v>26</v>
       </c>
@@ -1692,7 +1750,7 @@
       <c r="A12" s="22">
         <v>10</v>
       </c>
-      <c r="B12" s="42"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="26" t="s">
         <v>28</v>
       </c>
@@ -1708,7 +1766,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="22"/>
-      <c r="B13" s="42"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="26" t="s">
         <v>30</v>
       </c>
@@ -1724,7 +1782,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="22"/>
-      <c r="B14" s="42"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="26" t="s">
         <v>32</v>
       </c>
@@ -1742,7 +1800,7 @@
       <c r="A15" s="22">
         <v>11</v>
       </c>
-      <c r="B15" s="43"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="26" t="s">
         <v>34</v>
       </c>
@@ -1757,93 +1815,87 @@
       <c r="H15" s="25"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="22">
-        <v>12</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>36</v>
-      </c>
+      <c r="A16" s="42"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>14</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="24"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="25" t="s">
-        <v>39</v>
-      </c>
+      <c r="H16" s="25"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="22">
-        <v>13</v>
-      </c>
-      <c r="B17" s="42"/>
+        <v>12</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>36</v>
+      </c>
       <c r="C17" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>38</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="28"/>
+      <c r="H17" s="25" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="22">
-        <v>14</v>
-      </c>
-      <c r="B18" s="42"/>
+        <v>13</v>
+      </c>
+      <c r="B18" s="44"/>
       <c r="C18" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="25" t="s">
-        <v>44</v>
-      </c>
+      <c r="H18" s="28"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="22">
-        <v>15</v>
-      </c>
-      <c r="B19" s="42"/>
+        <v>14</v>
+      </c>
+      <c r="B19" s="44"/>
       <c r="C19" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="22"/>
-      <c r="B20" s="42"/>
+      <c r="A20" s="22">
+        <v>15</v>
+      </c>
+      <c r="B20" s="44"/>
       <c r="C20" s="26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E20" s="23" t="s">
         <v>14</v>
@@ -1855,36 +1907,36 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="22">
-        <v>16</v>
-      </c>
-      <c r="B21" s="42"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
+      <c r="H21" s="25" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="22">
-        <v>17</v>
-      </c>
-      <c r="B22" s="42"/>
+        <v>16</v>
+      </c>
+      <c r="B22" s="44"/>
       <c r="C22" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="25"/>
@@ -1892,47 +1944,49 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="22">
-        <v>18</v>
-      </c>
-      <c r="B23" s="43"/>
+        <v>17</v>
+      </c>
+      <c r="B23" s="44"/>
       <c r="C23" s="26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="29"/>
+        <v>11</v>
+      </c>
+      <c r="F23" s="24"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="22">
-        <v>19</v>
-      </c>
-      <c r="B24" s="44" t="s">
-        <v>56</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B24" s="45"/>
       <c r="C24" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="12"/>
+        <v>54</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>55</v>
+      </c>
       <c r="E24" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="30"/>
-      <c r="G24" s="16"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="25"/>
       <c r="H24" s="25"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="22">
-        <v>20</v>
-      </c>
-      <c r="B25" s="43"/>
+        <v>19</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>56</v>
+      </c>
       <c r="C25" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="23" t="s">
@@ -1944,21 +1998,25 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="22">
-        <v>21</v>
-      </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="12"/>
+        <v>20</v>
+      </c>
+      <c r="B26" s="45"/>
+      <c r="C26" s="26" t="s">
+        <v>58</v>
+      </c>
       <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="E26" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F26" s="30"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="25"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="22">
-        <v>22</v>
-      </c>
-      <c r="B27" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="B27" s="26"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -1968,7 +2026,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="22">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -1980,7 +2038,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="22">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -1992,7 +2050,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="22">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -2004,7 +2062,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="22">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -2016,7 +2074,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="22">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -2028,7 +2086,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="22">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -2040,7 +2098,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="22">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -2052,7 +2110,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="22">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -2064,7 +2122,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="22">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -2076,7 +2134,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="22">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -2088,7 +2146,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="22">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -2099,7 +2157,9 @@
       <c r="H38" s="12"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="31"/>
+      <c r="A39" s="22">
+        <v>33</v>
+      </c>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -4878,12 +4938,22 @@
       <c r="G316" s="12"/>
       <c r="H316" s="12"/>
     </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A317" s="31"/>
+      <c r="B317" s="12"/>
+      <c r="C317" s="12"/>
+      <c r="D317" s="12"/>
+      <c r="E317" s="12"/>
+      <c r="F317" s="30"/>
+      <c r="G317" s="12"/>
+      <c r="H317" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="B9:B15"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="B25:B26"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4971,20 +5041,20 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="49"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="46"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="7" t="s">
         <v>68</v>
       </c>
@@ -5073,20 +5143,20 @@
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="49"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="46"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="7" t="s">
         <v>68</v>
       </c>
@@ -5165,20 +5235,20 @@
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="48"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="46"/>
+      <c r="B27" s="48"/>
       <c r="C27" s="7" t="s">
         <v>68</v>
       </c>
@@ -5329,20 +5399,20 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="49"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="46"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="7" t="s">
         <v>68</v>
       </c>
@@ -5475,20 +5545,20 @@
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="51"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="46"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="7" t="s">
         <v>68</v>
       </c>
@@ -5567,20 +5637,20 @@
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="48"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="46"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="7" t="s">
         <v>68</v>
       </c>
@@ -5732,20 +5802,20 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="49"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="46"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="7" t="s">
         <v>68</v>
       </c>
@@ -5878,20 +5948,20 @@
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="51"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="46"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="7" t="s">
         <v>68</v>
       </c>
@@ -5970,20 +6040,20 @@
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="48"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="46"/>
+      <c r="B30" s="48"/>
       <c r="C30" s="7" t="s">
         <v>68</v>
       </c>
@@ -6127,22 +6197,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -6238,22 +6308,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -6288,22 +6358,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -6380,7 +6450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C25" sqref="C25:E28"/>
     </sheetView>
   </sheetViews>
@@ -6470,23 +6540,23 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="49"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="51"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
       <c r="D8" s="34"/>
       <c r="E8" s="7" t="s">
         <v>68</v>
@@ -6558,23 +6628,23 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="49"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="34"/>
       <c r="E15" s="7" t="s">
         <v>68</v>
@@ -6780,11 +6850,11 @@
       <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="35"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -6792,11 +6862,11 @@
       <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
       <c r="D31" s="34"/>
       <c r="E31" s="7" t="s">
         <v>68</v>
@@ -6967,23 +7037,23 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="49"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="51"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
       <c r="D8" s="34"/>
       <c r="E8" s="7" t="s">
         <v>68</v>
@@ -7043,23 +7113,23 @@
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="49"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="51"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="34"/>
       <c r="E14" s="7" t="s">
         <v>68</v>
@@ -7247,11 +7317,11 @@
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
       <c r="D28" s="35"/>
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
@@ -7259,11 +7329,11 @@
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
       <c r="D29" s="34"/>
       <c r="E29" s="7" t="s">
         <v>68</v>
@@ -7414,22 +7484,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -7525,22 +7595,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -7575,22 +7645,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -7737,22 +7807,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -7848,22 +7918,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -7898,22 +7968,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -8060,22 +8130,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -8171,22 +8241,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -8221,22 +8291,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -8383,22 +8453,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -8494,22 +8564,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -8544,22 +8614,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -8712,22 +8782,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -8764,10 +8834,10 @@
         <v>73</v>
       </c>
       <c r="E9" s="10"/>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="53" t="s">
+      <c r="G9" s="55" t="s">
         <v>78</v>
       </c>
     </row>
@@ -8781,8 +8851,8 @@
         <v>73</v>
       </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="54"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="56"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
@@ -8794,8 +8864,8 @@
         <v>73</v>
       </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="55"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="57"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
@@ -8859,22 +8929,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -8907,22 +8977,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -9072,22 +9142,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -9183,22 +9253,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -9233,22 +9303,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -9395,22 +9465,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -9506,22 +9576,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -9556,22 +9626,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -9718,22 +9788,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -9829,22 +9899,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -9879,22 +9949,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -10047,22 +10117,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -10099,10 +10169,10 @@
         <v>73</v>
       </c>
       <c r="E9" s="10"/>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="53" t="s">
+      <c r="G9" s="55" t="s">
         <v>78</v>
       </c>
     </row>
@@ -10116,8 +10186,8 @@
         <v>73</v>
       </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="54"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="56"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
@@ -10129,8 +10199,8 @@
         <v>73</v>
       </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="55"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="57"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
@@ -10194,22 +10264,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -10242,22 +10312,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -10406,22 +10476,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -10517,22 +10587,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -10567,22 +10637,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -10729,22 +10799,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -10840,22 +10910,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -10890,22 +10960,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -11052,22 +11122,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -11163,22 +11233,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -11213,22 +11283,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -11303,10 +11373,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11361,7 +11431,9 @@
       <c r="A4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>209</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -11394,23 +11466,23 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="49"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="51"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
       <c r="D8" s="33"/>
       <c r="E8" s="7" t="s">
         <v>68</v>
@@ -11513,7 +11585,7 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>73</v>
+        <v>208</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="37" t="s">
@@ -11574,23 +11646,23 @@
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="49"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="51"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
       <c r="D20" s="33"/>
       <c r="E20" s="7" t="s">
         <v>68</v>
@@ -11794,111 +11866,149 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="13"/>
       <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
+      <c r="C33" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37" t="s">
+        <v>211</v>
+      </c>
       <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
+      <c r="G33" s="37" t="s">
+        <v>216</v>
+      </c>
       <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="9"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
+      <c r="D34" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>215</v>
+      </c>
       <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
+      <c r="G34" s="37" t="s">
+        <v>217</v>
+      </c>
       <c r="H34" s="9"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="13"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="45" t="s">
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="7" t="s">
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F38" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G38" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H38" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H37" s="9"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="14"/>
-      <c r="B38" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H38" s="9"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="14"/>
       <c r="B39" s="15" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="9" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H39" s="9"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="14"/>
+      <c r="B40" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H40" s="9"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="14"/>
+      <c r="B41" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="H39" s="9"/>
+      <c r="H41" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A38:C38"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A19:H19"/>
     <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A37:C37"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -11986,20 +12096,20 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="49"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="46"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="7" t="s">
         <v>68</v>
       </c>
@@ -12198,20 +12308,20 @@
       <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="49"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="51"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="46"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="7" t="s">
         <v>68</v>
       </c>
@@ -12250,20 +12360,20 @@
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="48"/>
+      <c r="B27" s="50"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="46"/>
+      <c r="B28" s="48"/>
       <c r="C28" s="7" t="s">
         <v>68</v>
       </c>
@@ -12414,20 +12524,20 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="49"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="46"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="7" t="s">
         <v>68</v>
       </c>
@@ -12648,20 +12758,20 @@
       <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="49"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="51"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="46"/>
+      <c r="B25" s="48"/>
       <c r="C25" s="7" t="s">
         <v>68</v>
       </c>
@@ -12708,20 +12818,20 @@
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="48"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="46"/>
+      <c r="B31" s="48"/>
       <c r="C31" s="7" t="s">
         <v>68</v>
       </c>

--- a/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
+++ b/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="234">
   <si>
     <t>序号</t>
   </si>
@@ -786,10 +786,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>labelId</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>标签ID</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -848,6 +844,56 @@
   <si>
     <t>提醒时间日期</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间段</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.时间开始到时间结束 scheduleStarttime - scheduleDeadline</t>
+  </si>
+  <si>
+    <t>2.从某个时间以后 scheduleStarttime</t>
+  </si>
+  <si>
+    <t>3.从某个时间以前 scheduleDeadline</t>
+  </si>
+  <si>
+    <t>日程ID</t>
+  </si>
+  <si>
+    <t>查具体某件事  根据scheduleId查询</t>
+  </si>
+  <si>
+    <t>日程主题 模糊查询</t>
+  </si>
+  <si>
+    <t>包含主题关键字信息 scheduleName</t>
+  </si>
+  <si>
+    <t>参与人/群组名称查 模糊查询</t>
+  </si>
+  <si>
+    <t>包含参与人/群组名称关键字信息 groupName</t>
+  </si>
+  <si>
+    <t>标签ID</t>
+  </si>
+  <si>
+    <t>查具体某个标签类型的事件 根据labelId查询</t>
+  </si>
+  <si>
+    <t xml:space="preserve">具体某个参与人/群组 </t>
+  </si>
+  <si>
+    <t>查具体发布给某个参与人/群组日程 根据groupId查询</t>
   </si>
 </sst>
 </file>
@@ -1818,7 +1864,7 @@
       <c r="A16" s="42"/>
       <c r="B16" s="41"/>
       <c r="C16" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="23"/>
@@ -1878,7 +1924,7 @@
         <v>43</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="25"/>
@@ -11373,10 +11419,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:G16"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11389,7 +11435,7 @@
     <col min="7" max="7" width="49.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11399,7 +11445,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
@@ -11413,7 +11459,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>60</v>
       </c>
@@ -11427,12 +11473,12 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -11441,7 +11487,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>64</v>
       </c>
@@ -11455,7 +11501,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -11465,7 +11511,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="49" t="s">
         <v>66</v>
       </c>
@@ -11476,8 +11522,11 @@
       <c r="F7" s="50"/>
       <c r="G7" s="50"/>
       <c r="H7" s="51"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J7" s="37" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="47" t="s">
         <v>67</v>
       </c>
@@ -11496,8 +11545,11 @@
       <c r="H8" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="13"/>
       <c r="B9" s="37" t="s">
         <v>156</v>
@@ -11511,9 +11563,14 @@
       <c r="G9" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H9" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="J9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="13"/>
       <c r="B10" s="37" t="s">
         <v>200</v>
@@ -11527,9 +11584,14 @@
       <c r="G10" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H10" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="J10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
       <c r="B11" s="37" t="s">
         <v>201</v>
@@ -11543,9 +11605,11 @@
       <c r="G11" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H11" s="37" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
       <c r="B12" s="9" t="s">
         <v>135</v>
@@ -11559,9 +11623,14 @@
       <c r="G12" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H12" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="J12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
       <c r="B13" s="9" t="s">
         <v>98</v>
@@ -11575,28 +11644,35 @@
       <c r="G13" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H13" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="J13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="B14" s="9" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="37" t="s">
-        <v>204</v>
-      </c>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+        <v>203</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
       <c r="B15" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -11607,9 +11683,14 @@
       <c r="G15" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H15" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="J15" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="13"/>
       <c r="B16" s="37" t="s">
         <v>149</v>
@@ -11623,9 +11704,14 @@
       <c r="G16" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H16" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="J16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -11635,7 +11721,7 @@
       <c r="G17" s="37"/>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="13"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -11644,8 +11730,11 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="49" t="s">
         <v>82</v>
       </c>
@@ -11656,8 +11745,11 @@
       <c r="F19" s="50"/>
       <c r="G19" s="50"/>
       <c r="H19" s="51"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J19" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="47" t="s">
         <v>67</v>
       </c>
@@ -11677,7 +11769,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="36" t="s">
         <v>132</v>
       </c>
@@ -11688,8 +11780,11 @@
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="13"/>
       <c r="B22" s="37" t="s">
         <v>133</v>
@@ -11702,8 +11797,11 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J22" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="13"/>
       <c r="B23" s="9"/>
       <c r="C23" s="37" t="s">
@@ -11719,7 +11817,7 @@
       </c>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="13"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9" t="s">
@@ -11734,8 +11832,11 @@
         <v>139</v>
       </c>
       <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J24" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="13"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9" t="s">
@@ -11750,8 +11851,11 @@
         <v>140</v>
       </c>
       <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="13"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9" t="s">
@@ -11767,7 +11871,7 @@
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="13"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9" t="s">
@@ -11783,7 +11887,7 @@
       </c>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="13"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9" t="s">
@@ -11799,7 +11903,7 @@
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="13"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9" t="s">
@@ -11815,7 +11919,7 @@
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="13"/>
       <c r="B30" s="9"/>
       <c r="C30" s="37" t="s">
@@ -11831,7 +11935,7 @@
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="13"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -11847,7 +11951,7 @@
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="13"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -11867,15 +11971,15 @@
       <c r="A33" s="13"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D33" s="37"/>
       <c r="E33" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H33" s="9"/>
     </row>
@@ -11884,14 +11988,14 @@
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E34" s="37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H34" s="9"/>
     </row>
@@ -11900,14 +12004,14 @@
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>213</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>214</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H35" s="9"/>
     </row>
@@ -12012,6 +12116,7 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
+++ b/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="9930" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="9930" firstSheet="13" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="10" r:id="rId1"/>
@@ -34,13 +34,14 @@
     <sheet name="群成员编辑" sheetId="23" r:id="rId20"/>
     <sheet name="群成员退出" sheetId="24" r:id="rId21"/>
     <sheet name="群成员添加 删除" sheetId="25" r:id="rId22"/>
+    <sheet name="标签查询" sheetId="28" r:id="rId23"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="251">
   <si>
     <t>序号</t>
   </si>
@@ -895,12 +896,132 @@
   <si>
     <t>查具体发布给某个参与人/群组日程 根据groupId查询</t>
   </si>
+  <si>
+    <t>标签查询</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>查询所有/参与人/日程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 标签</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserController</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>user/find_label</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签查询</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>findType</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>用户I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询类型：0是日程，1是群组</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>labelId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>labelName</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>标签I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -944,6 +1065,29 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1103,7 +1247,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1225,6 +1369,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1269,6 +1416,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1578,7 +1735,7 @@
   <dimension ref="A1:H317"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1622,7 +1779,7 @@
       <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="23" t="s">
@@ -1642,7 +1799,7 @@
       <c r="A3" s="22">
         <v>2</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="26" t="s">
         <v>12</v>
       </c>
@@ -1658,7 +1815,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="22"/>
-      <c r="B4" s="44"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="26" t="s">
         <v>15</v>
       </c>
@@ -1674,7 +1831,7 @@
       <c r="A5" s="22">
         <v>3</v>
       </c>
-      <c r="B5" s="44"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="26" t="s">
         <v>16</v>
       </c>
@@ -1692,7 +1849,7 @@
       <c r="A6" s="22">
         <v>4</v>
       </c>
-      <c r="B6" s="44"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="26" t="s">
         <v>18</v>
       </c>
@@ -1708,7 +1865,7 @@
       <c r="A7" s="22">
         <v>5</v>
       </c>
-      <c r="B7" s="44"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="26" t="s">
         <v>19</v>
       </c>
@@ -1724,7 +1881,7 @@
       <c r="A8" s="22">
         <v>6</v>
       </c>
-      <c r="B8" s="45"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="26" t="s">
         <v>20</v>
       </c>
@@ -1740,7 +1897,7 @@
       <c r="A9" s="22">
         <v>7</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="47" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="26" t="s">
@@ -1760,7 +1917,7 @@
       <c r="A10" s="22">
         <v>8</v>
       </c>
-      <c r="B10" s="44"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="26" t="s">
         <v>24</v>
       </c>
@@ -1778,7 +1935,7 @@
       <c r="A11" s="22">
         <v>9</v>
       </c>
-      <c r="B11" s="44"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="26" t="s">
         <v>26</v>
       </c>
@@ -1796,7 +1953,7 @@
       <c r="A12" s="22">
         <v>10</v>
       </c>
-      <c r="B12" s="44"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="26" t="s">
         <v>28</v>
       </c>
@@ -1812,7 +1969,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="22"/>
-      <c r="B13" s="44"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="26" t="s">
         <v>30</v>
       </c>
@@ -1828,7 +1985,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="22"/>
-      <c r="B14" s="44"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="26" t="s">
         <v>32</v>
       </c>
@@ -1846,7 +2003,7 @@
       <c r="A15" s="22">
         <v>11</v>
       </c>
-      <c r="B15" s="45"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="26" t="s">
         <v>34</v>
       </c>
@@ -1876,7 +2033,7 @@
       <c r="A17" s="22">
         <v>12</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="26" t="s">
@@ -1898,7 +2055,7 @@
       <c r="A18" s="22">
         <v>13</v>
       </c>
-      <c r="B18" s="44"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="26" t="s">
         <v>40</v>
       </c>
@@ -1916,7 +2073,7 @@
       <c r="A19" s="22">
         <v>14</v>
       </c>
-      <c r="B19" s="44"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="26" t="s">
         <v>42</v>
       </c>
@@ -1936,7 +2093,7 @@
       <c r="A20" s="22">
         <v>15</v>
       </c>
-      <c r="B20" s="44"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="26" t="s">
         <v>45</v>
       </c>
@@ -1954,7 +2111,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="22"/>
-      <c r="B21" s="44"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="26" t="s">
         <v>48</v>
       </c>
@@ -1974,7 +2131,7 @@
       <c r="A22" s="22">
         <v>16</v>
       </c>
-      <c r="B22" s="44"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="26" t="s">
         <v>50</v>
       </c>
@@ -1992,7 +2149,7 @@
       <c r="A23" s="22">
         <v>17</v>
       </c>
-      <c r="B23" s="44"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="26" t="s">
         <v>52</v>
       </c>
@@ -2010,7 +2167,7 @@
       <c r="A24" s="22">
         <v>18</v>
       </c>
-      <c r="B24" s="45"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="26" t="s">
         <v>54</v>
       </c>
@@ -2028,7 +2185,7 @@
       <c r="A25" s="22">
         <v>19</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="47" t="s">
         <v>56</v>
       </c>
       <c r="C25" s="26" t="s">
@@ -2046,7 +2203,7 @@
       <c r="A26" s="22">
         <v>20</v>
       </c>
-      <c r="B26" s="45"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="26" t="s">
         <v>58</v>
       </c>
@@ -2063,9 +2220,15 @@
         <v>21</v>
       </c>
       <c r="B27" s="26"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="C27" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D27" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>11</v>
+      </c>
       <c r="F27" s="30"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
@@ -5003,6 +5166,7 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5087,20 +5251,20 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="52"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="48"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="7" t="s">
         <v>68</v>
       </c>
@@ -5189,20 +5353,20 @@
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="52"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="48"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="7" t="s">
         <v>68</v>
       </c>
@@ -5281,20 +5445,20 @@
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="50"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="48"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="7" t="s">
         <v>68</v>
       </c>
@@ -5445,20 +5609,20 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="52"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="48"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="7" t="s">
         <v>68</v>
       </c>
@@ -5591,20 +5755,20 @@
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="51"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="52"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="48"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="7" t="s">
         <v>68</v>
       </c>
@@ -5683,20 +5847,20 @@
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="50"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="48"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="7" t="s">
         <v>68</v>
       </c>
@@ -5848,20 +6012,20 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="52"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="48"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="7" t="s">
         <v>68</v>
       </c>
@@ -5994,20 +6158,20 @@
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="51"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="52"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="48"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="7" t="s">
         <v>68</v>
       </c>
@@ -6086,20 +6250,20 @@
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="50"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="48"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="7" t="s">
         <v>68</v>
       </c>
@@ -6243,22 +6407,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -6354,22 +6518,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -6404,22 +6568,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -6586,23 +6750,23 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="52"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="34"/>
       <c r="E8" s="7" t="s">
         <v>68</v>
@@ -6674,23 +6838,23 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="52"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="34"/>
       <c r="E15" s="7" t="s">
         <v>68</v>
@@ -6896,11 +7060,11 @@
       <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
       <c r="D30" s="35"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -6908,11 +7072,11 @@
       <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="34"/>
       <c r="E31" s="7" t="s">
         <v>68</v>
@@ -7083,23 +7247,23 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="52"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="34"/>
       <c r="E8" s="7" t="s">
         <v>68</v>
@@ -7159,23 +7323,23 @@
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="52"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="34"/>
       <c r="E14" s="7" t="s">
         <v>68</v>
@@ -7363,11 +7527,11 @@
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
       <c r="D28" s="35"/>
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
@@ -7375,11 +7539,11 @@
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
       <c r="D29" s="34"/>
       <c r="E29" s="7" t="s">
         <v>68</v>
@@ -7530,22 +7694,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -7641,22 +7805,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -7691,22 +7855,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -7853,22 +8017,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -7964,22 +8128,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -8014,22 +8178,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -8176,22 +8340,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -8287,22 +8451,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -8337,22 +8501,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -8499,22 +8663,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -8610,22 +8774,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -8660,22 +8824,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -8828,22 +8992,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -8880,10 +9044,10 @@
         <v>73</v>
       </c>
       <c r="E9" s="10"/>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="56" t="s">
         <v>78</v>
       </c>
     </row>
@@ -8897,8 +9061,8 @@
         <v>73</v>
       </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="56"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="57"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
@@ -8910,8 +9074,8 @@
         <v>73</v>
       </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="57"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="58"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
@@ -8975,22 +9139,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -9023,22 +9187,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -9188,22 +9352,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -9299,22 +9463,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -9349,22 +9513,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -9511,22 +9675,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -9622,22 +9786,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -9672,22 +9836,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -9765,7 +9929,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F35" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9834,22 +9998,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -9945,22 +10109,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -9995,22 +10159,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -10077,6 +10241,361 @@
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A21:C21"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="17" customWidth="1"/>
+    <col min="6" max="6" width="41.125" customWidth="1"/>
+    <col min="7" max="7" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="62" t="s">
+        <v>241</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="52"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>245</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="13"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>246</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="13"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="13"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10163,22 +10682,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -10215,10 +10734,10 @@
         <v>73</v>
       </c>
       <c r="E9" s="10"/>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="56" t="s">
         <v>78</v>
       </c>
     </row>
@@ -10232,8 +10751,8 @@
         <v>73</v>
       </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="56"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="57"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
@@ -10245,8 +10764,8 @@
         <v>73</v>
       </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="57"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="58"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
@@ -10310,22 +10829,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -10358,22 +10877,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -10522,22 +11041,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -10633,22 +11152,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -10683,22 +11202,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -10845,22 +11364,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -10956,22 +11475,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -11006,22 +11525,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -11168,22 +11687,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -11279,22 +11798,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -11329,22 +11848,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -11421,7 +11940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
@@ -11512,26 +12031,26 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="52"/>
       <c r="J7" s="37" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="33"/>
       <c r="E8" s="7" t="s">
         <v>68</v>
@@ -11735,26 +12254,26 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="51"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="52"/>
       <c r="J19" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="33"/>
       <c r="E20" s="7" t="s">
         <v>68</v>
@@ -12026,11 +12545,11 @@
       <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
       <c r="D37" s="32"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -12038,11 +12557,11 @@
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="33"/>
       <c r="E38" s="7" t="s">
         <v>68</v>
@@ -12201,20 +12720,20 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="52"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="48"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="7" t="s">
         <v>68</v>
       </c>
@@ -12413,20 +12932,20 @@
       <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="51"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="52"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="48"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="7" t="s">
         <v>68</v>
       </c>
@@ -12465,20 +12984,20 @@
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="50"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="48"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="7" t="s">
         <v>68</v>
       </c>
@@ -12629,20 +13148,20 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="52"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="48"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="7" t="s">
         <v>68</v>
       </c>
@@ -12863,20 +13382,20 @@
       <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="51"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="52"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="48"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="7" t="s">
         <v>68</v>
       </c>
@@ -12923,20 +13442,20 @@
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="50"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="48"/>
+      <c r="B31" s="49"/>
       <c r="C31" s="7" t="s">
         <v>68</v>
       </c>

--- a/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
+++ b/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="9930" firstSheet="13" activeTab="22"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="10" r:id="rId1"/>
@@ -31,17 +31,18 @@
     <sheet name="参与人编辑" sheetId="20" r:id="rId17"/>
     <sheet name="参与人删除" sheetId="21" r:id="rId18"/>
     <sheet name="参与人退出" sheetId="22" r:id="rId19"/>
-    <sheet name="群成员编辑" sheetId="23" r:id="rId20"/>
-    <sheet name="群成员退出" sheetId="24" r:id="rId21"/>
-    <sheet name="群成员添加 删除" sheetId="25" r:id="rId22"/>
-    <sheet name="标签查询" sheetId="28" r:id="rId23"/>
+    <sheet name="群成员查询" sheetId="29" r:id="rId20"/>
+    <sheet name="群成员编辑" sheetId="23" r:id="rId21"/>
+    <sheet name="群成员退出" sheetId="24" r:id="rId22"/>
+    <sheet name="群成员添加 删除" sheetId="25" r:id="rId23"/>
+    <sheet name="标签查询" sheetId="28" r:id="rId24"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="269">
   <si>
     <t>序号</t>
   </si>
@@ -1014,6 +1015,78 @@
   </si>
   <si>
     <t>标签名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>群成员查询</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询所有的群成员</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupController</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>群成员查询</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/group/find_group_member</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>uesrId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupMemberList</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>群成员列表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>群成员userId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>群成员名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>群成员联系方式</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberName</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberContact</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1247,7 +1320,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1372,6 +1445,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1417,16 +1506,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1732,10 +1812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H317"/>
+  <dimension ref="A1:H318"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1779,7 +1859,7 @@
       <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="50" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="23" t="s">
@@ -1799,7 +1879,7 @@
       <c r="A3" s="22">
         <v>2</v>
       </c>
-      <c r="B3" s="45"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="26" t="s">
         <v>12</v>
       </c>
@@ -1815,7 +1895,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="22"/>
-      <c r="B4" s="45"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="26" t="s">
         <v>15</v>
       </c>
@@ -1831,7 +1911,7 @@
       <c r="A5" s="22">
         <v>3</v>
       </c>
-      <c r="B5" s="45"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="26" t="s">
         <v>16</v>
       </c>
@@ -1849,7 +1929,7 @@
       <c r="A6" s="22">
         <v>4</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="26" t="s">
         <v>18</v>
       </c>
@@ -1865,7 +1945,7 @@
       <c r="A7" s="22">
         <v>5</v>
       </c>
-      <c r="B7" s="45"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="26" t="s">
         <v>19</v>
       </c>
@@ -1881,7 +1961,7 @@
       <c r="A8" s="22">
         <v>6</v>
       </c>
-      <c r="B8" s="46"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="26" t="s">
         <v>20</v>
       </c>
@@ -1897,10 +1977,10 @@
       <c r="A9" s="22">
         <v>7</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="65" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="26" t="s">
@@ -1917,8 +1997,8 @@
       <c r="A10" s="22">
         <v>8</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="26" t="s">
+      <c r="B10" s="51"/>
+      <c r="C10" s="65" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="26" t="s">
@@ -1935,8 +2015,8 @@
       <c r="A11" s="22">
         <v>9</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="26" t="s">
+      <c r="B11" s="51"/>
+      <c r="C11" s="65" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="26" t="s">
@@ -1953,7 +2033,7 @@
       <c r="A12" s="22">
         <v>10</v>
       </c>
-      <c r="B12" s="45"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26" t="s">
         <v>28</v>
       </c>
@@ -1969,7 +2049,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="22"/>
-      <c r="B13" s="45"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="26" t="s">
         <v>30</v>
       </c>
@@ -1984,13 +2064,13 @@
       <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="22"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="26" t="s">
-        <v>32</v>
+      <c r="A14" s="44"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="65" t="s">
+        <v>251</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>33</v>
+        <v>252</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>14</v>
@@ -2000,15 +2080,13 @@
       <c r="H14" s="25"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="22">
-        <v>11</v>
-      </c>
-      <c r="B15" s="46"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>14</v>
@@ -2018,105 +2096,105 @@
       <c r="H15" s="25"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="42"/>
-      <c r="B16" s="41"/>
+      <c r="A16" s="22">
+        <v>11</v>
+      </c>
+      <c r="B16" s="52"/>
       <c r="C16" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="23"/>
+        <v>34</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F16" s="24"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="22">
-        <v>12</v>
-      </c>
-      <c r="B17" s="47" t="s">
-        <v>36</v>
-      </c>
+      <c r="A17" s="42"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>14</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="24"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="25" t="s">
-        <v>39</v>
-      </c>
+      <c r="H17" s="25"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="22">
-        <v>13</v>
-      </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>41</v>
+        <v>12</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>38</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="28"/>
+      <c r="H18" s="25" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="22">
-        <v>14</v>
-      </c>
-      <c r="B19" s="45"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="51"/>
       <c r="C19" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="25" t="s">
-        <v>44</v>
-      </c>
+      <c r="H19" s="28"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="22">
-        <v>15</v>
-      </c>
-      <c r="B20" s="45"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="51"/>
       <c r="C20" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="22"/>
-      <c r="B21" s="45"/>
+      <c r="A21" s="22">
+        <v>15</v>
+      </c>
+      <c r="B21" s="51"/>
       <c r="C21" s="26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>14</v>
@@ -2128,36 +2206,36 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="22">
-        <v>16</v>
-      </c>
-      <c r="B22" s="45"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E22" s="23" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
+      <c r="H22" s="25" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="22">
-        <v>17</v>
-      </c>
-      <c r="B23" s="45"/>
+        <v>16</v>
+      </c>
+      <c r="B23" s="51"/>
       <c r="C23" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="25"/>
@@ -2165,47 +2243,49 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="22">
-        <v>18</v>
-      </c>
-      <c r="B24" s="46"/>
+        <v>17</v>
+      </c>
+      <c r="B24" s="51"/>
       <c r="C24" s="26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="29"/>
+        <v>11</v>
+      </c>
+      <c r="F24" s="24"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="22">
-        <v>19</v>
-      </c>
-      <c r="B25" s="47" t="s">
-        <v>56</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B25" s="52"/>
       <c r="C25" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="12"/>
+        <v>54</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>55</v>
+      </c>
       <c r="E25" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="30"/>
-      <c r="G25" s="16"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="25"/>
       <c r="H25" s="25"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="22">
-        <v>20</v>
-      </c>
-      <c r="B26" s="46"/>
+        <v>19</v>
+      </c>
+      <c r="B26" s="53" t="s">
+        <v>56</v>
+      </c>
       <c r="C26" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="23" t="s">
@@ -2217,37 +2297,41 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="22">
-        <v>21</v>
-      </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="D27" s="59" t="s">
-        <v>235</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B27" s="52"/>
+      <c r="C27" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="12"/>
       <c r="E27" s="23" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F27" s="30"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="25"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="22">
-        <v>22</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="B28" s="26"/>
+      <c r="C28" s="65" t="s">
+        <v>234</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>11</v>
+      </c>
       <c r="F28" s="30"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="22">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -2259,7 +2343,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="22">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -2271,7 +2355,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="22">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -2283,7 +2367,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="22">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -2295,7 +2379,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="22">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -2307,7 +2391,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="22">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -2319,7 +2403,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="22">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -2331,7 +2415,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="22">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -2343,7 +2427,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="22">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -2355,7 +2439,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="22">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -2367,7 +2451,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="22">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -2378,7 +2462,9 @@
       <c r="H39" s="12"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="31"/>
+      <c r="A40" s="22">
+        <v>33</v>
+      </c>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -5157,14 +5243,32 @@
       <c r="G317" s="12"/>
       <c r="H317" s="12"/>
     </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A318" s="31"/>
+      <c r="B318" s="12"/>
+      <c r="C318" s="12"/>
+      <c r="D318" s="12"/>
+      <c r="E318" s="12"/>
+      <c r="F318" s="30"/>
+      <c r="G318" s="12"/>
+      <c r="H318" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="B17:B24"/>
-    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B26:B27"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C14" location="群成员查询!A1" display="群成员查询"/>
+    <hyperlink ref="C28" location="标签查询!A1" display="标签查询"/>
+    <hyperlink ref="C18" location="日程查询!A1" display="日程查询"/>
+    <hyperlink ref="C9" location="群成员查询!A1" display="查询群组"/>
+    <hyperlink ref="C11" location="参与人编辑!A1" display="群组编辑"/>
+    <hyperlink ref="C10" location="参与人创建!A1" display="群组创建"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -5251,20 +5355,20 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="52"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="58"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="49"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="7" t="s">
         <v>68</v>
       </c>
@@ -5353,20 +5457,20 @@
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="52"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="49"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="7" t="s">
         <v>68</v>
       </c>
@@ -5445,20 +5549,20 @@
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="51"/>
+      <c r="B26" s="57"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="49"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="7" t="s">
         <v>68</v>
       </c>
@@ -5609,20 +5713,20 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="52"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="58"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="49"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="7" t="s">
         <v>68</v>
       </c>
@@ -5755,20 +5859,20 @@
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="52"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="58"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="49"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="7" t="s">
         <v>68</v>
       </c>
@@ -5847,20 +5951,20 @@
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="51"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="49"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="7" t="s">
         <v>68</v>
       </c>
@@ -6012,20 +6116,20 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="52"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="58"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="49"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="7" t="s">
         <v>68</v>
       </c>
@@ -6158,20 +6262,20 @@
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="58"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="49"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="7" t="s">
         <v>68</v>
       </c>
@@ -6250,20 +6354,20 @@
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="51"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="49"/>
+      <c r="B30" s="55"/>
       <c r="C30" s="7" t="s">
         <v>68</v>
       </c>
@@ -6407,22 +6511,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="58"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -6518,22 +6622,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="52"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -6568,22 +6672,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -6750,23 +6854,23 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="52"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="58"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="34"/>
       <c r="E8" s="7" t="s">
         <v>68</v>
@@ -6838,23 +6942,23 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="52"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="58"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="34"/>
       <c r="E15" s="7" t="s">
         <v>68</v>
@@ -7060,11 +7164,11 @@
       <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
       <c r="D30" s="35"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -7072,11 +7176,11 @@
       <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
       <c r="D31" s="34"/>
       <c r="E31" s="7" t="s">
         <v>68</v>
@@ -7247,23 +7351,23 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="52"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="58"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="34"/>
       <c r="E8" s="7" t="s">
         <v>68</v>
@@ -7323,23 +7427,23 @@
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="52"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="58"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="34"/>
       <c r="E14" s="7" t="s">
         <v>68</v>
@@ -7527,11 +7631,11 @@
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="35"/>
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
@@ -7539,11 +7643,11 @@
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
       <c r="D29" s="34"/>
       <c r="E29" s="7" t="s">
         <v>68</v>
@@ -7694,22 +7798,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="58"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -7805,22 +7909,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="52"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -7855,22 +7959,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -8017,22 +8121,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="58"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -8128,22 +8232,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="52"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -8178,22 +8282,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -8340,22 +8444,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="58"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -8451,22 +8555,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="52"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -8501,22 +8605,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -8663,22 +8767,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="58"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -8774,22 +8878,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="52"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -8824,22 +8928,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -8992,22 +9096,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="58"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -9044,10 +9148,10 @@
         <v>73</v>
       </c>
       <c r="E9" s="10"/>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="62" t="s">
         <v>78</v>
       </c>
     </row>
@@ -9061,8 +9165,8 @@
         <v>73</v>
       </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="57"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="63"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
@@ -9074,8 +9178,8 @@
         <v>73</v>
       </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="58"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="64"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
@@ -9139,22 +9243,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="52"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -9187,22 +9291,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -9280,15 +9384,15 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="16.875" style="17" customWidth="1"/>
     <col min="5" max="5" width="23.25" style="17" customWidth="1"/>
@@ -9300,7 +9404,9 @@
       <c r="A1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>254</v>
+      </c>
       <c r="C1" s="1"/>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
@@ -9311,7 +9417,9 @@
       <c r="A2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
@@ -9322,7 +9430,9 @@
       <c r="A3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>255</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
@@ -9352,22 +9462,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="58"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -9392,21 +9502,33 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>256</v>
+      </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>268</v>
+      </c>
       <c r="E9" s="10"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="G9" s="10" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>257</v>
+      </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>171</v>
+      </c>
       <c r="E10" s="10"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="G10" s="10" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
@@ -9415,7 +9537,7 @@
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
@@ -9424,87 +9546,111 @@
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="10"/>
+      <c r="A13" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="58"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="10"/>
+      <c r="A14" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
+      <c r="A15" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="13"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="10"/>
+      <c r="B16" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10" t="s">
+        <v>259</v>
+      </c>
       <c r="E16" s="10"/>
-      <c r="F16" s="13"/>
+      <c r="F16" s="9" t="s">
+        <v>260</v>
+      </c>
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="52"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>70</v>
-      </c>
+      <c r="A18" s="13"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="13" t="s">
-        <v>132</v>
-      </c>
+      <c r="A19" s="13"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
+      <c r="C19" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>171</v>
+      </c>
       <c r="E19" s="10"/>
-      <c r="F19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>263</v>
+      </c>
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="9"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
@@ -9513,69 +9659,63 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="48" t="s">
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="7" t="s">
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F23" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="9" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="15" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="9" t="s">
@@ -9583,18 +9723,33 @@
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G25" s="10"/>
+      <c r="G26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9675,22 +9830,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="58"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -9786,22 +9941,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="52"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -9836,22 +9991,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -9925,6 +10080,329 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="17" customWidth="1"/>
+    <col min="6" max="6" width="41.125" customWidth="1"/>
+    <col min="7" max="7" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="58"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A21:C21"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -9998,22 +10476,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="58"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -10109,22 +10587,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="52"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -10159,22 +10637,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -10247,11 +10725,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -10269,7 +10747,7 @@
       <c r="A1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="47" t="s">
         <v>238</v>
       </c>
       <c r="C1" s="1"/>
@@ -10282,7 +10760,7 @@
       <c r="A2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="47" t="s">
         <v>236</v>
       </c>
       <c r="C2" s="1"/>
@@ -10295,7 +10773,7 @@
       <c r="A3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="48" t="s">
         <v>237</v>
       </c>
       <c r="C3" s="1"/>
@@ -10327,22 +10805,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="58"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -10371,7 +10849,7 @@
         <v>239</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="49" t="s">
         <v>241</v>
       </c>
       <c r="E9" s="10"/>
@@ -10386,7 +10864,7 @@
         <v>240</v>
       </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="49" t="s">
         <v>242</v>
       </c>
       <c r="E10" s="10"/>
@@ -10405,22 +10883,22 @@
       <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="52"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="58"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="7" t="s">
         <v>68</v>
       </c>
@@ -10462,7 +10940,7 @@
       <c r="C16" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="D16" s="62" t="s">
+      <c r="D16" s="49" t="s">
         <v>245</v>
       </c>
       <c r="E16" s="10"/>
@@ -10477,7 +10955,7 @@
       <c r="C17" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="49" t="s">
         <v>246</v>
       </c>
       <c r="E17" s="10"/>
@@ -10514,22 +10992,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="43"/>
       <c r="E21" s="43"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -10590,12 +11068,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10682,22 +11160,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="58"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -10734,10 +11212,10 @@
         <v>73</v>
       </c>
       <c r="E9" s="10"/>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="62" t="s">
         <v>78</v>
       </c>
     </row>
@@ -10751,8 +11229,8 @@
         <v>73</v>
       </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="57"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="63"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
@@ -10764,8 +11242,8 @@
         <v>73</v>
       </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="58"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="64"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
@@ -10829,22 +11307,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="52"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -10877,22 +11355,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -11041,22 +11519,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="58"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -11152,22 +11630,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="52"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -11202,22 +11680,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -11364,22 +11842,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="58"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -11475,22 +11953,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="52"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -11525,22 +12003,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -11687,22 +12165,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="58"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -11798,22 +12276,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="52"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -11848,22 +12326,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -12031,26 +12509,26 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="52"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="58"/>
       <c r="J7" s="37" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="33"/>
       <c r="E8" s="7" t="s">
         <v>68</v>
@@ -12254,26 +12732,26 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="52"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="58"/>
       <c r="J19" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="33"/>
       <c r="E20" s="7" t="s">
         <v>68</v>
@@ -12545,11 +13023,11 @@
       <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
       <c r="D37" s="32"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -12557,11 +13035,11 @@
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="48" t="s">
+      <c r="A38" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
       <c r="D38" s="33"/>
       <c r="E38" s="7" t="s">
         <v>68</v>
@@ -12720,20 +13198,20 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="52"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="58"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="49"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="7" t="s">
         <v>68</v>
       </c>
@@ -12932,20 +13410,20 @@
       <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="52"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="58"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="49"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="7" t="s">
         <v>68</v>
       </c>
@@ -12984,20 +13462,20 @@
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="51"/>
+      <c r="B27" s="57"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="49"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="7" t="s">
         <v>68</v>
       </c>
@@ -13148,20 +13626,20 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="52"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="58"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="49"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="7" t="s">
         <v>68</v>
       </c>
@@ -13382,20 +13860,20 @@
       <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="52"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="58"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="49"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="7" t="s">
         <v>68</v>
       </c>
@@ -13442,20 +13920,20 @@
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="51"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="49"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="7" t="s">
         <v>68</v>
       </c>

--- a/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
+++ b/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="9930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="9930" firstSheet="10" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="10" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="272">
   <si>
     <t>序号</t>
   </si>
@@ -1087,6 +1087,18 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberStatus</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>群成员状态，判断是否在当前群组：0不在，1在</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1461,6 +1473,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1506,7 +1519,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1814,8 +1826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1859,7 +1871,7 @@
       <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="23" t="s">
@@ -1879,7 +1891,7 @@
       <c r="A3" s="22">
         <v>2</v>
       </c>
-      <c r="B3" s="51"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="26" t="s">
         <v>12</v>
       </c>
@@ -1895,7 +1907,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="22"/>
-      <c r="B4" s="51"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="26" t="s">
         <v>15</v>
       </c>
@@ -1911,7 +1923,7 @@
       <c r="A5" s="22">
         <v>3</v>
       </c>
-      <c r="B5" s="51"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="26" t="s">
         <v>16</v>
       </c>
@@ -1929,7 +1941,7 @@
       <c r="A6" s="22">
         <v>4</v>
       </c>
-      <c r="B6" s="51"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="26" t="s">
         <v>18</v>
       </c>
@@ -1945,7 +1957,7 @@
       <c r="A7" s="22">
         <v>5</v>
       </c>
-      <c r="B7" s="51"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="26" t="s">
         <v>19</v>
       </c>
@@ -1961,7 +1973,7 @@
       <c r="A8" s="22">
         <v>6</v>
       </c>
-      <c r="B8" s="52"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="26" t="s">
         <v>20</v>
       </c>
@@ -1977,10 +1989,10 @@
       <c r="A9" s="22">
         <v>7</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="50" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="26" t="s">
@@ -1997,8 +2009,8 @@
       <c r="A10" s="22">
         <v>8</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="65" t="s">
+      <c r="B10" s="52"/>
+      <c r="C10" s="50" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="26" t="s">
@@ -2015,8 +2027,8 @@
       <c r="A11" s="22">
         <v>9</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="65" t="s">
+      <c r="B11" s="52"/>
+      <c r="C11" s="50" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="26" t="s">
@@ -2033,7 +2045,7 @@
       <c r="A12" s="22">
         <v>10</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="26" t="s">
         <v>28</v>
       </c>
@@ -2049,7 +2061,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="22"/>
-      <c r="B13" s="51"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="26" t="s">
         <v>30</v>
       </c>
@@ -2065,8 +2077,8 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="44"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="65" t="s">
+      <c r="B14" s="52"/>
+      <c r="C14" s="50" t="s">
         <v>251</v>
       </c>
       <c r="D14" s="26" t="s">
@@ -2081,7 +2093,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="22"/>
-      <c r="B15" s="51"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="26" t="s">
         <v>32</v>
       </c>
@@ -2099,7 +2111,7 @@
       <c r="A16" s="22">
         <v>11</v>
       </c>
-      <c r="B16" s="52"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="26" t="s">
         <v>34</v>
       </c>
@@ -2129,10 +2141,10 @@
       <c r="A18" s="22">
         <v>12</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="26" t="s">
@@ -2151,7 +2163,7 @@
       <c r="A19" s="22">
         <v>13</v>
       </c>
-      <c r="B19" s="51"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="26" t="s">
         <v>40</v>
       </c>
@@ -2169,7 +2181,7 @@
       <c r="A20" s="22">
         <v>14</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="26" t="s">
         <v>42</v>
       </c>
@@ -2189,7 +2201,7 @@
       <c r="A21" s="22">
         <v>15</v>
       </c>
-      <c r="B21" s="51"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="26" t="s">
         <v>45</v>
       </c>
@@ -2207,7 +2219,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="22"/>
-      <c r="B22" s="51"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="26" t="s">
         <v>48</v>
       </c>
@@ -2227,7 +2239,7 @@
       <c r="A23" s="22">
         <v>16</v>
       </c>
-      <c r="B23" s="51"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="26" t="s">
         <v>50</v>
       </c>
@@ -2245,7 +2257,7 @@
       <c r="A24" s="22">
         <v>17</v>
       </c>
-      <c r="B24" s="51"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="26" t="s">
         <v>52</v>
       </c>
@@ -2263,7 +2275,7 @@
       <c r="A25" s="22">
         <v>18</v>
       </c>
-      <c r="B25" s="52"/>
+      <c r="B25" s="53"/>
       <c r="C25" s="26" t="s">
         <v>54</v>
       </c>
@@ -2281,7 +2293,7 @@
       <c r="A26" s="22">
         <v>19</v>
       </c>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="54" t="s">
         <v>56</v>
       </c>
       <c r="C26" s="26" t="s">
@@ -2299,7 +2311,7 @@
       <c r="A27" s="22">
         <v>20</v>
       </c>
-      <c r="B27" s="52"/>
+      <c r="B27" s="53"/>
       <c r="C27" s="26" t="s">
         <v>58</v>
       </c>
@@ -2316,7 +2328,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="26"/>
-      <c r="C28" s="65" t="s">
+      <c r="C28" s="50" t="s">
         <v>234</v>
       </c>
       <c r="D28" s="46" t="s">
@@ -5355,20 +5367,20 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="59"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="55"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="7" t="s">
         <v>68</v>
       </c>
@@ -5457,20 +5469,20 @@
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="58"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="59"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="55"/>
+      <c r="B17" s="56"/>
       <c r="C17" s="7" t="s">
         <v>68</v>
       </c>
@@ -5549,20 +5561,20 @@
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="57"/>
+      <c r="B26" s="58"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="55"/>
+      <c r="B27" s="56"/>
       <c r="C27" s="7" t="s">
         <v>68</v>
       </c>
@@ -5713,20 +5725,20 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="59"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="55"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="7" t="s">
         <v>68</v>
       </c>
@@ -5859,20 +5871,20 @@
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="58"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="59"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="55"/>
+      <c r="B19" s="56"/>
       <c r="C19" s="7" t="s">
         <v>68</v>
       </c>
@@ -5951,20 +5963,20 @@
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="57"/>
+      <c r="B28" s="58"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="55"/>
+      <c r="B29" s="56"/>
       <c r="C29" s="7" t="s">
         <v>68</v>
       </c>
@@ -6116,20 +6128,20 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="59"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="55"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="7" t="s">
         <v>68</v>
       </c>
@@ -6262,20 +6274,20 @@
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="59"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="56"/>
       <c r="C20" s="7" t="s">
         <v>68</v>
       </c>
@@ -6354,20 +6366,20 @@
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="57"/>
+      <c r="B29" s="58"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="55"/>
+      <c r="B30" s="56"/>
       <c r="C30" s="7" t="s">
         <v>68</v>
       </c>
@@ -6511,22 +6523,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -6622,22 +6634,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -6672,22 +6684,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -6854,23 +6866,23 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="59"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="34"/>
       <c r="E8" s="7" t="s">
         <v>68</v>
@@ -6942,23 +6954,23 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="58"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="59"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
       <c r="D15" s="34"/>
       <c r="E15" s="7" t="s">
         <v>68</v>
@@ -7164,11 +7176,11 @@
       <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
       <c r="D30" s="35"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -7176,11 +7188,11 @@
       <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
       <c r="D31" s="34"/>
       <c r="E31" s="7" t="s">
         <v>68</v>
@@ -7351,23 +7363,23 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="59"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="34"/>
       <c r="E8" s="7" t="s">
         <v>68</v>
@@ -7427,23 +7439,23 @@
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="59"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="34"/>
       <c r="E14" s="7" t="s">
         <v>68</v>
@@ -7631,11 +7643,11 @@
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
       <c r="D28" s="35"/>
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
@@ -7643,11 +7655,11 @@
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
       <c r="D29" s="34"/>
       <c r="E29" s="7" t="s">
         <v>68</v>
@@ -7798,22 +7810,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -7909,22 +7921,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -7959,22 +7971,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -8121,22 +8133,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -8232,22 +8244,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -8282,22 +8294,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -8444,22 +8456,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -8555,22 +8567,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -8605,22 +8617,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -8767,22 +8779,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -8878,22 +8890,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -8928,22 +8940,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -9096,22 +9108,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -9148,10 +9160,10 @@
         <v>73</v>
       </c>
       <c r="E9" s="10"/>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="62" t="s">
+      <c r="G9" s="63" t="s">
         <v>78</v>
       </c>
     </row>
@@ -9165,8 +9177,8 @@
         <v>73</v>
       </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="63"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="64"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
@@ -9178,8 +9190,8 @@
         <v>73</v>
       </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="64"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="65"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
@@ -9243,22 +9255,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -9291,22 +9303,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -9386,8 +9398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9462,22 +9474,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -9549,22 +9561,22 @@
       <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="59"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="7" t="s">
         <v>68</v>
       </c>
@@ -9652,10 +9664,16 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="13"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
+      <c r="C20" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>270</v>
+      </c>
       <c r="E20" s="10"/>
-      <c r="F20" s="9"/>
+      <c r="F20" s="9" t="s">
+        <v>271</v>
+      </c>
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -9668,22 +9686,22 @@
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
       <c r="D22" s="45"/>
       <c r="E22" s="45"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
       <c r="D23" s="7" t="s">
         <v>68</v>
       </c>
@@ -9830,22 +9848,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -9941,22 +9959,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -9991,22 +10009,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -10153,22 +10171,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -10264,22 +10282,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -10314,22 +10332,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -10476,22 +10494,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -10587,22 +10605,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -10637,22 +10655,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -10729,9 +10747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -10805,22 +10821,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -10883,22 +10899,22 @@
       <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="7" t="s">
         <v>68</v>
       </c>
@@ -10992,22 +11008,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="43"/>
       <c r="E21" s="43"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -11160,22 +11176,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -11212,10 +11228,10 @@
         <v>73</v>
       </c>
       <c r="E9" s="10"/>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="62" t="s">
+      <c r="G9" s="63" t="s">
         <v>78</v>
       </c>
     </row>
@@ -11229,8 +11245,8 @@
         <v>73</v>
       </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="63"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="64"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
@@ -11242,8 +11258,8 @@
         <v>73</v>
       </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="64"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="65"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
@@ -11307,22 +11323,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -11355,22 +11371,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -11519,22 +11535,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -11630,22 +11646,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -11680,22 +11696,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -11842,22 +11858,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -11953,22 +11969,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -12003,22 +12019,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -12165,22 +12181,22 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
@@ -12276,22 +12292,22 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
@@ -12326,22 +12342,22 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="7" t="s">
         <v>68</v>
       </c>
@@ -12509,26 +12525,26 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="59"/>
       <c r="J7" s="37" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="33"/>
       <c r="E8" s="7" t="s">
         <v>68</v>
@@ -12732,26 +12748,26 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="59"/>
       <c r="J19" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="33"/>
       <c r="E20" s="7" t="s">
         <v>68</v>
@@ -13023,11 +13039,11 @@
       <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="56" t="s">
+      <c r="A37" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
       <c r="D37" s="32"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -13035,11 +13051,11 @@
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
       <c r="D38" s="33"/>
       <c r="E38" s="7" t="s">
         <v>68</v>
@@ -13198,20 +13214,20 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="59"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="55"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="7" t="s">
         <v>68</v>
       </c>
@@ -13410,20 +13426,20 @@
       <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="59"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="55"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="7" t="s">
         <v>68</v>
       </c>
@@ -13462,20 +13478,20 @@
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="57"/>
+      <c r="B27" s="58"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="55"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="7" t="s">
         <v>68</v>
       </c>
@@ -13626,20 +13642,20 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="59"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="55"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="7" t="s">
         <v>68</v>
       </c>
@@ -13860,20 +13876,20 @@
       <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="59"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="55"/>
+      <c r="B25" s="56"/>
       <c r="C25" s="7" t="s">
         <v>68</v>
       </c>
@@ -13920,20 +13936,20 @@
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="57"/>
+      <c r="B30" s="58"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="55"/>
+      <c r="B31" s="56"/>
       <c r="C31" s="7" t="s">
         <v>68</v>
       </c>

--- a/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
+++ b/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="277">
   <si>
     <t>序号</t>
   </si>
@@ -1086,19 +1086,39 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>memberStatus</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>int</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>memberStatus</t>
+    <t>群成员状态，判断是否在当前群组：0不在，1在</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
+    <t>findType</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>群成员状态，判断是否在当前群组：0不在，1在</t>
+    <t>用户ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询类型：1：群组id可为空，2：群组id不可为空</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -9399,7 +9419,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9519,10 +9539,12 @@
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="10" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="E9" s="10"/>
-      <c r="F9" s="13"/>
+      <c r="F9" s="13" t="s">
+        <v>272</v>
+      </c>
       <c r="G9" s="10" t="s">
         <v>267</v>
       </c>
@@ -9534,22 +9556,32 @@
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="10" t="s">
-        <v>171</v>
+        <v>275</v>
       </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="13"/>
+      <c r="F10" s="13" t="s">
+        <v>273</v>
+      </c>
       <c r="G10" s="10" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>271</v>
+      </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>275</v>
+      </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="10"/>
+      <c r="F11" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
@@ -9665,14 +9697,14 @@
       <c r="A20" s="13"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>269</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>270</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G20" s="10"/>
     </row>

--- a/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
+++ b/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" firstSheet="15" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="10" r:id="rId1"/>
@@ -1082,16 +1082,16 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>状态值</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>是</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>参与人选择接受或拒绝日程，之后反馈给发布人信息</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态值 1：接受 -1：拒绝</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1438,6 +1438,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1482,19 +1495,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1803,8 +1803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E26" activeCellId="1" sqref="E24 E26"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1848,7 +1848,7 @@
       <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="46" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="28" t="s">
@@ -1868,7 +1868,7 @@
       <c r="A3" s="27">
         <v>2</v>
       </c>
-      <c r="B3" s="42"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="32" t="s">
         <v>12</v>
       </c>
@@ -1884,7 +1884,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="27"/>
-      <c r="B4" s="42"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="32" t="s">
         <v>15</v>
       </c>
@@ -1900,7 +1900,7 @@
       <c r="A5" s="27">
         <v>3</v>
       </c>
-      <c r="B5" s="42"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="32" t="s">
         <v>16</v>
       </c>
@@ -1918,7 +1918,7 @@
       <c r="A6" s="27">
         <v>4</v>
       </c>
-      <c r="B6" s="42"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="32" t="s">
         <v>18</v>
       </c>
@@ -1934,7 +1934,7 @@
       <c r="A7" s="27">
         <v>5</v>
       </c>
-      <c r="B7" s="42"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="32" t="s">
         <v>19</v>
       </c>
@@ -1950,7 +1950,7 @@
       <c r="A8" s="27">
         <v>6</v>
       </c>
-      <c r="B8" s="43"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="32" t="s">
         <v>20</v>
       </c>
@@ -1966,7 +1966,7 @@
       <c r="A9" s="27">
         <v>7</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="49" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="33" t="s">
@@ -1986,7 +1986,7 @@
       <c r="A10" s="27">
         <v>8</v>
       </c>
-      <c r="B10" s="42"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="33" t="s">
         <v>24</v>
       </c>
@@ -2004,7 +2004,7 @@
       <c r="A11" s="27">
         <v>9</v>
       </c>
-      <c r="B11" s="42"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="33" t="s">
         <v>26</v>
       </c>
@@ -2022,7 +2022,7 @@
       <c r="A12" s="27">
         <v>10</v>
       </c>
-      <c r="B12" s="42"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="32" t="s">
         <v>28</v>
       </c>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="27"/>
-      <c r="B13" s="42"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="32" t="s">
         <v>30</v>
       </c>
@@ -2054,7 +2054,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="27"/>
-      <c r="B14" s="42"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="33" t="s">
         <v>32</v>
       </c>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="27"/>
-      <c r="B15" s="42"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="32" t="s">
         <v>34</v>
       </c>
@@ -2088,7 +2088,7 @@
       <c r="A16" s="27">
         <v>11</v>
       </c>
-      <c r="B16" s="43"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="32" t="s">
         <v>36</v>
       </c>
@@ -2118,7 +2118,7 @@
       <c r="A18" s="27">
         <v>12</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="49" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="33" t="s">
@@ -2138,7 +2138,7 @@
       <c r="A19" s="27">
         <v>13</v>
       </c>
-      <c r="B19" s="42"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="32" t="s">
         <v>42</v>
       </c>
@@ -2156,7 +2156,7 @@
       <c r="A20" s="27">
         <v>14</v>
       </c>
-      <c r="B20" s="42"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="32" t="s">
         <v>44</v>
       </c>
@@ -2174,7 +2174,7 @@
       <c r="A21" s="27">
         <v>15</v>
       </c>
-      <c r="B21" s="42"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="32" t="s">
         <v>47</v>
       </c>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="27"/>
-      <c r="B22" s="42"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="32" t="s">
         <v>49</v>
       </c>
@@ -2208,7 +2208,7 @@
       <c r="A23" s="27">
         <v>16</v>
       </c>
-      <c r="B23" s="42"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="32" t="s">
         <v>51</v>
       </c>
@@ -2226,7 +2226,7 @@
       <c r="A24" s="27">
         <v>17</v>
       </c>
-      <c r="B24" s="42"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="32" t="s">
         <v>53</v>
       </c>
@@ -2242,12 +2242,12 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="39"/>
-      <c r="B25" s="42"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="D25" s="57" t="s">
-        <v>264</v>
+      <c r="D25" s="42" t="s">
+        <v>263</v>
       </c>
       <c r="E25" s="28"/>
       <c r="F25" s="29"/>
@@ -2258,7 +2258,7 @@
       <c r="A26" s="27">
         <v>18</v>
       </c>
-      <c r="B26" s="43"/>
+      <c r="B26" s="48"/>
       <c r="C26" s="32" t="s">
         <v>55</v>
       </c>
@@ -2276,7 +2276,7 @@
       <c r="A27" s="27">
         <v>19</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="49" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="32" t="s">
@@ -2294,7 +2294,7 @@
       <c r="A28" s="27">
         <v>20</v>
       </c>
-      <c r="B28" s="43"/>
+      <c r="B28" s="48"/>
       <c r="C28" s="32" t="s">
         <v>59</v>
       </c>
@@ -5351,20 +5351,20 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="60"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="46"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="10" t="s">
         <v>71</v>
       </c>
@@ -5453,20 +5453,20 @@
       <c r="F15" s="21"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="55"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="60"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="46"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="10" t="s">
         <v>71</v>
       </c>
@@ -5545,20 +5545,20 @@
       <c r="F25" s="14"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="54"/>
+      <c r="B26" s="59"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="46"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="10" t="s">
         <v>71</v>
       </c>
@@ -5680,7 +5680,7 @@
       <c r="A4" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="43" t="s">
         <v>253</v>
       </c>
       <c r="C4" s="4"/>
@@ -5709,20 +5709,20 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="60"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="46"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="10" t="s">
         <v>71</v>
       </c>
@@ -5855,20 +5855,20 @@
       <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="55"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="60"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="46"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="10" t="s">
         <v>71</v>
       </c>
@@ -5947,20 +5947,20 @@
       <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="54"/>
+      <c r="B28" s="59"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="46"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="10" t="s">
         <v>71</v>
       </c>
@@ -6112,20 +6112,20 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="60"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="46"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="10" t="s">
         <v>71</v>
       </c>
@@ -6258,20 +6258,20 @@
       <c r="F18" s="21"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="55"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="60"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="46"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="10" t="s">
         <v>71</v>
       </c>
@@ -6350,20 +6350,20 @@
       <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="54"/>
+      <c r="B29" s="59"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B30" s="46"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="10" t="s">
         <v>71</v>
       </c>
@@ -6439,7 +6439,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6456,7 +6456,7 @@
       <c r="A1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="41" t="s">
         <v>252</v>
       </c>
       <c r="C1" s="4"/>
@@ -6482,7 +6482,7 @@
       <c r="A3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="43" t="s">
         <v>254</v>
       </c>
       <c r="C3" s="4"/>
@@ -6514,22 +6514,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="10" t="s">
         <v>71</v>
       </c>
@@ -6554,53 +6554,53 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="44" t="s">
         <v>255</v>
       </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="45" t="s">
         <v>256</v>
       </c>
       <c r="E9" s="13"/>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="44" t="s">
         <v>258</v>
       </c>
-      <c r="G9" s="60" t="s">
-        <v>263</v>
+      <c r="G9" s="45" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="44" t="s">
         <v>257</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="45" t="s">
         <v>256</v>
       </c>
       <c r="E10" s="13"/>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="44" t="s">
         <v>259</v>
       </c>
-      <c r="G10" s="60" t="s">
-        <v>263</v>
+      <c r="G10" s="45" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="44" t="s">
         <v>260</v>
       </c>
       <c r="C11" s="12"/>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="45" t="s">
         <v>261</v>
       </c>
       <c r="E11" s="13"/>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="G11" s="45" t="s">
         <v>262</v>
-      </c>
-      <c r="G11" s="60" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -6649,22 +6649,22 @@
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="10" t="s">
         <v>71</v>
       </c>
@@ -6699,22 +6699,22 @@
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="10" t="s">
         <v>71</v>
       </c>
@@ -6775,15 +6775,16 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6861,22 +6862,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="10" t="s">
         <v>71</v>
       </c>
@@ -6972,22 +6973,22 @@
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="10" t="s">
         <v>71</v>
       </c>
@@ -7022,22 +7023,22 @@
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="10" t="s">
         <v>71</v>
       </c>
@@ -7204,23 +7205,23 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="55"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="60"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10" t="s">
         <v>71</v>
@@ -7292,23 +7293,23 @@
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="55"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="60"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="9"/>
       <c r="E15" s="10" t="s">
         <v>71</v>
@@ -7514,11 +7515,11 @@
       <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
       <c r="D30" s="8"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -7526,11 +7527,11 @@
       <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
       <c r="D31" s="9"/>
       <c r="E31" s="10" t="s">
         <v>71</v>
@@ -7701,23 +7702,23 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="55"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="60"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10" t="s">
         <v>71</v>
@@ -7777,23 +7778,23 @@
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="55"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="60"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10" t="s">
         <v>71</v>
@@ -7981,11 +7982,11 @@
       <c r="H27" s="14"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
       <c r="D28" s="8"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
@@ -7993,11 +7994,11 @@
       <c r="H28" s="10"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
       <c r="D29" s="9"/>
       <c r="E29" s="10" t="s">
         <v>71</v>
@@ -8148,22 +8149,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="10" t="s">
         <v>71</v>
       </c>
@@ -8259,22 +8260,22 @@
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="10" t="s">
         <v>71</v>
       </c>
@@ -8309,22 +8310,22 @@
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="10" t="s">
         <v>71</v>
       </c>
@@ -8471,22 +8472,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="10" t="s">
         <v>71</v>
       </c>
@@ -8582,22 +8583,22 @@
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="10" t="s">
         <v>71</v>
       </c>
@@ -8632,22 +8633,22 @@
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="10" t="s">
         <v>71</v>
       </c>
@@ -8794,22 +8795,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="10" t="s">
         <v>71</v>
       </c>
@@ -8905,22 +8906,22 @@
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="10" t="s">
         <v>71</v>
       </c>
@@ -8955,22 +8956,22 @@
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="10" t="s">
         <v>71</v>
       </c>
@@ -9123,22 +9124,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="10" t="s">
         <v>71</v>
       </c>
@@ -9175,10 +9176,10 @@
         <v>76</v>
       </c>
       <c r="E9" s="13"/>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="55" t="s">
         <v>78</v>
       </c>
     </row>
@@ -9192,8 +9193,8 @@
         <v>76</v>
       </c>
       <c r="E10" s="13"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="51"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="56"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
@@ -9205,8 +9206,8 @@
         <v>76</v>
       </c>
       <c r="E11" s="13"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="52"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="57"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
@@ -9270,22 +9271,22 @@
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="10" t="s">
         <v>71</v>
       </c>
@@ -9318,22 +9319,22 @@
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="10" t="s">
         <v>71</v>
       </c>
@@ -9483,22 +9484,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="10" t="s">
         <v>71</v>
       </c>
@@ -9594,22 +9595,22 @@
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="10" t="s">
         <v>71</v>
       </c>
@@ -9644,22 +9645,22 @@
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="10" t="s">
         <v>71</v>
       </c>
@@ -9812,22 +9813,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="10" t="s">
         <v>71</v>
       </c>
@@ -9911,22 +9912,22 @@
       <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="55"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="10" t="s">
         <v>71</v>
       </c>
@@ -10036,22 +10037,22 @@
       <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="10" t="s">
         <v>71</v>
       </c>
@@ -10204,22 +10205,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="10" t="s">
         <v>71</v>
       </c>
@@ -10389,22 +10390,22 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="10" t="s">
         <v>71</v>
       </c>
@@ -10439,22 +10440,22 @@
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="10" t="s">
         <v>71</v>
       </c>
@@ -10607,22 +10608,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="10" t="s">
         <v>71</v>
       </c>
@@ -10716,22 +10717,22 @@
       <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="55"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="10" t="s">
         <v>71</v>
       </c>
@@ -10766,22 +10767,22 @@
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="10" t="s">
         <v>71</v>
       </c>
@@ -10858,7 +10859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -10934,22 +10935,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="10" t="s">
         <v>71</v>
       </c>
@@ -11024,22 +11025,22 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="55"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="10" t="s">
         <v>71</v>
       </c>
@@ -11119,22 +11120,22 @@
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="10" t="s">
         <v>71</v>
       </c>
@@ -11287,22 +11288,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="10" t="s">
         <v>71</v>
       </c>
@@ -11414,22 +11415,22 @@
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="10" t="s">
         <v>71</v>
       </c>
@@ -11464,22 +11465,22 @@
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="10" t="s">
         <v>71</v>
       </c>
@@ -11630,22 +11631,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="10" t="s">
         <v>71</v>
       </c>
@@ -11708,22 +11709,22 @@
       <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="55"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="10" t="s">
         <v>71</v>
       </c>
@@ -11817,22 +11818,22 @@
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="10" t="s">
         <v>71</v>
       </c>
@@ -11979,22 +11980,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="10" t="s">
         <v>71</v>
       </c>
@@ -12090,22 +12091,22 @@
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="10" t="s">
         <v>71</v>
       </c>
@@ -12194,22 +12195,22 @@
       <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
       <c r="D28" s="10" t="s">
         <v>71</v>
       </c>
@@ -12356,22 +12357,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="10" t="s">
         <v>71</v>
       </c>
@@ -12467,22 +12468,22 @@
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="10" t="s">
         <v>71</v>
       </c>
@@ -12517,22 +12518,22 @@
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="10" t="s">
         <v>71</v>
       </c>
@@ -12685,22 +12686,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="10" t="s">
         <v>71</v>
       </c>
@@ -12843,22 +12844,22 @@
       <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="55"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="60"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="10" t="s">
         <v>71</v>
       </c>
@@ -12911,22 +12912,22 @@
       <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="10" t="s">
         <v>71</v>
       </c>
@@ -13080,22 +13081,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="10" t="s">
         <v>71</v>
       </c>
@@ -13132,10 +13133,10 @@
         <v>76</v>
       </c>
       <c r="E9" s="13"/>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="55" t="s">
         <v>78</v>
       </c>
     </row>
@@ -13149,8 +13150,8 @@
         <v>76</v>
       </c>
       <c r="E10" s="13"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="51"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="56"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
@@ -13162,8 +13163,8 @@
         <v>76</v>
       </c>
       <c r="E11" s="13"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="52"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="57"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
@@ -13227,22 +13228,22 @@
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="10" t="s">
         <v>71</v>
       </c>
@@ -13275,22 +13276,22 @@
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="10" t="s">
         <v>71</v>
       </c>
@@ -13439,22 +13440,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="10" t="s">
         <v>71</v>
       </c>
@@ -13550,22 +13551,22 @@
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="10" t="s">
         <v>71</v>
       </c>
@@ -13600,22 +13601,22 @@
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="10" t="s">
         <v>71</v>
       </c>
@@ -13762,22 +13763,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="10" t="s">
         <v>71</v>
       </c>
@@ -13873,22 +13874,22 @@
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="10" t="s">
         <v>71</v>
       </c>
@@ -13923,22 +13924,22 @@
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="10" t="s">
         <v>71</v>
       </c>
@@ -14085,22 +14086,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="10" t="s">
         <v>71</v>
       </c>
@@ -14196,22 +14197,22 @@
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="10" t="s">
         <v>71</v>
       </c>
@@ -14246,22 +14247,22 @@
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="10" t="s">
         <v>71</v>
       </c>
@@ -14429,26 +14430,26 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="55"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="60"/>
       <c r="J7" s="14" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10" t="s">
         <v>71</v>
@@ -14660,26 +14661,26 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="55"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="60"/>
       <c r="J19" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="9"/>
       <c r="E20" s="10" t="s">
         <v>71</v>
@@ -14951,11 +14952,11 @@
       <c r="H36" s="14"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="53" t="s">
+      <c r="A37" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
       <c r="D37" s="8"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
@@ -14963,11 +14964,11 @@
       <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="46"/>
-      <c r="C38" s="46"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
       <c r="D38" s="9"/>
       <c r="E38" s="10" t="s">
         <v>71</v>
@@ -15126,20 +15127,20 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="60"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="46"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="10" t="s">
         <v>71</v>
       </c>
@@ -15338,20 +15339,20 @@
       <c r="F21" s="21"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="55"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="60"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="46"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="10" t="s">
         <v>71</v>
       </c>
@@ -15390,20 +15391,20 @@
       <c r="F26" s="14"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="54"/>
+      <c r="B27" s="59"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="46"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="10" t="s">
         <v>71</v>
       </c>
@@ -15554,20 +15555,20 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="60"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="46"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="10" t="s">
         <v>71</v>
       </c>
@@ -15788,20 +15789,20 @@
       <c r="F23" s="21"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="55"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="60"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="46"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="10" t="s">
         <v>71</v>
       </c>
@@ -15848,20 +15849,20 @@
       <c r="F29" s="14"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="54"/>
+      <c r="B30" s="59"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="46"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="10" t="s">
         <v>71</v>
       </c>

--- a/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
+++ b/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" firstSheet="8" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="10" r:id="rId1"/>
@@ -28,29 +28,30 @@
     <sheet name="日程状态修改" sheetId="14" r:id="rId14"/>
     <sheet name="日程接受拒绝" sheetId="34" r:id="rId15"/>
     <sheet name="提醒时间设置" sheetId="26" r:id="rId16"/>
-    <sheet name="参与人列表查询" sheetId="6" r:id="rId17"/>
-    <sheet name="参与人详情查询" sheetId="15" r:id="rId18"/>
-    <sheet name="参与人创建" sheetId="19" r:id="rId19"/>
-    <sheet name="参与人编辑" sheetId="20" r:id="rId20"/>
-    <sheet name="参与人删除" sheetId="21" r:id="rId21"/>
-    <sheet name="参与人退出" sheetId="22" r:id="rId22"/>
-    <sheet name="群成员查询" sheetId="29" r:id="rId23"/>
-    <sheet name="群组编辑" sheetId="23" r:id="rId24"/>
-    <sheet name="群成员退出" sheetId="24" r:id="rId25"/>
-    <sheet name="修改群成员状态" sheetId="33" r:id="rId26"/>
-    <sheet name="根据条件查询参与人" sheetId="35" r:id="rId27"/>
-    <sheet name="群组删除" sheetId="25" r:id="rId28"/>
-    <sheet name="标签查询" sheetId="28" r:id="rId29"/>
-    <sheet name="群组邀请确认" sheetId="30" r:id="rId30"/>
-    <sheet name="日程邀请确认" sheetId="31" r:id="rId31"/>
-    <sheet name="新消息推送" sheetId="32" r:id="rId32"/>
+    <sheet name="日程更改提醒时间更改" sheetId="39" r:id="rId17"/>
+    <sheet name="参与人列表查询" sheetId="6" r:id="rId18"/>
+    <sheet name="参与人详情查询" sheetId="15" r:id="rId19"/>
+    <sheet name="参与人创建" sheetId="19" r:id="rId20"/>
+    <sheet name="参与人编辑" sheetId="20" r:id="rId21"/>
+    <sheet name="参与人删除" sheetId="21" r:id="rId22"/>
+    <sheet name="参与人退出" sheetId="22" r:id="rId23"/>
+    <sheet name="群成员查询" sheetId="29" r:id="rId24"/>
+    <sheet name="群组编辑" sheetId="23" r:id="rId25"/>
+    <sheet name="群成员退出" sheetId="24" r:id="rId26"/>
+    <sheet name="修改群成员状态" sheetId="33" r:id="rId27"/>
+    <sheet name="根据条件查询参与人" sheetId="35" r:id="rId28"/>
+    <sheet name="群组删除" sheetId="25" r:id="rId29"/>
+    <sheet name="标签查询" sheetId="28" r:id="rId30"/>
+    <sheet name="群组邀请确认" sheetId="30" r:id="rId31"/>
+    <sheet name="日程邀请确认" sheetId="31" r:id="rId32"/>
+    <sheet name="新消息推送" sheetId="32" r:id="rId33"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="345">
   <si>
     <t>序号</t>
   </si>
@@ -1261,10 +1262,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>playersId</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>String</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1286,23 +1283,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>参与人表I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>userId</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1595,6 +1575,38 @@
   <si>
     <t>是</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程变更提醒时间修改确认</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>scheduleId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>remindType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒类型：2为用户自定义</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程更改提醒时间更改</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>/schedule/update_remind</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1843,7 +1855,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2068,6 +2080,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2152,7 +2168,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2462,14 +2477,14 @@
   <dimension ref="A1:H319"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" style="24" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="93.375" customWidth="1"/>
     <col min="6" max="6" width="12.375" style="25" customWidth="1"/>
     <col min="7" max="7" width="8.875" customWidth="1"/>
@@ -2506,10 +2521,10 @@
       <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="81" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="28" t="s">
@@ -2526,7 +2541,7 @@
       <c r="A3" s="27">
         <v>2</v>
       </c>
-      <c r="B3" s="81"/>
+      <c r="B3" s="83"/>
       <c r="C3" s="33" t="s">
         <v>12</v>
       </c>
@@ -2542,7 +2557,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="27"/>
-      <c r="B4" s="81"/>
+      <c r="B4" s="83"/>
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -2558,7 +2573,7 @@
       <c r="A5" s="27">
         <v>3</v>
       </c>
-      <c r="B5" s="81"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="32" t="s">
         <v>16</v>
       </c>
@@ -2576,7 +2591,7 @@
       <c r="A6" s="27">
         <v>4</v>
       </c>
-      <c r="B6" s="81"/>
+      <c r="B6" s="83"/>
       <c r="C6" s="32" t="s">
         <v>18</v>
       </c>
@@ -2592,7 +2607,7 @@
       <c r="A7" s="27">
         <v>5</v>
       </c>
-      <c r="B7" s="81"/>
+      <c r="B7" s="83"/>
       <c r="C7" s="33" t="s">
         <v>19</v>
       </c>
@@ -2606,7 +2621,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="48"/>
-      <c r="B8" s="81"/>
+      <c r="B8" s="83"/>
       <c r="C8" s="33" t="s">
         <v>286</v>
       </c>
@@ -2620,7 +2635,7 @@
       <c r="A9" s="27">
         <v>6</v>
       </c>
-      <c r="B9" s="82"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="33" t="s">
         <v>20</v>
       </c>
@@ -2636,7 +2651,7 @@
       <c r="A10" s="27">
         <v>7</v>
       </c>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="85" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="33" t="s">
@@ -2656,7 +2671,7 @@
       <c r="A11" s="27">
         <v>8</v>
       </c>
-      <c r="B11" s="81"/>
+      <c r="B11" s="83"/>
       <c r="C11" s="33" t="s">
         <v>279</v>
       </c>
@@ -2674,7 +2689,7 @@
       <c r="A12" s="27">
         <v>9</v>
       </c>
-      <c r="B12" s="81"/>
+      <c r="B12" s="83"/>
       <c r="C12" s="33" t="s">
         <v>278</v>
       </c>
@@ -2692,7 +2707,7 @@
       <c r="A13" s="27">
         <v>10</v>
       </c>
-      <c r="B13" s="81"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="33" t="s">
         <v>277</v>
       </c>
@@ -2708,7 +2723,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="27"/>
-      <c r="B14" s="81"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="33" t="s">
         <v>281</v>
       </c>
@@ -2724,7 +2739,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="27"/>
-      <c r="B15" s="81"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="33" t="s">
         <v>282</v>
       </c>
@@ -2742,7 +2757,7 @@
       <c r="A16" s="27">
         <v>11</v>
       </c>
-      <c r="B16" s="82"/>
+      <c r="B16" s="84"/>
       <c r="C16" s="32" t="s">
         <v>31</v>
       </c>
@@ -2772,7 +2787,7 @@
       <c r="A18" s="27">
         <v>12</v>
       </c>
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="85" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="33" t="s">
@@ -2792,7 +2807,7 @@
       <c r="A19" s="27">
         <v>13</v>
       </c>
-      <c r="B19" s="81"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="32" t="s">
         <v>37</v>
       </c>
@@ -2810,7 +2825,7 @@
       <c r="A20" s="27">
         <v>14</v>
       </c>
-      <c r="B20" s="81"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="32" t="s">
         <v>39</v>
       </c>
@@ -2828,7 +2843,7 @@
       <c r="A21" s="27">
         <v>15</v>
       </c>
-      <c r="B21" s="81"/>
+      <c r="B21" s="83"/>
       <c r="C21" s="32" t="s">
         <v>42</v>
       </c>
@@ -2844,7 +2859,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="27"/>
-      <c r="B22" s="81"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="32" t="s">
         <v>44</v>
       </c>
@@ -2862,7 +2877,7 @@
       <c r="A23" s="27">
         <v>16</v>
       </c>
-      <c r="B23" s="81"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="32" t="s">
         <v>46</v>
       </c>
@@ -2880,7 +2895,7 @@
       <c r="A24" s="27">
         <v>17</v>
       </c>
-      <c r="B24" s="81"/>
+      <c r="B24" s="83"/>
       <c r="C24" s="32" t="s">
         <v>48</v>
       </c>
@@ -2896,7 +2911,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="39"/>
-      <c r="B25" s="81"/>
+      <c r="B25" s="83"/>
       <c r="C25" s="33" t="s">
         <v>244</v>
       </c>
@@ -2912,7 +2927,7 @@
       <c r="A26" s="27">
         <v>18</v>
       </c>
-      <c r="B26" s="82"/>
+      <c r="B26" s="84"/>
       <c r="C26" s="33" t="s">
         <v>50</v>
       </c>
@@ -2930,7 +2945,7 @@
       <c r="A27" s="27">
         <v>19</v>
       </c>
-      <c r="B27" s="83" t="s">
+      <c r="B27" s="85" t="s">
         <v>52</v>
       </c>
       <c r="C27" s="32" t="s">
@@ -2948,7 +2963,7 @@
       <c r="A28" s="27">
         <v>20</v>
       </c>
-      <c r="B28" s="82"/>
+      <c r="B28" s="84"/>
       <c r="C28" s="32" t="s">
         <v>54</v>
       </c>
@@ -3025,7 +3040,9 @@
         <v>25</v>
       </c>
       <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
+      <c r="C33" s="33" t="s">
+        <v>337</v>
+      </c>
       <c r="D33" s="20"/>
       <c r="E33" s="20"/>
       <c r="F33" s="37"/>
@@ -5935,6 +5952,7 @@
     <hyperlink ref="C31" location="日程邀请确认!A1" display="日程邀请确认"/>
     <hyperlink ref="C32" location="新消息推送!A1" display="新消息推送"/>
     <hyperlink ref="C26" location="提醒时间设置!A1" display="提醒时间设置"/>
+    <hyperlink ref="C33" location="日程更改提醒时间更改!A1" display="日程变更提醒时间修改确认"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6022,20 +6040,20 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="94"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="96"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="85"/>
+      <c r="B8" s="87"/>
       <c r="C8" s="10" t="s">
         <v>66</v>
       </c>
@@ -6234,20 +6252,20 @@
       <c r="F21" s="21"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="92" t="s">
+      <c r="A22" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="93"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="94"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="96"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="84" t="s">
+      <c r="A23" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="85"/>
+      <c r="B23" s="87"/>
       <c r="C23" s="10" t="s">
         <v>66</v>
       </c>
@@ -6286,20 +6304,20 @@
       <c r="F26" s="14"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="92" t="s">
+      <c r="A27" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="93"/>
+      <c r="B27" s="95"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="84" t="s">
+      <c r="A28" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="85"/>
+      <c r="B28" s="87"/>
       <c r="C28" s="10" t="s">
         <v>66</v>
       </c>
@@ -6374,7 +6392,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B14" sqref="B14:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6450,20 +6468,20 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="94"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="96"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="85"/>
+      <c r="B8" s="87"/>
       <c r="C8" s="10" t="s">
         <v>66</v>
       </c>
@@ -6684,20 +6702,20 @@
       <c r="F23" s="21"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="92" t="s">
+      <c r="A24" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="93"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="94"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="96"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="85"/>
+      <c r="B25" s="87"/>
       <c r="C25" s="10" t="s">
         <v>66</v>
       </c>
@@ -6744,20 +6762,20 @@
       <c r="F29" s="14"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="92" t="s">
+      <c r="A30" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="93"/>
+      <c r="B30" s="95"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="84" t="s">
+      <c r="A31" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="85"/>
+      <c r="B31" s="87"/>
       <c r="C31" s="10" t="s">
         <v>66</v>
       </c>
@@ -6908,20 +6926,20 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="94"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="96"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="85"/>
+      <c r="B8" s="87"/>
       <c r="C8" s="10" t="s">
         <v>66</v>
       </c>
@@ -7010,20 +7028,20 @@
       <c r="F15" s="21"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="92" t="s">
+      <c r="A16" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="93"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="94"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="96"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="84" t="s">
+      <c r="A17" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="85"/>
+      <c r="B17" s="87"/>
       <c r="C17" s="10" t="s">
         <v>66</v>
       </c>
@@ -7102,20 +7120,20 @@
       <c r="F25" s="14"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="92" t="s">
+      <c r="A26" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="93"/>
+      <c r="B26" s="95"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="84" t="s">
+      <c r="A27" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="85"/>
+      <c r="B27" s="87"/>
       <c r="C27" s="10" t="s">
         <v>66</v>
       </c>
@@ -7266,20 +7284,20 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="94"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="96"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="85"/>
+      <c r="B8" s="87"/>
       <c r="C8" s="10" t="s">
         <v>66</v>
       </c>
@@ -7412,20 +7430,20 @@
       <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="92" t="s">
+      <c r="A18" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="94"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="96"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="84" t="s">
+      <c r="A19" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="85"/>
+      <c r="B19" s="87"/>
       <c r="C19" s="10" t="s">
         <v>66</v>
       </c>
@@ -7504,20 +7522,20 @@
       <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="93"/>
+      <c r="B28" s="95"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="84" t="s">
+      <c r="A29" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="85"/>
+      <c r="B29" s="87"/>
       <c r="C29" s="10" t="s">
         <v>66</v>
       </c>
@@ -7669,20 +7687,20 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="94"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="96"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="85"/>
+      <c r="B8" s="87"/>
       <c r="C8" s="10" t="s">
         <v>66</v>
       </c>
@@ -7815,20 +7833,20 @@
       <c r="F18" s="21"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="92" t="s">
+      <c r="A19" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="94"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="96"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="84" t="s">
+      <c r="A20" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="85"/>
+      <c r="B20" s="87"/>
       <c r="C20" s="10" t="s">
         <v>66</v>
       </c>
@@ -7907,20 +7925,20 @@
       <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="92" t="s">
+      <c r="A29" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="93"/>
+      <c r="B29" s="95"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="84" t="s">
+      <c r="A30" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="85"/>
+      <c r="B30" s="87"/>
       <c r="C30" s="10" t="s">
         <v>66</v>
       </c>
@@ -7996,7 +8014,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F29" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8071,22 +8089,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="10" t="s">
         <v>66</v>
       </c>
@@ -8206,22 +8224,22 @@
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="94"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="96"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="10" t="s">
         <v>66</v>
       </c>
@@ -8256,22 +8274,22 @@
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="84" t="s">
+      <c r="A22" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="10" t="s">
         <v>66</v>
       </c>
@@ -8349,8 +8367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8425,22 +8443,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="10" t="s">
         <v>66</v>
       </c>
@@ -8476,7 +8494,9 @@
       <c r="F9" s="44" t="s">
         <v>292</v>
       </c>
-      <c r="G9" s="12"/>
+      <c r="G9" s="44" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
@@ -8485,18 +8505,20 @@
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="45" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="44" t="s">
-        <v>296</v>
-      </c>
-      <c r="G10" s="12"/>
+        <v>295</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
       <c r="B11" s="44" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="45" t="s">
@@ -8504,18 +8526,28 @@
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="44" t="s">
-        <v>297</v>
-      </c>
-      <c r="G11" s="12"/>
+        <v>339</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
+      <c r="B12" s="44" t="s">
+        <v>340</v>
+      </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
+      <c r="D12" s="45" t="s">
+        <v>291</v>
+      </c>
       <c r="E12" s="13"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="F12" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
@@ -8554,22 +8586,22 @@
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="94"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="96"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="10" t="s">
         <v>66</v>
       </c>
@@ -8631,22 +8663,22 @@
       <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="92" t="s">
+      <c r="A24" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="93"/>
-      <c r="C24" s="93"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="85"/>
-      <c r="C25" s="85"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
       <c r="D25" s="10" t="s">
         <v>66</v>
       </c>
@@ -8720,6 +8752,365 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.125" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>343</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="12"/>
+      <c r="B9" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="12"/>
+      <c r="B10" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="12"/>
+      <c r="B11" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="12"/>
+      <c r="B12" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="96"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
@@ -8813,23 +9204,23 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="94"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="96"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
       <c r="D8" s="46"/>
       <c r="E8" s="10" t="s">
         <v>66</v>
@@ -8905,23 +9296,23 @@
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="92" t="s">
+      <c r="A14" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="94"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="96"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
       <c r="D15" s="46"/>
       <c r="E15" s="10" t="s">
         <v>66</v>
@@ -9149,11 +9540,11 @@
       <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="92" t="s">
+      <c r="A30" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="93"/>
-      <c r="C30" s="93"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="95"/>
       <c r="D30" s="47"/>
       <c r="E30" s="46"/>
       <c r="F30" s="46"/>
@@ -9161,11 +9552,11 @@
       <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="84" t="s">
+      <c r="A31" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="85"/>
-      <c r="C31" s="85"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="87"/>
       <c r="D31" s="46"/>
       <c r="E31" s="10" t="s">
         <v>66</v>
@@ -9242,7 +9633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
@@ -9336,23 +9727,23 @@
       <c r="H6" s="41"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="99"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="101"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
       <c r="D8" s="53"/>
       <c r="E8" s="54" t="s">
         <v>66</v>
@@ -9416,23 +9807,23 @@
       <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="97" t="s">
+      <c r="A13" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="99"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="101"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="96"/>
-      <c r="C14" s="96"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54" t="s">
         <v>66</v>
@@ -9638,11 +10029,11 @@
       <c r="H27" s="56"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="97" t="s">
+      <c r="A28" s="99" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="98"/>
-      <c r="C28" s="98"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="100"/>
       <c r="D28" s="57"/>
       <c r="E28" s="53"/>
       <c r="F28" s="53"/>
@@ -9650,11 +10041,11 @@
       <c r="H28" s="54"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="96"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="98"/>
       <c r="D29" s="53"/>
       <c r="E29" s="54" t="s">
         <v>66</v>
@@ -9725,410 +10116,6 @@
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A28:C28"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="16.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.125" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>266</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="60"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="60"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="60"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="60"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="60"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="97" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="99"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="95" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="56"/>
-      <c r="B8" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="56"/>
-      <c r="B9" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="56" t="s">
-        <v>209</v>
-      </c>
-      <c r="G9" s="45" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="56"/>
-      <c r="B10" s="56" t="s">
-        <v>210</v>
-      </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="56" t="s">
-        <v>211</v>
-      </c>
-      <c r="G10" s="45" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="56"/>
-      <c r="B11" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="E11" s="45"/>
-      <c r="F11" s="56" t="s">
-        <v>212</v>
-      </c>
-      <c r="G11" s="45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="56"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="22"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="56"/>
-      <c r="B13" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="56"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="61" t="s">
-        <v>214</v>
-      </c>
-      <c r="G14" s="45" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="56"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="D15" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="G15" s="45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="56"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56" t="s">
-        <v>217</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="56" t="s">
-        <v>205</v>
-      </c>
-      <c r="G16" s="45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="56"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56" t="s">
-        <v>206</v>
-      </c>
-      <c r="D17" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="56" t="s">
-        <v>218</v>
-      </c>
-      <c r="G17" s="45" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="97" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="99"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="95" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="96"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="45"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="45"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="98"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="95" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="96"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="58"/>
-      <c r="B24" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="G24" s="45"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="58"/>
-      <c r="B25" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="G25" s="45"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="58"/>
-      <c r="B26" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="G26" s="45"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:C7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10215,22 +10202,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="10" t="s">
         <v>66</v>
       </c>
@@ -10267,10 +10254,10 @@
         <v>71</v>
       </c>
       <c r="E9" s="13"/>
-      <c r="F9" s="86" t="s">
+      <c r="F9" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="89" t="s">
+      <c r="G9" s="91" t="s">
         <v>73</v>
       </c>
     </row>
@@ -10284,8 +10271,8 @@
         <v>71</v>
       </c>
       <c r="E10" s="13"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="90"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="92"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
@@ -10297,8 +10284,8 @@
         <v>71</v>
       </c>
       <c r="E11" s="13"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="91"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="93"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
@@ -10362,22 +10349,22 @@
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="94"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="96"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="10" t="s">
         <v>66</v>
       </c>
@@ -10410,22 +10397,22 @@
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="84" t="s">
+      <c r="A22" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="10" t="s">
         <v>66</v>
       </c>
@@ -10502,6 +10489,410 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.125" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="60"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="60"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="60"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="60"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="60"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="99" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="101"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="97" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="98"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="56"/>
+      <c r="B8" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="56"/>
+      <c r="D8" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="E8" s="45"/>
+      <c r="F8" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="56"/>
+      <c r="B9" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="45"/>
+      <c r="F9" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="56"/>
+      <c r="B10" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" s="56"/>
+      <c r="D10" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="45"/>
+      <c r="F10" s="56" t="s">
+        <v>211</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="56"/>
+      <c r="B11" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="56"/>
+      <c r="D11" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="45"/>
+      <c r="F11" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="56"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="56"/>
+      <c r="B13" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="56"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" s="45"/>
+      <c r="F14" s="61" t="s">
+        <v>214</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="56"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="45"/>
+      <c r="F15" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="G15" s="45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="56"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56" t="s">
+        <v>217</v>
+      </c>
+      <c r="D16" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="45"/>
+      <c r="F16" s="56" t="s">
+        <v>205</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="56"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="E17" s="45"/>
+      <c r="F17" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="G17" s="45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="99" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="100"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="101"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="97" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="98"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="45"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="56"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="45"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="99" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="98"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="58"/>
+      <c r="B24" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="59"/>
+      <c r="D24" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="45"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="58"/>
+      <c r="B25" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="59"/>
+      <c r="D25" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" s="45"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="58"/>
+      <c r="B26" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="59"/>
+      <c r="D26" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:C7"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -10581,22 +10972,22 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="101"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
       <c r="D7" s="54" t="s">
         <v>66</v>
       </c>
@@ -10766,22 +11157,22 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="97" t="s">
+      <c r="A17" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="99"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="101"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="95" t="s">
+      <c r="A18" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="96"/>
-      <c r="C18" s="96"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
       <c r="D18" s="54" t="s">
         <v>66</v>
       </c>
@@ -10816,22 +11207,22 @@
       <c r="G20" s="45"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="99" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="100"/>
       <c r="D21" s="53"/>
       <c r="E21" s="53"/>
       <c r="F21" s="54"/>
       <c r="G21" s="54"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
       <c r="D22" s="54" t="s">
         <v>66</v>
       </c>
@@ -10904,7 +11295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -10984,22 +11375,22 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="101"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
       <c r="D7" s="54" t="s">
         <v>66</v>
       </c>
@@ -11111,22 +11502,22 @@
       <c r="G16" s="45"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="97" t="s">
+      <c r="A17" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="99"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="101"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="95" t="s">
+      <c r="A18" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="96"/>
-      <c r="C18" s="96"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
       <c r="D18" s="54" t="s">
         <v>66</v>
       </c>
@@ -11161,22 +11552,22 @@
       <c r="G20" s="45"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="99" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="100"/>
       <c r="D21" s="53"/>
       <c r="E21" s="53"/>
       <c r="F21" s="54"/>
       <c r="G21" s="54"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
       <c r="D22" s="54" t="s">
         <v>66</v>
       </c>
@@ -11249,7 +11640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -11329,22 +11720,22 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="101"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
       <c r="D7" s="54" t="s">
         <v>66</v>
       </c>
@@ -11456,22 +11847,22 @@
       <c r="G16" s="45"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="97" t="s">
+      <c r="A17" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="99"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="101"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="95" t="s">
+      <c r="A18" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="96"/>
-      <c r="C18" s="96"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
       <c r="D18" s="54" t="s">
         <v>66</v>
       </c>
@@ -11506,22 +11897,22 @@
       <c r="G20" s="45"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="99" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="100"/>
       <c r="D21" s="53"/>
       <c r="E21" s="53"/>
       <c r="F21" s="54"/>
       <c r="G21" s="54"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
       <c r="D22" s="54" t="s">
         <v>66</v>
       </c>
@@ -11594,7 +11985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -11674,22 +12065,22 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="101"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
       <c r="D7" s="54" t="s">
         <v>66</v>
       </c>
@@ -11773,22 +12164,22 @@
       <c r="G12" s="45"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="97" t="s">
+      <c r="A13" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="99"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="101"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="96"/>
-      <c r="C14" s="96"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
       <c r="D14" s="54" t="s">
         <v>66</v>
       </c>
@@ -11898,22 +12289,22 @@
       <c r="G21" s="45"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="97" t="s">
+      <c r="A22" s="99" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="98"/>
-      <c r="C22" s="98"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
       <c r="D22" s="53"/>
       <c r="E22" s="53"/>
       <c r="F22" s="54"/>
       <c r="G22" s="54"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="95" t="s">
+      <c r="A23" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="96"/>
-      <c r="C23" s="96"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="98"/>
       <c r="D23" s="54" t="s">
         <v>66</v>
       </c>
@@ -11986,7 +12377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -12066,22 +12457,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="10" t="s">
         <v>66</v>
       </c>
@@ -12251,22 +12642,22 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="94"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="96"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="10" t="s">
         <v>66</v>
       </c>
@@ -12301,22 +12692,22 @@
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="84" t="s">
+      <c r="A22" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="10" t="s">
         <v>66</v>
       </c>
@@ -12389,7 +12780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
@@ -12469,22 +12860,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="10" t="s">
         <v>66</v>
       </c>
@@ -12578,22 +12969,22 @@
       <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="92" t="s">
+      <c r="A15" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="94"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="96"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="84" t="s">
+      <c r="A16" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="85"/>
-      <c r="C16" s="85"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
       <c r="D16" s="10" t="s">
         <v>66</v>
       </c>
@@ -12628,22 +13019,22 @@
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="92" t="s">
+      <c r="A19" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="95"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="84" t="s">
+      <c r="A20" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
       <c r="D20" s="10" t="s">
         <v>66</v>
       </c>
@@ -12716,7 +13107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -12796,22 +13187,22 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
       <c r="D7" s="54" t="s">
         <v>66</v>
       </c>
@@ -12886,22 +13277,22 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="101" t="s">
+      <c r="A13" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
       <c r="D13" s="54" t="s">
         <v>66</v>
       </c>
@@ -12981,22 +13372,22 @@
       <c r="G20" s="45"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="102" t="s">
+      <c r="A21" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="102"/>
-      <c r="C21" s="102"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="104"/>
       <c r="D21" s="54"/>
       <c r="E21" s="54"/>
       <c r="F21" s="54"/>
       <c r="G21" s="54"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="101" t="s">
+      <c r="A22" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="103"/>
       <c r="D22" s="54" t="s">
         <v>66</v>
       </c>
@@ -13069,7 +13460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
@@ -13151,22 +13542,22 @@
       <c r="G5" s="75"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="107"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="109"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
       <c r="D7" s="69" t="s">
         <v>66</v>
       </c>
@@ -13235,22 +13626,22 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="105" t="s">
+      <c r="A12" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="106"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="107"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="109"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="103" t="s">
+      <c r="A13" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="104"/>
-      <c r="C13" s="104"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="106"/>
       <c r="D13" s="69" t="s">
         <v>66</v>
       </c>
@@ -13477,22 +13868,22 @@
       <c r="H27" s="66"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="105" t="s">
+      <c r="A28" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="106"/>
-      <c r="C28" s="106"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="108"/>
       <c r="D28" s="71"/>
       <c r="E28" s="71"/>
       <c r="F28" s="69"/>
       <c r="G28" s="69"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="105" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="104"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="69" t="s">
         <v>66</v>
       </c>
@@ -13565,7 +13956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -13645,22 +14036,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="10" t="s">
         <v>66</v>
       </c>
@@ -13772,22 +14163,22 @@
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="94"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="96"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="10" t="s">
         <v>66</v>
       </c>
@@ -13822,22 +14213,22 @@
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="84" t="s">
+      <c r="A22" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="10" t="s">
         <v>66</v>
       </c>
@@ -13903,359 +14294,6 @@
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A21:C21"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="16.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.125" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="92" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="84" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="92" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="94"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="84" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="12"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="12"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="92" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="84" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="G25" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A13:C13"/>
     <mergeCell ref="A21:C21"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -14343,22 +14381,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="10" t="s">
         <v>66</v>
       </c>
@@ -14395,10 +14433,10 @@
         <v>71</v>
       </c>
       <c r="E9" s="13"/>
-      <c r="F9" s="86" t="s">
+      <c r="F9" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="89" t="s">
+      <c r="G9" s="91" t="s">
         <v>73</v>
       </c>
     </row>
@@ -14412,8 +14450,8 @@
         <v>71</v>
       </c>
       <c r="E10" s="13"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="90"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="92"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
@@ -14425,8 +14463,8 @@
         <v>71</v>
       </c>
       <c r="E11" s="13"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="91"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="93"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
@@ -14490,22 +14528,22 @@
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="94"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="96"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="10" t="s">
         <v>66</v>
       </c>
@@ -14521,7 +14559,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="44" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -14533,22 +14571,22 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="12"/>
       <c r="B20" s="44" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="45" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="56" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="12"/>
       <c r="B21" s="44" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="13" t="s">
@@ -14556,14 +14594,14 @@
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="56" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="12"/>
       <c r="B22" s="44" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="13" t="s">
@@ -14571,14 +14609,14 @@
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="56" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G22" s="13"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="12"/>
       <c r="B23" s="44" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="13" t="s">
@@ -14586,14 +14624,14 @@
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="56" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="12"/>
       <c r="B24" s="44" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="13" t="s">
@@ -14601,14 +14639,14 @@
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="56" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="12"/>
       <c r="B25" s="44" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="13" t="s">
@@ -14616,7 +14654,7 @@
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="56" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G25" s="13"/>
     </row>
@@ -14631,7 +14669,7 @@
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="56" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G26" s="13"/>
     </row>
@@ -14646,7 +14684,7 @@
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="56" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G27" s="13"/>
     </row>
@@ -14661,14 +14699,14 @@
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="56" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="12"/>
       <c r="B29" s="44" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="13" t="s">
@@ -14676,14 +14714,14 @@
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="56" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="12"/>
       <c r="B30" s="56" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="13" t="s">
@@ -14691,14 +14729,14 @@
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="56" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G30" s="13"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="12"/>
       <c r="B31" s="56" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="13" t="s">
@@ -14706,7 +14744,7 @@
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="56" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G31" s="13"/>
     </row>
@@ -14720,22 +14758,22 @@
       <c r="G32" s="13"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="92" t="s">
+      <c r="A33" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="93"/>
-      <c r="C33" s="93"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="95"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="84" t="s">
+      <c r="A34" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
       <c r="D34" s="10" t="s">
         <v>66</v>
       </c>
@@ -14811,6 +14849,359 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.125" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="96"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="12"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="12"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="12"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="12"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A21:C21"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
@@ -14884,22 +15275,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="10" t="s">
         <v>66</v>
       </c>
@@ -14995,22 +15386,22 @@
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="94"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="96"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="10" t="s">
         <v>66</v>
       </c>
@@ -15099,22 +15490,22 @@
       <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="92" t="s">
+      <c r="A27" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="84" t="s">
+      <c r="A28" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="87"/>
       <c r="D28" s="10" t="s">
         <v>66</v>
       </c>
@@ -15187,7 +15578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -15261,22 +15652,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="10" t="s">
         <v>66</v>
       </c>
@@ -15372,22 +15763,22 @@
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="94"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="96"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="10" t="s">
         <v>66</v>
       </c>
@@ -15422,22 +15813,22 @@
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="84" t="s">
+      <c r="A22" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="10" t="s">
         <v>66</v>
       </c>
@@ -15510,7 +15901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
@@ -15590,22 +15981,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="10" t="s">
         <v>66</v>
       </c>
@@ -15748,22 +16139,22 @@
       <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="92" t="s">
+      <c r="A18" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="94"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="96"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="84" t="s">
+      <c r="A19" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="85"/>
-      <c r="C19" s="85"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
       <c r="D19" s="10" t="s">
         <v>66</v>
       </c>
@@ -15816,22 +16207,22 @@
       <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="92" t="s">
+      <c r="A24" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="93"/>
-      <c r="C24" s="93"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="85"/>
-      <c r="C25" s="85"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
       <c r="D25" s="10" t="s">
         <v>66</v>
       </c>
@@ -15928,7 +16319,7 @@
         <v>57</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -15941,7 +16332,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
@@ -15954,7 +16345,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
@@ -15985,22 +16376,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="10" t="s">
         <v>66</v>
       </c>
@@ -16026,22 +16417,22 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
       <c r="B9" s="44" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="45" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="56" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
       <c r="B10" s="44" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="13" t="s">
@@ -16049,14 +16440,14 @@
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="56" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
       <c r="B11" s="44" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="13" t="s">
@@ -16064,14 +16455,14 @@
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="56" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
       <c r="B12" s="44" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="13" t="s">
@@ -16079,14 +16470,14 @@
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="56" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
       <c r="B13" s="44" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="13" t="s">
@@ -16094,14 +16485,14 @@
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="56" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="12"/>
       <c r="B14" s="44" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="13" t="s">
@@ -16109,7 +16500,7 @@
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="56" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G14" s="13"/>
     </row>
@@ -16132,22 +16523,22 @@
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="94"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="96"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="10" t="s">
         <v>66</v>
       </c>
@@ -16182,22 +16573,22 @@
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
       <c r="D21" s="49"/>
       <c r="E21" s="49"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="84" t="s">
+      <c r="A22" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="10" t="s">
         <v>66</v>
       </c>
@@ -16258,12 +16649,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16274,7 +16665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -16293,7 +16684,7 @@
         <v>57</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -16306,7 +16697,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
@@ -16319,7 +16710,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
@@ -16350,22 +16741,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="10" t="s">
         <v>66</v>
       </c>
@@ -16391,52 +16782,52 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
       <c r="B9" s="44" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="45" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="56" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
       <c r="B10" s="44" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="45" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="56" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
       <c r="B11" s="44" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="45" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="56" t="s">
+        <v>333</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>335</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -16485,22 +16876,22 @@
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="94"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="96"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="10" t="s">
         <v>66</v>
       </c>
@@ -16535,22 +16926,22 @@
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
       <c r="D21" s="49"/>
       <c r="E21" s="49"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="84" t="s">
+      <c r="A22" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="10" t="s">
         <v>66</v>
       </c>
@@ -16611,12 +17002,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16646,7 +17037,7 @@
         <v>57</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -16659,7 +17050,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
@@ -16672,7 +17063,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
@@ -16703,22 +17094,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="10" t="s">
         <v>66</v>
       </c>
@@ -16744,22 +17135,22 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
       <c r="B9" s="44" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="45" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="56" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
       <c r="B10" s="44" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="13" t="s">
@@ -16767,14 +17158,14 @@
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="56" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
       <c r="B11" s="44" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="13" t="s">
@@ -16782,14 +17173,14 @@
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="56" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
       <c r="B12" s="44" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="13" t="s">
@@ -16797,14 +17188,14 @@
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="56" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
       <c r="B13" s="44" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="13" t="s">
@@ -16812,14 +17203,14 @@
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="56" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="12"/>
       <c r="B14" s="44" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="13" t="s">
@@ -16827,7 +17218,7 @@
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="56" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G14" s="13"/>
     </row>
@@ -16850,22 +17241,22 @@
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="94"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="96"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="10" t="s">
         <v>66</v>
       </c>
@@ -16900,22 +17291,22 @@
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="84" t="s">
+      <c r="A22" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="10" t="s">
         <v>66</v>
       </c>
@@ -17011,7 +17402,7 @@
         <v>57</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -17024,7 +17415,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
@@ -17066,22 +17457,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="10" t="s">
         <v>66</v>
       </c>
@@ -17177,22 +17568,22 @@
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="94"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="96"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="10" t="s">
         <v>66</v>
       </c>
@@ -17227,22 +17618,22 @@
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
       <c r="D21" s="49"/>
       <c r="E21" s="49"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="84" t="s">
+      <c r="A22" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="10" t="s">
         <v>66</v>
       </c>
@@ -17303,12 +17694,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17338,7 +17729,7 @@
         <v>57</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -17351,7 +17742,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
@@ -17364,7 +17755,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
@@ -17395,22 +17786,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="10" t="s">
         <v>66</v>
       </c>
@@ -17506,22 +17897,22 @@
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="94"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="96"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="10" t="s">
         <v>66</v>
       </c>
@@ -17556,22 +17947,22 @@
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="84" t="s">
+      <c r="A22" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="10" t="s">
         <v>66</v>
       </c>
@@ -17648,7 +18039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -17739,26 +18130,26 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="94"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="96"/>
       <c r="J7" s="14" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10" t="s">
         <v>66</v>
@@ -17970,26 +18361,26 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="92" t="s">
+      <c r="A19" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="94"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="96"/>
       <c r="J19" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="84" t="s">
+      <c r="A20" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
       <c r="D20" s="9"/>
       <c r="E20" s="10" t="s">
         <v>66</v>
@@ -18261,11 +18652,11 @@
       <c r="H36" s="14"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="92" t="s">
+      <c r="A37" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="93"/>
-      <c r="C37" s="93"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="95"/>
       <c r="D37" s="8"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
@@ -18273,11 +18664,11 @@
       <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="84" t="s">
+      <c r="A38" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="B38" s="85"/>
-      <c r="C38" s="85"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="87"/>
       <c r="D38" s="9"/>
       <c r="E38" s="10" t="s">
         <v>66</v>

--- a/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
+++ b/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" firstSheet="8" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" firstSheet="9" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="10" r:id="rId1"/>
@@ -27,31 +27,32 @@
     <sheet name="日程撤回" sheetId="13" r:id="rId13"/>
     <sheet name="日程状态修改" sheetId="14" r:id="rId14"/>
     <sheet name="日程接受拒绝" sheetId="34" r:id="rId15"/>
-    <sheet name="提醒时间设置" sheetId="26" r:id="rId16"/>
-    <sheet name="日程更改提醒时间更改" sheetId="39" r:id="rId17"/>
-    <sheet name="参与人列表查询" sheetId="6" r:id="rId18"/>
-    <sheet name="参与人详情查询" sheetId="15" r:id="rId19"/>
-    <sheet name="参与人创建" sheetId="19" r:id="rId20"/>
-    <sheet name="参与人编辑" sheetId="20" r:id="rId21"/>
-    <sheet name="参与人删除" sheetId="21" r:id="rId22"/>
-    <sheet name="参与人退出" sheetId="22" r:id="rId23"/>
-    <sheet name="群成员查询" sheetId="29" r:id="rId24"/>
-    <sheet name="群组编辑" sheetId="23" r:id="rId25"/>
-    <sheet name="群成员退出" sheetId="24" r:id="rId26"/>
-    <sheet name="修改群成员状态" sheetId="33" r:id="rId27"/>
-    <sheet name="根据条件查询参与人" sheetId="35" r:id="rId28"/>
-    <sheet name="群组删除" sheetId="25" r:id="rId29"/>
-    <sheet name="标签查询" sheetId="28" r:id="rId30"/>
-    <sheet name="群组邀请确认" sheetId="30" r:id="rId31"/>
-    <sheet name="日程邀请确认" sheetId="31" r:id="rId32"/>
-    <sheet name="新消息推送" sheetId="32" r:id="rId33"/>
+    <sheet name="提醒时间新增" sheetId="26" r:id="rId16"/>
+    <sheet name="提醒时间更新" sheetId="40" r:id="rId17"/>
+    <sheet name="提醒时间删除" sheetId="41" r:id="rId18"/>
+    <sheet name="参与人列表查询" sheetId="6" r:id="rId19"/>
+    <sheet name="参与人详情查询" sheetId="15" r:id="rId20"/>
+    <sheet name="参与人创建" sheetId="19" r:id="rId21"/>
+    <sheet name="参与人编辑" sheetId="20" r:id="rId22"/>
+    <sheet name="参与人删除" sheetId="21" r:id="rId23"/>
+    <sheet name="参与人退出" sheetId="22" r:id="rId24"/>
+    <sheet name="群成员查询" sheetId="29" r:id="rId25"/>
+    <sheet name="群组编辑" sheetId="23" r:id="rId26"/>
+    <sheet name="群成员退出" sheetId="24" r:id="rId27"/>
+    <sheet name="修改群成员状态" sheetId="33" r:id="rId28"/>
+    <sheet name="根据条件查询参与人" sheetId="35" r:id="rId29"/>
+    <sheet name="群组删除" sheetId="25" r:id="rId30"/>
+    <sheet name="标签查询" sheetId="28" r:id="rId31"/>
+    <sheet name="群组邀请确认" sheetId="30" r:id="rId32"/>
+    <sheet name="日程邀请确认" sheetId="31" r:id="rId33"/>
+    <sheet name="新消息推送" sheetId="32" r:id="rId34"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="347">
   <si>
     <t>序号</t>
   </si>
@@ -1217,23 +1218,6 @@
   </si>
   <si>
     <r>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>schedule/remind</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>u</t>
     </r>
     <r>
@@ -1597,15 +1581,27 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>日程更改提醒时间更改</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>/schedule/update_remind</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>是</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/schedule/remind_add</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/schedule/remind_update</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/schedule/remind_delete</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>remindId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒时间ID</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2080,10 +2076,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2524,7 +2520,7 @@
       <c r="B2" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="80" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="28" t="s">
@@ -3041,7 +3037,7 @@
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D33" s="20"/>
       <c r="E33" s="20"/>
@@ -8367,8 +8363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8412,7 +8408,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
@@ -8484,69 +8480,69 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
       <c r="B9" s="44" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="45" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="44" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G9" s="44" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
       <c r="B10" s="44" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="45" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="44" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G10" s="44" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
       <c r="B11" s="44" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="45" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="44" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G11" s="44" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
       <c r="B12" s="44" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="45" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="G12" s="44" t="s">
         <v>341</v>
-      </c>
-      <c r="G12" s="44" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -8753,10 +8749,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8774,7 +8770,7 @@
         <v>57</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>342</v>
+        <v>287</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -8786,8 +8782,8 @@
       <c r="A2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>94</v>
+      <c r="B2" s="52" t="s">
+        <v>288</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
@@ -8872,76 +8868,84 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
       <c r="B9" s="44" t="s">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="45" t="s">
-        <v>249</v>
+        <v>290</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="44" t="s">
-        <v>251</v>
-      </c>
-      <c r="G9" s="45" t="s">
-        <v>255</v>
+        <v>291</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
       <c r="B10" s="44" t="s">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="45" t="s">
-        <v>249</v>
+        <v>293</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="44" t="s">
-        <v>252</v>
-      </c>
-      <c r="G10" s="45" t="s">
-        <v>255</v>
+        <v>294</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
-      <c r="B11" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="G11" s="45" t="s">
-        <v>255</v>
+      <c r="B11" s="44" t="s">
+        <v>337</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
-      <c r="B12" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="G12" s="13"/>
+      <c r="B12" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
+      <c r="B13" s="12" t="s">
+        <v>345</v>
+      </c>
       <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
+      <c r="D13" s="45" t="s">
+        <v>290</v>
+      </c>
       <c r="E13" s="13"/>
-      <c r="F13" s="18"/>
+      <c r="F13" s="44" t="s">
+        <v>346</v>
+      </c>
       <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -9013,7 +9017,7 @@
       <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="13"/>
@@ -9022,79 +9026,106 @@
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="12"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="86" t="s">
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="87"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="10" t="s">
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E25" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F25" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G25" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="14" t="s">
+      <c r="C26" s="16"/>
+      <c r="D26" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14" t="s">
+      <c r="E26" s="14"/>
+      <c r="F26" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16" t="s">
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="14" t="s">
+      <c r="C27" s="16"/>
+      <c r="D27" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14" t="s">
+      <c r="E27" s="14"/>
+      <c r="F27" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16" t="s">
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="14" t="s">
+      <c r="C28" s="16"/>
+      <c r="D28" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14" t="s">
+      <c r="E28" s="14"/>
+      <c r="F28" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G25" s="13"/>
+      <c r="G28" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -9102,15 +9133,403 @@
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.125" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>344</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="12"/>
+      <c r="B9" s="44" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="12"/>
+      <c r="B10" s="44" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="45" t="s">
+        <v>293</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="12"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="12"/>
+      <c r="B12" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="G13" s="44" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="96"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="12"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="12"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="12"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
@@ -9633,7 +10052,373 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.125" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="91" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="92"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="93"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="96"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="12"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A21:C21"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
@@ -10122,373 +10907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="16.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.125" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="94" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="96"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="86" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="88" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="91" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="92"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="93"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="94" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="96"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="86" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="12"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="94" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="86" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="87"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="G25" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A21:C21"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -10892,7 +11311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -11295,7 +11714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -11640,7 +12059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -11985,7 +12404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -12377,7 +12796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -12780,7 +13199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
@@ -13107,7 +13526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -13460,7 +13879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
@@ -13953,351 +14372,6 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="16.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.125" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="94" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="96"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="86" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="94" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="96"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="86" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="94" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="86" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="87"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="G25" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A21:C21"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -14559,7 +14633,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="44" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -14571,22 +14645,22 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="12"/>
       <c r="B20" s="44" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="45" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="56" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="12"/>
       <c r="B21" s="44" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="13" t="s">
@@ -14594,14 +14668,14 @@
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="56" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="12"/>
       <c r="B22" s="44" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="13" t="s">
@@ -14609,14 +14683,14 @@
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="56" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G22" s="13"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="12"/>
       <c r="B23" s="44" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="13" t="s">
@@ -14624,14 +14698,14 @@
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="56" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="12"/>
       <c r="B24" s="44" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="13" t="s">
@@ -14639,14 +14713,14 @@
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="56" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="12"/>
       <c r="B25" s="44" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="13" t="s">
@@ -14654,7 +14728,7 @@
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="56" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G25" s="13"/>
     </row>
@@ -14669,7 +14743,7 @@
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="56" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G26" s="13"/>
     </row>
@@ -14684,7 +14758,7 @@
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="56" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G27" s="13"/>
     </row>
@@ -14699,14 +14773,14 @@
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="56" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="12"/>
       <c r="B29" s="44" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="13" t="s">
@@ -14714,14 +14788,14 @@
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="56" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="12"/>
       <c r="B30" s="56" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="13" t="s">
@@ -14729,14 +14803,14 @@
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="56" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G30" s="13"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="12"/>
       <c r="B31" s="56" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="13" t="s">
@@ -14744,7 +14818,7 @@
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="56" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G31" s="13"/>
     </row>
@@ -14852,6 +14926,351 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.125" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="96"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A21:C21"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15201,7 +15620,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
@@ -15578,7 +15997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -15901,7 +16320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
@@ -16319,7 +16738,7 @@
         <v>57</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -16332,7 +16751,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
@@ -16345,7 +16764,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
@@ -16417,22 +16836,22 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
       <c r="B9" s="44" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="45" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="56" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
       <c r="B10" s="44" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="13" t="s">
@@ -16440,14 +16859,14 @@
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="56" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
       <c r="B11" s="44" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="13" t="s">
@@ -16455,14 +16874,14 @@
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="56" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
       <c r="B12" s="44" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="13" t="s">
@@ -16470,14 +16889,14 @@
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="56" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
       <c r="B13" s="44" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="13" t="s">
@@ -16485,14 +16904,14 @@
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="56" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="12"/>
       <c r="B14" s="44" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="13" t="s">
@@ -16500,7 +16919,7 @@
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="56" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G14" s="13"/>
     </row>
@@ -16684,7 +17103,7 @@
         <v>57</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -16697,7 +17116,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
@@ -16710,7 +17129,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
@@ -16782,52 +17201,52 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
       <c r="B9" s="44" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="45" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="56" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
       <c r="B10" s="44" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="45" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="56" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
       <c r="B11" s="44" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="45" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="56" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -17037,7 +17456,7 @@
         <v>57</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -17050,7 +17469,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
@@ -17063,7 +17482,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
@@ -17135,22 +17554,22 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
       <c r="B9" s="44" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="45" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="56" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
       <c r="B10" s="44" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="13" t="s">
@@ -17158,14 +17577,14 @@
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="56" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
       <c r="B11" s="44" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="13" t="s">
@@ -17173,14 +17592,14 @@
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="56" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
       <c r="B12" s="44" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="13" t="s">
@@ -17188,14 +17607,14 @@
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="56" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
       <c r="B13" s="44" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="13" t="s">
@@ -17203,14 +17622,14 @@
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="56" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="12"/>
       <c r="B14" s="44" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="13" t="s">
@@ -17218,7 +17637,7 @@
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="56" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G14" s="13"/>
     </row>
@@ -17402,7 +17821,7 @@
         <v>57</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -17415,7 +17834,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
@@ -17729,7 +18148,7 @@
         <v>57</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -17742,7 +18161,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
@@ -17755,7 +18174,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>

--- a/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
+++ b/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" firstSheet="9" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" firstSheet="9" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="10" r:id="rId1"/>
@@ -27,32 +27,33 @@
     <sheet name="日程撤回" sheetId="13" r:id="rId13"/>
     <sheet name="日程状态修改" sheetId="14" r:id="rId14"/>
     <sheet name="日程接受拒绝" sheetId="34" r:id="rId15"/>
-    <sheet name="提醒时间新增" sheetId="26" r:id="rId16"/>
-    <sheet name="提醒时间更新" sheetId="40" r:id="rId17"/>
-    <sheet name="提醒时间删除" sheetId="41" r:id="rId18"/>
-    <sheet name="参与人列表查询" sheetId="6" r:id="rId19"/>
-    <sheet name="参与人详情查询" sheetId="15" r:id="rId20"/>
-    <sheet name="参与人创建" sheetId="19" r:id="rId21"/>
-    <sheet name="参与人编辑" sheetId="20" r:id="rId22"/>
-    <sheet name="参与人删除" sheetId="21" r:id="rId23"/>
-    <sheet name="参与人退出" sheetId="22" r:id="rId24"/>
-    <sheet name="群成员查询" sheetId="29" r:id="rId25"/>
-    <sheet name="群组编辑" sheetId="23" r:id="rId26"/>
-    <sheet name="群成员退出" sheetId="24" r:id="rId27"/>
-    <sheet name="修改群成员状态" sheetId="33" r:id="rId28"/>
-    <sheet name="根据条件查询参与人" sheetId="35" r:id="rId29"/>
-    <sheet name="群组删除" sheetId="25" r:id="rId30"/>
-    <sheet name="标签查询" sheetId="28" r:id="rId31"/>
-    <sheet name="群组邀请确认" sheetId="30" r:id="rId32"/>
-    <sheet name="日程邀请确认" sheetId="31" r:id="rId33"/>
-    <sheet name="新消息推送" sheetId="32" r:id="rId34"/>
+    <sheet name="提醒时间查询" sheetId="42" r:id="rId16"/>
+    <sheet name="提醒时间新增" sheetId="26" r:id="rId17"/>
+    <sheet name="提醒时间更新" sheetId="40" r:id="rId18"/>
+    <sheet name="提醒时间删除" sheetId="41" r:id="rId19"/>
+    <sheet name="参与人列表查询" sheetId="6" r:id="rId20"/>
+    <sheet name="参与人详情查询" sheetId="15" r:id="rId21"/>
+    <sheet name="参与人创建" sheetId="19" r:id="rId22"/>
+    <sheet name="参与人编辑" sheetId="20" r:id="rId23"/>
+    <sheet name="参与人删除" sheetId="21" r:id="rId24"/>
+    <sheet name="参与人退出" sheetId="22" r:id="rId25"/>
+    <sheet name="群成员查询" sheetId="29" r:id="rId26"/>
+    <sheet name="群组编辑" sheetId="23" r:id="rId27"/>
+    <sheet name="群成员退出" sheetId="24" r:id="rId28"/>
+    <sheet name="修改群成员状态" sheetId="33" r:id="rId29"/>
+    <sheet name="根据条件查询参与人" sheetId="35" r:id="rId30"/>
+    <sheet name="群组删除" sheetId="25" r:id="rId31"/>
+    <sheet name="标签查询" sheetId="28" r:id="rId32"/>
+    <sheet name="群组邀请确认" sheetId="30" r:id="rId33"/>
+    <sheet name="日程邀请确认" sheetId="31" r:id="rId34"/>
+    <sheet name="新消息推送" sheetId="32" r:id="rId35"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="356">
   <si>
     <t>序号</t>
   </si>
@@ -1196,10 +1197,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>提醒时间入库设置</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>Schedule</t>
     </r>
@@ -1565,14 +1562,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>scheduleId</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>remindType</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1602,6 +1591,54 @@
   </si>
   <si>
     <t>提醒时间ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒时间更新</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒时间新增</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒时间删除</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒时间查询</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/schedule/remind_find</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>remindList</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>remindId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>List</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒时间ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒时间列表</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1851,7 +1888,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2077,6 +2114,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2517,7 +2557,7 @@
       <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="83" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="80" t="s">
@@ -2537,7 +2577,7 @@
       <c r="A3" s="27">
         <v>2</v>
       </c>
-      <c r="B3" s="83"/>
+      <c r="B3" s="84"/>
       <c r="C3" s="33" t="s">
         <v>12</v>
       </c>
@@ -2553,7 +2593,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="27"/>
-      <c r="B4" s="83"/>
+      <c r="B4" s="84"/>
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -2569,7 +2609,7 @@
       <c r="A5" s="27">
         <v>3</v>
       </c>
-      <c r="B5" s="83"/>
+      <c r="B5" s="84"/>
       <c r="C5" s="32" t="s">
         <v>16</v>
       </c>
@@ -2587,7 +2627,7 @@
       <c r="A6" s="27">
         <v>4</v>
       </c>
-      <c r="B6" s="83"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="32" t="s">
         <v>18</v>
       </c>
@@ -2603,7 +2643,7 @@
       <c r="A7" s="27">
         <v>5</v>
       </c>
-      <c r="B7" s="83"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="33" t="s">
         <v>19</v>
       </c>
@@ -2617,7 +2657,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="48"/>
-      <c r="B8" s="83"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="33" t="s">
         <v>286</v>
       </c>
@@ -2631,7 +2671,7 @@
       <c r="A9" s="27">
         <v>6</v>
       </c>
-      <c r="B9" s="84"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="33" t="s">
         <v>20</v>
       </c>
@@ -2647,7 +2687,7 @@
       <c r="A10" s="27">
         <v>7</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="86" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="33" t="s">
@@ -2667,7 +2707,7 @@
       <c r="A11" s="27">
         <v>8</v>
       </c>
-      <c r="B11" s="83"/>
+      <c r="B11" s="84"/>
       <c r="C11" s="33" t="s">
         <v>279</v>
       </c>
@@ -2685,7 +2725,7 @@
       <c r="A12" s="27">
         <v>9</v>
       </c>
-      <c r="B12" s="83"/>
+      <c r="B12" s="84"/>
       <c r="C12" s="33" t="s">
         <v>278</v>
       </c>
@@ -2703,7 +2743,7 @@
       <c r="A13" s="27">
         <v>10</v>
       </c>
-      <c r="B13" s="83"/>
+      <c r="B13" s="84"/>
       <c r="C13" s="33" t="s">
         <v>277</v>
       </c>
@@ -2719,7 +2759,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="27"/>
-      <c r="B14" s="83"/>
+      <c r="B14" s="84"/>
       <c r="C14" s="33" t="s">
         <v>281</v>
       </c>
@@ -2735,7 +2775,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="27"/>
-      <c r="B15" s="83"/>
+      <c r="B15" s="84"/>
       <c r="C15" s="33" t="s">
         <v>282</v>
       </c>
@@ -2753,7 +2793,7 @@
       <c r="A16" s="27">
         <v>11</v>
       </c>
-      <c r="B16" s="84"/>
+      <c r="B16" s="85"/>
       <c r="C16" s="32" t="s">
         <v>31</v>
       </c>
@@ -2783,7 +2823,7 @@
       <c r="A18" s="27">
         <v>12</v>
       </c>
-      <c r="B18" s="85" t="s">
+      <c r="B18" s="86" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="33" t="s">
@@ -2803,7 +2843,7 @@
       <c r="A19" s="27">
         <v>13</v>
       </c>
-      <c r="B19" s="83"/>
+      <c r="B19" s="84"/>
       <c r="C19" s="32" t="s">
         <v>37</v>
       </c>
@@ -2821,7 +2861,7 @@
       <c r="A20" s="27">
         <v>14</v>
       </c>
-      <c r="B20" s="83"/>
+      <c r="B20" s="84"/>
       <c r="C20" s="32" t="s">
         <v>39</v>
       </c>
@@ -2839,7 +2879,7 @@
       <c r="A21" s="27">
         <v>15</v>
       </c>
-      <c r="B21" s="83"/>
+      <c r="B21" s="84"/>
       <c r="C21" s="32" t="s">
         <v>42</v>
       </c>
@@ -2855,7 +2895,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="27"/>
-      <c r="B22" s="83"/>
+      <c r="B22" s="84"/>
       <c r="C22" s="32" t="s">
         <v>44</v>
       </c>
@@ -2873,7 +2913,7 @@
       <c r="A23" s="27">
         <v>16</v>
       </c>
-      <c r="B23" s="83"/>
+      <c r="B23" s="84"/>
       <c r="C23" s="32" t="s">
         <v>46</v>
       </c>
@@ -2891,7 +2931,7 @@
       <c r="A24" s="27">
         <v>17</v>
       </c>
-      <c r="B24" s="83"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="32" t="s">
         <v>48</v>
       </c>
@@ -2907,7 +2947,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="39"/>
-      <c r="B25" s="83"/>
+      <c r="B25" s="84"/>
       <c r="C25" s="33" t="s">
         <v>244</v>
       </c>
@@ -2923,7 +2963,7 @@
       <c r="A26" s="27">
         <v>18</v>
       </c>
-      <c r="B26" s="84"/>
+      <c r="B26" s="85"/>
       <c r="C26" s="33" t="s">
         <v>50</v>
       </c>
@@ -2941,7 +2981,7 @@
       <c r="A27" s="27">
         <v>19</v>
       </c>
-      <c r="B27" s="85" t="s">
+      <c r="B27" s="86" t="s">
         <v>52</v>
       </c>
       <c r="C27" s="32" t="s">
@@ -2959,7 +2999,7 @@
       <c r="A28" s="27">
         <v>20</v>
       </c>
-      <c r="B28" s="84"/>
+      <c r="B28" s="85"/>
       <c r="C28" s="32" t="s">
         <v>54</v>
       </c>
@@ -3037,7 +3077,7 @@
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D33" s="20"/>
       <c r="E33" s="20"/>
@@ -6036,20 +6076,20 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="96"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="97"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="87"/>
+      <c r="B8" s="88"/>
       <c r="C8" s="10" t="s">
         <v>66</v>
       </c>
@@ -6248,20 +6288,20 @@
       <c r="F21" s="21"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="94" t="s">
+      <c r="A22" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="96"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="97"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="86" t="s">
+      <c r="A23" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="87"/>
+      <c r="B23" s="88"/>
       <c r="C23" s="10" t="s">
         <v>66</v>
       </c>
@@ -6300,20 +6340,20 @@
       <c r="F26" s="14"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="94" t="s">
+      <c r="A27" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="95"/>
+      <c r="B27" s="96"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="86" t="s">
+      <c r="A28" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="87"/>
+      <c r="B28" s="88"/>
       <c r="C28" s="10" t="s">
         <v>66</v>
       </c>
@@ -6388,7 +6428,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:E15"/>
+      <selection activeCell="B12" sqref="B12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6464,20 +6504,20 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="96"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="97"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="87"/>
+      <c r="B8" s="88"/>
       <c r="C8" s="10" t="s">
         <v>66</v>
       </c>
@@ -6698,20 +6738,20 @@
       <c r="F23" s="21"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="94" t="s">
+      <c r="A24" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="95"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="96"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="97"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="86" t="s">
+      <c r="A25" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="87"/>
+      <c r="B25" s="88"/>
       <c r="C25" s="10" t="s">
         <v>66</v>
       </c>
@@ -6758,20 +6798,20 @@
       <c r="F29" s="14"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="94" t="s">
+      <c r="A30" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="95"/>
+      <c r="B30" s="96"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="86" t="s">
+      <c r="A31" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="87"/>
+      <c r="B31" s="88"/>
       <c r="C31" s="10" t="s">
         <v>66</v>
       </c>
@@ -6922,20 +6962,20 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="96"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="97"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="87"/>
+      <c r="B8" s="88"/>
       <c r="C8" s="10" t="s">
         <v>66</v>
       </c>
@@ -7024,20 +7064,20 @@
       <c r="F15" s="21"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="94" t="s">
+      <c r="A16" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="95"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="96"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="97"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="87"/>
+      <c r="B17" s="88"/>
       <c r="C17" s="10" t="s">
         <v>66</v>
       </c>
@@ -7116,20 +7156,20 @@
       <c r="F25" s="14"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="94" t="s">
+      <c r="A26" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="95"/>
+      <c r="B26" s="96"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="86" t="s">
+      <c r="A27" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="87"/>
+      <c r="B27" s="88"/>
       <c r="C27" s="10" t="s">
         <v>66</v>
       </c>
@@ -7204,7 +7244,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B12" sqref="A12:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7280,20 +7320,20 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="96"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="97"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="87"/>
+      <c r="B8" s="88"/>
       <c r="C8" s="10" t="s">
         <v>66</v>
       </c>
@@ -7426,20 +7466,20 @@
       <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="94" t="s">
+      <c r="A18" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="95"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="96"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="97"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="86" t="s">
+      <c r="A19" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="87"/>
+      <c r="B19" s="88"/>
       <c r="C19" s="10" t="s">
         <v>66</v>
       </c>
@@ -7518,20 +7558,20 @@
       <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="94" t="s">
+      <c r="A28" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="95"/>
+      <c r="B28" s="96"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="86" t="s">
+      <c r="A29" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="87"/>
+      <c r="B29" s="88"/>
       <c r="C29" s="10" t="s">
         <v>66</v>
       </c>
@@ -7683,20 +7723,20 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="96"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="97"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="87"/>
+      <c r="B8" s="88"/>
       <c r="C8" s="10" t="s">
         <v>66</v>
       </c>
@@ -7829,20 +7869,20 @@
       <c r="F18" s="21"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="94" t="s">
+      <c r="A19" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="95"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="96"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="97"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="86" t="s">
+      <c r="A20" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="87"/>
+      <c r="B20" s="88"/>
       <c r="C20" s="10" t="s">
         <v>66</v>
       </c>
@@ -7921,20 +7961,20 @@
       <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="94" t="s">
+      <c r="A29" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="95"/>
+      <c r="B29" s="96"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="86" t="s">
+      <c r="A30" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="87"/>
+      <c r="B30" s="88"/>
       <c r="C30" s="10" t="s">
         <v>66</v>
       </c>
@@ -8085,22 +8125,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="97"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
       <c r="D7" s="10" t="s">
         <v>66</v>
       </c>
@@ -8220,22 +8260,22 @@
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="96"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="97"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="86" t="s">
+      <c r="A18" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
       <c r="D18" s="10" t="s">
         <v>66</v>
       </c>
@@ -8270,22 +8310,22 @@
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="86" t="s">
+      <c r="A22" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="87"/>
-      <c r="C22" s="87"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="88"/>
       <c r="D22" s="10" t="s">
         <v>66</v>
       </c>
@@ -8361,10 +8401,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8382,7 +8422,7 @@
         <v>57</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>287</v>
+        <v>347</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -8395,7 +8435,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
@@ -8408,7 +8448,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
@@ -8439,22 +8479,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="97"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
       <c r="D7" s="10" t="s">
         <v>66</v>
       </c>
@@ -8480,141 +8520,143 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
       <c r="B9" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="45" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="44" t="s">
-        <v>291</v>
-      </c>
-      <c r="G9" s="44" t="s">
-        <v>341</v>
+        <v>290</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
-      <c r="B10" s="44" t="s">
-        <v>292</v>
-      </c>
-      <c r="C10" s="12"/>
+      <c r="B10" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="14"/>
       <c r="D10" s="45" t="s">
-        <v>293</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="44" t="s">
-        <v>294</v>
-      </c>
-      <c r="G10" s="44" t="s">
-        <v>341</v>
+        <v>289</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
-      <c r="B11" s="44" t="s">
-        <v>337</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="44" t="s">
-        <v>338</v>
-      </c>
-      <c r="G11" s="44" t="s">
-        <v>341</v>
-      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
-      <c r="B12" s="44" t="s">
-        <v>339</v>
-      </c>
+      <c r="B12" s="12"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="45" t="s">
-        <v>290</v>
-      </c>
+      <c r="D12" s="13"/>
       <c r="E12" s="13"/>
-      <c r="F12" s="44" t="s">
-        <v>340</v>
-      </c>
-      <c r="G12" s="44" t="s">
-        <v>341</v>
-      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="13"/>
+      <c r="A13" s="95" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="97"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
+      <c r="A14" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
+      <c r="A15" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
-      <c r="F15" s="12"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
+      <c r="B16" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="13" t="s">
+        <v>352</v>
+      </c>
       <c r="E16" s="13"/>
-      <c r="F16" s="12"/>
+      <c r="F16" s="14" t="s">
+        <v>355</v>
+      </c>
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="94" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="96"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="86" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>68</v>
-      </c>
+      <c r="A18" s="12"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="12" t="s">
-        <v>93</v>
-      </c>
+      <c r="A19" s="12"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="13"/>
@@ -8641,7 +8683,7 @@
       <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="12"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="13"/>
@@ -8650,63 +8692,69 @@
       <c r="G22" s="13"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="13"/>
+      <c r="A23" s="95" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="96"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="94" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="95"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+      <c r="A24" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="86" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="87"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>68</v>
-      </c>
+      <c r="A25" s="15"/>
+      <c r="B25" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="14" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="14" t="s">
@@ -8714,36 +8762,21 @@
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G27" s="13"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="G28" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A25:C25"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A24:C24"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8751,8 +8784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8770,7 +8803,7 @@
         <v>57</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>287</v>
+        <v>345</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -8783,7 +8816,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
@@ -8796,7 +8829,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
@@ -8827,22 +8860,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="97"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
       <c r="D7" s="10" t="s">
         <v>66</v>
       </c>
@@ -8868,84 +8901,78 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
       <c r="B9" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="45" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="44" t="s">
-        <v>291</v>
-      </c>
-      <c r="G9" s="44" t="s">
-        <v>341</v>
+        <v>290</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
       <c r="B10" s="44" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="45" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="44" t="s">
-        <v>294</v>
-      </c>
-      <c r="G10" s="44" t="s">
-        <v>341</v>
+        <v>293</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
-      <c r="B11" s="44" t="s">
-        <v>337</v>
+      <c r="B11" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="45" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="44" t="s">
+        <v>343</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>338</v>
-      </c>
-      <c r="G11" s="44" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
       <c r="B12" s="44" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="45" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="44" t="s">
-        <v>340</v>
-      </c>
-      <c r="G12" s="44" t="s">
-        <v>341</v>
+        <v>337</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
-      <c r="B13" s="12" t="s">
-        <v>345</v>
-      </c>
+      <c r="B13" s="12"/>
       <c r="C13" s="12"/>
-      <c r="D13" s="45" t="s">
-        <v>290</v>
-      </c>
+      <c r="D13" s="13"/>
       <c r="E13" s="13"/>
-      <c r="F13" s="44" t="s">
-        <v>346</v>
-      </c>
+      <c r="F13" s="18"/>
       <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -8976,22 +9003,22 @@
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="96"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="97"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="86" t="s">
+      <c r="A18" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
       <c r="D18" s="10" t="s">
         <v>66</v>
       </c>
@@ -9053,22 +9080,22 @@
       <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="94" t="s">
+      <c r="A24" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="95"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="86" t="s">
+      <c r="A25" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="87"/>
-      <c r="C25" s="87"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
       <c r="D25" s="10" t="s">
         <v>66</v>
       </c>
@@ -9129,15 +9156,15 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A25:C25"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -9146,7 +9173,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B12" sqref="B12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9164,7 +9191,7 @@
         <v>57</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>287</v>
+        <v>344</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -9177,7 +9204,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
@@ -9190,7 +9217,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
@@ -9221,22 +9248,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="97"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
       <c r="D7" s="10" t="s">
         <v>66</v>
       </c>
@@ -9262,79 +9289,79 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
       <c r="B9" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="45" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="44" t="s">
-        <v>291</v>
-      </c>
-      <c r="G9" s="44" t="s">
-        <v>341</v>
+        <v>290</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
       <c r="B10" s="44" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="45" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="44" t="s">
-        <v>294</v>
-      </c>
-      <c r="G10" s="44" t="s">
-        <v>341</v>
+        <v>293</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
-      <c r="B11" s="44"/>
+      <c r="B11" s="44" t="s">
+        <v>336</v>
+      </c>
       <c r="C11" s="12"/>
-      <c r="D11" s="45"/>
+      <c r="D11" s="45" t="s">
+        <v>289</v>
+      </c>
       <c r="E11" s="13"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
+      <c r="F11" s="44" t="s">
+        <v>337</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
-      <c r="B12" s="44" t="s">
-        <v>339</v>
+      <c r="B12" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="45" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="44" t="s">
-        <v>340</v>
-      </c>
-      <c r="G12" s="44" t="s">
-        <v>341</v>
+        <v>343</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
-      <c r="B13" s="12" t="s">
-        <v>345</v>
-      </c>
+      <c r="B13" s="12"/>
       <c r="C13" s="12"/>
-      <c r="D13" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="44" t="s">
-        <v>346</v>
-      </c>
-      <c r="G13" s="44" t="s">
-        <v>341</v>
-      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="12"/>
@@ -9364,22 +9391,22 @@
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="96"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="97"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="86" t="s">
+      <c r="A18" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
       <c r="D18" s="10" t="s">
         <v>66</v>
       </c>
@@ -9441,22 +9468,22 @@
       <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="94" t="s">
+      <c r="A24" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="95"/>
-      <c r="C24" s="95"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="96"/>
       <c r="D24" s="81"/>
       <c r="E24" s="81"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="86" t="s">
+      <c r="A25" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="87"/>
-      <c r="C25" s="87"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
       <c r="D25" s="10" t="s">
         <v>66</v>
       </c>
@@ -9517,12 +9544,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A25:C25"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9530,6 +9557,744 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.125" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>341</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="97"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="12"/>
+      <c r="B9" s="44" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="44" t="s">
+        <v>290</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="44" t="s">
+        <v>343</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="12"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="12"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="95" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="97"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="12"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="12"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="12"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="95" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="96"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A24:C24"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.125" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="97"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="89" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="92" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="93"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="94"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="95" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="97"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="12"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="95" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="88"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A21:C21"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
@@ -9623,23 +10388,23 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="96"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="97"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
       <c r="D8" s="46"/>
       <c r="E8" s="10" t="s">
         <v>66</v>
@@ -9715,23 +10480,23 @@
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="96"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="97"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="87"/>
-      <c r="C15" s="87"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
       <c r="D15" s="46"/>
       <c r="E15" s="10" t="s">
         <v>66</v>
@@ -9959,11 +10724,11 @@
       <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="94" t="s">
+      <c r="A30" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="95"/>
-      <c r="C30" s="95"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="96"/>
       <c r="D30" s="47"/>
       <c r="E30" s="46"/>
       <c r="F30" s="46"/>
@@ -9971,11 +10736,11 @@
       <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="86" t="s">
+      <c r="A31" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="88"/>
       <c r="D31" s="46"/>
       <c r="E31" s="10" t="s">
         <v>66</v>
@@ -10052,373 +10817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="16.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.125" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="94" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="96"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="86" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="88" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="91" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="92"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="93"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="94" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="96"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="86" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="12"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="94" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="86" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="87"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="G25" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A21:C21"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
@@ -10512,23 +10911,23 @@
       <c r="H6" s="41"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="101"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="102"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
       <c r="D8" s="53"/>
       <c r="E8" s="54" t="s">
         <v>66</v>
@@ -10592,23 +10991,23 @@
       <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="99" t="s">
+      <c r="A13" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="101"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="102"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54" t="s">
         <v>66</v>
@@ -10814,11 +11213,11 @@
       <c r="H27" s="56"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="99" t="s">
+      <c r="A28" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="100"/>
-      <c r="C28" s="100"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="101"/>
       <c r="D28" s="57"/>
       <c r="E28" s="53"/>
       <c r="F28" s="53"/>
@@ -10826,11 +11225,11 @@
       <c r="H28" s="54"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="97" t="s">
+      <c r="A29" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="98"/>
-      <c r="C29" s="98"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="53"/>
       <c r="E29" s="54" t="s">
         <v>66</v>
@@ -10907,7 +11306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -10985,22 +11384,22 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="101"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="102"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="102"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="103"/>
       <c r="D7" s="54" t="s">
         <v>66</v>
       </c>
@@ -11173,22 +11572,22 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="99" t="s">
+      <c r="A18" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="100"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="101"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="102"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="97" t="s">
+      <c r="A19" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="98"/>
-      <c r="C19" s="102"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="103"/>
       <c r="D19" s="54" t="s">
         <v>66</v>
       </c>
@@ -11223,22 +11622,22 @@
       <c r="G21" s="45"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="99" t="s">
+      <c r="A22" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
       <c r="D22" s="53"/>
       <c r="E22" s="53"/>
       <c r="F22" s="54"/>
       <c r="G22" s="54"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="97" t="s">
+      <c r="A23" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="98"/>
-      <c r="C23" s="102"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="103"/>
       <c r="D23" s="54" t="s">
         <v>66</v>
       </c>
@@ -11311,7 +11710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -11391,22 +11790,22 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="101"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="102"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
       <c r="D7" s="54" t="s">
         <v>66</v>
       </c>
@@ -11576,22 +11975,22 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="101"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="102"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="97" t="s">
+      <c r="A18" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="99"/>
       <c r="D18" s="54" t="s">
         <v>66</v>
       </c>
@@ -11626,22 +12025,22 @@
       <c r="G20" s="45"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="99" t="s">
+      <c r="A21" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
       <c r="D21" s="53"/>
       <c r="E21" s="53"/>
       <c r="F21" s="54"/>
       <c r="G21" s="54"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="97" t="s">
+      <c r="A22" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="98"/>
-      <c r="C22" s="98"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="99"/>
       <c r="D22" s="54" t="s">
         <v>66</v>
       </c>
@@ -11714,7 +12113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -11794,22 +12193,22 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="101"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="102"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
       <c r="D7" s="54" t="s">
         <v>66</v>
       </c>
@@ -11921,22 +12320,22 @@
       <c r="G16" s="45"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="101"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="102"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="97" t="s">
+      <c r="A18" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="99"/>
       <c r="D18" s="54" t="s">
         <v>66</v>
       </c>
@@ -11971,22 +12370,22 @@
       <c r="G20" s="45"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="99" t="s">
+      <c r="A21" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
       <c r="D21" s="53"/>
       <c r="E21" s="53"/>
       <c r="F21" s="54"/>
       <c r="G21" s="54"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="97" t="s">
+      <c r="A22" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="98"/>
-      <c r="C22" s="98"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="99"/>
       <c r="D22" s="54" t="s">
         <v>66</v>
       </c>
@@ -12059,7 +12458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -12139,22 +12538,22 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="101"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="102"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
       <c r="D7" s="54" t="s">
         <v>66</v>
       </c>
@@ -12266,22 +12665,22 @@
       <c r="G16" s="45"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="101"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="102"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="97" t="s">
+      <c r="A18" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="99"/>
       <c r="D18" s="54" t="s">
         <v>66</v>
       </c>
@@ -12316,22 +12715,22 @@
       <c r="G20" s="45"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="99" t="s">
+      <c r="A21" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
       <c r="D21" s="53"/>
       <c r="E21" s="53"/>
       <c r="F21" s="54"/>
       <c r="G21" s="54"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="97" t="s">
+      <c r="A22" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="98"/>
-      <c r="C22" s="98"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="99"/>
       <c r="D22" s="54" t="s">
         <v>66</v>
       </c>
@@ -12404,7 +12803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -12484,22 +12883,22 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="101"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="102"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
       <c r="D7" s="54" t="s">
         <v>66</v>
       </c>
@@ -12583,22 +12982,22 @@
       <c r="G12" s="45"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="99" t="s">
+      <c r="A13" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="101"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="102"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
       <c r="D14" s="54" t="s">
         <v>66</v>
       </c>
@@ -12708,22 +13107,22 @@
       <c r="G21" s="45"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="99" t="s">
+      <c r="A22" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
       <c r="D22" s="53"/>
       <c r="E22" s="53"/>
       <c r="F22" s="54"/>
       <c r="G22" s="54"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="97" t="s">
+      <c r="A23" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="98"/>
-      <c r="C23" s="98"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="99"/>
       <c r="D23" s="54" t="s">
         <v>66</v>
       </c>
@@ -12796,7 +13195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -12876,22 +13275,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="97"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
       <c r="D7" s="10" t="s">
         <v>66</v>
       </c>
@@ -13061,22 +13460,22 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="96"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="97"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="86" t="s">
+      <c r="A18" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
       <c r="D18" s="10" t="s">
         <v>66</v>
       </c>
@@ -13111,22 +13510,22 @@
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="86" t="s">
+      <c r="A22" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="87"/>
-      <c r="C22" s="87"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="88"/>
       <c r="D22" s="10" t="s">
         <v>66</v>
       </c>
@@ -13199,7 +13598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
@@ -13279,22 +13678,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="97"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
       <c r="D7" s="10" t="s">
         <v>66</v>
       </c>
@@ -13388,22 +13787,22 @@
       <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="94" t="s">
+      <c r="A15" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="96"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="97"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
       <c r="D16" s="10" t="s">
         <v>66</v>
       </c>
@@ -13438,22 +13837,22 @@
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="94" t="s">
+      <c r="A19" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="95"/>
-      <c r="C19" s="95"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="86" t="s">
+      <c r="A20" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="87"/>
-      <c r="C20" s="87"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
       <c r="D20" s="10" t="s">
         <v>66</v>
       </c>
@@ -13526,7 +13925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -13606,22 +14005,22 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
       <c r="D7" s="54" t="s">
         <v>66</v>
       </c>
@@ -13696,22 +14095,22 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="104" t="s">
+      <c r="A12" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="104"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="103" t="s">
+      <c r="A13" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="104"/>
       <c r="D13" s="54" t="s">
         <v>66</v>
       </c>
@@ -13791,22 +14190,22 @@
       <c r="G20" s="45"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="104" t="s">
+      <c r="A21" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="104"/>
-      <c r="C21" s="104"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="105"/>
       <c r="D21" s="54"/>
       <c r="E21" s="54"/>
       <c r="F21" s="54"/>
       <c r="G21" s="54"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="103" t="s">
+      <c r="A22" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="103"/>
-      <c r="C22" s="103"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="104"/>
       <c r="D22" s="54" t="s">
         <v>66</v>
       </c>
@@ -13875,502 +14274,6 @@
     <mergeCell ref="A21:C21"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="12" style="64" customWidth="1"/>
-    <col min="2" max="2" width="25.125" style="64" customWidth="1"/>
-    <col min="3" max="3" width="31.375" style="64" customWidth="1"/>
-    <col min="4" max="4" width="44.375" style="64" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="64" customWidth="1"/>
-    <col min="6" max="6" width="35.5" style="64" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="64" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="64"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="79" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="76" t="s">
-        <v>276</v>
-      </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="75"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="76" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="75"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="77" t="s">
-        <v>275</v>
-      </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="75"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="76" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="75"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="76"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="75"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="107" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="109"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="105" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="65"/>
-    </row>
-    <row r="9" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="72"/>
-      <c r="B9" s="72" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="E9" s="65"/>
-      <c r="F9" s="72" t="s">
-        <v>262</v>
-      </c>
-      <c r="G9" s="65" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="72"/>
-      <c r="B10" s="74" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="E10" s="65"/>
-      <c r="F10" s="64" t="s">
-        <v>274</v>
-      </c>
-      <c r="G10" s="65" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="72"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="65" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="107" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="109"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="105" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="72"/>
-      <c r="B15" s="66" t="s">
-        <v>182</v>
-      </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="F15" s="73"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="72"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" s="73" t="s">
-        <v>195</v>
-      </c>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="72"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="73" t="s">
-        <v>259</v>
-      </c>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="72"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66" t="s">
-        <v>183</v>
-      </c>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="73" t="s">
-        <v>260</v>
-      </c>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="72"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="73" t="s">
-        <v>261</v>
-      </c>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="72"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66" t="s">
-        <v>185</v>
-      </c>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66" t="s">
-        <v>186</v>
-      </c>
-      <c r="F20" s="73" t="s">
-        <v>212</v>
-      </c>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="72"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="73" t="s">
-        <v>262</v>
-      </c>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="72"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="73" t="s">
-        <v>229</v>
-      </c>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="72"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66" t="s">
-        <v>187</v>
-      </c>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66" t="s">
-        <v>188</v>
-      </c>
-      <c r="F23" s="73" t="s">
-        <v>263</v>
-      </c>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="72"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="E24" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="73" t="s">
-        <v>264</v>
-      </c>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="72"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="73" t="s">
-        <v>265</v>
-      </c>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="72"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66" t="s">
-        <v>189</v>
-      </c>
-      <c r="E26" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" s="66" t="s">
-        <v>205</v>
-      </c>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="66"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="107" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="108"/>
-      <c r="C28" s="108"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="105" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="106"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="F29" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="68"/>
-      <c r="B30" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="67"/>
-      <c r="D30" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="G30" s="65"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="68"/>
-      <c r="B31" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="67"/>
-      <c r="D31" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="G31" s="65"/>
-    </row>
-    <row r="32" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="68"/>
-      <c r="B32" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="67"/>
-      <c r="D32" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="G32" s="65"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A28:C28"/>
-  </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
@@ -14455,22 +14358,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="97"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
       <c r="D7" s="10" t="s">
         <v>66</v>
       </c>
@@ -14507,10 +14410,10 @@
         <v>71</v>
       </c>
       <c r="E9" s="13"/>
-      <c r="F9" s="88" t="s">
+      <c r="F9" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="91" t="s">
+      <c r="G9" s="92" t="s">
         <v>73</v>
       </c>
     </row>
@@ -14524,8 +14427,8 @@
         <v>71</v>
       </c>
       <c r="E10" s="13"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="92"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="93"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
@@ -14537,8 +14440,8 @@
         <v>71</v>
       </c>
       <c r="E11" s="13"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="93"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="94"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
@@ -14602,22 +14505,22 @@
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="96"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="97"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="86" t="s">
+      <c r="A18" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
       <c r="D18" s="10" t="s">
         <v>66</v>
       </c>
@@ -14633,7 +14536,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="44" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -14645,22 +14548,22 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="12"/>
       <c r="B20" s="44" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="45" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="56" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="12"/>
       <c r="B21" s="44" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="13" t="s">
@@ -14668,14 +14571,14 @@
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="56" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="12"/>
       <c r="B22" s="44" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="13" t="s">
@@ -14683,14 +14586,14 @@
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="56" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G22" s="13"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="12"/>
       <c r="B23" s="44" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="13" t="s">
@@ -14698,14 +14601,14 @@
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="56" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="12"/>
       <c r="B24" s="44" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="13" t="s">
@@ -14713,14 +14616,14 @@
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="56" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="12"/>
       <c r="B25" s="44" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="13" t="s">
@@ -14728,7 +14631,7 @@
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="56" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G25" s="13"/>
     </row>
@@ -14743,7 +14646,7 @@
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="56" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G26" s="13"/>
     </row>
@@ -14758,7 +14661,7 @@
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="56" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G27" s="13"/>
     </row>
@@ -14773,14 +14676,14 @@
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="56" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="12"/>
       <c r="B29" s="44" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="13" t="s">
@@ -14788,14 +14691,14 @@
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="56" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="12"/>
       <c r="B30" s="56" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="13" t="s">
@@ -14803,14 +14706,14 @@
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="56" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G30" s="13"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="12"/>
       <c r="B31" s="56" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="13" t="s">
@@ -14818,7 +14721,7 @@
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="56" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G31" s="13"/>
     </row>
@@ -14832,22 +14735,22 @@
       <c r="G32" s="13"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="94" t="s">
+      <c r="A33" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="95"/>
-      <c r="C33" s="95"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="96"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="86" t="s">
+      <c r="A34" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="88"/>
       <c r="D34" s="10" t="s">
         <v>66</v>
       </c>
@@ -14923,6 +14826,502 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12" style="64" customWidth="1"/>
+    <col min="2" max="2" width="25.125" style="64" customWidth="1"/>
+    <col min="3" max="3" width="31.375" style="64" customWidth="1"/>
+    <col min="4" max="4" width="44.375" style="64" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="64" customWidth="1"/>
+    <col min="6" max="6" width="35.5" style="64" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="64" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="64"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" s="76"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="75"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="75"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="77" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="76"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="75"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="76"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="75"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="75"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="108" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="110"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="72"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="65"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="72"/>
+      <c r="B9" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="72"/>
+      <c r="D9" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="E9" s="65"/>
+      <c r="F9" s="72" t="s">
+        <v>262</v>
+      </c>
+      <c r="G9" s="65" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="72"/>
+      <c r="B10" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="72"/>
+      <c r="D10" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" s="65"/>
+      <c r="F10" s="64" t="s">
+        <v>274</v>
+      </c>
+      <c r="G10" s="65" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="72"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="65" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="108" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="109"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="110"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="72"/>
+      <c r="B15" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="73"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="72"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="73" t="s">
+        <v>195</v>
+      </c>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="72"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="73" t="s">
+        <v>259</v>
+      </c>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="72"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="73" t="s">
+        <v>260</v>
+      </c>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="72"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+    </row>
+    <row r="20" spans